--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9547FF0D-C90F-4957-851E-FE958B4AFF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F4FD8F-7C4D-4ADD-B609-7694F7E3D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="248">
   <si>
     <t>Tomos</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Sacerdotisa de la Oscuridad - 2</t>
-  </si>
-  <si>
-    <t>ivrea</t>
   </si>
   <si>
     <t>Goodbye Eri</t>
@@ -1927,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,10 +1970,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K1" s="81" t="s">
         <v>104</v>
@@ -2009,13 +2006,13 @@
         <v>7</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K2" s="73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2045,13 +2042,13 @@
         <v>7</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2081,13 +2078,13 @@
         <v>7</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2117,13 +2114,13 @@
         <v>7</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2153,10 +2150,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K6" s="73" t="s">
         <v>105</v>
@@ -2189,10 +2186,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2222,10 +2219,10 @@
         <v>11</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2255,13 +2252,13 @@
         <v>7</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K9" s="73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2291,13 +2288,13 @@
         <v>7</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2327,10 +2324,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2360,13 +2357,13 @@
         <v>7</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2396,13 +2393,13 @@
         <v>12</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" s="73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2413,7 +2410,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D14" s="48">
         <v>2</v>
@@ -2432,13 +2429,13 @@
         <v>3</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2468,13 +2465,13 @@
         <v>7</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2504,13 +2501,13 @@
         <v>7</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2540,10 +2537,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2573,13 +2570,13 @@
         <v>7</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K18" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2609,13 +2606,13 @@
         <v>11</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2645,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J20" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2681,13 +2678,13 @@
         <v>7</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K21" s="73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2717,13 +2714,13 @@
         <v>7</v>
       </c>
       <c r="I22" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="J22" s="51" t="s">
-        <v>148</v>
-      </c>
       <c r="K22" s="73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2753,10 +2750,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2767,7 +2764,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D24" s="48">
         <v>4</v>
@@ -2786,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2800,10 +2797,10 @@
         <v>38</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D25" s="48">
         <v>1</v>
@@ -2822,13 +2819,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" s="73" t="s">
         <v>244</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2836,10 +2833,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D26" s="48">
         <v>1</v>
@@ -2858,13 +2855,13 @@
         <v>3</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K26" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2894,13 +2891,13 @@
         <v>28</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K27" s="72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2911,7 +2908,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="35">
         <v>2</v>
@@ -2930,10 +2927,10 @@
         <v>2</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2944,7 +2941,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="48">
         <v>2</v>
@@ -2963,13 +2960,13 @@
         <v>2</v>
       </c>
       <c r="I29" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="K29" s="73" t="s">
         <v>211</v>
-      </c>
-      <c r="K29" s="73" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2996,13 +2993,13 @@
         <v>126500</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3032,10 +3029,10 @@
         <v>53</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3065,13 +3062,13 @@
         <v>8</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K32" s="73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3101,13 +3098,13 @@
         <v>2</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K33" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3137,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" s="73" t="s">
         <v>106</v>
@@ -3173,10 +3170,10 @@
         <v>13</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J35" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3206,10 +3203,10 @@
         <v>8</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J36" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3239,10 +3236,10 @@
         <v>4</v>
       </c>
       <c r="I37" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37" s="51" t="s">
         <v>158</v>
-      </c>
-      <c r="J37" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3272,10 +3269,10 @@
         <v>3</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J38" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3305,10 +3302,10 @@
         <v>3</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J39" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3338,10 +3335,10 @@
         <v>3</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J40" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3371,10 +3368,10 @@
         <v>2</v>
       </c>
       <c r="I41" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="51" t="s">
         <v>161</v>
-      </c>
-      <c r="J41" s="51" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3382,10 +3379,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" s="48">
         <v>4</v>
@@ -3404,13 +3401,13 @@
         <v>4</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K42" s="73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3418,10 +3415,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="48">
         <v>3</v>
@@ -3440,13 +3437,13 @@
         <v>3</v>
       </c>
       <c r="I43" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3476,13 +3473,13 @@
         <v>2</v>
       </c>
       <c r="I44" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J44" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K44" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3512,10 +3509,10 @@
         <v>3</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J45" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K45" s="73" t="s">
         <v>107</v>
@@ -3548,13 +3545,13 @@
         <v>5</v>
       </c>
       <c r="I46" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="J46" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="J46" s="51" t="s">
-        <v>165</v>
-      </c>
       <c r="K46" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3584,10 +3581,10 @@
         <v>3</v>
       </c>
       <c r="I47" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J47" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K47" s="73" t="s">
         <v>108</v>
@@ -3620,10 +3617,10 @@
         <v>2</v>
       </c>
       <c r="I48" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3653,10 +3650,10 @@
         <v>2</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J49" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K49" s="73" t="s">
         <v>109</v>
@@ -3689,10 +3686,10 @@
         <v>7</v>
       </c>
       <c r="I50" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3722,10 +3719,10 @@
         <v>9</v>
       </c>
       <c r="I51" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J51" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3755,10 +3752,10 @@
         <v>31</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3788,10 +3785,10 @@
         <v>31</v>
       </c>
       <c r="I53" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3821,10 +3818,10 @@
         <v>23</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J54" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3854,10 +3851,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J55" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3887,10 +3884,10 @@
         <v>7</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J56" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3920,10 +3917,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3953,10 +3950,10 @@
         <v>7</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J58" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3986,10 +3983,10 @@
         <v>7</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J59" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4019,10 +4016,10 @@
         <v>13</v>
       </c>
       <c r="I60" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J60" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4052,10 +4049,10 @@
         <v>7</v>
       </c>
       <c r="I61" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J61" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4085,10 +4082,10 @@
         <v>1</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J62" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4118,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J63" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4151,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J64" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4184,10 +4181,10 @@
         <v>1</v>
       </c>
       <c r="I65" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J65" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4217,10 +4214,10 @@
         <v>1</v>
       </c>
       <c r="I66" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J66" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4250,10 +4247,10 @@
         <v>1</v>
       </c>
       <c r="I67" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J67" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4283,10 +4280,10 @@
         <v>1</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J68" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4316,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="I69" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J69" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4349,10 +4346,10 @@
         <v>1</v>
       </c>
       <c r="I70" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J70" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K70" s="73" t="s">
         <v>85</v>
@@ -4385,10 +4382,10 @@
         <v>1</v>
       </c>
       <c r="I71" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J71" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K71" s="73" t="s">
         <v>86</v>
@@ -4421,10 +4418,10 @@
         <v>1</v>
       </c>
       <c r="I72" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J72" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K72" s="73" t="s">
         <v>87</v>
@@ -4435,10 +4432,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="43" t="s">
         <v>110</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>111</v>
       </c>
       <c r="D73" s="44">
         <v>1</v>
@@ -4457,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="I73" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J73" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4471,7 +4468,7 @@
         <v>24</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D74" s="35">
         <v>1</v>
@@ -4490,13 +4487,13 @@
         <v>1</v>
       </c>
       <c r="I74" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J74" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K74" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4507,7 +4504,7 @@
         <v>24</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" s="48">
         <v>1</v>
@@ -4526,13 +4523,13 @@
         <v>1</v>
       </c>
       <c r="I75" s="51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J75" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K75" s="73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
         <v>24</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D76" s="48">
         <v>1</v>
@@ -4562,13 +4559,13 @@
         <v>1</v>
       </c>
       <c r="I76" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="J76" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="J76" s="51" t="s">
-        <v>203</v>
-      </c>
       <c r="K76" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4598,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J77" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K77" s="73" t="s">
         <v>67</v>
@@ -4634,10 +4631,10 @@
         <v>1</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J78" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4667,10 +4664,10 @@
         <v>1</v>
       </c>
       <c r="I79" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J79" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4700,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="I80" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J80" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4733,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="I81" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4747,7 +4744,7 @@
         <v>24</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D82" s="35">
         <v>1</v>
@@ -4766,10 +4763,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J82" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4799,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="I83" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4832,10 +4829,10 @@
         <v>1</v>
       </c>
       <c r="I84" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K84" s="73" t="s">
         <v>93</v>
@@ -4868,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="I85" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K85" s="73" t="s">
         <v>72</v>
@@ -4904,10 +4901,10 @@
         <v>1</v>
       </c>
       <c r="I86" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4937,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="I87" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J87" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4970,10 +4967,10 @@
         <v>1</v>
       </c>
       <c r="I88" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J88" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4984,7 +4981,7 @@
         <v>28</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D89" s="24">
         <v>1</v>
@@ -5003,13 +5000,13 @@
         <v>1</v>
       </c>
       <c r="I89" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="J89" s="51" t="s">
-        <v>207</v>
-      </c>
       <c r="K89" s="73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5039,10 +5036,10 @@
         <v>1</v>
       </c>
       <c r="I90" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J90" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K90" s="73" t="s">
         <v>75</v>
@@ -5056,7 +5053,7 @@
         <v>30</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D91" s="24">
         <v>1</v>
@@ -5075,13 +5072,13 @@
         <v>1</v>
       </c>
       <c r="I91" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J91" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K91" s="73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5092,7 +5089,7 @@
         <v>34</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D92" s="48">
         <v>1</v>
@@ -5111,13 +5108,13 @@
         <v>1</v>
       </c>
       <c r="I92" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J92" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K92" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5147,10 +5144,10 @@
         <v>1</v>
       </c>
       <c r="I93" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J93" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5158,10 +5155,10 @@
         <v>64</v>
       </c>
       <c r="B94" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>223</v>
       </c>
       <c r="D94" s="48">
         <v>1</v>
@@ -5180,13 +5177,13 @@
         <v>1</v>
       </c>
       <c r="I94" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J94" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K94" s="73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5203,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>2</v>
@@ -5212,13 +5209,13 @@
         <v>3</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F4FD8F-7C4D-4ADD-B609-7694F7E3D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62429EE-83EA-4445-9E1F-088DC8C0C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="260">
   <si>
     <t>Tomos</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Your Lie in April</t>
   </si>
   <si>
-    <t>11 + 1 OVA</t>
-  </si>
-  <si>
     <t>Darling in the Franxx</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>Goodbye Eri</t>
   </si>
   <si>
-    <t>20 + 1 OVA</t>
-  </si>
-  <si>
     <t>El Fin del Mundo y Antes del Amanecer</t>
   </si>
   <si>
@@ -769,6 +763,48 @@
   </si>
   <si>
     <t>La Tierra de las Gemas</t>
+  </si>
+  <si>
+    <t>Finalizado (11)</t>
+  </si>
+  <si>
+    <t>Finalizado (12)</t>
+  </si>
+  <si>
+    <t>Finalizado (3)</t>
+  </si>
+  <si>
+    <t>Finalizado (28)</t>
+  </si>
+  <si>
+    <t>Finalizado (2)</t>
+  </si>
+  <si>
+    <t>Finalizado (21)</t>
+  </si>
+  <si>
+    <t>Finalizado (8)</t>
+  </si>
+  <si>
+    <t>Finalizado (13)</t>
+  </si>
+  <si>
+    <t>Finalizado (4)</t>
+  </si>
+  <si>
+    <t>Finalizado (5)</t>
+  </si>
+  <si>
+    <t>Finalizado (9)</t>
+  </si>
+  <si>
+    <t>Finalizado (31)</t>
+  </si>
+  <si>
+    <t>Finalizado (23)</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
   </si>
 </sst>
 </file>
@@ -1924,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,13 +2006,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K1" s="81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2006,13 +2042,13 @@
         <v>7</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K2" s="73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2042,13 +2078,13 @@
         <v>7</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2078,13 +2114,13 @@
         <v>7</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K4" s="73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2114,13 +2150,13 @@
         <v>7</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2150,13 +2186,13 @@
         <v>7</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K6" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2186,10 +2222,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2215,14 +2251,14 @@
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
-      <c r="H8" s="5">
-        <v>11</v>
+      <c r="H8" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2233,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="48">
         <v>3</v>
@@ -2252,13 +2288,13 @@
         <v>7</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K9" s="73" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2269,7 +2305,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="48">
         <v>2</v>
@@ -2288,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2324,10 +2360,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2357,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2374,7 +2410,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="48">
         <v>5</v>
@@ -2389,17 +2425,17 @@
         <f t="shared" si="0"/>
         <v>27500</v>
       </c>
-      <c r="H13" s="5">
-        <v>12</v>
+      <c r="H13" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K13" s="73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2410,7 +2446,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="48">
         <v>2</v>
@@ -2425,17 +2461,17 @@
         <f t="shared" ref="G14:G28" si="1">D14*E14</f>
         <v>13800</v>
       </c>
-      <c r="H14" s="5">
-        <v>3</v>
+      <c r="H14" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2446,7 +2482,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="48">
         <v>12</v>
@@ -2465,13 +2501,13 @@
         <v>7</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K15" s="73" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2482,7 +2518,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="48">
         <v>18</v>
@@ -2501,13 +2537,13 @@
         <v>7</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K16" s="73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2537,10 +2573,10 @@
         <v>7</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,13 +2606,13 @@
         <v>7</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K18" s="73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2602,17 +2638,17 @@
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
-      <c r="H19" s="5">
-        <v>11</v>
+      <c r="H19" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2642,13 +2678,13 @@
         <v>7</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J20" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20" s="73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2659,7 +2695,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="48">
         <v>4</v>
@@ -2678,13 +2714,13 @@
         <v>7</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K21" s="73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2714,13 +2750,13 @@
         <v>7</v>
       </c>
       <c r="I22" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J22" s="51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K22" s="73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2750,10 +2786,10 @@
         <v>7</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2764,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D24" s="48">
         <v>4</v>
@@ -2783,13 +2819,13 @@
         <v>7</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2797,10 +2833,10 @@
         <v>38</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D25" s="48">
         <v>1</v>
@@ -2815,17 +2851,17 @@
         <f t="shared" ref="G25" si="2">D25*E25</f>
         <v>9800</v>
       </c>
-      <c r="H25" s="5">
-        <v>3</v>
+      <c r="H25" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K25" s="73" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2833,10 +2869,10 @@
         <v>38</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D26" s="48">
         <v>1</v>
@@ -2851,17 +2887,17 @@
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="H26" s="5">
-        <v>3</v>
+      <c r="H26" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K26" s="73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2872,7 +2908,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="48">
         <v>28</v>
@@ -2887,17 +2923,17 @@
         <f t="shared" si="1"/>
         <v>168000</v>
       </c>
-      <c r="H27" s="5">
-        <v>28</v>
+      <c r="H27" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K27" s="72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2908,7 +2944,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D28" s="35">
         <v>2</v>
@@ -2923,14 +2959,14 @@
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="H28" s="37">
-        <v>2</v>
+      <c r="H28" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2941,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D29" s="48">
         <v>2</v>
@@ -2956,17 +2992,17 @@
         <f t="shared" ref="G29" si="3">D29*E29</f>
         <v>12000</v>
       </c>
-      <c r="H29" s="5">
-        <v>2</v>
+      <c r="H29" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="I29" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="73" t="s">
         <v>209</v>
-      </c>
-      <c r="J29" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="73" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2993,13 +3029,13 @@
         <v>126500</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>111</v>
+        <v>251</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3026,13 +3062,13 @@
         <v>66000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>53</v>
+        <v>247</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3058,17 +3094,17 @@
         <f>D32*E32</f>
         <v>44000</v>
       </c>
-      <c r="H32" s="5">
-        <v>8</v>
+      <c r="H32" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K32" s="73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3079,7 +3115,7 @@
         <v>24</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="48">
         <v>2</v>
@@ -3094,17 +3130,17 @@
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
-      <c r="H33" s="5">
-        <v>2</v>
+      <c r="H33" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K33" s="73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3130,17 +3166,17 @@
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
-      <c r="H34" s="5">
-        <v>3</v>
+      <c r="H34" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K34" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3166,14 +3202,14 @@
         <f t="shared" si="4"/>
         <v>71500</v>
       </c>
-      <c r="H35" s="5">
-        <v>13</v>
+      <c r="H35" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J35" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3184,7 +3220,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="48">
         <v>8</v>
@@ -3199,14 +3235,14 @@
         <f t="shared" si="4"/>
         <v>44000</v>
       </c>
-      <c r="H36" s="5">
-        <v>8</v>
+      <c r="H36" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J36" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3217,7 +3253,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="48">
         <v>4</v>
@@ -3232,14 +3268,14 @@
         <f t="shared" si="4"/>
         <v>22000</v>
       </c>
-      <c r="H37" s="5">
-        <v>4</v>
+      <c r="H37" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="I37" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3250,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="48">
         <v>3</v>
@@ -3265,14 +3301,14 @@
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
-      <c r="H38" s="5">
-        <v>3</v>
+      <c r="H38" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J38" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3283,7 +3319,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="48">
         <v>3</v>
@@ -3298,14 +3334,14 @@
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
-      <c r="H39" s="5">
-        <v>3</v>
+      <c r="H39" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J39" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3316,7 +3352,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="48">
         <v>3</v>
@@ -3331,14 +3367,14 @@
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
-      <c r="H40" s="5">
-        <v>3</v>
+      <c r="H40" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J40" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3349,7 +3385,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="48">
         <v>2</v>
@@ -3364,14 +3400,14 @@
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
-      <c r="H41" s="5">
-        <v>2</v>
+      <c r="H41" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I41" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J41" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3379,10 +3415,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D42" s="48">
         <v>4</v>
@@ -3397,17 +3433,17 @@
         <f>D42*E42</f>
         <v>29200</v>
       </c>
-      <c r="H42" s="5">
-        <v>4</v>
+      <c r="H42" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42" s="73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3415,10 +3451,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>116</v>
       </c>
       <c r="D43" s="48">
         <v>3</v>
@@ -3433,17 +3469,17 @@
         <f>D43*E43</f>
         <v>25500</v>
       </c>
-      <c r="H43" s="5">
-        <v>3</v>
+      <c r="H43" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I43" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3451,10 +3487,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>95</v>
       </c>
       <c r="D44" s="48">
         <v>2</v>
@@ -3469,17 +3505,17 @@
         <f>D44*E44</f>
         <v>16000</v>
       </c>
-      <c r="H44" s="5">
-        <v>2</v>
+      <c r="H44" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="I44" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J44" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K44" s="73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3505,17 +3541,17 @@
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
-      <c r="H45" s="5">
-        <v>3</v>
+      <c r="H45" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J45" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K45" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3541,17 +3577,17 @@
         <f t="shared" si="4"/>
         <v>29500</v>
       </c>
-      <c r="H46" s="5">
-        <v>5</v>
+      <c r="H46" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="I46" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K46" s="73" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3562,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="48">
         <v>3</v>
@@ -3577,17 +3613,17 @@
         <f t="shared" si="4"/>
         <v>17700</v>
       </c>
-      <c r="H47" s="5">
-        <v>3</v>
+      <c r="H47" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I47" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J47" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K47" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,10 +3631,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="48">
         <v>2</v>
@@ -3613,14 +3649,14 @@
         <f t="shared" si="4"/>
         <v>11800</v>
       </c>
-      <c r="H48" s="5">
-        <v>2</v>
+      <c r="H48" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="I48" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3628,10 +3664,10 @@
         <v>39</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>61</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>62</v>
       </c>
       <c r="D49" s="48">
         <v>2</v>
@@ -3646,17 +3682,17 @@
         <f t="shared" si="4"/>
         <v>11800</v>
       </c>
-      <c r="H49" s="5">
-        <v>2</v>
+      <c r="H49" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J49" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K49" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3686,10 +3722,10 @@
         <v>7</v>
       </c>
       <c r="I50" s="51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3715,14 +3751,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-      <c r="H51" s="5">
-        <v>9</v>
+      <c r="H51" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="I51" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J51" s="51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3748,14 +3784,14 @@
         <f t="shared" ref="G52:G55" si="6">D52*E52</f>
         <v>18000</v>
       </c>
-      <c r="H52" s="5">
-        <v>31</v>
+      <c r="H52" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3781,14 +3817,14 @@
         <f t="shared" si="6"/>
         <v>66000</v>
       </c>
-      <c r="H53" s="5">
-        <v>31</v>
+      <c r="H53" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="I53" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3799,7 +3835,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D54" s="48">
         <v>1</v>
@@ -3814,14 +3850,14 @@
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
-      <c r="H54" s="5">
-        <v>23</v>
+      <c r="H54" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J54" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3851,10 +3887,10 @@
         <v>7</v>
       </c>
       <c r="I55" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J55" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3884,10 +3920,10 @@
         <v>7</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J56" s="51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3917,10 +3953,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3931,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="48">
         <v>1</v>
@@ -3950,10 +3986,10 @@
         <v>7</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J58" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3983,10 +4019,10 @@
         <v>7</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J59" s="51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4012,14 +4048,14 @@
         <f t="shared" si="7"/>
         <v>27500</v>
       </c>
-      <c r="H60" s="5">
-        <v>13</v>
+      <c r="H60" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="I60" s="51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J60" s="51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4049,21 +4085,21 @@
         <v>7</v>
       </c>
       <c r="I61" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J61" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="48">
         <v>1</v>
@@ -4078,25 +4114,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H62" s="5">
-        <v>1</v>
+      <c r="H62" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J62" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" s="48">
         <v>1</v>
@@ -4111,25 +4147,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H63" s="5">
-        <v>1</v>
+      <c r="H63" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J63" s="51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D64" s="48">
         <v>1</v>
@@ -4144,25 +4180,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H64" s="5">
-        <v>1</v>
+      <c r="H64" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I64" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J64" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="48">
         <v>1</v>
@@ -4177,25 +4213,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H65" s="5">
-        <v>1</v>
+      <c r="H65" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I65" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J65" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="48">
         <v>1</v>
@@ -4210,25 +4246,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H66" s="5">
-        <v>1</v>
+      <c r="H66" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I66" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J66" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="48">
         <v>1</v>
@@ -4243,25 +4279,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H67" s="5">
-        <v>1</v>
+      <c r="H67" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I67" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J67" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="48">
         <v>1</v>
@@ -4276,25 +4312,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H68" s="5">
-        <v>1</v>
+      <c r="H68" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J68" s="51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D69" s="48">
         <v>1</v>
@@ -4309,25 +4345,25 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H69" s="5">
-        <v>1</v>
+      <c r="H69" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I69" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J69" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="48">
         <v>1</v>
@@ -4342,28 +4378,28 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H70" s="5">
-        <v>1</v>
+      <c r="H70" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I70" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J70" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K70" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="48">
         <v>1</v>
@@ -4378,28 +4414,28 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H71" s="5">
-        <v>1</v>
+      <c r="H71" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I71" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J71" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K71" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="48">
         <v>1</v>
@@ -4414,28 +4450,28 @@
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
-      <c r="H72" s="5">
-        <v>1</v>
+      <c r="H72" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I72" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J72" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K72" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="44">
         <v>1</v>
@@ -4450,25 +4486,25 @@
         <f>D73*E73</f>
         <v>5500</v>
       </c>
-      <c r="H73" s="5">
-        <v>1</v>
+      <c r="H73" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I73" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J73" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D74" s="35">
         <v>1</v>
@@ -4483,28 +4519,28 @@
         <f>D74*E74</f>
         <v>5500</v>
       </c>
-      <c r="H74" s="5">
-        <v>1</v>
+      <c r="H74" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I74" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J74" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K74" s="73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" s="48">
         <v>1</v>
@@ -4519,28 +4555,28 @@
         <f>D75*E75</f>
         <v>5500</v>
       </c>
-      <c r="H75" s="5">
-        <v>1</v>
+      <c r="H75" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I75" s="51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J75" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K75" s="73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D76" s="48">
         <v>1</v>
@@ -4555,28 +4591,28 @@
         <f t="shared" ref="G76" si="8">D76*E76</f>
         <v>5500</v>
       </c>
-      <c r="H76" s="5">
-        <v>1</v>
+      <c r="H76" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I76" s="51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J76" s="51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K76" s="73" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D77" s="48">
         <v>1</v>
@@ -4585,34 +4621,34 @@
         <v>14000</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G77" s="49">
         <f t="shared" ref="G77:G78" si="9">D77*E77</f>
         <v>14000</v>
       </c>
-      <c r="H77" s="5">
-        <v>1</v>
+      <c r="H77" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J77" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K77" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="48">
         <v>1</v>
@@ -4621,31 +4657,31 @@
         <v>10900</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G78" s="49">
         <f t="shared" si="9"/>
         <v>10900</v>
       </c>
-      <c r="H78" s="5">
-        <v>1</v>
+      <c r="H78" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J78" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="48">
         <v>1</v>
@@ -4660,25 +4696,25 @@
         <f t="shared" ref="G79:G80" si="10">D79*E79</f>
         <v>5500</v>
       </c>
-      <c r="H79" s="5">
-        <v>1</v>
+      <c r="H79" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I79" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J79" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D80" s="48">
         <v>1</v>
@@ -4693,25 +4729,25 @@
         <f t="shared" si="10"/>
         <v>5500</v>
       </c>
-      <c r="H80" s="5">
-        <v>1</v>
+      <c r="H80" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I80" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J80" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="48">
         <v>1</v>
@@ -4726,25 +4762,25 @@
         <f t="shared" ref="G81:G90" si="11">D81*E81</f>
         <v>5500</v>
       </c>
-      <c r="H81" s="5">
-        <v>1</v>
+      <c r="H81" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I81" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D82" s="35">
         <v>1</v>
@@ -4759,25 +4795,25 @@
         <f t="shared" si="11"/>
         <v>5500</v>
       </c>
-      <c r="H82" s="37">
-        <v>1</v>
+      <c r="H82" s="37" t="s">
+        <v>259</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J82" s="75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="48">
         <v>1</v>
@@ -4792,25 +4828,25 @@
         <f t="shared" si="11"/>
         <v>7500</v>
       </c>
-      <c r="H83" s="5">
-        <v>1</v>
+      <c r="H83" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I83" s="51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="48">
         <v>1</v>
@@ -4819,34 +4855,34 @@
         <v>10000</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G84" s="49">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="H84" s="5">
-        <v>1</v>
+      <c r="H84" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I84" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K84" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D85" s="48">
         <v>1</v>
@@ -4855,34 +4891,34 @@
         <v>10000</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G85" s="49">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="H85" s="5">
-        <v>1</v>
+      <c r="H85" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I85" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K85" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="48">
         <v>1</v>
@@ -4897,25 +4933,25 @@
         <f t="shared" si="11"/>
         <v>10500</v>
       </c>
-      <c r="H86" s="5">
-        <v>1</v>
+      <c r="H86" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I86" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D87" s="48">
         <v>1</v>
@@ -4930,25 +4966,25 @@
         <f t="shared" si="11"/>
         <v>10500</v>
       </c>
-      <c r="H87" s="5">
-        <v>1</v>
+      <c r="H87" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I87" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J87" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>65</v>
       </c>
       <c r="D88" s="48">
         <v>1</v>
@@ -4963,25 +4999,25 @@
         <f t="shared" si="11"/>
         <v>11450</v>
       </c>
-      <c r="H88" s="5">
-        <v>1</v>
+      <c r="H88" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I88" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J88" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D89" s="24">
         <v>1</v>
@@ -4996,28 +5032,28 @@
         <f t="shared" ref="G89" si="12">D89*E89</f>
         <v>5900</v>
       </c>
-      <c r="H89" s="26">
-        <v>1</v>
+      <c r="H89" s="26" t="s">
+        <v>259</v>
       </c>
       <c r="I89" s="51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J89" s="51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K89" s="73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D90" s="24">
         <v>1</v>
@@ -5032,28 +5068,28 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-      <c r="H90" s="26">
-        <v>1</v>
+      <c r="H90" s="26" t="s">
+        <v>259</v>
       </c>
       <c r="I90" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J90" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K90" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D91" s="24">
         <v>1</v>
@@ -5068,28 +5104,28 @@
         <f t="shared" ref="G91" si="13">D91*E91</f>
         <v>9000</v>
       </c>
-      <c r="H91" s="26">
-        <v>1</v>
+      <c r="H91" s="26" t="s">
+        <v>259</v>
       </c>
       <c r="I91" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J91" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K91" s="73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D92" s="48">
         <v>1</v>
@@ -5104,28 +5140,28 @@
         <f>D92*E92</f>
         <v>5500</v>
       </c>
-      <c r="H92" s="5">
-        <v>1</v>
+      <c r="H92" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I92" s="51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J92" s="51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K92" s="73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" s="48">
         <v>1</v>
@@ -5140,25 +5176,25 @@
         <f>D93*E93</f>
         <v>5500</v>
       </c>
-      <c r="H93" s="5">
-        <v>1</v>
+      <c r="H93" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I93" s="51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J93" s="51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D94" s="48">
         <v>1</v>
@@ -5167,23 +5203,23 @@
         <v>12000</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G94" s="49">
         <f t="shared" ref="G94" si="14">D94*E94</f>
         <v>12000</v>
       </c>
-      <c r="H94" s="5">
-        <v>1</v>
+      <c r="H94" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I94" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J94" s="51" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K94" s="73" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5200,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>2</v>
@@ -5209,13 +5245,13 @@
         <v>3</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5274,8 +5310,8 @@
         <v>C6 = 23</v>
       </c>
       <c r="H97" s="56" t="str">
-        <f>"En publicación = " &amp; COUNTA(H2:H7,H15:H18,H20:H24,H9:H12,H50,H55:H59,H61,)</f>
-        <v>En publicación = 27</v>
+        <f>"En publicacion = " &amp; COUNTA(H2:H7,H15:H18,H20:H24,H9:H12,H50,H55:H59,H61,)</f>
+        <v>En publicacion = 27</v>
       </c>
       <c r="I97" s="57" t="str">
         <f>"C6 = " &amp; SUM(D15:D21,D30:D32,D49,D53:D59,D79:D83)</f>
@@ -5314,9 +5350,9 @@
         <f>"B6x2 = " &amp; COUNTA(F77:F78,F94)</f>
         <v>B6x2 = 3</v>
       </c>
-      <c r="I99" s="30" t="str">
-        <f>"A5 color = " &amp; SUM(D87,D22)</f>
-        <v>A5 color = 6</v>
+      <c r="I99" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D77:D78,D94)</f>
+        <v>B6x2 = 3</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -5325,12 +5361,12 @@
         <v>Ovni Press = 3</v>
       </c>
       <c r="F100" s="29" t="str">
-        <f>"C6 = " &amp; COUNTA(F84:F85)</f>
-        <v>C6 = 2</v>
-      </c>
-      <c r="I100" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D77:D78,D94)</f>
-        <v>B6x2 = 3</v>
+        <f>"C6x2 = " &amp; COUNTA(F84:F85)</f>
+        <v>C6x2 = 2</v>
+      </c>
+      <c r="I100" s="29" t="str">
+        <f>"C6x2 = " &amp; SUM(D84:D85)</f>
+        <v>C6x2 = 2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -5342,9 +5378,9 @@
         <f>"A5 color = " &amp; COUNTA(F87,F22)</f>
         <v>A5 color = 2</v>
       </c>
-      <c r="I101" s="29" t="str">
-        <f>"C6x2 = " &amp; SUM(D84:D85)</f>
-        <v>C6x2 = 2</v>
+      <c r="I101" s="30" t="str">
+        <f>"A5 color = " &amp; SUM(D87,D22)</f>
+        <v>A5 color = 6</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -5403,5 +5439,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I100" formulaRange="1"/>
+    <ignoredError sqref="F96" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62429EE-83EA-4445-9E1F-088DC8C0C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05446A-BA1D-4AD8-BAB9-61FDA813AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Tomos</t>
   </si>
   <si>
-    <t>Pecio</t>
-  </si>
-  <si>
     <t>Tamaño</t>
   </si>
   <si>
@@ -805,6 +802,9 @@
   </si>
   <si>
     <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Precio</t>
   </si>
 </sst>
 </file>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,48 +1982,48 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J1" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K1" s="81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="48">
         <v>19</v>
@@ -2032,34 +2032,34 @@
         <v>6000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="49">
         <f t="shared" ref="G2:G13" si="0">D2*E2</f>
         <v>114000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="48">
         <v>20</v>
@@ -2068,34 +2068,34 @@
         <v>6000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="49">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K3" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="48">
         <v>13</v>
@@ -2104,34 +2104,34 @@
         <v>6000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="49">
         <f t="shared" si="0"/>
         <v>78000</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K4" s="73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="48">
         <v>13</v>
@@ -2140,34 +2140,34 @@
         <v>6000</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="49">
         <f t="shared" si="0"/>
         <v>78000</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="48">
         <v>8</v>
@@ -2176,34 +2176,34 @@
         <v>6000</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="49">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K6" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="48">
         <v>10</v>
@@ -2212,31 +2212,31 @@
         <v>6000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="49">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="48">
         <v>6</v>
@@ -2245,31 +2245,31 @@
         <v>6000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="49">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="48">
         <v>3</v>
@@ -2278,34 +2278,34 @@
         <v>8000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="49">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J9" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K9" s="73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="48">
         <v>2</v>
@@ -2314,34 +2314,34 @@
         <v>6000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" s="49">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J10" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="48">
         <v>10</v>
@@ -2350,31 +2350,31 @@
         <v>5500</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="49">
         <f t="shared" si="0"/>
         <v>55000</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="48">
         <v>5</v>
@@ -2383,34 +2383,34 @@
         <v>5500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="49">
         <f t="shared" si="0"/>
         <v>27500</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="48">
         <v>5</v>
@@ -2419,34 +2419,34 @@
         <v>5500</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="49">
         <f t="shared" si="0"/>
         <v>27500</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="48">
         <v>2</v>
@@ -2455,34 +2455,34 @@
         <v>6900</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="49">
         <f t="shared" ref="G14:G28" si="1">D14*E14</f>
         <v>13800</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I14" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K14" s="73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="48">
         <v>12</v>
@@ -2491,34 +2491,34 @@
         <v>5500</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="49">
         <f t="shared" si="1"/>
         <v>66000</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K15" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="48">
         <v>18</v>
@@ -2527,34 +2527,34 @@
         <v>5500</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="49">
         <f t="shared" si="1"/>
         <v>99000</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K16" s="73" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="48">
         <v>15</v>
@@ -2563,31 +2563,31 @@
         <v>5500</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="49">
         <f t="shared" si="1"/>
         <v>82500</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J17" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="48">
         <v>9</v>
@@ -2596,34 +2596,34 @@
         <v>5500</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" s="49">
         <f t="shared" si="1"/>
         <v>49500</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K18" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="48">
         <v>8</v>
@@ -2632,34 +2632,34 @@
         <v>5500</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="49">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K19" s="73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="48">
         <v>8</v>
@@ -2668,34 +2668,34 @@
         <v>5500</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" s="49">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J20" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K20" s="73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="48">
         <v>4</v>
@@ -2704,34 +2704,34 @@
         <v>5500</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="49">
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K21" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="48">
         <v>5</v>
@@ -2740,34 +2740,34 @@
         <v>20000</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="49">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="51" t="s">
-        <v>145</v>
-      </c>
       <c r="K22" s="73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="48">
         <v>11</v>
@@ -2776,31 +2776,31 @@
         <v>7500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="49">
         <f t="shared" si="1"/>
         <v>82500</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D24" s="48">
         <v>4</v>
@@ -2809,34 +2809,34 @@
         <v>6900</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="49">
         <f t="shared" si="1"/>
         <v>27600</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J24" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" s="48">
         <v>1</v>
@@ -2845,34 +2845,34 @@
         <v>9800</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="49">
         <f t="shared" ref="G25" si="2">D25*E25</f>
         <v>9800</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I25" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" s="73" t="s">
         <v>241</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="48">
         <v>1</v>
@@ -2881,34 +2881,34 @@
         <v>12000</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="49">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I26" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K26" s="73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="48">
         <v>28</v>
@@ -2917,34 +2917,34 @@
         <v>6000</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="49">
         <f t="shared" si="1"/>
         <v>168000</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I27" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27" s="72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" s="35">
         <v>2</v>
@@ -2953,31 +2953,31 @@
         <v>6000</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="36">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I28" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="48">
         <v>2</v>
@@ -2986,34 +2986,34 @@
         <v>6000</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="49">
         <f t="shared" ref="G29" si="3">D29*E29</f>
         <v>12000</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I29" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="J29" s="51" t="s">
+      <c r="K29" s="73" t="s">
         <v>208</v>
-      </c>
-      <c r="K29" s="73" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="48">
         <v>23</v>
@@ -3022,31 +3022,31 @@
         <v>5500</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="49">
         <f t="shared" ref="G30:G49" si="4">D30*E30</f>
         <v>126500</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I30" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="48">
         <v>12</v>
@@ -3055,31 +3055,31 @@
         <v>5500</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="49">
         <f t="shared" si="4"/>
         <v>66000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I31" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="48">
         <v>8</v>
@@ -3088,34 +3088,34 @@
         <v>5500</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="49">
         <f>D32*E32</f>
         <v>44000</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I32" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K32" s="73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="48">
         <v>2</v>
@@ -3124,34 +3124,34 @@
         <v>5500</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" s="49">
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I33" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="48">
         <v>3</v>
@@ -3160,34 +3160,34 @@
         <v>5500</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" s="49">
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I34" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K34" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="48">
         <v>13</v>
@@ -3196,31 +3196,31 @@
         <v>5500</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" s="49">
         <f t="shared" si="4"/>
         <v>71500</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I35" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J35" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="48">
         <v>8</v>
@@ -3229,31 +3229,31 @@
         <v>5500</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="49">
         <f t="shared" si="4"/>
         <v>44000</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I36" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J36" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="48">
         <v>4</v>
@@ -3262,31 +3262,31 @@
         <v>5500</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" s="49">
         <f t="shared" si="4"/>
         <v>22000</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I37" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="51" t="s">
         <v>155</v>
-      </c>
-      <c r="J37" s="51" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="48">
         <v>3</v>
@@ -3295,31 +3295,31 @@
         <v>5500</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" s="49">
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I38" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J38" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="48">
         <v>3</v>
@@ -3328,31 +3328,31 @@
         <v>5500</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="49">
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I39" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J39" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="48">
         <v>3</v>
@@ -3361,31 +3361,31 @@
         <v>5500</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G40" s="49">
         <f t="shared" si="4"/>
         <v>16500</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I40" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J40" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="48">
         <v>2</v>
@@ -3394,31 +3394,31 @@
         <v>5500</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" s="49">
         <f t="shared" si="4"/>
         <v>11000</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I41" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" s="51" t="s">
         <v>158</v>
-      </c>
-      <c r="J41" s="51" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D42" s="48">
         <v>4</v>
@@ -3427,34 +3427,34 @@
         <v>7300</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="49">
         <f>D42*E42</f>
         <v>29200</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I42" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K42" s="73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="48">
         <v>3</v>
@@ -3463,34 +3463,34 @@
         <v>8500</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="49">
         <f>D43*E43</f>
         <v>25500</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I43" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K43" s="73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>94</v>
       </c>
       <c r="D44" s="48">
         <v>2</v>
@@ -3499,34 +3499,34 @@
         <v>8000</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G44" s="49">
         <f>D44*E44</f>
         <v>16000</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I44" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J44" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K44" s="73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>34</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>35</v>
       </c>
       <c r="D45" s="48">
         <v>3</v>
@@ -3535,34 +3535,34 @@
         <v>7000</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G45" s="49">
         <f t="shared" si="4"/>
         <v>21000</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I45" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J45" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>28</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>29</v>
       </c>
       <c r="D46" s="48">
         <v>5</v>
@@ -3571,34 +3571,34 @@
         <v>5900</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46" s="49">
         <f t="shared" si="4"/>
         <v>29500</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I46" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="J46" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="J46" s="51" t="s">
-        <v>162</v>
-      </c>
       <c r="K46" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="48">
         <v>3</v>
@@ -3607,34 +3607,34 @@
         <v>5900</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" s="49">
         <f t="shared" si="4"/>
         <v>17700</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I47" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J47" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K47" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="48">
         <v>2</v>
@@ -3643,31 +3643,31 @@
         <v>5900</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48" s="49">
         <f t="shared" si="4"/>
         <v>11800</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I48" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>60</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="D49" s="48">
         <v>2</v>
@@ -3676,34 +3676,34 @@
         <v>5900</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G49" s="49">
         <f t="shared" si="4"/>
         <v>11800</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I49" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J49" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K49" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>41</v>
       </c>
       <c r="D50" s="48">
         <v>2</v>
@@ -3712,31 +3712,31 @@
         <v>6000</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G50" s="49">
         <f t="shared" ref="G50:G72" si="5">D50*E50</f>
         <v>12000</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="48">
         <v>1</v>
@@ -3745,31 +3745,31 @@
         <v>6000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51" s="49">
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I51" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J51" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" s="48">
         <v>3</v>
@@ -3778,31 +3778,31 @@
         <v>6000</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" s="49">
         <f t="shared" ref="G52:G55" si="6">D52*E52</f>
         <v>18000</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D53" s="48">
         <v>12</v>
@@ -3811,31 +3811,31 @@
         <v>5500</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="49">
         <f t="shared" si="6"/>
         <v>66000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I53" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" s="48">
         <v>1</v>
@@ -3844,31 +3844,31 @@
         <v>14000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" s="49">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I54" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J54" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55" s="48">
         <v>6</v>
@@ -3877,31 +3877,31 @@
         <v>5500</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" s="49">
         <f t="shared" si="6"/>
         <v>33000</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I55" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J55" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="48">
         <v>4</v>
@@ -3910,31 +3910,31 @@
         <v>5500</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" s="49">
         <f t="shared" ref="G56:G61" si="7">D56*E56</f>
         <v>22000</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J56" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="48">
         <v>5</v>
@@ -3943,31 +3943,31 @@
         <v>5500</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" s="49">
         <f t="shared" si="7"/>
         <v>27500</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="48">
         <v>1</v>
@@ -3976,31 +3976,31 @@
         <v>5500</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G58" s="49">
         <f t="shared" si="7"/>
         <v>5500</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I58" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J58" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D59" s="48">
         <v>1</v>
@@ -4009,31 +4009,31 @@
         <v>5500</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" s="49">
         <f t="shared" si="7"/>
         <v>5500</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J59" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" s="48">
         <v>5</v>
@@ -4042,31 +4042,31 @@
         <v>5500</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" s="49">
         <f t="shared" si="7"/>
         <v>27500</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I60" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J60" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="48">
         <v>1</v>
@@ -4075,31 +4075,31 @@
         <v>5500</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G61" s="49">
         <f t="shared" si="7"/>
         <v>5500</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I61" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J61" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" s="48">
         <v>1</v>
@@ -4108,31 +4108,31 @@
         <v>5500</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G62" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I62" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J62" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="48">
         <v>1</v>
@@ -4141,31 +4141,31 @@
         <v>5500</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I63" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J63" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D64" s="48">
         <v>1</v>
@@ -4174,31 +4174,31 @@
         <v>5500</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G64" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I64" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J64" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="48">
         <v>1</v>
@@ -4207,31 +4207,31 @@
         <v>5500</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G65" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I65" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J65" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="48">
         <v>1</v>
@@ -4240,31 +4240,31 @@
         <v>5500</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I66" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J66" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D67" s="48">
         <v>1</v>
@@ -4273,31 +4273,31 @@
         <v>5500</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I67" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J67" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D68" s="48">
         <v>1</v>
@@ -4306,31 +4306,31 @@
         <v>5500</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G68" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I68" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J68" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="48">
         <v>1</v>
@@ -4339,31 +4339,31 @@
         <v>5500</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G69" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I69" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J69" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D70" s="48">
         <v>1</v>
@@ -4372,34 +4372,34 @@
         <v>5500</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I70" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J70" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K70" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D71" s="48">
         <v>1</v>
@@ -4408,34 +4408,34 @@
         <v>5500</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I71" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J71" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K71" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D72" s="48">
         <v>1</v>
@@ -4444,34 +4444,34 @@
         <v>5500</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" s="49">
         <f t="shared" si="5"/>
         <v>5500</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I72" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J72" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K72" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D73" s="44">
         <v>1</v>
@@ -4480,31 +4480,31 @@
         <v>5500</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73" s="47">
         <f>D73*E73</f>
         <v>5500</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I73" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J73" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D74" s="35">
         <v>1</v>
@@ -4513,34 +4513,34 @@
         <v>5500</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" s="36">
         <f>D74*E74</f>
         <v>5500</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I74" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J74" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K74" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D75" s="48">
         <v>1</v>
@@ -4549,34 +4549,34 @@
         <v>5500</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" s="49">
         <f>D75*E75</f>
         <v>5500</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I75" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J75" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K75" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D76" s="48">
         <v>1</v>
@@ -4585,34 +4585,34 @@
         <v>5500</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76" s="49">
         <f t="shared" ref="G76" si="8">D76*E76</f>
         <v>5500</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I76" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="J76" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="J76" s="51" t="s">
-        <v>200</v>
-      </c>
       <c r="K76" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D77" s="48">
         <v>1</v>
@@ -4621,34 +4621,34 @@
         <v>14000</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G77" s="49">
         <f t="shared" ref="G77:G78" si="9">D77*E77</f>
         <v>14000</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I77" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J77" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K77" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="48">
         <v>1</v>
@@ -4657,31 +4657,31 @@
         <v>10900</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G78" s="49">
         <f t="shared" si="9"/>
         <v>10900</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I78" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J78" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" s="48">
         <v>1</v>
@@ -4690,31 +4690,31 @@
         <v>5500</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" s="49">
         <f t="shared" ref="G79:G80" si="10">D79*E79</f>
         <v>5500</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I79" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J79" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D80" s="48">
         <v>1</v>
@@ -4723,31 +4723,31 @@
         <v>5500</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G80" s="49">
         <f t="shared" si="10"/>
         <v>5500</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I80" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J80" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="48">
         <v>1</v>
@@ -4756,31 +4756,31 @@
         <v>5500</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G81" s="49">
         <f t="shared" ref="G81:G90" si="11">D81*E81</f>
         <v>5500</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I81" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J81" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D82" s="35">
         <v>1</v>
@@ -4789,31 +4789,31 @@
         <v>5500</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G82" s="36">
         <f t="shared" si="11"/>
         <v>5500</v>
       </c>
       <c r="H82" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J82" s="75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="48">
         <v>1</v>
@@ -4822,31 +4822,31 @@
         <v>7500</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G83" s="49">
         <f t="shared" si="11"/>
         <v>7500</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I83" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="48">
         <v>1</v>
@@ -4855,34 +4855,34 @@
         <v>10000</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G84" s="49">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I84" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K84" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="48">
         <v>1</v>
@@ -4891,34 +4891,34 @@
         <v>10000</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G85" s="49">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I85" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K85" s="73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D86" s="48">
         <v>1</v>
@@ -4927,31 +4927,31 @@
         <v>10500</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G86" s="49">
         <f t="shared" si="11"/>
         <v>10500</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I86" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D87" s="48">
         <v>1</v>
@@ -4960,31 +4960,31 @@
         <v>10500</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87" s="49">
         <f t="shared" si="11"/>
         <v>10500</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I87" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J87" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>64</v>
       </c>
       <c r="D88" s="48">
         <v>1</v>
@@ -4993,31 +4993,31 @@
         <v>11450</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" s="49">
         <f t="shared" si="11"/>
         <v>11450</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I88" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J88" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D89" s="24">
         <v>1</v>
@@ -5026,34 +5026,34 @@
         <v>5900</v>
       </c>
       <c r="F89" s="78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G89" s="25">
         <f t="shared" ref="G89" si="12">D89*E89</f>
         <v>5900</v>
       </c>
       <c r="H89" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I89" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="J89" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="J89" s="51" t="s">
-        <v>204</v>
-      </c>
       <c r="K89" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90" s="24">
         <v>1</v>
@@ -5062,34 +5062,34 @@
         <v>9000</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G90" s="25">
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
       <c r="H90" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I90" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J90" s="51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K90" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D91" s="24">
         <v>1</v>
@@ -5098,34 +5098,34 @@
         <v>9000</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G91" s="25">
         <f t="shared" ref="G91" si="13">D91*E91</f>
         <v>9000</v>
       </c>
       <c r="H91" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I91" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J91" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K91" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D92" s="48">
         <v>1</v>
@@ -5134,34 +5134,34 @@
         <v>5500</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G92" s="49">
         <f>D92*E92</f>
         <v>5500</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I92" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J92" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K92" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D93" s="48">
         <v>1</v>
@@ -5170,31 +5170,31 @@
         <v>5500</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G93" s="49">
         <f>D93*E93</f>
         <v>5500</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I93" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J93" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B94" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>219</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>220</v>
       </c>
       <c r="D94" s="48">
         <v>1</v>
@@ -5203,55 +5203,55 @@
         <v>12000</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G94" s="49">
         <f t="shared" ref="G94" si="14">D94*E94</f>
         <v>12000</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I94" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J94" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K94" s="73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F95" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G95" s="12" t="s">
-        <v>3</v>
-      </c>
       <c r="H95" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05446A-BA1D-4AD8-BAB9-61FDA813AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A2304E-2498-472A-8F7D-592CE0C538F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -1328,7 +1328,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1575,9 +1575,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1960,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5284,8 +5281,8 @@
         <v>2627950</v>
       </c>
       <c r="H96" s="55" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H8,H13:H14,H19,H25:H49,,H51:H54,H60,H62:H94)</f>
-        <v>Finalizados = 68</v>
+        <f>"Finalizados = " &amp; COUNTA(H8,H13:H14,H19,H25:H49,H51:H54,H60,H62:H94)</f>
+        <v>Finalizados = 67</v>
       </c>
       <c r="I96" s="54" t="str">
         <f>"B6 = " &amp; SUM(D2:D14,D24,D27:D29,D33:D42,D46:D48,D50:D52,D60:D76,D88,D90:D93)</f>
@@ -5296,7 +5293,7 @@
         <v>Series = 46</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="str">
         <f>"Completado = " &amp; COUNTA(A27:A49)</f>
         <v>Completado = 23</v>
@@ -5310,16 +5307,15 @@
         <v>C6 = 23</v>
       </c>
       <c r="H97" s="56" t="str">
-        <f>"En publicacion = " &amp; COUNTA(H2:H7,H15:H18,H20:H24,H9:H12,H50,H55:H59,H61,)</f>
-        <v>En publicacion = 27</v>
+        <f>"En publicacion = " &amp; COUNTA(H2:H7,H9:H12,H15:H18,H20:H24,H50,H55:H59,H61)</f>
+        <v>En publicacion = 26</v>
       </c>
       <c r="I97" s="57" t="str">
         <f>"C6 = " &amp; SUM(D15:D21,D30:D32,D49,D53:D59,D79:D83)</f>
         <v>C6 = 154</v>
       </c>
-      <c r="J97" s="83"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="str">
         <f>"Droppeado = " &amp; COUNTA(A50:A61)</f>
         <v>Droppeado = 12</v>
@@ -5337,7 +5333,7 @@
         <v>A5 = 23</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="62" t="str">
         <f>"Tomo único = " &amp; COUNTA(A62:A94)</f>
         <v>Tomo único = 33</v>
@@ -5355,7 +5351,7 @@
         <v>B6x2 = 3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B100" s="67" t="str">
         <f>"Ovni Press = " &amp; COUNTA(B24,B90:B91)</f>
         <v>Ovni Press = 3</v>
@@ -5369,7 +5365,7 @@
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B101" s="69" t="str">
         <f>"Planeta Cómic = " &amp; COUNTA(B25:B26,B42:B43)</f>
         <v>Planeta Cómic = 4</v>
@@ -5383,25 +5379,25 @@
         <v>A5 color = 6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B102" s="68" t="str">
         <f>"Utopia = " &amp; COUNTA(B48:B49)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B103" s="70" t="str">
         <f>"Merci = " &amp; COUNTA(B44)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="71" t="str">
         <f>"Milky Way = " &amp; COUNTA(B88)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="80" t="str">
         <f>"Moztros = " &amp; COUNTA(B94)</f>
         <v>Moztros = 1</v>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A2304E-2498-472A-8F7D-592CE0C538F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0CD24-2D97-4B8F-85DC-2194271CC660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2023,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="48">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="49">
         <v>6000</v>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="G2" s="49">
         <f t="shared" ref="G2:G13" si="0">D2*E2</f>
-        <v>114000</v>
+        <v>120000</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="49">
         <v>6000</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G7" s="49">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>66000</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>6</v>
@@ -2341,7 +2341,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="49">
         <v>5500</v>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G11" s="49">
         <f t="shared" si="0"/>
-        <v>55000</v>
+        <v>60500</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>6</v>
@@ -2410,7 +2410,7 @@
         <v>100</v>
       </c>
       <c r="D13" s="48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="49">
         <v>5500</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="G13" s="49">
         <f t="shared" si="0"/>
-        <v>27500</v>
+        <v>33000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>246</v>
@@ -2836,7 +2836,7 @@
         <v>239</v>
       </c>
       <c r="D25" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="49">
         <v>9800</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G25" s="49">
         <f t="shared" ref="G25" si="2">D25*E25</f>
-        <v>9800</v>
+        <v>19600</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>247</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="D96" s="52">
         <f>SUM(D2:D94)</f>
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E96" s="53">
         <f>SUM(E2:E94)</f>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="G96" s="53">
         <f>SUM(G2:G94)</f>
-        <v>2627950</v>
+        <v>2660750</v>
       </c>
       <c r="H96" s="55" t="str">
         <f>"Finalizados = " &amp; COUNTA(H8,H13:H14,H19,H25:H49,H51:H54,H60,H62:H94)</f>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="I96" s="54" t="str">
         <f>"B6 = " &amp; SUM(D2:D14,D24,D27:D29,D33:D42,D46:D48,D50:D52,D60:D76,D88,D90:D93)</f>
-        <v>B6 = 239</v>
+        <v>B6 = 243</v>
       </c>
       <c r="J96" s="82" t="str">
         <f>"Series = " &amp; COUNTA(K2:K6,K9:K10,K12:K16,K18:K22,K24:K27,K29,K32:K34,K42:K47,K49,K70:K72,K74:K77,K84:K85,K89:K92,K94)</f>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="I98" s="27" t="str">
         <f>"A5 = " &amp; SUM(D23,D25:D26,D43:D45,D86,D89)</f>
-        <v>A5 = 23</v>
+        <v>A5 = 24</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0CD24-2D97-4B8F-85DC-2194271CC660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D97200-012C-4276-A837-06582063D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="276">
   <si>
     <t>Tomos</t>
   </si>
@@ -805,6 +805,54 @@
   </si>
   <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>My Capricorn Friend</t>
+  </si>
+  <si>
+    <t>Otsuichi</t>
+  </si>
+  <si>
+    <t>Masaru Miyokawa</t>
+  </si>
+  <si>
+    <t>Reigen Nivel 131 de Espiritismo</t>
+  </si>
+  <si>
+    <t>ONE</t>
+  </si>
+  <si>
+    <t>Burn The Witch</t>
+  </si>
+  <si>
+    <t>Tite Kubo</t>
+  </si>
+  <si>
+    <t>K-ON!</t>
+  </si>
+  <si>
+    <t>Kakifly</t>
+  </si>
+  <si>
+    <t>Random Comics</t>
+  </si>
+  <si>
+    <t>Boyfriends</t>
+  </si>
+  <si>
+    <t>Refrainbow</t>
+  </si>
+  <si>
+    <t>Boyfriends - 1</t>
+  </si>
+  <si>
+    <t>Versus - 1</t>
+  </si>
+  <si>
+    <t>Kyoutarou Azuma</t>
+  </si>
+  <si>
+    <t>Versus</t>
   </si>
 </sst>
 </file>
@@ -905,7 +953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,6 +1113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,7 +1382,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1465,9 +1519,6 @@
     <xf numFmtId="6" fontId="5" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="5" fillId="6" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1574,6 +1625,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1635,16 +1692,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF0066"/>
       <color rgb="FFFF0000"/>
       <color rgb="FF95DFDB"/>
       <color rgb="FF3333CC"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FFFF0066"/>
       <color rgb="FF0EAE02"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FF003366"/>
-      <color rgb="FF333300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1955,16 +2012,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
@@ -2002,13 +2059,13 @@
       <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="80" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2022,29 +2079,29 @@
       <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="47">
         <v>20</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="48">
         <v>6000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="48">
         <f t="shared" ref="G2:G13" si="0">D2*E2</f>
         <v>120000</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="72" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2058,29 +2115,29 @@
       <c r="C3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="47">
         <v>20</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="48">
         <v>6000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="48">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2094,29 +2151,29 @@
       <c r="C4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <v>13</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="48">
         <v>6000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="48">
         <f t="shared" si="0"/>
         <v>78000</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="72" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2130,29 +2187,29 @@
       <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="48">
-        <v>13</v>
-      </c>
-      <c r="E5" s="49">
+      <c r="D5" s="47">
+        <v>14</v>
+      </c>
+      <c r="E5" s="48">
         <v>6000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="48">
         <f t="shared" si="0"/>
-        <v>78000</v>
+        <v>84000</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="72" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2166,29 +2223,29 @@
       <c r="C6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="47">
         <v>8</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="48">
         <v>6000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="72" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2202,26 +2259,26 @@
       <c r="C7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="47">
         <v>11</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <v>6000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <f t="shared" si="0"/>
         <v>66000</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="50" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2235,26 +2292,26 @@
       <c r="C8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="48">
-        <v>6</v>
-      </c>
-      <c r="E8" s="49">
+      <c r="D8" s="47">
+        <v>8</v>
+      </c>
+      <c r="E8" s="48">
         <v>6000</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="50" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2268,29 +2325,29 @@
       <c r="C9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="47">
         <v>3</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="48">
         <v>8000</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="72" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2304,29 +2361,29 @@
       <c r="C10" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="47">
         <v>2</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <v>6000</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="72" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2340,26 +2397,26 @@
       <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <v>11</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="48">
         <v>5500</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <f t="shared" si="0"/>
         <v>60500</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="50" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2373,29 +2430,29 @@
       <c r="C12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="47">
         <v>5</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="48">
         <v>5500</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <f t="shared" si="0"/>
         <v>27500</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="72" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2409,29 +2466,29 @@
       <c r="C13" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="47">
         <v>6</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="48">
         <v>5500</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <f t="shared" si="0"/>
         <v>33000</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="72" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2445,29 +2502,29 @@
       <c r="C14" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="47">
         <v>2</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="48">
         <v>6900</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="49">
-        <f t="shared" ref="G14:G28" si="1">D14*E14</f>
+      <c r="G14" s="48">
+        <f t="shared" ref="G14:G30" si="1">D14*E14</f>
         <v>13800</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="72" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2481,29 +2538,29 @@
       <c r="C15" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="47">
         <v>12</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="48">
         <v>5500</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="48">
         <f t="shared" si="1"/>
         <v>66000</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="72" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2517,29 +2574,29 @@
       <c r="C16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="47">
         <v>18</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="48">
         <v>5500</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <f t="shared" si="1"/>
         <v>99000</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="72" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2553,26 +2610,26 @@
       <c r="C17" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="48">
-        <v>15</v>
-      </c>
-      <c r="E17" s="49">
+      <c r="D17" s="47">
+        <v>16</v>
+      </c>
+      <c r="E17" s="48">
         <v>5500</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <f t="shared" si="1"/>
-        <v>82500</v>
+        <v>88000</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2586,29 +2643,29 @@
       <c r="C18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="48">
-        <v>9</v>
-      </c>
-      <c r="E18" s="49">
+      <c r="D18" s="47">
+        <v>10</v>
+      </c>
+      <c r="E18" s="48">
         <v>5500</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="48">
         <f t="shared" si="1"/>
-        <v>49500</v>
+        <v>55000</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="73" t="s">
+      <c r="K18" s="72" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2622,29 +2679,29 @@
       <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="47">
         <v>8</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="48">
         <v>5500</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="48">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="72" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2658,29 +2715,29 @@
       <c r="C20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="47">
         <v>8</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <v>5500</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="48">
         <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="72" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2694,29 +2751,29 @@
       <c r="C21" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="48">
-        <v>4</v>
-      </c>
-      <c r="E21" s="49">
+      <c r="D21" s="47">
+        <v>4</v>
+      </c>
+      <c r="E21" s="48">
         <v>5500</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="49">
-        <f t="shared" si="1"/>
+      <c r="G21" s="48">
+        <f t="shared" ref="G21" si="2">D21*E21</f>
         <v>22000</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="72" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2728,32 +2785,32 @@
         <v>23</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="48">
-        <v>5</v>
-      </c>
-      <c r="E22" s="49">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="49">
+        <v>275</v>
+      </c>
+      <c r="D22" s="47">
+        <v>1</v>
+      </c>
+      <c r="E22" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="48">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>5500</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="K22" s="73" t="s">
-        <v>222</v>
+      <c r="I22" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="72" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2764,206 +2821,209 @@
         <v>23</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="48">
-        <v>11</v>
-      </c>
-      <c r="E23" s="49">
-        <v>7500</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="49">
+        <v>13</v>
+      </c>
+      <c r="D23" s="47">
+        <v>5</v>
+      </c>
+      <c r="E23" s="48">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="48">
         <f t="shared" si="1"/>
-        <v>82500</v>
+        <v>100000</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>145</v>
+      <c r="I23" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="72" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>29</v>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" s="48">
-        <v>4</v>
-      </c>
-      <c r="E24" s="49">
-        <v>6900</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="49">
+        <v>7</v>
+      </c>
+      <c r="D24" s="47">
+        <v>11</v>
+      </c>
+      <c r="E24" s="48">
+        <v>7500</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="48">
         <f t="shared" si="1"/>
-        <v>27600</v>
+        <v>82500</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" s="73" t="s">
-        <v>231</v>
+      <c r="I24" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="50" t="s">
-        <v>111</v>
+      <c r="B25" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="48">
-        <v>2</v>
-      </c>
-      <c r="E25" s="49">
-        <v>9800</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="49">
-        <f t="shared" ref="G25" si="2">D25*E25</f>
-        <v>19600</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="J25" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="K25" s="73" t="s">
-        <v>241</v>
+        <v>244</v>
+      </c>
+      <c r="D25" s="47">
+        <v>4</v>
+      </c>
+      <c r="E25" s="48">
+        <v>6900</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="48">
+        <f t="shared" si="1"/>
+        <v>27600</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="48">
-        <v>1</v>
-      </c>
-      <c r="E26" s="49">
-        <v>12000</v>
+        <v>239</v>
+      </c>
+      <c r="D26" s="47">
+        <v>2</v>
+      </c>
+      <c r="E26" s="48">
+        <v>9800</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="49">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+      <c r="G26" s="48">
+        <f t="shared" ref="G26:G27" si="3">D26*E26</f>
+        <v>19600</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" s="72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="47">
+        <v>1</v>
+      </c>
+      <c r="E27" s="48">
+        <v>12000</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="48">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I27" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="51" t="s">
+      <c r="J27" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="K26" s="73" t="s">
+      <c r="K27" s="72" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="48">
-        <v>28</v>
-      </c>
-      <c r="E27" s="49">
-        <v>6000</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="49">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="47">
+        <v>1</v>
+      </c>
+      <c r="E28" s="48">
+        <v>18000</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="48">
         <f t="shared" si="1"/>
-        <v>168000</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="72" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="35">
-        <v>2</v>
-      </c>
-      <c r="E28" s="36">
-        <v>6000</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="36">
-        <f t="shared" si="1"/>
-        <v>12000</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="J28" s="75" t="s">
-        <v>192</v>
+        <v>18000</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="72" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2974,98 +3034,101 @@
         <v>22</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="48">
+        <v>101</v>
+      </c>
+      <c r="D29" s="47">
+        <v>28</v>
+      </c>
+      <c r="E29" s="48">
+        <v>6000</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="48">
+        <f t="shared" si="1"/>
+        <v>168000</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="35">
         <v>2</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E30" s="36">
         <v>6000</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="49">
-        <f t="shared" ref="G29" si="3">D29*E29</f>
+      <c r="F30" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H30" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="I29" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="48">
-        <v>23</v>
-      </c>
-      <c r="E30" s="49">
-        <v>5500</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="49">
-        <f t="shared" ref="G30:G49" si="4">D30*E30</f>
-        <v>126500</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I30" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="J30" s="51" t="s">
-        <v>151</v>
+      <c r="I30" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" s="74" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>23</v>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="48">
-        <v>12</v>
-      </c>
-      <c r="E31" s="49">
-        <v>5500</v>
+        <v>204</v>
+      </c>
+      <c r="D31" s="47">
+        <v>2</v>
+      </c>
+      <c r="E31" s="48">
+        <v>6000</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="49">
-        <f t="shared" si="4"/>
-        <v>66000</v>
+        <v>4</v>
+      </c>
+      <c r="G31" s="48">
+        <f t="shared" ref="G31" si="4">D31*E31</f>
+        <v>12000</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>152</v>
+        <v>249</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="72" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3076,32 +3139,29 @@
         <v>23</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="48">
-        <v>8</v>
-      </c>
-      <c r="E32" s="49">
+        <v>49</v>
+      </c>
+      <c r="D32" s="47">
+        <v>23</v>
+      </c>
+      <c r="E32" s="48">
         <v>5500</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="49">
-        <f>D32*E32</f>
-        <v>44000</v>
+      <c r="G32" s="48">
+        <f t="shared" ref="G32:G51" si="5">D32*E32</f>
+        <v>126500</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="73" t="s">
-        <v>216</v>
+        <v>250</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3112,32 +3172,29 @@
         <v>23</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="48">
-        <v>2</v>
-      </c>
-      <c r="E33" s="49">
+        <v>51</v>
+      </c>
+      <c r="D33" s="47">
+        <v>12</v>
+      </c>
+      <c r="E33" s="48">
         <v>5500</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="49">
-        <f t="shared" si="4"/>
-        <v>11000</v>
+        <v>16</v>
+      </c>
+      <c r="G33" s="48">
+        <f t="shared" si="5"/>
+        <v>66000</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="J33" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="73" t="s">
-        <v>194</v>
+        <v>246</v>
+      </c>
+      <c r="I33" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3148,32 +3205,32 @@
         <v>23</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="48">
-        <v>3</v>
-      </c>
-      <c r="E34" s="49">
+        <v>24</v>
+      </c>
+      <c r="D34" s="47">
+        <v>8</v>
+      </c>
+      <c r="E34" s="48">
         <v>5500</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="49">
-        <f t="shared" si="4"/>
-        <v>16500</v>
+        <v>16</v>
+      </c>
+      <c r="G34" s="48">
+        <f>D34*E34</f>
+        <v>44000</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I34" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="K34" s="73" t="s">
-        <v>104</v>
+        <v>251</v>
+      </c>
+      <c r="I34" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" s="72" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3184,29 +3241,32 @@
         <v>23</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="48">
-        <v>13</v>
-      </c>
-      <c r="E35" s="49">
+        <v>98</v>
+      </c>
+      <c r="D35" s="47">
+        <v>2</v>
+      </c>
+      <c r="E35" s="48">
         <v>5500</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="49">
-        <f t="shared" si="4"/>
-        <v>71500</v>
+      <c r="G35" s="48">
+        <f t="shared" si="5"/>
+        <v>11000</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="51" t="s">
-        <v>125</v>
+        <v>251</v>
+      </c>
+      <c r="I35" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="72" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3217,29 +3277,32 @@
         <v>23</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="48">
-        <v>8</v>
-      </c>
-      <c r="E36" s="49">
+        <v>35</v>
+      </c>
+      <c r="D36" s="47">
+        <v>3</v>
+      </c>
+      <c r="E36" s="48">
         <v>5500</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="49">
-        <f t="shared" si="4"/>
-        <v>44000</v>
+      <c r="G36" s="48">
+        <f t="shared" si="5"/>
+        <v>16500</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I36" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="J36" s="51" t="s">
-        <v>153</v>
+        <v>247</v>
+      </c>
+      <c r="I36" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="72" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3250,29 +3313,29 @@
         <v>23</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="48">
-        <v>4</v>
-      </c>
-      <c r="E37" s="49">
+        <v>50</v>
+      </c>
+      <c r="D37" s="47">
+        <v>13</v>
+      </c>
+      <c r="E37" s="48">
         <v>5500</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="49">
-        <f t="shared" si="4"/>
-        <v>22000</v>
+      <c r="G37" s="48">
+        <f t="shared" si="5"/>
+        <v>71500</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I37" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="J37" s="51" t="s">
-        <v>155</v>
+        <v>252</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3283,29 +3346,29 @@
         <v>23</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="48">
-        <v>3</v>
-      </c>
-      <c r="E38" s="49">
+        <v>52</v>
+      </c>
+      <c r="D38" s="47">
+        <v>8</v>
+      </c>
+      <c r="E38" s="48">
         <v>5500</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="49">
-        <f t="shared" si="4"/>
-        <v>16500</v>
+      <c r="G38" s="48">
+        <f t="shared" si="5"/>
+        <v>44000</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I38" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="J38" s="51" t="s">
-        <v>156</v>
+        <v>251</v>
+      </c>
+      <c r="I38" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3316,29 +3379,29 @@
         <v>23</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="48">
-        <v>3</v>
-      </c>
-      <c r="E39" s="49">
+        <v>53</v>
+      </c>
+      <c r="D39" s="47">
+        <v>4</v>
+      </c>
+      <c r="E39" s="48">
         <v>5500</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="49">
-        <f t="shared" si="4"/>
-        <v>16500</v>
+      <c r="G39" s="48">
+        <f t="shared" si="5"/>
+        <v>22000</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I39" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="J39" s="51" t="s">
-        <v>156</v>
+        <v>253</v>
+      </c>
+      <c r="I39" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="50" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3349,28 +3412,28 @@
         <v>23</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="48">
+        <v>55</v>
+      </c>
+      <c r="D40" s="47">
         <v>3</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="48">
         <v>5500</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="49">
-        <f t="shared" si="4"/>
+      <c r="G40" s="48">
+        <f t="shared" si="5"/>
         <v>16500</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I40" s="51" t="s">
+      <c r="I40" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="51" t="s">
+      <c r="J40" s="50" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3382,380 +3445,380 @@
         <v>23</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="48">
-        <v>2</v>
-      </c>
-      <c r="E41" s="49">
+        <v>57</v>
+      </c>
+      <c r="D41" s="47">
+        <v>3</v>
+      </c>
+      <c r="E41" s="48">
         <v>5500</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="49">
-        <f t="shared" si="4"/>
-        <v>11000</v>
+      <c r="G41" s="48">
+        <f t="shared" si="5"/>
+        <v>16500</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="J41" s="51" t="s">
-        <v>158</v>
+      <c r="J41" s="50" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="50" t="s">
-        <v>111</v>
+      <c r="B42" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="48">
-        <v>4</v>
-      </c>
-      <c r="E42" s="49">
-        <v>7300</v>
+        <v>56</v>
+      </c>
+      <c r="D42" s="47">
+        <v>3</v>
+      </c>
+      <c r="E42" s="48">
+        <v>5500</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="49">
-        <f>D42*E42</f>
-        <v>29200</v>
+      <c r="G42" s="48">
+        <f t="shared" si="5"/>
+        <v>16500</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I42" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="K42" s="73" t="s">
-        <v>214</v>
+        <v>247</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="50" t="s">
-        <v>111</v>
+      <c r="B43" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="48">
-        <v>3</v>
-      </c>
-      <c r="E43" s="49">
-        <v>8500</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="49">
-        <f>D43*E43</f>
-        <v>25500</v>
+        <v>58</v>
+      </c>
+      <c r="D43" s="47">
+        <v>2</v>
+      </c>
+      <c r="E43" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="48">
+        <f t="shared" si="5"/>
+        <v>11000</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I43" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="J43" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="K43" s="73" t="s">
-        <v>217</v>
+      <c r="I43" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J43" s="50" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>92</v>
+      <c r="B44" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="48">
-        <v>2</v>
-      </c>
-      <c r="E44" s="49">
-        <v>8000</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="49">
+        <v>186</v>
+      </c>
+      <c r="D44" s="47">
+        <v>4</v>
+      </c>
+      <c r="E44" s="48">
+        <v>7300</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="48">
         <f>D44*E44</f>
-        <v>16000</v>
+        <v>29200</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I44" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="J44" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="K44" s="73" t="s">
-        <v>238</v>
+        <v>253</v>
+      </c>
+      <c r="I44" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="J44" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="K44" s="72" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>33</v>
+      <c r="B45" s="49" t="s">
+        <v>111</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="48">
+        <v>113</v>
+      </c>
+      <c r="D45" s="47">
         <v>3</v>
       </c>
-      <c r="E45" s="49">
-        <v>7000</v>
+      <c r="E45" s="48">
+        <v>8500</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="49">
-        <f t="shared" si="4"/>
-        <v>21000</v>
+      <c r="G45" s="48">
+        <f>D45*E45</f>
+        <v>25500</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I45" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="J45" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" s="73" t="s">
-        <v>105</v>
+      <c r="I45" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" s="72" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>27</v>
+      <c r="B46" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="48">
-        <v>5</v>
-      </c>
-      <c r="E46" s="49">
-        <v>5900</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="49">
-        <f t="shared" si="4"/>
-        <v>29500</v>
+        <v>93</v>
+      </c>
+      <c r="D46" s="47">
+        <v>2</v>
+      </c>
+      <c r="E46" s="48">
+        <v>8000</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="48">
+        <f>D46*E46</f>
+        <v>16000</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I46" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="J46" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="K46" s="73" t="s">
-        <v>112</v>
+        <v>249</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="72" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>27</v>
+      <c r="B47" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="48">
+        <v>34</v>
+      </c>
+      <c r="D47" s="47">
         <v>3</v>
       </c>
-      <c r="E47" s="49">
-        <v>5900</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="49">
-        <f t="shared" si="4"/>
-        <v>17700</v>
+      <c r="E47" s="48">
+        <v>7000</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="48">
+        <f t="shared" si="5"/>
+        <v>21000</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I47" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="J47" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="K47" s="73" t="s">
-        <v>106</v>
+      <c r="I47" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="K47" s="72" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>59</v>
+      <c r="B48" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="48">
-        <v>2</v>
-      </c>
-      <c r="E48" s="49">
+        <v>28</v>
+      </c>
+      <c r="D48" s="47">
+        <v>5</v>
+      </c>
+      <c r="E48" s="48">
         <v>5900</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="49">
-        <f t="shared" si="4"/>
-        <v>11800</v>
+      <c r="G48" s="48">
+        <f t="shared" si="5"/>
+        <v>29500</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I48" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="J48" s="51" t="s">
-        <v>163</v>
+        <v>254</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="K48" s="72" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="47">
+        <v>3</v>
+      </c>
+      <c r="E49" s="48">
+        <v>5900</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="48">
+        <f t="shared" si="5"/>
+        <v>17700</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="K49" s="72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C50" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="47">
+        <v>2</v>
+      </c>
+      <c r="E50" s="48">
+        <v>5900</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="48">
+        <f t="shared" si="5"/>
+        <v>11800</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="J50" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D51" s="47">
         <v>2</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E51" s="48">
         <v>5900</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="49">
-        <f t="shared" si="4"/>
+      <c r="G51" s="48">
+        <f t="shared" si="5"/>
         <v>11800</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I51" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="J49" s="51" t="s">
+      <c r="J51" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="K49" s="73" t="s">
+      <c r="K51" s="72" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="48">
-        <v>2</v>
-      </c>
-      <c r="E50" s="49">
-        <v>6000</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="49">
-        <f t="shared" ref="G50:G72" si="5">D50*E50</f>
-        <v>12000</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="J50" s="51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="48">
-        <v>1</v>
-      </c>
-      <c r="E51" s="49">
-        <v>6000</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="49">
-        <f t="shared" si="5"/>
-        <v>6000</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I51" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="J51" s="51" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3766,95 +3829,95 @@
         <v>22</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="48">
-        <v>3</v>
-      </c>
-      <c r="E52" s="49">
+        <v>40</v>
+      </c>
+      <c r="D52" s="47">
+        <v>2</v>
+      </c>
+      <c r="E52" s="48">
         <v>6000</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="49">
-        <f t="shared" ref="G52:G55" si="6">D52*E52</f>
-        <v>18000</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I52" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="J52" s="51" t="s">
-        <v>172</v>
+      <c r="G52" s="48">
+        <f t="shared" ref="G52:G73" si="6">D52*E52</f>
+        <v>12000</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="50" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>23</v>
+      <c r="B53" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="48">
-        <v>12</v>
-      </c>
-      <c r="E53" s="49">
-        <v>5500</v>
+        <v>46</v>
+      </c>
+      <c r="D53" s="47">
+        <v>1</v>
+      </c>
+      <c r="E53" s="48">
+        <v>6000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="49">
+        <v>4</v>
+      </c>
+      <c r="G53" s="48">
         <f t="shared" si="6"/>
-        <v>66000</v>
+        <v>6000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I53" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" s="51" t="s">
-        <v>167</v>
+        <v>255</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" s="50" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>23</v>
+      <c r="B54" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="48">
-        <v>1</v>
-      </c>
-      <c r="E54" s="49">
-        <v>14000</v>
+        <v>45</v>
+      </c>
+      <c r="D54" s="47">
+        <v>3</v>
+      </c>
+      <c r="E54" s="48">
+        <v>6000</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="49">
-        <f t="shared" si="6"/>
-        <v>14000</v>
+        <v>4</v>
+      </c>
+      <c r="G54" s="48">
+        <f t="shared" ref="G54:G57" si="7">D54*E54</f>
+        <v>18000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I54" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="J54" s="51" t="s">
-        <v>168</v>
+        <v>256</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" s="50" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3865,29 +3928,29 @@
         <v>23</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="48">
-        <v>6</v>
-      </c>
-      <c r="E55" s="49">
+        <v>41</v>
+      </c>
+      <c r="D55" s="47">
+        <v>12</v>
+      </c>
+      <c r="E55" s="48">
         <v>5500</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="49">
-        <f t="shared" si="6"/>
-        <v>33000</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="J55" s="51" t="s">
-        <v>169</v>
+      <c r="G55" s="48">
+        <f t="shared" si="7"/>
+        <v>66000</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="J55" s="50" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3898,29 +3961,29 @@
         <v>23</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="48">
-        <v>4</v>
-      </c>
-      <c r="E56" s="49">
-        <v>5500</v>
+        <v>99</v>
+      </c>
+      <c r="D56" s="47">
+        <v>1</v>
+      </c>
+      <c r="E56" s="48">
+        <v>14000</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="49">
-        <f t="shared" ref="G56:G61" si="7">D56*E56</f>
-        <v>22000</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="J56" s="51" t="s">
-        <v>171</v>
+      <c r="G56" s="48">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="50" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3931,29 +3994,29 @@
         <v>23</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="48">
-        <v>5</v>
-      </c>
-      <c r="E57" s="49">
+        <v>42</v>
+      </c>
+      <c r="D57" s="47">
+        <v>6</v>
+      </c>
+      <c r="E57" s="48">
         <v>5500</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="49">
+      <c r="G57" s="48">
         <f t="shared" si="7"/>
-        <v>27500</v>
+        <v>33000</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I57" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J57" s="51" t="s">
-        <v>139</v>
+      <c r="I57" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="J57" s="50" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3964,29 +4027,29 @@
         <v>23</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="48">
-        <v>1</v>
-      </c>
-      <c r="E58" s="49">
+        <v>44</v>
+      </c>
+      <c r="D58" s="47">
+        <v>4</v>
+      </c>
+      <c r="E58" s="48">
         <v>5500</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="49">
-        <f t="shared" si="7"/>
-        <v>5500</v>
+      <c r="G58" s="48">
+        <f t="shared" ref="G58:G63" si="8">D58*E58</f>
+        <v>22000</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="J58" s="51" t="s">
-        <v>142</v>
+      <c r="I58" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" s="50" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3997,29 +4060,29 @@
         <v>23</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="48">
-        <v>1</v>
-      </c>
-      <c r="E59" s="49">
+        <v>31</v>
+      </c>
+      <c r="D59" s="47">
+        <v>5</v>
+      </c>
+      <c r="E59" s="48">
         <v>5500</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="49">
-        <f t="shared" si="7"/>
-        <v>5500</v>
+      <c r="G59" s="48">
+        <f t="shared" si="8"/>
+        <v>27500</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I59" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="J59" s="51" t="s">
-        <v>174</v>
+      <c r="I59" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J59" s="50" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4030,29 +4093,29 @@
         <v>23</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="48">
-        <v>5</v>
-      </c>
-      <c r="E60" s="49">
+        <v>97</v>
+      </c>
+      <c r="D60" s="47">
+        <v>1</v>
+      </c>
+      <c r="E60" s="48">
         <v>5500</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="49">
-        <f t="shared" si="7"/>
-        <v>27500</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I60" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="J60" s="51" t="s">
-        <v>170</v>
+        <v>16</v>
+      </c>
+      <c r="G60" s="48">
+        <f t="shared" si="8"/>
+        <v>5500</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="J60" s="50" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4063,95 +4126,95 @@
         <v>23</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="48">
+        <v>48</v>
+      </c>
+      <c r="D61" s="47">
         <v>1</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61" s="48">
         <v>5500</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="49">
-        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="G61" s="48">
+        <f t="shared" si="8"/>
         <v>5500</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I61" s="51" t="s">
+      <c r="I61" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="J61" s="50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="47">
+        <v>5</v>
+      </c>
+      <c r="E62" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="48">
+        <f t="shared" si="8"/>
+        <v>27500</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="47">
+        <v>1</v>
+      </c>
+      <c r="E63" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="48">
+        <f t="shared" si="8"/>
+        <v>5500</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="J61" s="51" t="s">
+      <c r="J63" s="50" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="48">
-        <v>1</v>
-      </c>
-      <c r="E62" s="49">
-        <v>5500</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="49">
-        <f t="shared" si="5"/>
-        <v>5500</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I62" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="J62" s="51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="48">
-        <v>1</v>
-      </c>
-      <c r="E63" s="49">
-        <v>5500</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="49">
-        <f t="shared" si="5"/>
-        <v>5500</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I63" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="J63" s="51" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4162,29 +4225,29 @@
         <v>23</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="48">
+        <v>75</v>
+      </c>
+      <c r="D64" s="47">
         <v>1</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="48">
         <v>5500</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="49">
-        <f t="shared" si="5"/>
+      <c r="G64" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I64" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J64" s="51" t="s">
-        <v>125</v>
+      <c r="I64" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="J64" s="50" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4195,29 +4258,29 @@
         <v>23</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="48">
+        <v>76</v>
+      </c>
+      <c r="D65" s="47">
         <v>1</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="48">
         <v>5500</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="49">
-        <f t="shared" si="5"/>
+      <c r="G65" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I65" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J65" s="51" t="s">
-        <v>125</v>
+      <c r="I65" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="J65" s="50" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4228,29 +4291,29 @@
         <v>23</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="48">
+        <v>77</v>
+      </c>
+      <c r="D66" s="47">
         <v>1</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="48">
         <v>5500</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="49">
-        <f t="shared" si="5"/>
+      <c r="G66" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I66" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="J66" s="51" t="s">
-        <v>176</v>
+      <c r="I66" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J66" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4261,29 +4324,29 @@
         <v>23</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D67" s="48">
+        <v>78</v>
+      </c>
+      <c r="D67" s="47">
         <v>1</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="48">
         <v>5500</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="49">
-        <f t="shared" si="5"/>
+      <c r="G67" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I67" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="J67" s="51" t="s">
-        <v>176</v>
+      <c r="I67" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J67" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4294,29 +4357,29 @@
         <v>23</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="48">
+        <v>79</v>
+      </c>
+      <c r="D68" s="47">
         <v>1</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="48">
         <v>5500</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="49">
-        <f t="shared" si="5"/>
+      <c r="G68" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I68" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="J68" s="51" t="s">
-        <v>177</v>
+      <c r="I68" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="J68" s="50" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4327,29 +4390,29 @@
         <v>23</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="48">
+        <v>80</v>
+      </c>
+      <c r="D69" s="47">
         <v>1</v>
       </c>
-      <c r="E69" s="49">
+      <c r="E69" s="48">
         <v>5500</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="49">
-        <f t="shared" si="5"/>
+      <c r="G69" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I69" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="J69" s="51" t="s">
-        <v>150</v>
+      <c r="I69" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="J69" s="50" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4360,32 +4423,29 @@
         <v>23</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="48">
+        <v>81</v>
+      </c>
+      <c r="D70" s="47">
         <v>1</v>
       </c>
-      <c r="E70" s="49">
+      <c r="E70" s="48">
         <v>5500</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="49">
-        <f t="shared" si="5"/>
+      <c r="G70" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I70" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="J70" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="K70" s="73" t="s">
-        <v>83</v>
+      <c r="I70" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" s="50" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4396,32 +4456,29 @@
         <v>23</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="48">
+        <v>82</v>
+      </c>
+      <c r="D71" s="47">
         <v>1</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="48">
         <v>5500</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="49">
-        <f t="shared" si="5"/>
+      <c r="G71" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I71" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="J71" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="K71" s="73" t="s">
-        <v>84</v>
+      <c r="I71" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="J71" s="50" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4432,101 +4489,104 @@
         <v>23</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="48">
+        <v>83</v>
+      </c>
+      <c r="D72" s="47">
         <v>1</v>
       </c>
-      <c r="E72" s="49">
+      <c r="E72" s="48">
         <v>5500</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="49">
-        <f t="shared" si="5"/>
+      <c r="G72" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I72" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="J72" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="K72" s="73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41" t="s">
+      <c r="I72" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="K72" s="72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D73" s="44">
+      <c r="B73" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="47">
         <v>1</v>
       </c>
-      <c r="E73" s="45">
-        <v>5500</v>
-      </c>
-      <c r="F73" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="47">
-        <f>D73*E73</f>
+      <c r="E73" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="48">
+        <f t="shared" si="6"/>
         <v>5500</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I73" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J73" s="51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="34" t="s">
+      <c r="I73" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J73" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="K73" s="72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="35">
+      <c r="B74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="47">
         <v>1</v>
       </c>
-      <c r="E74" s="40">
-        <v>5500</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G74" s="36">
-        <f>D74*E74</f>
+      <c r="E74" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="48">
+        <f t="shared" ref="G74" si="9">D74*E74</f>
         <v>5500</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I74" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J74" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="K74" s="73" t="s">
-        <v>109</v>
+      <c r="I74" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="J74" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="K74" s="72" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4537,104 +4597,101 @@
         <v>23</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="D75" s="48">
+        <v>260</v>
+      </c>
+      <c r="D75" s="47">
         <v>1</v>
       </c>
-      <c r="E75" s="49">
+      <c r="E75" s="48">
         <v>5500</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="49">
+      <c r="G75" s="48">
         <f>D75*E75</f>
         <v>5500</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I75" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="J75" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="K75" s="73" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
+      <c r="I75" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="J75" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="K75" s="72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="48">
+      <c r="B76" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="44">
         <v>1</v>
       </c>
-      <c r="E76" s="49">
+      <c r="E76" s="45">
         <v>5500</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="49">
-        <f t="shared" ref="G76" si="8">D76*E76</f>
+      <c r="G76" s="46">
+        <f>D76*E76</f>
         <v>5500</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I76" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="J76" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="K76" s="73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
+      <c r="I76" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J76" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" s="48">
+      <c r="B77" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D77" s="35">
         <v>1</v>
       </c>
-      <c r="E77" s="49">
-        <v>14000</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G77" s="49">
-        <f t="shared" ref="G77:G78" si="9">D77*E77</f>
-        <v>14000</v>
+      <c r="E77" s="40">
+        <v>5500</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="36">
+        <f>D77*E77</f>
+        <v>5500</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I77" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="J77" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="K77" s="73" t="s">
-        <v>65</v>
+      <c r="I77" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J77" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="K77" s="72" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4645,29 +4702,32 @@
         <v>23</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="48">
+        <v>196</v>
+      </c>
+      <c r="D78" s="47">
         <v>1</v>
       </c>
-      <c r="E78" s="49">
-        <v>10900</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G78" s="49">
-        <f t="shared" si="9"/>
-        <v>10900</v>
+      <c r="E78" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="48">
+        <f>D78*E78</f>
+        <v>5500</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I78" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J78" s="51" t="s">
-        <v>125</v>
+      <c r="I78" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="J78" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K78" s="72" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4678,29 +4738,32 @@
         <v>23</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="48">
+        <v>197</v>
+      </c>
+      <c r="D79" s="47">
         <v>1</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E79" s="48">
         <v>5500</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="49">
-        <f t="shared" ref="G79:G80" si="10">D79*E79</f>
+        <v>4</v>
+      </c>
+      <c r="G79" s="48">
+        <f t="shared" ref="G79" si="10">D79*E79</f>
         <v>5500</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I79" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J79" s="51" t="s">
-        <v>136</v>
+      <c r="I79" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="J79" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="K79" s="72" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4711,29 +4774,32 @@
         <v>23</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="48">
+        <v>263</v>
+      </c>
+      <c r="D80" s="47">
         <v>1</v>
       </c>
-      <c r="E80" s="49">
+      <c r="E80" s="48">
         <v>5500</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="49">
-        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="G80" s="48">
+        <f t="shared" ref="G80" si="11">D80*E80</f>
         <v>5500</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I80" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J80" s="51" t="s">
-        <v>136</v>
+      <c r="I80" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="J80" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="K80" s="72" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4744,62 +4810,65 @@
         <v>23</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="48">
+        <v>65</v>
+      </c>
+      <c r="D81" s="47">
         <v>1</v>
       </c>
-      <c r="E81" s="49">
-        <v>5500</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="49">
-        <f t="shared" ref="G81:G90" si="11">D81*E81</f>
-        <v>5500</v>
+      <c r="E81" s="48">
+        <v>14000</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="48">
+        <f t="shared" ref="G81:G82" si="12">D81*E81</f>
+        <v>14000</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I81" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="J81" s="51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="J81" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="K81" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="35">
+      <c r="C82" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="47">
         <v>1</v>
       </c>
-      <c r="E82" s="76">
-        <v>5500</v>
-      </c>
-      <c r="F82" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="36">
-        <f t="shared" si="11"/>
-        <v>5500</v>
-      </c>
-      <c r="H82" s="37" t="s">
+      <c r="E82" s="48">
+        <v>10900</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="48">
+        <f t="shared" si="12"/>
+        <v>10900</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I82" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="J82" s="75" t="s">
-        <v>189</v>
+      <c r="I82" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J82" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4810,29 +4879,29 @@
         <v>23</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" s="48">
+        <v>86</v>
+      </c>
+      <c r="D83" s="47">
         <v>1</v>
       </c>
-      <c r="E83" s="49">
-        <v>7500</v>
-      </c>
-      <c r="F83" s="19" t="s">
+      <c r="E83" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="49">
-        <f t="shared" si="11"/>
-        <v>7500</v>
+      <c r="G83" s="48">
+        <f t="shared" ref="G83:G84" si="13">D83*E83</f>
+        <v>5500</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I83" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="J83" s="51" t="s">
-        <v>151</v>
+      <c r="I83" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J83" s="50" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4843,32 +4912,29 @@
         <v>23</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="48">
+        <v>87</v>
+      </c>
+      <c r="D84" s="47">
         <v>1</v>
       </c>
-      <c r="E84" s="49">
-        <v>10000</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G84" s="49">
-        <f t="shared" si="11"/>
-        <v>10000</v>
+      <c r="E84" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="48">
+        <f t="shared" si="13"/>
+        <v>5500</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I84" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="J84" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="K84" s="73" t="s">
-        <v>91</v>
+      <c r="I84" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J84" s="50" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4879,68 +4945,65 @@
         <v>23</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="48">
+        <v>88</v>
+      </c>
+      <c r="D85" s="47">
         <v>1</v>
       </c>
-      <c r="E85" s="49">
-        <v>10000</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G85" s="49">
-        <f t="shared" si="11"/>
-        <v>10000</v>
+      <c r="E85" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="48">
+        <f t="shared" ref="G85:G95" si="14">D85*E85</f>
+        <v>5500</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I85" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="J85" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="K85" s="73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I85" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="J85" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="48">
+      <c r="C86" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="35">
         <v>1</v>
       </c>
-      <c r="E86" s="49">
-        <v>10500</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="49">
-        <f t="shared" si="11"/>
-        <v>10500</v>
+      <c r="E86" s="75">
+        <v>5500</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="36">
+        <f t="shared" ref="G86" si="15">D86*E86</f>
+        <v>5500</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I86" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J86" s="51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I86" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="J86" s="74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>62</v>
       </c>
@@ -4948,464 +5011,680 @@
         <v>23</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="48">
+        <v>265</v>
+      </c>
+      <c r="D87" s="35">
         <v>1</v>
       </c>
-      <c r="E87" s="49">
-        <v>10500</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="49">
-        <f t="shared" si="11"/>
-        <v>10500</v>
-      </c>
-      <c r="H87" s="5" t="s">
+      <c r="E87" s="75">
+        <v>5500</v>
+      </c>
+      <c r="F87" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="36">
+        <f t="shared" si="14"/>
+        <v>5500</v>
+      </c>
+      <c r="H87" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="I87" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="J87" s="51" t="s">
-        <v>125</v>
+      <c r="I87" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="J87" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="K87" s="72" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>64</v>
+      <c r="B88" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" s="48">
+        <v>72</v>
+      </c>
+      <c r="D88" s="47">
         <v>1</v>
       </c>
-      <c r="E88" s="49">
-        <v>11450</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="49">
-        <f t="shared" si="11"/>
-        <v>11450</v>
+      <c r="E88" s="48">
+        <v>7500</v>
+      </c>
+      <c r="F88" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="48">
+        <f t="shared" si="14"/>
+        <v>7500</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I88" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="J88" s="51" t="s">
-        <v>138</v>
+      <c r="I88" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="J88" s="50" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="24">
+      <c r="B89" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="47">
         <v>1</v>
       </c>
-      <c r="E89" s="25">
-        <v>5900</v>
-      </c>
-      <c r="F89" s="78" t="s">
+      <c r="E89" s="48">
+        <v>10000</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G89" s="48">
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I89" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J89" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="47">
+        <v>1</v>
+      </c>
+      <c r="E90" s="48">
+        <v>10000</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" s="48">
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I90" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="K90" s="72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="47">
+        <v>1</v>
+      </c>
+      <c r="E91" s="48">
+        <v>10500</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="25">
-        <f t="shared" ref="G89" si="12">D89*E89</f>
-        <v>5900</v>
-      </c>
-      <c r="H89" s="26" t="s">
+      <c r="G91" s="48">
+        <f t="shared" si="14"/>
+        <v>10500</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I89" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="J89" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="K89" s="73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" s="24">
-        <v>1</v>
-      </c>
-      <c r="E90" s="25">
-        <v>9000</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G90" s="25">
-        <f t="shared" si="11"/>
-        <v>9000</v>
-      </c>
-      <c r="H90" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I90" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="J90" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="K90" s="73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="24">
-        <v>1</v>
-      </c>
-      <c r="E91" s="49">
-        <v>9000</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="25">
-        <f t="shared" ref="G91" si="13">D91*E91</f>
-        <v>9000</v>
-      </c>
-      <c r="H91" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I91" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="J91" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="K91" s="73" t="s">
-        <v>232</v>
+      <c r="I91" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J91" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>33</v>
+      <c r="B92" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D92" s="48">
+        <v>67</v>
+      </c>
+      <c r="D92" s="47">
         <v>1</v>
       </c>
-      <c r="E92" s="49">
-        <v>5500</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G92" s="49">
-        <f>D92*E92</f>
-        <v>5500</v>
+      <c r="E92" s="48">
+        <v>10500</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="48">
+        <f t="shared" si="14"/>
+        <v>10500</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I92" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="J92" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="K92" s="73" t="s">
-        <v>110</v>
+      <c r="I92" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J92" s="50" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>33</v>
+      <c r="B93" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D93" s="48">
+        <v>63</v>
+      </c>
+      <c r="D93" s="47">
         <v>1</v>
       </c>
-      <c r="E93" s="49">
-        <v>5500</v>
+      <c r="E93" s="48">
+        <v>11450</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="49">
-        <f>D93*E93</f>
-        <v>5500</v>
+      <c r="G93" s="48">
+        <f t="shared" si="14"/>
+        <v>11450</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I93" s="51" t="s">
+      <c r="I93" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="J93" s="50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="24">
+        <v>1</v>
+      </c>
+      <c r="E94" s="25">
+        <v>5900</v>
+      </c>
+      <c r="F94" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="25">
+        <f t="shared" ref="G94" si="16">D94*E94</f>
+        <v>5900</v>
+      </c>
+      <c r="H94" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I94" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="J94" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="K94" s="72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="24">
+        <v>1</v>
+      </c>
+      <c r="E95" s="25">
+        <v>9000</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" s="25">
+        <f t="shared" si="14"/>
+        <v>9000</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I95" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J95" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="K95" s="72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="24">
+        <v>1</v>
+      </c>
+      <c r="E96" s="48">
+        <v>9000</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="25">
+        <f t="shared" ref="G96" si="17">D96*E96</f>
+        <v>9000</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I96" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J96" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="K96" s="72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="47">
+        <v>1</v>
+      </c>
+      <c r="E97" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="48">
+        <f>D97*E97</f>
+        <v>5500</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I97" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="J97" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="K97" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" s="47">
+        <v>1</v>
+      </c>
+      <c r="E98" s="48">
+        <v>5500</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="48">
+        <f>D98*E98</f>
+        <v>5500</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I98" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="J93" s="51" t="s">
+      <c r="J98" s="50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17" t="s">
+    <row r="99" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="B99" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="47">
+        <v>1</v>
+      </c>
+      <c r="E99" s="48">
+        <v>9500</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" s="48">
+        <f>D99*E99</f>
+        <v>9500</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I99" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J99" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="K99" s="72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="C94" s="31" t="s">
+      <c r="C100" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="D94" s="48">
+      <c r="D100" s="47">
         <v>1</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E100" s="48">
         <v>12000</v>
       </c>
-      <c r="F94" s="18" t="s">
+      <c r="F100" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G94" s="49">
-        <f t="shared" ref="G94" si="14">D94*E94</f>
+      <c r="G100" s="48">
+        <f t="shared" ref="G100" si="18">D100*E100</f>
         <v>12000</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I94" s="51" t="s">
+      <c r="I100" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="J94" s="51" t="s">
+      <c r="J100" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="K94" s="73" t="s">
+      <c r="K100" s="72" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+    <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B101" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D101" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E101" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F101" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G101" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H95" s="12" t="s">
+      <c r="H101" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I95" s="12" t="s">
+      <c r="I101" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J101" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="59" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A26)</f>
-        <v>En curso = 25</v>
-      </c>
-      <c r="B96" s="63" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B11:B23,B30:B41,B53:B87)</f>
-        <v>Ivrea = 60</v>
-      </c>
-      <c r="C96" s="58" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C94)</f>
-        <v>Series en total = 93</v>
-      </c>
-      <c r="D96" s="52">
-        <f>SUM(D2:D94)</f>
-        <v>432</v>
-      </c>
-      <c r="E96" s="53">
-        <f>SUM(E2:E94)</f>
-        <v>624750</v>
-      </c>
-      <c r="F96" s="54" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F14,F24,F27:F29,F33:F42,F46:F48,F50:F52,F60:F76,F88,F90:F93)</f>
-        <v>B6 = 55</v>
-      </c>
-      <c r="G96" s="53">
-        <f>SUM(G2:G94)</f>
-        <v>2660750</v>
-      </c>
-      <c r="H96" s="55" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H8,H13:H14,H19,H25:H49,H51:H54,H60,H62:H94)</f>
-        <v>Finalizados = 67</v>
-      </c>
-      <c r="I96" s="54" t="str">
-        <f>"B6 = " &amp; SUM(D2:D14,D24,D27:D29,D33:D42,D46:D48,D50:D52,D60:D76,D88,D90:D93)</f>
-        <v>B6 = 243</v>
-      </c>
-      <c r="J96" s="82" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K9:K10,K12:K16,K18:K22,K24:K27,K29,K32:K34,K42:K47,K49,K70:K72,K74:K77,K84:K85,K89:K92,K94)</f>
-        <v>Series = 46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="60" t="str">
-        <f>"Completado = " &amp; COUNTA(A27:A49)</f>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="58" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A28)</f>
+        <v>En curso = 27</v>
+      </c>
+      <c r="B102" s="62" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B11:B24,B32:B43,B55:B92)</f>
+        <v>Ivrea = 64</v>
+      </c>
+      <c r="C102" s="57" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C100)</f>
+        <v>Series en total = 99</v>
+      </c>
+      <c r="D102" s="51">
+        <f>SUM(D2:D100)</f>
+        <v>443</v>
+      </c>
+      <c r="E102" s="52">
+        <f>SUM(E2:E100)</f>
+        <v>674250</v>
+      </c>
+      <c r="F102" s="53" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F14,F25,F29:F31,F35:F44,F48:F50,F52:F54,F62:F80,F93,F95:F99)</f>
+        <v>B6 = 58</v>
+      </c>
+      <c r="G102" s="52">
+        <f>SUM(G2:G100)</f>
+        <v>2739250</v>
+      </c>
+      <c r="H102" s="54" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H8,H13:H14,H19,H26:H27,H29:H51,H53:H56,H62,H64:H100)</f>
+        <v>Finalizados = 71</v>
+      </c>
+      <c r="I102" s="53" t="str">
+        <f>"B6 = " &amp; SUM(D2:D14,D25,D29:D31,D35:D44,D48:D50,D52:D54,D62:D80,D93,D95:D98)</f>
+        <v>B6 = 248</v>
+      </c>
+      <c r="J102" s="81" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K9:K10,K12:K16,K18:K23,K25:K29,K31,K34:K36,K44:K49,K51,K72:K75,K77:K81,K87,K89:K90,K94:K97,K99:K100)</f>
+        <v>Series = 52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="59" t="str">
+        <f>"Completado = " &amp; COUNTA(A29:A51)</f>
         <v>Completado = 23</v>
       </c>
-      <c r="B97" s="64" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B10,B50:B52,B27:B29)</f>
+      <c r="B103" s="63" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B10,B52:B54,B29:B31)</f>
         <v>Panini = 15</v>
       </c>
-      <c r="F97" s="57" t="str">
-        <f>"C6 = " &amp; COUNTA(F15:F21,F30:F32,F49,F53:F59,F79:F83)</f>
-        <v>C6 = 23</v>
-      </c>
-      <c r="H97" s="56" t="str">
-        <f>"En publicacion = " &amp; COUNTA(H2:H7,H9:H12,H15:H18,H20:H24,H50,H55:H59,H61)</f>
-        <v>En publicacion = 26</v>
-      </c>
-      <c r="I97" s="57" t="str">
-        <f>"C6 = " &amp; SUM(D15:D21,D30:D32,D49,D53:D59,D79:D83)</f>
-        <v>C6 = 154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="61" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A50:A61)</f>
+      <c r="F103" s="56" t="str">
+        <f>"C6 = " &amp; COUNTA(F15:F22,F32:F34,F51,F55:F61,F83:F88)</f>
+        <v>C6 = 25</v>
+      </c>
+      <c r="H103" s="55" t="str">
+        <f>"En publicacion = " &amp; COUNTA(H2:H7,H9:H12,H15:H18,H20:H25,H28,H52,H57:H61,H63)</f>
+        <v>En publicacion = 28</v>
+      </c>
+      <c r="I103" s="56" t="str">
+        <f>"C6 = " &amp; SUM(D15:D22,D32:D34,D51,D55:D61,D83:D88)</f>
+        <v>C6 = 158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="60" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A52:A63)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B98" s="65" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B45,B92:B93)</f>
-        <v>Kemuri = 3</v>
-      </c>
-      <c r="F98" s="27" t="str">
-        <f>"A5 = " &amp; COUNTA(F23:F44,F26,F43:F45,F86,F89)</f>
-        <v>A5 = 28</v>
-      </c>
-      <c r="I98" s="27" t="str">
-        <f>"A5 = " &amp; SUM(D23,D25:D26,D43:D45,D86,D89)</f>
+      <c r="B104" s="64" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B47,B97:B99)</f>
+        <v>Kemuri = 4</v>
+      </c>
+      <c r="F104" s="27" t="str">
+        <f>"A5 = " &amp; COUNTA(F24,F26:F27,F45:F47,F91,F94)</f>
+        <v>A5 = 8</v>
+      </c>
+      <c r="I104" s="27" t="str">
+        <f>"A5 = " &amp; SUM(D24,D26:D27,D45:D47,D91,D94)</f>
         <v>A5 = 24</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="62" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A62:A94)</f>
-        <v>Tomo único = 33</v>
-      </c>
-      <c r="B99" s="66" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B46:B47,B89)</f>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="61" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A64:A100)</f>
+        <v>Tomo único = 37</v>
+      </c>
+      <c r="B105" s="65" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B48:B49,B94)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F99" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F77:F78,F94)</f>
-        <v>B6x2 = 3</v>
-      </c>
-      <c r="I99" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D77:D78,D94)</f>
-        <v>B6x2 = 3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="67" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B24,B90:B91)</f>
+      <c r="F105" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F81:F82,F99:F100)</f>
+        <v>B6x2 = 4</v>
+      </c>
+      <c r="I105" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D81:D82,D99:D100)</f>
+        <v>B6x2 = 4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="66" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B25,B95:B96)</f>
         <v>Ovni Press = 3</v>
       </c>
-      <c r="F100" s="29" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F84:F85)</f>
+      <c r="F106" s="29" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F89:F90)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I100" s="29" t="str">
-        <f>"C6x2 = " &amp; SUM(D84:D85)</f>
+      <c r="I106" s="29" t="str">
+        <f>"C6x2 = " &amp; SUM(D89:D90)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="69" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B25:B26,B42:B43)</f>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="68" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B44:B45)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F101" s="30" t="str">
-        <f>"A5 color = " &amp; COUNTA(F87,F22)</f>
-        <v>A5 color = 2</v>
-      </c>
-      <c r="I101" s="30" t="str">
-        <f>"A5 color = " &amp; SUM(D87,D22)</f>
-        <v>A5 color = 6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="68" t="str">
-        <f>"Utopia = " &amp; COUNTA(B48:B49)</f>
+      <c r="F107" s="30" t="str">
+        <f>"A5 color = " &amp; COUNTA(F92,F23,F28)</f>
+        <v>A5 color = 3</v>
+      </c>
+      <c r="I107" s="30" t="str">
+        <f>"A5 color = " &amp; SUM(D92,D23,D28)</f>
+        <v>A5 color = 7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="67" t="str">
+        <f>"Utopia = " &amp; COUNTA(B50:B51)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="70" t="str">
-        <f>"Merci = " &amp; COUNTA(B44)</f>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="69" t="str">
+        <f>"Merci = " &amp; COUNTA(B46)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="71" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B88)</f>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="70" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B93)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="80" t="str">
-        <f>"Moztros = " &amp; COUNTA(B94)</f>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="79" t="str">
+        <f>"Moztros = " &amp; COUNTA(B100)</f>
         <v>Moztros = 1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="83" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B28)</f>
+        <v>Random Comics = 1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F94">
+  <conditionalFormatting sqref="F2:F100">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -5413,31 +5692,27 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F22 F24:F26 F28 F30:F94">
+  <conditionalFormatting sqref="F30 F32:F100 F25:F28 F9:F23">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F26 F28 F30:F94">
+  <conditionalFormatting sqref="F30 F32:F100 F9:F28">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H26 H28 H30:H94">
+  <conditionalFormatting sqref="H30 H32:H100 H3:H28">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH("En publicacion",H3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73">
+  <conditionalFormatting sqref="K76">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH("En publicacion",K73)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En publicacion",K76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I100" formulaRange="1"/>
-    <ignoredError sqref="F96" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D97200-012C-4276-A837-06582063D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE02A3-EA32-4AE5-8CC7-5CDE28390024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -1627,10 +1627,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2026,7 @@
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -5692,17 +5692,17 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30 F32:F100 F25:F28 F9:F23">
+  <conditionalFormatting sqref="F9:F23 F25:F28 F30 F32:F100">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30 F32:F100 F9:F28">
+  <conditionalFormatting sqref="F9:F28 F30 F32:F100">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30 H32:H100 H3:H28">
+  <conditionalFormatting sqref="H3:H28 H30 H32:H100">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH("En publicacion",H3)))</formula>
     </cfRule>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCE02A3-EA32-4AE5-8CC7-5CDE28390024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A01B093-BEA5-498B-85F7-27ADFC2382A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="279">
   <si>
     <t>Tomos</t>
   </si>
@@ -627,9 +627,6 @@
     <t>Mizu Sahara</t>
   </si>
   <si>
-    <t>Hikaru Ga Shinda Natsu - 2</t>
-  </si>
-  <si>
     <t>El Chico y el Perro</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>Boys Run The Riot - 1 al 4</t>
   </si>
   <si>
-    <t>Dead Dead Demon's Dededede Destruction 3 al 5</t>
-  </si>
-  <si>
     <t>Fire Punch - 6 al 8</t>
   </si>
   <si>
@@ -690,9 +684,6 @@
     <t>Mirka Andolfo</t>
   </si>
   <si>
-    <t>Gachiakuta - 2 al 4</t>
-  </si>
-  <si>
     <t>Solo Leveling - 4 &amp; 5</t>
   </si>
   <si>
@@ -705,24 +696,9 @@
     <t>Valor unitario</t>
   </si>
   <si>
-    <t>Museum - 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Bakemonogatari - 17 al 20</t>
-  </si>
-  <si>
-    <t>Aku no Hana - 2 al 8</t>
-  </si>
-  <si>
     <t>Sakamoto Days - 3 al 9</t>
   </si>
   <si>
-    <t>Blue Lock - 13 al 18</t>
-  </si>
-  <si>
-    <t>Houseki no Kuni - 3 &amp; 4</t>
-  </si>
-  <si>
     <t>Nude Model</t>
   </si>
   <si>
@@ -753,9 +729,6 @@
     <t>Las Montañas de la Locura - 1</t>
   </si>
   <si>
-    <t>Dandadan - 8</t>
-  </si>
-  <si>
     <t>Tomos sin leer</t>
   </si>
   <si>
@@ -853,6 +826,42 @@
   </si>
   <si>
     <t>Versus</t>
+  </si>
+  <si>
+    <t>Museum - 1 al 3</t>
+  </si>
+  <si>
+    <t>Dead Dead Demon's Dededede Destruction - 3 al 5</t>
+  </si>
+  <si>
+    <t>Aku no Hana - 2 al 9</t>
+  </si>
+  <si>
+    <t>Hikaru Ga Shinda Natsu - 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Houseki no Kuni - 3 al 5</t>
+  </si>
+  <si>
+    <t>Gachiakuta - 2 al 5</t>
+  </si>
+  <si>
+    <t>Oshi no Ko - 12</t>
+  </si>
+  <si>
+    <t>Bakemonogatari - 17 al 21</t>
+  </si>
+  <si>
+    <t>Dandadan - 8 &amp; 9</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 19</t>
+  </si>
+  <si>
+    <t>¿Mi Hobby es Raro?</t>
+  </si>
+  <si>
+    <t>Comaku</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1224,19 +1233,6 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -1322,21 +1318,6 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1380,9 +1361,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1456,7 +1437,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,46 +1461,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="12" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="16" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="6" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyAlignment="1">
@@ -1552,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1600,16 +1575,13 @@
     <xf numFmtId="0" fontId="9" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1618,19 +1590,19 @@
     <xf numFmtId="0" fontId="7" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2012,25 +1984,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2048,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>1</v>
@@ -2059,13 +2031,13 @@
       <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="76" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2079,29 +2051,29 @@
       <c r="C2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="45">
         <v>20</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="46">
         <v>6000</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="46">
         <f t="shared" ref="G2:G13" si="0">D2*E2</f>
         <v>120000</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="70" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2115,30 +2087,30 @@
       <c r="C3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="47">
-        <v>20</v>
-      </c>
-      <c r="E3" s="48">
+      <c r="D3" s="45">
+        <v>21</v>
+      </c>
+      <c r="E3" s="46">
         <v>6000</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="46">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>126000</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="73" t="s">
-        <v>227</v>
+      <c r="K3" s="71" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2151,30 +2123,30 @@
       <c r="C4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>13</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>6000</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="46">
         <f t="shared" si="0"/>
         <v>78000</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="72" t="s">
-        <v>223</v>
+      <c r="K4" s="70" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2187,30 +2159,30 @@
       <c r="C5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="45">
         <v>14</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>6000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="46">
         <f t="shared" si="0"/>
         <v>84000</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="K5" s="72" t="s">
-        <v>235</v>
+      <c r="K5" s="70" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,29 +2195,29 @@
       <c r="C6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>8</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="46">
         <v>6000</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="K6" s="72" t="s">
+      <c r="K6" s="70" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2259,26 +2231,26 @@
       <c r="C7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <v>11</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <v>6000</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="46">
         <f t="shared" si="0"/>
         <v>66000</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2292,26 +2264,26 @@
       <c r="C8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>8</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>6000</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="46">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I8" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2325,30 +2297,30 @@
       <c r="C9" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <v>3</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <v>8000</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="46">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="72" t="s">
-        <v>236</v>
+      <c r="K9" s="70" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2361,30 +2333,30 @@
       <c r="C10" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="47">
-        <v>2</v>
-      </c>
-      <c r="E10" s="48">
+      <c r="D10" s="45">
+        <v>3</v>
+      </c>
+      <c r="E10" s="46">
         <v>6000</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="46">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="72" t="s">
-        <v>200</v>
+      <c r="K10" s="70" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2397,27 +2369,30 @@
       <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="47">
-        <v>11</v>
-      </c>
-      <c r="E11" s="48">
-        <v>5500</v>
+      <c r="D11" s="45">
+        <v>12</v>
+      </c>
+      <c r="E11" s="46">
+        <v>6900</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="46">
         <f t="shared" si="0"/>
-        <v>60500</v>
+        <v>82800</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="48" t="s">
         <v>135</v>
+      </c>
+      <c r="K11" s="70" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2430,29 +2405,29 @@
       <c r="C12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="45">
         <v>5</v>
       </c>
-      <c r="E12" s="48">
-        <v>5500</v>
+      <c r="E12" s="46">
+        <v>6900</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="46">
         <f t="shared" si="0"/>
-        <v>27500</v>
+        <v>34500</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="70" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2466,30 +2441,30 @@
       <c r="C13" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="45">
         <v>6</v>
       </c>
-      <c r="E13" s="48">
-        <v>5500</v>
+      <c r="E13" s="46">
+        <v>6900</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="46">
         <f t="shared" si="0"/>
-        <v>33000</v>
+        <v>41400</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I13" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="72" t="s">
-        <v>215</v>
+      <c r="K13" s="70" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,32 +2475,32 @@
         <v>23</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="47">
-        <v>2</v>
-      </c>
-      <c r="E14" s="48">
-        <v>6900</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="45">
+        <v>12</v>
+      </c>
+      <c r="E14" s="46">
+        <v>5900</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="48">
-        <f t="shared" ref="G14:G30" si="1">D14*E14</f>
-        <v>13800</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I14" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J14" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="K14" s="72" t="s">
-        <v>226</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" ref="G14:G29" si="1">D14*E14</f>
+        <v>70800</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="70" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2536,32 +2511,32 @@
         <v>23</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="47">
-        <v>12</v>
-      </c>
-      <c r="E15" s="48">
-        <v>5500</v>
+        <v>89</v>
+      </c>
+      <c r="D15" s="45">
+        <v>19</v>
+      </c>
+      <c r="E15" s="46">
+        <v>5900</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="46">
         <f t="shared" si="1"/>
-        <v>66000</v>
+        <v>112100</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="J15" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" s="72" t="s">
-        <v>233</v>
+      <c r="I15" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="70" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2572,32 +2547,29 @@
         <v>23</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="47">
-        <v>18</v>
-      </c>
-      <c r="E16" s="48">
-        <v>5500</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="45">
+        <v>16</v>
+      </c>
+      <c r="E16" s="46">
+        <v>5900</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="46">
         <f t="shared" si="1"/>
-        <v>99000</v>
+        <v>94400</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="72" t="s">
-        <v>230</v>
+      <c r="I16" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2608,29 +2580,32 @@
         <v>23</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="45">
         <v>10</v>
       </c>
-      <c r="D17" s="47">
-        <v>16</v>
-      </c>
-      <c r="E17" s="48">
-        <v>5500</v>
+      <c r="E17" s="46">
+        <v>5900</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="46">
         <f t="shared" si="1"/>
-        <v>88000</v>
+        <v>59000</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>136</v>
+      <c r="I17" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="70" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2641,32 +2616,32 @@
         <v>23</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="47">
-        <v>10</v>
-      </c>
-      <c r="E18" s="48">
-        <v>5500</v>
+        <v>30</v>
+      </c>
+      <c r="D18" s="45">
+        <v>9</v>
+      </c>
+      <c r="E18" s="46">
+        <v>5900</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="46">
         <f t="shared" si="1"/>
-        <v>55000</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="72" t="s">
-        <v>229</v>
+        <v>53100</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="70" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2677,32 +2652,32 @@
         <v>23</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="47">
-        <v>8</v>
-      </c>
-      <c r="E19" s="48">
-        <v>5500</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="45">
+        <v>9</v>
+      </c>
+      <c r="E19" s="46">
+        <v>5900</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="46">
         <f t="shared" si="1"/>
-        <v>44000</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" s="72" t="s">
-        <v>228</v>
+        <v>53100</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="70" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2713,32 +2688,32 @@
         <v>23</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="47">
-        <v>8</v>
-      </c>
-      <c r="E20" s="48">
-        <v>5500</v>
+        <v>96</v>
+      </c>
+      <c r="D20" s="45">
+        <v>5</v>
+      </c>
+      <c r="E20" s="46">
+        <v>5900</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="48">
-        <f t="shared" si="1"/>
-        <v>44000</v>
+      <c r="G20" s="46">
+        <f t="shared" ref="G20" si="2">D20*E20</f>
+        <v>29500</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="72" t="s">
-        <v>242</v>
+      <c r="I20" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2749,32 +2724,32 @@
         <v>23</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="47">
-        <v>4</v>
-      </c>
-      <c r="E21" s="48">
-        <v>5500</v>
+        <v>266</v>
+      </c>
+      <c r="D21" s="45">
+        <v>1</v>
+      </c>
+      <c r="E21" s="46">
+        <v>5900</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="48">
-        <f t="shared" ref="G21" si="2">D21*E21</f>
-        <v>22000</v>
+      <c r="G21" s="46">
+        <f>D21*E21</f>
+        <v>5900</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" s="72" t="s">
-        <v>221</v>
+      <c r="I21" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="70" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2785,32 +2760,32 @@
         <v>23</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="47">
-        <v>1</v>
-      </c>
-      <c r="E22" s="48">
-        <v>5500</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="48">
+        <v>13</v>
+      </c>
+      <c r="D22" s="45">
+        <v>5</v>
+      </c>
+      <c r="E22" s="46">
+        <v>21500</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="46">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>107500</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="K22" s="72" t="s">
-        <v>273</v>
+      <c r="I22" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="70" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2821,314 +2796,311 @@
         <v>23</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="47">
-        <v>5</v>
-      </c>
-      <c r="E23" s="48">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="48">
+        <v>7</v>
+      </c>
+      <c r="D23" s="45">
+        <v>11</v>
+      </c>
+      <c r="E23" s="46">
+        <v>8000</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="46">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>88000</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" s="72" t="s">
-        <v>222</v>
+      <c r="I23" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>23</v>
+      <c r="B24" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="47">
-        <v>11</v>
-      </c>
-      <c r="E24" s="48">
+        <v>235</v>
+      </c>
+      <c r="D24" s="45">
+        <v>5</v>
+      </c>
+      <c r="E24" s="46">
         <v>7500</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="48">
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="46">
         <f t="shared" si="1"/>
-        <v>82500</v>
+        <v>37500</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="50" t="s">
-        <v>145</v>
+      <c r="I24" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="70" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>29</v>
+      <c r="B25" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" s="47">
-        <v>4</v>
-      </c>
-      <c r="E25" s="48">
-        <v>6900</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="48">
-        <f t="shared" si="1"/>
-        <v>27600</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="J25" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="K25" s="72" t="s">
         <v>231</v>
+      </c>
+      <c r="D25" s="45">
+        <v>2</v>
+      </c>
+      <c r="E25" s="46">
+        <v>9800</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="46">
+        <f t="shared" ref="G25:G26" si="3">D25*E25</f>
+        <v>19600</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="70" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="47" t="s">
         <v>111</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="47">
-        <v>2</v>
-      </c>
-      <c r="E26" s="48">
-        <v>9800</v>
+        <v>210</v>
+      </c>
+      <c r="D26" s="45">
+        <v>1</v>
+      </c>
+      <c r="E26" s="46">
+        <v>12000</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="48">
-        <f t="shared" ref="G26:G27" si="3">D26*E26</f>
-        <v>19600</v>
+      <c r="G26" s="46">
+        <f t="shared" si="3"/>
+        <v>12000</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="K26" s="72" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>111</v>
+      <c r="B27" s="78" t="s">
+        <v>260</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="47">
+        <v>261</v>
+      </c>
+      <c r="D27" s="45">
         <v>1</v>
       </c>
-      <c r="E27" s="48">
-        <v>12000</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="48">
-        <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I27" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="J27" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="K27" s="72" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>269</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" s="47">
-        <v>1</v>
-      </c>
-      <c r="E28" s="48">
+      <c r="E27" s="46">
         <v>18000</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G27" s="46">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="J28" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="K28" s="72" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="I27" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" s="70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="45">
+        <v>28</v>
+      </c>
+      <c r="E28" s="46">
+        <v>6000</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="46">
+        <f t="shared" si="1"/>
+        <v>168000</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="47">
-        <v>28</v>
-      </c>
-      <c r="E29" s="48">
+      <c r="C29" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="35">
+        <v>2</v>
+      </c>
+      <c r="E29" s="36">
         <v>6000</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="48">
+      <c r="F29" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="36">
         <f t="shared" si="1"/>
-        <v>168000</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="71" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="76" t="s">
+        <v>12000</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="35">
+      <c r="C30" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="45">
         <v>2</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="46">
         <v>6000</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="36">
-        <f t="shared" si="1"/>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="46">
+        <f t="shared" ref="G30" si="4">D30*E30</f>
         <v>12000</v>
       </c>
-      <c r="H30" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="I30" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="J30" s="74" t="s">
-        <v>192</v>
+      <c r="H30" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="70" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
+      <c r="B31" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C31" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="45">
+        <v>23</v>
+      </c>
+      <c r="E31" s="46">
+        <v>5900</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="46">
+        <f t="shared" ref="G31:G51" si="5">D31*E31</f>
+        <v>135700</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I31" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="47">
-        <v>2</v>
-      </c>
-      <c r="E31" s="48">
-        <v>6000</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="48">
-        <f t="shared" ref="G31" si="4">D31*E31</f>
-        <v>12000</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="K31" s="72" t="s">
-        <v>208</v>
+      <c r="J31" s="48" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3139,29 +3111,29 @@
         <v>23</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="47">
-        <v>23</v>
-      </c>
-      <c r="E32" s="48">
-        <v>5500</v>
+        <v>51</v>
+      </c>
+      <c r="D32" s="45">
+        <v>12</v>
+      </c>
+      <c r="E32" s="46">
+        <v>5900</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="48">
-        <f t="shared" ref="G32:G51" si="5">D32*E32</f>
-        <v>126500</v>
+      <c r="G32" s="46">
+        <f t="shared" si="5"/>
+        <v>70800</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I32" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>151</v>
+        <v>237</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3172,29 +3144,32 @@
         <v>23</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="47">
-        <v>12</v>
-      </c>
-      <c r="E33" s="48">
-        <v>5500</v>
+        <v>24</v>
+      </c>
+      <c r="D33" s="45">
+        <v>8</v>
+      </c>
+      <c r="E33" s="46">
+        <v>5900</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="48">
-        <f t="shared" si="5"/>
-        <v>66000</v>
+      <c r="G33" s="46">
+        <f>D33*E33</f>
+        <v>47200</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I33" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="50" t="s">
-        <v>152</v>
+        <v>242</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="70" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3205,32 +3180,32 @@
         <v>23</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="47">
-        <v>8</v>
-      </c>
-      <c r="E34" s="48">
-        <v>5500</v>
+        <v>98</v>
+      </c>
+      <c r="D34" s="45">
+        <v>2</v>
+      </c>
+      <c r="E34" s="46">
+        <v>6900</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="48">
-        <f>D34*E34</f>
-        <v>44000</v>
+        <v>4</v>
+      </c>
+      <c r="G34" s="46">
+        <f t="shared" si="5"/>
+        <v>13800</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I34" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="K34" s="72" t="s">
-        <v>216</v>
+        <v>242</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="70" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3241,32 +3216,32 @@
         <v>23</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="47">
-        <v>2</v>
-      </c>
-      <c r="E35" s="48">
-        <v>5500</v>
+        <v>35</v>
+      </c>
+      <c r="D35" s="45">
+        <v>3</v>
+      </c>
+      <c r="E35" s="46">
+        <v>6900</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="46">
         <f t="shared" si="5"/>
-        <v>11000</v>
+        <v>20700</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I35" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="J35" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="K35" s="72" t="s">
-        <v>194</v>
+        <v>238</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="70" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3277,32 +3252,32 @@
         <v>23</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="47">
+        <v>208</v>
+      </c>
+      <c r="D36" s="45">
         <v>3</v>
       </c>
-      <c r="E36" s="48">
-        <v>5500</v>
+      <c r="E36" s="46">
+        <v>7400</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="48">
-        <f t="shared" si="5"/>
-        <v>16500</v>
+      <c r="G36" s="46">
+        <f>D36*E36</f>
+        <v>22200</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I36" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="J36" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="K36" s="72" t="s">
-        <v>104</v>
+        <v>238</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" s="70" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3315,26 +3290,26 @@
       <c r="C37" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="45">
         <v>13</v>
       </c>
-      <c r="E37" s="48">
-        <v>5500</v>
+      <c r="E37" s="46">
+        <v>6900</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="46">
         <f t="shared" si="5"/>
-        <v>71500</v>
+        <v>89700</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I37" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3348,26 +3323,26 @@
       <c r="C38" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="45">
         <v>8</v>
       </c>
-      <c r="E38" s="48">
-        <v>5500</v>
+      <c r="E38" s="46">
+        <v>6900</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="46">
         <f t="shared" si="5"/>
-        <v>44000</v>
+        <v>55200</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I38" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="I38" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="48" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3381,26 +3356,26 @@
       <c r="C39" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="47">
-        <v>4</v>
-      </c>
-      <c r="E39" s="48">
-        <v>5500</v>
+      <c r="D39" s="45">
+        <v>4</v>
+      </c>
+      <c r="E39" s="46">
+        <v>6900</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="46">
         <f t="shared" si="5"/>
-        <v>22000</v>
+        <v>27600</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I39" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="I39" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="J39" s="50" t="s">
+      <c r="J39" s="48" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3414,26 +3389,26 @@
       <c r="C40" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="45">
         <v>3</v>
       </c>
-      <c r="E40" s="48">
-        <v>5500</v>
+      <c r="E40" s="46">
+        <v>6900</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="46">
         <f t="shared" si="5"/>
-        <v>16500</v>
+        <v>20700</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I40" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="48" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3447,26 +3422,26 @@
       <c r="C41" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="45">
         <v>3</v>
       </c>
-      <c r="E41" s="48">
-        <v>5500</v>
+      <c r="E41" s="46">
+        <v>6900</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="46">
         <f t="shared" si="5"/>
-        <v>16500</v>
+        <v>20700</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I41" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="J41" s="50" t="s">
+      <c r="J41" s="48" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3480,26 +3455,26 @@
       <c r="C42" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="45">
         <v>3</v>
       </c>
-      <c r="E42" s="48">
-        <v>5500</v>
+      <c r="E42" s="46">
+        <v>6900</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="46">
         <f t="shared" si="5"/>
-        <v>16500</v>
+        <v>20700</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I42" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I42" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="J42" s="50" t="s">
+      <c r="J42" s="48" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3513,26 +3488,26 @@
       <c r="C43" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="45">
         <v>2</v>
       </c>
-      <c r="E43" s="48">
-        <v>5500</v>
+      <c r="E43" s="46">
+        <v>6900</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="46">
         <f t="shared" si="5"/>
-        <v>11000</v>
+        <v>13800</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I43" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="J43" s="50" t="s">
+      <c r="J43" s="48" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3540,72 +3515,72 @@
       <c r="A44" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="47" t="s">
         <v>111</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="47">
-        <v>4</v>
-      </c>
-      <c r="E44" s="48">
-        <v>7300</v>
+      <c r="D44" s="45">
+        <v>4</v>
+      </c>
+      <c r="E44" s="46">
+        <v>7800</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="46">
         <f>D44*E44</f>
-        <v>29200</v>
+        <v>31200</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I44" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="I44" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="J44" s="50" t="s">
+      <c r="J44" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="72" t="s">
-        <v>214</v>
+      <c r="K44" s="70" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="47" t="s">
         <v>111</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="45">
         <v>3</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="46">
         <v>8500</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="46">
         <f>D45*E45</f>
         <v>25500</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I45" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="50" t="s">
+      <c r="J45" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="K45" s="72" t="s">
-        <v>217</v>
+      <c r="K45" s="70" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3618,30 +3593,30 @@
       <c r="C46" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="45">
         <v>2</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="46">
         <v>8000</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="46">
         <f>D46*E46</f>
         <v>16000</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I46" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="J46" s="50" t="s">
+      <c r="J46" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="K46" s="72" t="s">
-        <v>238</v>
+      <c r="K46" s="70" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3654,29 +3629,29 @@
       <c r="C47" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="45">
         <v>3</v>
       </c>
-      <c r="E47" s="48">
-        <v>7000</v>
+      <c r="E47" s="46">
+        <v>8000</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="48">
+      <c r="G47" s="46">
         <f t="shared" si="5"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I47" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="J47" s="50" t="s">
+      <c r="J47" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="K47" s="72" t="s">
+      <c r="K47" s="70" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3690,29 +3665,29 @@
       <c r="C48" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="45">
         <v>5</v>
       </c>
-      <c r="E48" s="48">
-        <v>5900</v>
+      <c r="E48" s="46">
+        <v>7900</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="46">
         <f t="shared" si="5"/>
-        <v>29500</v>
+        <v>39500</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I48" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="J48" s="50" t="s">
+      <c r="J48" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="70" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3726,29 +3701,29 @@
       <c r="C49" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="45">
         <v>3</v>
       </c>
-      <c r="E49" s="48">
-        <v>5900</v>
+      <c r="E49" s="46">
+        <v>7900</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="46">
         <f t="shared" si="5"/>
-        <v>17700</v>
+        <v>23700</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I49" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J49" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="K49" s="72" t="s">
+      <c r="K49" s="70" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3762,26 +3737,26 @@
       <c r="C50" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="45">
         <v>2</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="46">
         <v>5900</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="46">
         <f t="shared" si="5"/>
         <v>11800</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I50" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="I50" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="48" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3795,29 +3770,29 @@
       <c r="C51" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="45">
         <v>2</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="46">
         <v>5900</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="48">
+      <c r="G51" s="46">
         <f t="shared" si="5"/>
         <v>11800</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I51" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="J51" s="50" t="s">
+      <c r="J51" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="K51" s="72" t="s">
+      <c r="K51" s="70" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3831,26 +3806,26 @@
       <c r="C52" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="45">
         <v>2</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="46">
         <v>6000</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="46">
         <f t="shared" ref="G52:G73" si="6">D52*E52</f>
         <v>12000</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I52" s="50" t="s">
+      <c r="I52" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="J52" s="50" t="s">
+      <c r="J52" s="48" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3864,26 +3839,26 @@
       <c r="C53" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="45">
         <v>1</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="46">
         <v>6000</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="48">
+      <c r="G53" s="46">
         <f t="shared" si="6"/>
         <v>6000</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I53" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="J53" s="50" t="s">
+      <c r="J53" s="48" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3897,26 +3872,26 @@
       <c r="C54" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="45">
         <v>3</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="46">
         <v>6000</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="48">
+      <c r="G54" s="46">
         <f t="shared" ref="G54:G57" si="7">D54*E54</f>
         <v>18000</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I54" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I54" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="J54" s="50" t="s">
+      <c r="J54" s="48" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3930,26 +3905,26 @@
       <c r="C55" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="45">
         <v>12</v>
       </c>
-      <c r="E55" s="48">
-        <v>5500</v>
+      <c r="E55" s="46">
+        <v>5900</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="48">
+      <c r="G55" s="46">
         <f t="shared" si="7"/>
-        <v>66000</v>
+        <v>70800</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I55" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I55" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="J55" s="50" t="s">
+      <c r="J55" s="48" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3963,26 +3938,26 @@
       <c r="C56" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="45">
         <v>1</v>
       </c>
-      <c r="E56" s="48">
-        <v>14000</v>
+      <c r="E56" s="46">
+        <v>17700</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="46">
         <f t="shared" si="7"/>
-        <v>14000</v>
+        <v>17700</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I56" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="I56" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="J56" s="50" t="s">
+      <c r="J56" s="48" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3996,26 +3971,26 @@
       <c r="C57" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="45">
         <v>6</v>
       </c>
-      <c r="E57" s="48">
-        <v>5500</v>
+      <c r="E57" s="46">
+        <v>5900</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="48">
+      <c r="G57" s="46">
         <f t="shared" si="7"/>
-        <v>33000</v>
+        <v>35400</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I57" s="50" t="s">
+      <c r="I57" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="J57" s="50" t="s">
+      <c r="J57" s="48" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4029,26 +4004,26 @@
       <c r="C58" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D58" s="47">
-        <v>4</v>
-      </c>
-      <c r="E58" s="48">
-        <v>5500</v>
+      <c r="D58" s="45">
+        <v>4</v>
+      </c>
+      <c r="E58" s="46">
+        <v>5900</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="48">
+      <c r="G58" s="46">
         <f t="shared" ref="G58:G63" si="8">D58*E58</f>
-        <v>22000</v>
+        <v>23600</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I58" s="50" t="s">
+      <c r="I58" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="J58" s="50" t="s">
+      <c r="J58" s="48" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4062,26 +4037,26 @@
       <c r="C59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="47">
+      <c r="D59" s="45">
         <v>5</v>
       </c>
-      <c r="E59" s="48">
-        <v>5500</v>
+      <c r="E59" s="46">
+        <v>5900</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="48">
+      <c r="G59" s="46">
         <f t="shared" si="8"/>
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I59" s="50" t="s">
+      <c r="I59" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="J59" s="50" t="s">
+      <c r="J59" s="48" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4095,26 +4070,26 @@
       <c r="C60" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="45">
         <v>1</v>
       </c>
-      <c r="E60" s="48">
-        <v>5500</v>
+      <c r="E60" s="46">
+        <v>5900</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="48">
+      <c r="G60" s="46">
         <f t="shared" si="8"/>
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I60" s="50" t="s">
+      <c r="I60" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="J60" s="50" t="s">
+      <c r="J60" s="48" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4128,26 +4103,26 @@
       <c r="C61" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="45">
         <v>1</v>
       </c>
-      <c r="E61" s="48">
-        <v>5500</v>
+      <c r="E61" s="46">
+        <v>5900</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="48">
+      <c r="G61" s="46">
         <f t="shared" si="8"/>
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I61" s="50" t="s">
+      <c r="I61" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="J61" s="50" t="s">
+      <c r="J61" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4161,26 +4136,26 @@
       <c r="C62" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="45">
         <v>5</v>
       </c>
-      <c r="E62" s="48">
-        <v>5500</v>
+      <c r="E62" s="46">
+        <v>6900</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="48">
+      <c r="G62" s="46">
         <f t="shared" si="8"/>
-        <v>27500</v>
+        <v>34500</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I62" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="J62" s="50" t="s">
+      <c r="J62" s="48" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4194,26 +4169,26 @@
       <c r="C63" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="47">
+      <c r="D63" s="45">
         <v>1</v>
       </c>
-      <c r="E63" s="48">
-        <v>5500</v>
+      <c r="E63" s="46">
+        <v>6900</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="48">
+      <c r="G63" s="46">
         <f t="shared" si="8"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I63" s="50" t="s">
+      <c r="I63" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="J63" s="50" t="s">
+      <c r="J63" s="48" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4227,26 +4202,26 @@
       <c r="C64" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="47">
+      <c r="D64" s="45">
         <v>1</v>
       </c>
-      <c r="E64" s="48">
-        <v>5500</v>
+      <c r="E64" s="46">
+        <v>6900</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I64" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I64" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="J64" s="50" t="s">
+      <c r="J64" s="48" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4260,26 +4235,26 @@
       <c r="C65" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="47">
+      <c r="D65" s="45">
         <v>1</v>
       </c>
-      <c r="E65" s="48">
-        <v>5500</v>
+      <c r="E65" s="46">
+        <v>6900</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I65" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I65" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="J65" s="50" t="s">
+      <c r="J65" s="48" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4293,26 +4268,26 @@
       <c r="C66" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="47">
+      <c r="D66" s="45">
         <v>1</v>
       </c>
-      <c r="E66" s="48">
-        <v>5500</v>
+      <c r="E66" s="46">
+        <v>6900</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I66" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I66" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J66" s="50" t="s">
+      <c r="J66" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4326,26 +4301,26 @@
       <c r="C67" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D67" s="47">
+      <c r="D67" s="45">
         <v>1</v>
       </c>
-      <c r="E67" s="48">
-        <v>5500</v>
+      <c r="E67" s="46">
+        <v>6900</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="48">
+      <c r="G67" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I67" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I67" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J67" s="50" t="s">
+      <c r="J67" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4359,26 +4334,26 @@
       <c r="C68" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="45">
         <v>1</v>
       </c>
-      <c r="E68" s="48">
-        <v>5500</v>
+      <c r="E68" s="46">
+        <v>6900</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G68" s="48">
+      <c r="G68" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I68" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I68" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="J68" s="50" t="s">
+      <c r="J68" s="48" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4392,26 +4367,26 @@
       <c r="C69" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="47">
+      <c r="D69" s="45">
         <v>1</v>
       </c>
-      <c r="E69" s="48">
-        <v>5500</v>
+      <c r="E69" s="46">
+        <v>6900</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I69" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I69" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="J69" s="50" t="s">
+      <c r="J69" s="48" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4425,26 +4400,26 @@
       <c r="C70" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="47">
+      <c r="D70" s="45">
         <v>1</v>
       </c>
-      <c r="E70" s="48">
-        <v>5500</v>
+      <c r="E70" s="46">
+        <v>6900</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="48">
+      <c r="G70" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I70" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I70" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="J70" s="50" t="s">
+      <c r="J70" s="48" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4458,26 +4433,26 @@
       <c r="C71" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D71" s="47">
+      <c r="D71" s="45">
         <v>1</v>
       </c>
-      <c r="E71" s="48">
-        <v>5500</v>
+      <c r="E71" s="46">
+        <v>6900</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="48">
+      <c r="G71" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I71" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I71" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="J71" s="50" t="s">
+      <c r="J71" s="48" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4491,29 +4466,29 @@
       <c r="C72" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D72" s="47">
+      <c r="D72" s="45">
         <v>1</v>
       </c>
-      <c r="E72" s="48">
-        <v>5500</v>
+      <c r="E72" s="46">
+        <v>6900</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="48">
+      <c r="G72" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I72" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I72" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="J72" s="50" t="s">
+      <c r="J72" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="K72" s="72" t="s">
+      <c r="K72" s="70" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4527,29 +4502,29 @@
       <c r="C73" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="47">
+      <c r="D73" s="45">
         <v>1</v>
       </c>
-      <c r="E73" s="48">
-        <v>5500</v>
+      <c r="E73" s="46">
+        <v>6900</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G73" s="46">
         <f t="shared" si="6"/>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I73" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I73" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="J73" s="50" t="s">
+      <c r="J73" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="K73" s="72" t="s">
+      <c r="K73" s="70" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4563,29 +4538,29 @@
       <c r="C74" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="47">
+      <c r="D74" s="45">
         <v>1</v>
       </c>
-      <c r="E74" s="48">
-        <v>5500</v>
+      <c r="E74" s="46">
+        <v>6900</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="48">
+      <c r="G74" s="46">
         <f t="shared" ref="G74" si="9">D74*E74</f>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I74" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I74" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="J74" s="50" t="s">
+      <c r="J74" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="K74" s="72" t="s">
+      <c r="K74" s="70" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4597,64 +4572,64 @@
         <v>23</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D75" s="47">
+        <v>251</v>
+      </c>
+      <c r="D75" s="45">
         <v>1</v>
       </c>
-      <c r="E75" s="48">
-        <v>5500</v>
+      <c r="E75" s="46">
+        <v>6900</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G75" s="46">
         <f>D75*E75</f>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I75" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="J75" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="K75" s="72" t="s">
-        <v>260</v>
+        <v>249</v>
+      </c>
+      <c r="I75" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="J75" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="K75" s="70" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76" s="43" t="s">
+      <c r="B76" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="43">
         <v>1</v>
       </c>
-      <c r="E76" s="45">
-        <v>5500</v>
+      <c r="E76" s="46">
+        <v>6900</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="46">
+      <c r="G76" s="44">
         <f>D76*E76</f>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I76" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I76" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J76" s="50" t="s">
+      <c r="J76" s="48" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4671,26 +4646,26 @@
       <c r="D77" s="35">
         <v>1</v>
       </c>
-      <c r="E77" s="40">
-        <v>5500</v>
+      <c r="E77" s="46">
+        <v>6900</v>
       </c>
       <c r="F77" s="39" t="s">
         <v>4</v>
       </c>
       <c r="G77" s="36">
         <f>D77*E77</f>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I77" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I77" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J77" s="50" t="s">
+      <c r="J77" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="K77" s="72" t="s">
+      <c r="K77" s="70" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4704,29 +4679,29 @@
       <c r="C78" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="47">
+      <c r="D78" s="45">
         <v>1</v>
       </c>
-      <c r="E78" s="48">
-        <v>5500</v>
+      <c r="E78" s="46">
+        <v>6900</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G78" s="48">
+      <c r="G78" s="46">
         <f>D78*E78</f>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I78" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="J78" s="50" t="s">
+      <c r="J78" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K78" s="72" t="s">
+      <c r="K78" s="70" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4740,29 +4715,29 @@
       <c r="C79" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="47">
+      <c r="D79" s="45">
         <v>1</v>
       </c>
-      <c r="E79" s="48">
-        <v>5500</v>
+      <c r="E79" s="46">
+        <v>6900</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G79" s="46">
         <f t="shared" ref="G79" si="10">D79*E79</f>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I79" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I79" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="J79" s="50" t="s">
+      <c r="J79" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="K79" s="72" t="s">
+      <c r="K79" s="70" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4774,32 +4749,32 @@
         <v>23</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="D80" s="47">
+        <v>254</v>
+      </c>
+      <c r="D80" s="45">
         <v>1</v>
       </c>
-      <c r="E80" s="48">
-        <v>5500</v>
+      <c r="E80" s="46">
+        <v>6900</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="48">
+      <c r="G80" s="46">
         <f t="shared" ref="G80" si="11">D80*E80</f>
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I80" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="J80" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="K80" s="72" t="s">
-        <v>263</v>
+        <v>249</v>
+      </c>
+      <c r="I80" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="J80" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K80" s="70" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4812,29 +4787,29 @@
       <c r="C81" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="47">
+      <c r="D81" s="45">
         <v>1</v>
       </c>
-      <c r="E81" s="48">
-        <v>14000</v>
+      <c r="E81" s="46">
+        <v>15000</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G81" s="48">
+      <c r="G81" s="46">
         <f t="shared" ref="G81:G82" si="12">D81*E81</f>
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I81" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I81" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="J81" s="50" t="s">
+      <c r="J81" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="K81" s="72" t="s">
+      <c r="K81" s="70" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4848,26 +4823,26 @@
       <c r="C82" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D82" s="47">
+      <c r="D82" s="45">
         <v>1</v>
       </c>
-      <c r="E82" s="48">
-        <v>10900</v>
+      <c r="E82" s="46">
+        <v>12500</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G82" s="48">
+      <c r="G82" s="46">
         <f t="shared" si="12"/>
-        <v>10900</v>
+        <v>12500</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I82" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I82" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J82" s="50" t="s">
+      <c r="J82" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4881,26 +4856,26 @@
       <c r="C83" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="47">
+      <c r="D83" s="45">
         <v>1</v>
       </c>
-      <c r="E83" s="48">
-        <v>5500</v>
+      <c r="E83" s="46">
+        <v>5900</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="48">
+      <c r="G83" s="46">
         <f t="shared" ref="G83:G84" si="13">D83*E83</f>
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I83" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I83" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J83" s="50" t="s">
+      <c r="J83" s="48" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4914,26 +4889,26 @@
       <c r="C84" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D84" s="47">
+      <c r="D84" s="45">
         <v>1</v>
       </c>
-      <c r="E84" s="48">
-        <v>5500</v>
+      <c r="E84" s="46">
+        <v>5900</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="48">
+      <c r="G84" s="46">
         <f t="shared" si="13"/>
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I84" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I84" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J84" s="50" t="s">
+      <c r="J84" s="48" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4947,30 +4922,30 @@
       <c r="C85" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D85" s="47">
+      <c r="D85" s="45">
         <v>1</v>
       </c>
-      <c r="E85" s="48">
-        <v>5500</v>
+      <c r="E85" s="46">
+        <v>5900</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="48">
+      <c r="G85" s="46">
         <f t="shared" ref="G85:G95" si="14">D85*E85</f>
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I85" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I85" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="J85" s="50" t="s">
+      <c r="J85" s="48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="s">
         <v>62</v>
       </c>
@@ -4980,26 +4955,26 @@
       <c r="C86" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D86" s="45">
         <v>1</v>
       </c>
-      <c r="E86" s="75">
-        <v>5500</v>
+      <c r="E86" s="46">
+        <v>5900</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="36">
         <f t="shared" ref="G86" si="15">D86*E86</f>
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I86" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="I86" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="J86" s="74" t="s">
+      <c r="J86" s="72" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5011,32 +4986,32 @@
         <v>23</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D87" s="35">
         <v>1</v>
       </c>
-      <c r="E87" s="75">
-        <v>5500</v>
+      <c r="E87" s="46">
+        <v>5900</v>
       </c>
       <c r="F87" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="36">
         <f t="shared" si="14"/>
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I87" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="J87" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="K87" s="72" t="s">
-        <v>265</v>
+        <v>249</v>
+      </c>
+      <c r="I87" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="J87" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="K87" s="70" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5049,26 +5024,26 @@
       <c r="C88" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D88" s="47">
+      <c r="D88" s="45">
         <v>1</v>
       </c>
-      <c r="E88" s="48">
-        <v>7500</v>
+      <c r="E88" s="46">
+        <v>8000</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="48">
+      <c r="G88" s="46">
         <f t="shared" si="14"/>
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I88" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="J88" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I88" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="J88" s="48" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5082,29 +5057,29 @@
       <c r="C89" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="47">
+      <c r="D89" s="45">
         <v>1</v>
       </c>
-      <c r="E89" s="48">
-        <v>10000</v>
+      <c r="E89" s="46">
+        <v>11500</v>
       </c>
       <c r="F89" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G89" s="48">
+      <c r="G89" s="46">
         <f t="shared" si="14"/>
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I89" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I89" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="J89" s="50" t="s">
+      <c r="J89" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="K89" s="72" t="s">
+      <c r="K89" s="70" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5118,29 +5093,29 @@
       <c r="C90" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D90" s="47">
+      <c r="D90" s="45">
         <v>1</v>
       </c>
-      <c r="E90" s="48">
-        <v>10000</v>
+      <c r="E90" s="46">
+        <v>11500</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G90" s="48">
+      <c r="G90" s="46">
         <f t="shared" si="14"/>
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I90" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I90" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="J90" s="50" t="s">
+      <c r="J90" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="K90" s="72" t="s">
+      <c r="K90" s="70" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5154,26 +5129,26 @@
       <c r="C91" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D91" s="47">
+      <c r="D91" s="45">
         <v>1</v>
       </c>
-      <c r="E91" s="48">
-        <v>10500</v>
+      <c r="E91" s="46">
+        <v>12500</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="48">
+      <c r="G91" s="46">
         <f t="shared" si="14"/>
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I91" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I91" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J91" s="50" t="s">
+      <c r="J91" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5187,26 +5162,26 @@
       <c r="C92" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D92" s="47">
+      <c r="D92" s="45">
         <v>1</v>
       </c>
-      <c r="E92" s="48">
-        <v>10500</v>
+      <c r="E92" s="46">
+        <v>12500</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="48">
+      <c r="G92" s="46">
         <f t="shared" si="14"/>
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I92" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I92" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="J92" s="50" t="s">
+      <c r="J92" s="48" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5220,26 +5195,26 @@
       <c r="C93" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="47">
+      <c r="D93" s="45">
         <v>1</v>
       </c>
-      <c r="E93" s="48">
+      <c r="E93" s="46">
         <v>11450</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="48">
+      <c r="G93" s="46">
         <f t="shared" si="14"/>
         <v>11450</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I93" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I93" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="J93" s="50" t="s">
+      <c r="J93" s="48" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5251,32 +5226,32 @@
         <v>27</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D94" s="24">
         <v>1</v>
       </c>
       <c r="E94" s="25">
-        <v>5900</v>
-      </c>
-      <c r="F94" s="77" t="s">
+        <v>6900</v>
+      </c>
+      <c r="F94" s="74" t="s">
         <v>8</v>
       </c>
       <c r="G94" s="25">
         <f t="shared" ref="G94" si="16">D94*E94</f>
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="H94" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I94" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I94" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="J94" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="J94" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="K94" s="72" t="s">
-        <v>201</v>
+      <c r="K94" s="70" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5303,15 +5278,15 @@
         <v>9000</v>
       </c>
       <c r="H95" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I95" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I95" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="J95" s="50" t="s">
+      <c r="J95" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="K95" s="72" t="s">
+      <c r="K95" s="70" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5323,12 +5298,12 @@
         <v>29</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D96" s="24">
         <v>1</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="46">
         <v>9000</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -5339,16 +5314,16 @@
         <v>9000</v>
       </c>
       <c r="H96" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I96" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I96" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="J96" s="50" t="s">
+      <c r="J96" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K96" s="72" t="s">
-        <v>232</v>
+      <c r="K96" s="70" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5361,29 +5336,29 @@
       <c r="C97" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="D97" s="47">
+      <c r="D97" s="45">
         <v>1</v>
       </c>
-      <c r="E97" s="48">
-        <v>5500</v>
+      <c r="E97" s="46">
+        <v>7000</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="48">
+      <c r="G97" s="46">
         <f>D97*E97</f>
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I97" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I97" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="J97" s="50" t="s">
+      <c r="J97" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="K97" s="72" t="s">
+      <c r="K97" s="70" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5395,29 +5370,32 @@
         <v>33</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D98" s="47">
+        <v>277</v>
+      </c>
+      <c r="D98" s="45">
         <v>1</v>
       </c>
-      <c r="E98" s="48">
-        <v>5500</v>
+      <c r="E98" s="46">
+        <v>8000</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="48">
+      <c r="G98" s="46">
         <f>D98*E98</f>
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I98" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="J98" s="50" t="s">
-        <v>184</v>
+        <v>249</v>
+      </c>
+      <c r="I98" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="J98" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="K98" s="70" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5428,263 +5406,296 @@
         <v>33</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D99" s="47">
+        <v>74</v>
+      </c>
+      <c r="D99" s="45">
         <v>1</v>
       </c>
-      <c r="E99" s="48">
-        <v>9500</v>
-      </c>
-      <c r="F99" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G99" s="48">
+      <c r="E99" s="46">
+        <v>7000</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="46">
         <f>D99*E99</f>
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I99" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="J99" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="K99" s="72" t="s">
-        <v>267</v>
+        <v>249</v>
+      </c>
+      <c r="I99" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="J99" s="48" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="78" t="s">
-        <v>218</v>
+      <c r="B100" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="D100" s="47">
+        <v>258</v>
+      </c>
+      <c r="D100" s="45">
         <v>1</v>
       </c>
-      <c r="E100" s="48">
-        <v>12000</v>
+      <c r="E100" s="46">
+        <v>9500</v>
       </c>
       <c r="F100" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G100" s="48">
-        <f t="shared" ref="G100" si="18">D100*E100</f>
+      <c r="G100" s="46">
+        <f>D100*E100</f>
+        <v>9500</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I100" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="J100" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="K100" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="45">
+        <v>1</v>
+      </c>
+      <c r="E101" s="46">
         <v>12000</v>
       </c>
-      <c r="H100" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I100" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="J100" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="K100" s="72" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="F101" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G101" s="46">
+        <f t="shared" ref="G101" si="18">D101*E101</f>
+        <v>12000</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I101" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="J101" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="K101" s="70" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B102" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C102" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D102" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F101" s="12" t="s">
+      <c r="E102" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F102" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G102" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H101" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I101" s="12" t="s">
+      <c r="H102" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J102" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="58" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A28)</f>
-        <v>En curso = 27</v>
-      </c>
-      <c r="B102" s="62" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B11:B24,B32:B43,B55:B92)</f>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="56" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A27)</f>
+        <v>En curso = 26</v>
+      </c>
+      <c r="B103" s="60" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B11:B23,B31:B43,B55:B92)</f>
         <v>Ivrea = 64</v>
       </c>
-      <c r="C102" s="57" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C100)</f>
-        <v>Series en total = 99</v>
-      </c>
-      <c r="D102" s="51">
-        <f>SUM(D2:D100)</f>
-        <v>443</v>
-      </c>
-      <c r="E102" s="52">
-        <f>SUM(E2:E100)</f>
-        <v>674250</v>
-      </c>
-      <c r="F102" s="53" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F14,F25,F29:F31,F35:F44,F48:F50,F52:F54,F62:F80,F93,F95:F99)</f>
+      <c r="C103" s="55" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C101)</f>
+        <v>Series en total = 100</v>
+      </c>
+      <c r="D103" s="49">
+        <f>SUM(D2:D101)</f>
+        <v>453</v>
+      </c>
+      <c r="E103" s="50">
+        <f>SUM(E2:E101)</f>
+        <v>760850</v>
+      </c>
+      <c r="F103" s="51" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F13,F24,F28:F30,F34:F44,F48:F50,F52:F54,F62:F80,F93,F95:F99)</f>
         <v>B6 = 58</v>
       </c>
-      <c r="G102" s="52">
-        <f>SUM(G2:G100)</f>
-        <v>2739250</v>
-      </c>
-      <c r="H102" s="54" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H8,H13:H14,H19,H26:H27,H29:H51,H53:H56,H62,H64:H100)</f>
-        <v>Finalizados = 71</v>
-      </c>
-      <c r="I102" s="53" t="str">
-        <f>"B6 = " &amp; SUM(D2:D14,D25,D29:D31,D35:D44,D48:D50,D52:D54,D62:D80,D93,D95:D98)</f>
-        <v>B6 = 248</v>
-      </c>
-      <c r="J102" s="81" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K9:K10,K12:K16,K18:K23,K25:K29,K31,K34:K36,K44:K49,K51,K72:K75,K77:K81,K87,K89:K90,K94:K97,K99:K100)</f>
-        <v>Series = 52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="59" t="str">
-        <f>"Completado = " &amp; COUNTA(A29:A51)</f>
-        <v>Completado = 23</v>
-      </c>
-      <c r="B103" s="63" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B10,B52:B54,B29:B31)</f>
+      <c r="G103" s="50">
+        <f>SUM(G2:G101)</f>
+        <v>3041850</v>
+      </c>
+      <c r="H103" s="52" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H8,H13,H18,H25:H26,H28:H51,H53:H56,H62,H64:H101)</f>
+        <v>Finalizados = 72</v>
+      </c>
+      <c r="I103" s="51" t="str">
+        <f>"B6 = " &amp; SUM(D2:D13,D24,D28:D30,D34:D44,D48:D50,D52:D54,D62:D80,D93,D95:D99)</f>
+        <v>B6 = 254</v>
+      </c>
+      <c r="J103" s="77" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K9:K15,K17:K22,K24:K28,K30,K33:K35,K44:K49,K51,K72:K75,K77:K81,K87,K89:K90,K94:K98,K100:K101)</f>
+        <v>Series = 53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="57" t="str">
+        <f>"Completado = " &amp; COUNTA(A28:A51)</f>
+        <v>Completado = 24</v>
+      </c>
+      <c r="B104" s="61" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B10,B52:B54,B28:B30)</f>
         <v>Panini = 15</v>
       </c>
-      <c r="F103" s="56" t="str">
-        <f>"C6 = " &amp; COUNTA(F15:F22,F32:F34,F51,F55:F61,F83:F88)</f>
+      <c r="F104" s="54" t="str">
+        <f>"C6 = " &amp; COUNTA(F14:F21,F31:F33,F51,F55:F61,F83:F88)</f>
         <v>C6 = 25</v>
       </c>
-      <c r="H103" s="55" t="str">
-        <f>"En publicacion = " &amp; COUNTA(H2:H7,H9:H12,H15:H18,H20:H25,H28,H52,H57:H61,H63)</f>
+      <c r="H104" s="53" t="str">
+        <f>"En publicacion = " &amp; COUNTA(H2:H7,H9:H12,H14:H17,H19:H24,H27,H52,H57:H61,H63)</f>
         <v>En publicacion = 28</v>
       </c>
-      <c r="I103" s="56" t="str">
-        <f>"C6 = " &amp; SUM(D15:D22,D32:D34,D51,D55:D61,D83:D88)</f>
-        <v>C6 = 158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="60" t="str">
+      <c r="I104" s="54" t="str">
+        <f>"C6 = " &amp; SUM(D14:D21,D31:D33,D51,D55:D61,D83:D88)</f>
+        <v>C6 = 162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="58" t="str">
         <f>"Droppeado = " &amp; COUNTA(A52:A63)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B104" s="64" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B47,B97:B99)</f>
-        <v>Kemuri = 4</v>
-      </c>
-      <c r="F104" s="27" t="str">
-        <f>"A5 = " &amp; COUNTA(F24,F26:F27,F45:F47,F91,F94)</f>
+      <c r="B105" s="62" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B47,B97:B100)</f>
+        <v>Kemuri = 5</v>
+      </c>
+      <c r="F105" s="27" t="str">
+        <f>"A5 = " &amp; COUNTA(F23,F25:F26,F45:F47,F91,F94)</f>
         <v>A5 = 8</v>
       </c>
-      <c r="I104" s="27" t="str">
-        <f>"A5 = " &amp; SUM(D24,D26:D27,D45:D47,D91,D94)</f>
+      <c r="I105" s="27" t="str">
+        <f>"A5 = " &amp; SUM(D23,D25:D26,D45:D47,D91,D94)</f>
         <v>A5 = 24</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="61" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A64:A100)</f>
-        <v>Tomo único = 37</v>
-      </c>
-      <c r="B105" s="65" t="str">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="59" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A64:A101)</f>
+        <v>Tomo único = 38</v>
+      </c>
+      <c r="B106" s="63" t="str">
         <f>"Distrito Manga = " &amp; COUNTA(B48:B49,B94)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F105" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F81:F82,F99:F100)</f>
+      <c r="F106" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F81:F82,F100:F101)</f>
         <v>B6x2 = 4</v>
       </c>
-      <c r="I105" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D81:D82,D99:D100)</f>
+      <c r="I106" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D81:D82,D100:D101)</f>
         <v>B6x2 = 4</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="66" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B25,B95:B96)</f>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="64" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B24,B95:B96)</f>
         <v>Ovni Press = 3</v>
       </c>
-      <c r="F106" s="29" t="str">
+      <c r="F107" s="29" t="str">
         <f>"C6x2 = " &amp; COUNTA(F89:F90)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I106" s="29" t="str">
+      <c r="I107" s="29" t="str">
         <f>"C6x2 = " &amp; SUM(D89:D90)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="68" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B44:B45)</f>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="66" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B25:B26,B44:B45)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F107" s="30" t="str">
-        <f>"A5 color = " &amp; COUNTA(F92,F23,F28)</f>
+      <c r="F108" s="30" t="str">
+        <f>"A5 color = " &amp; COUNTA(F92,F22,F27)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I107" s="30" t="str">
-        <f>"A5 color = " &amp; SUM(D92,D23,D28)</f>
+      <c r="I108" s="30" t="str">
+        <f>"A5 color = " &amp; SUM(D92,D22,D27)</f>
         <v>A5 color = 7</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="67" t="str">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="65" t="str">
         <f>"Utopia = " &amp; COUNTA(B50:B51)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="69" t="str">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="67" t="str">
         <f>"Merci = " &amp; COUNTA(B46)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="70" t="str">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="68" t="str">
         <f>"Milky Way = " &amp; COUNTA(B93)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="79" t="str">
-        <f>"Moztros = " &amp; COUNTA(B100)</f>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="79" t="str">
+        <f>"Moztros = " &amp; COUNTA(B101)</f>
         <v>Moztros = 1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="83" t="str">
-        <f>"Random Comics = " &amp; COUNTA(B28)</f>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="80" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B27)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F100">
+  <conditionalFormatting sqref="F2:F101">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -5692,17 +5703,17 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F23 F25:F28 F30 F32:F100">
+  <conditionalFormatting sqref="F9:F22 F24:F27 F29 F31:F101">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F28 F30 F32:F100">
+  <conditionalFormatting sqref="F9:F27 F29 F31:F101">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H28 H30 H32:H100">
+  <conditionalFormatting sqref="H3:H27 H29 H31:H101">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH("En publicacion",H3)))</formula>
     </cfRule>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A01B093-BEA5-498B-85F7-27ADFC2382A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A9190A-4E51-403F-BD28-043615D7A18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6765F00-11DB-40F5-BC3F-F1F6DA2C76AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="281">
   <si>
     <t>Tomos</t>
   </si>
@@ -862,6 +862,12 @@
   </si>
   <si>
     <t>Comaku</t>
+  </si>
+  <si>
+    <t>Kanna Kii</t>
+  </si>
+  <si>
+    <t>Wotakoi - 4 &amp; 6</t>
   </si>
 </sst>
 </file>
@@ -1986,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD5DF50-6FBC-4F7F-9AF4-AF00221DFCCC}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,6 +2292,9 @@
       <c r="J8" s="48" t="s">
         <v>121</v>
       </c>
+      <c r="K8" s="70" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -2907,14 +2916,14 @@
         <v>1</v>
       </c>
       <c r="E26" s="46">
-        <v>12000</v>
+        <v>28100</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>28100</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>238</v>
@@ -4318,10 +4327,10 @@
         <v>249</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="J67" s="48" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5481,14 +5490,14 @@
         <v>1</v>
       </c>
       <c r="E101" s="46">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>66</v>
       </c>
       <c r="G101" s="46">
         <f t="shared" ref="G101" si="18">D101*E101</f>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>249</v>
@@ -5554,7 +5563,7 @@
       </c>
       <c r="E103" s="50">
         <f>SUM(E2:E101)</f>
-        <v>760850</v>
+        <v>778950</v>
       </c>
       <c r="F103" s="51" t="str">
         <f>"B6 = " &amp; COUNTA(F2:F13,F24,F28:F30,F34:F44,F48:F50,F52:F54,F62:F80,F93,F95:F99)</f>
@@ -5562,7 +5571,7 @@
       </c>
       <c r="G103" s="50">
         <f>SUM(G2:G101)</f>
-        <v>3041850</v>
+        <v>3059950</v>
       </c>
       <c r="H103" s="52" t="str">
         <f>"Finalizados = " &amp; COUNTA(H8,H13,H18,H25:H26,H28:H51,H53:H56,H62,H64:H101)</f>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A307C-ACA8-4E8A-BA08-3C8F83D89518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF6209C-F94E-4382-AADC-B6A42C5B7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,9 +176,6 @@
     <t>Rooster Fighter - 5 &amp; 6</t>
   </si>
   <si>
-    <t>Dead Dead Demon's Dededede Destruction</t>
-  </si>
-  <si>
     <t>Finalizado (12)</t>
   </si>
   <si>
@@ -915,6 +912,9 @@
   </si>
   <si>
     <t>Tomos sin leer</t>
+  </si>
+  <si>
+    <t>Dead Dead Demon´s Dededede Destruction</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2432,7 +2434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="D11" s="6">
         <v>6</v>
@@ -2456,16 +2458,16 @@
         <v>41400</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="J11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2476,7 +2478,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
@@ -2495,13 +2497,13 @@
         <v>15</v>
       </c>
       <c r="I12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2512,7 +2514,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6">
         <v>12</v>
@@ -2521,7 +2523,7 @@
         <v>5900</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
@@ -2531,13 +2533,13 @@
         <v>15</v>
       </c>
       <c r="I13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2548,7 +2550,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12">
         <v>21</v>
@@ -2557,7 +2559,7 @@
         <v>5900</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
@@ -2567,13 +2569,13 @@
         <v>15</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2584,7 +2586,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="6">
         <v>16</v>
@@ -2593,7 +2595,7 @@
         <v>5900</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
@@ -2603,10 +2605,10 @@
         <v>15</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,7 +2619,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="6">
         <v>10</v>
@@ -2626,7 +2628,7 @@
         <v>5900</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
@@ -2636,13 +2638,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2653,7 +2655,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="6">
         <v>9</v>
@@ -2662,7 +2664,7 @@
         <v>5900</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
@@ -2672,13 +2674,13 @@
         <v>30</v>
       </c>
       <c r="I17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2689,7 +2691,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="12">
         <v>10</v>
@@ -2698,7 +2700,7 @@
         <v>5900</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
@@ -2708,13 +2710,13 @@
         <v>15</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2725,7 +2727,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -2734,7 +2736,7 @@
         <v>5900</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
@@ -2744,13 +2746,13 @@
         <v>15</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,7 +2763,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -2770,7 +2772,7 @@
         <v>5900</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
@@ -2780,13 +2782,13 @@
         <v>15</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="K20" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2799,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
@@ -2806,7 +2808,7 @@
         <v>21500</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
@@ -2816,13 +2818,13 @@
         <v>15</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2833,7 +2835,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="6">
         <v>11</v>
@@ -2842,7 +2844,7 @@
         <v>8000</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
@@ -2852,10 +2854,10 @@
         <v>15</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,10 +2865,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D23" s="6">
         <v>5</v>
@@ -2885,13 +2887,13 @@
         <v>15</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2899,10 +2901,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -2911,23 +2913,23 @@
         <v>9800</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>19600</v>
       </c>
       <c r="H24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="J24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2935,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -2947,23 +2949,23 @@
         <v>12000</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,10 +2973,10 @@
         <v>11</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -2983,7 +2985,7 @@
         <v>18000</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
@@ -2993,24 +2995,24 @@
         <v>15</v>
       </c>
       <c r="I26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D27" s="6">
         <v>28</v>
@@ -3026,7 +3028,7 @@
         <v>168000</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>41</v>
@@ -3035,18 +3037,18 @@
         <v>41</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="31">
         <v>2</v>
@@ -3062,24 +3064,24 @@
         <v>12000</v>
       </c>
       <c r="H28" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="34" t="s">
-        <v>111</v>
-      </c>
       <c r="J28" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="12">
         <v>9</v>
@@ -3095,27 +3097,27 @@
         <v>54000</v>
       </c>
       <c r="H29" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="J29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="12">
         <v>3</v>
@@ -3131,27 +3133,27 @@
         <v>18000</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" s="12">
         <v>22</v>
@@ -3167,27 +3169,27 @@
         <v>132000</v>
       </c>
       <c r="H31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="36" t="s">
         <v>123</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="6">
         <v>23</v>
@@ -3196,31 +3198,31 @@
         <v>5900</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
         <v>135700</v>
       </c>
       <c r="H32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D33" s="6">
         <v>12</v>
@@ -3229,31 +3231,31 @@
         <v>5900</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>70800</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="6">
         <v>8</v>
@@ -3262,34 +3264,34 @@
         <v>5900</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>47200</v>
       </c>
       <c r="H34" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
@@ -3305,27 +3307,27 @@
         <v>13800</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="6">
         <v>3</v>
@@ -3341,27 +3343,27 @@
         <v>20700</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="6">
         <v>3</v>
@@ -3377,27 +3379,27 @@
         <v>22200</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="6">
         <v>13</v>
@@ -3413,24 +3415,24 @@
         <v>89700</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="6">
         <v>8</v>
@@ -3446,24 +3448,24 @@
         <v>55200</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D40" s="6">
         <v>4</v>
@@ -3479,24 +3481,24 @@
         <v>27600</v>
       </c>
       <c r="H40" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="J40" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="6">
         <v>3</v>
@@ -3512,24 +3514,24 @@
         <v>20700</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I41" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -3545,24 +3547,24 @@
         <v>20700</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
@@ -3578,24 +3580,24 @@
         <v>20700</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I43" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44" s="6">
         <v>2</v>
@@ -3611,24 +3613,24 @@
         <v>13800</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="6">
         <v>4</v>
@@ -3644,27 +3646,27 @@
         <v>31200</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
@@ -3673,34 +3675,34 @@
         <v>8500</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="0"/>
         <v>25500</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K46" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
@@ -3709,34 +3711,34 @@
         <v>8000</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3745,34 +3747,34 @@
         <v>8000</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D49" s="6">
         <v>5</v>
@@ -3788,27 +3790,27 @@
         <v>39500</v>
       </c>
       <c r="H49" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="J49" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="K49" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -3824,27 +3826,27 @@
         <v>23700</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
@@ -3860,24 +3862,24 @@
         <v>11800</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
@@ -3886,34 +3888,34 @@
         <v>5900</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
         <v>11800</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I52" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -3932,21 +3934,21 @@
         <v>15</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
@@ -3962,24 +3964,24 @@
         <v>6000</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D55" s="6">
         <v>3</v>
@@ -3995,24 +3997,24 @@
         <v>18000</v>
       </c>
       <c r="H55" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I55" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I55" s="10" t="s">
-        <v>194</v>
-      </c>
       <c r="J55" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D56" s="6">
         <v>12</v>
@@ -4021,31 +4023,31 @@
         <v>5900</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
         <v>70800</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
@@ -4054,31 +4056,31 @@
         <v>17700</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
         <v>17700</v>
       </c>
       <c r="H57" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="J57" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D58" s="6">
         <v>6</v>
@@ -4087,7 +4089,7 @@
         <v>5900</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
@@ -4097,21 +4099,21 @@
         <v>15</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" s="6">
         <v>4</v>
@@ -4120,7 +4122,7 @@
         <v>5900</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
@@ -4130,21 +4132,21 @@
         <v>15</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D60" s="6">
         <v>5</v>
@@ -4153,7 +4155,7 @@
         <v>5900</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
@@ -4163,21 +4165,21 @@
         <v>15</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
@@ -4186,7 +4188,7 @@
         <v>5900</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
@@ -4196,21 +4198,21 @@
         <v>15</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
@@ -4219,7 +4221,7 @@
         <v>5900</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
@@ -4229,21 +4231,21 @@
         <v>15</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63" s="6">
         <v>5</v>
@@ -4259,24 +4261,24 @@
         <v>34500</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D64" s="6">
         <v>1</v>
@@ -4295,21 +4297,21 @@
         <v>15</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="C65" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D65" s="18">
         <v>1</v>
@@ -4325,7 +4327,7 @@
         <v>18000</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I65" s="22" t="s">
         <v>16</v>
@@ -4334,18 +4336,18 @@
         <v>16</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -4361,7 +4363,7 @@
         <v>6900</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>42</v>
@@ -4372,13 +4374,13 @@
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D67" s="6">
         <v>1</v>
@@ -4394,24 +4396,24 @@
         <v>6900</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
@@ -4427,24 +4429,24 @@
         <v>6900</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
@@ -4460,24 +4462,24 @@
         <v>6900</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -4493,24 +4495,24 @@
         <v>6900</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4526,24 +4528,24 @@
         <v>6900</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -4559,24 +4561,24 @@
         <v>6900</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4592,24 +4594,24 @@
         <v>6900</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
@@ -4625,27 +4627,27 @@
         <v>6900</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4661,27 +4663,27 @@
         <v>6900</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4697,27 +4699,27 @@
         <v>6900</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K76" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4733,27 +4735,27 @@
         <v>6900</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I77" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J77" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="J77" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="K77" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B78" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D78" s="46">
         <v>1</v>
@@ -4769,24 +4771,24 @@
         <v>6900</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="31">
         <v>1</v>
@@ -4802,27 +4804,27 @@
         <v>6900</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4838,27 +4840,27 @@
         <v>6900</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4874,27 +4876,27 @@
         <v>6900</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I81" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K81" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4910,27 +4912,27 @@
         <v>6900</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4939,34 +4941,34 @@
         <v>15000</v>
       </c>
       <c r="F83" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I83" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="G83" s="7">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="I83" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="J83" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4975,31 +4977,31 @@
         <v>11500</v>
       </c>
       <c r="F84" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -5008,34 +5010,34 @@
         <v>12500</v>
       </c>
       <c r="F85" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -5044,31 +5046,31 @@
         <v>5900</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -5077,31 +5079,31 @@
         <v>5900</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="18">
         <v>1</v>
@@ -5110,31 +5112,31 @@
         <v>5900</v>
       </c>
       <c r="F88" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G88" s="19">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
       <c r="H88" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -5143,34 +5145,34 @@
         <v>8000</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -5179,31 +5181,31 @@
         <v>5900</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G90" s="32">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I90" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J90" s="34" t="s">
         <v>255</v>
-      </c>
-      <c r="J90" s="34" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="31">
         <v>1</v>
@@ -5212,34 +5214,34 @@
         <v>5900</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G91" s="32">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -5248,31 +5250,31 @@
         <v>8000</v>
       </c>
       <c r="F92" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I92" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J92" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
@@ -5281,34 +5283,34 @@
         <v>11500</v>
       </c>
       <c r="F93" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
@@ -5317,34 +5319,34 @@
         <v>11500</v>
       </c>
       <c r="F94" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K94" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="G94" s="7">
-        <f t="shared" si="0"/>
-        <v>11500</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="K94" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="18">
         <v>1</v>
@@ -5353,34 +5355,34 @@
         <v>16000</v>
       </c>
       <c r="F95" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G95" s="19">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="18">
         <v>1</v>
@@ -5389,34 +5391,34 @@
         <v>16000</v>
       </c>
       <c r="F96" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G96" s="19">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H96" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="18">
         <v>1</v>
@@ -5425,34 +5427,34 @@
         <v>12500</v>
       </c>
       <c r="F97" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G97" s="19">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H97" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -5461,31 +5463,31 @@
         <v>12500</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
@@ -5494,31 +5496,31 @@
         <v>12500</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B100" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
@@ -5534,24 +5536,24 @@
         <v>11450</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101" s="58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="59">
         <v>1</v>
@@ -5560,34 +5562,34 @@
         <v>6900</v>
       </c>
       <c r="F101" s="61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G101" s="60">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H101" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I101" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J101" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>273</v>
-      </c>
       <c r="K101" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C102" s="58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D102" s="59">
         <v>1</v>
@@ -5603,27 +5605,27 @@
         <v>10000</v>
       </c>
       <c r="H102" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D103" s="18">
         <v>1</v>
@@ -5639,27 +5641,27 @@
         <v>9000</v>
       </c>
       <c r="H103" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C104" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D104" s="59">
         <v>1</v>
@@ -5675,7 +5677,7 @@
         <v>10500</v>
       </c>
       <c r="H104" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>19</v>
@@ -5684,18 +5686,18 @@
         <v>19</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
@@ -5711,27 +5713,27 @@
         <v>7000</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
@@ -5747,27 +5749,27 @@
         <v>8000</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D107" s="6">
         <v>1</v>
@@ -5783,24 +5785,24 @@
         <v>7000</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -5809,34 +5811,34 @@
         <v>9500</v>
       </c>
       <c r="F108" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G108" s="7">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="D109" s="6">
         <v>1</v>
@@ -5845,23 +5847,23 @@
         <v>12000</v>
       </c>
       <c r="F109" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G109" s="7">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,7 +5880,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F110" s="63" t="s">
         <v>5</v>
@@ -5887,13 +5889,13 @@
         <v>6</v>
       </c>
       <c r="H110" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I110" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="I110" s="63" t="s">
+      <c r="J110" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF6209C-F94E-4382-AADC-B6A42C5B7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{29FFF945-0C6C-4426-B741-480C888DFD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10C5A507-1152-464D-A114-C1FC121BEDD2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="302">
   <si>
     <t>Estado</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Tsubasa Yamaguchi</t>
   </si>
   <si>
-    <t>Blue Period  - 6 al 14</t>
-  </si>
-  <si>
     <t>Re:Zero</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Daichi Matsue</t>
   </si>
   <si>
-    <t>Re:Zero - 13 al 15</t>
-  </si>
-  <si>
     <t>Shangri-la Frontier</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Ryosuke Fuji</t>
   </si>
   <si>
-    <t>Shangri-la Frontier - 10 &amp; 11</t>
-  </si>
-  <si>
     <t>Wotakoi</t>
   </si>
   <si>
@@ -176,24 +167,21 @@
     <t>Rooster Fighter - 5 &amp; 6</t>
   </si>
   <si>
+    <t>Dead Dead Demon's Dededede Destruction</t>
+  </si>
+  <si>
     <t>Finalizado (12)</t>
   </si>
   <si>
     <t>Inio Asano</t>
   </si>
   <si>
-    <t>Dead Dead Demon's Dededede Destruction - 3 al 5</t>
-  </si>
-  <si>
     <t>Un Extraño en Primavera</t>
   </si>
   <si>
     <t>Kanna Kii</t>
   </si>
   <si>
-    <t>Un Extraño en Primavera - 2</t>
-  </si>
-  <si>
     <t>Spy x Family</t>
   </si>
   <si>
@@ -230,27 +218,18 @@
     <t>Yuuto Suzuki</t>
   </si>
   <si>
-    <t>Sakamoto Days - 3 al 9</t>
-  </si>
-  <si>
     <t>Aku no Hana</t>
   </si>
   <si>
     <t>Shūzō Oshimi</t>
   </si>
   <si>
-    <t>Aku no Hana - 2 al 9</t>
-  </si>
-  <si>
     <t>Dandadan</t>
   </si>
   <si>
     <t>Yukinobu Tatsu</t>
   </si>
   <si>
-    <t>Dandadan - 8 al 10</t>
-  </si>
-  <si>
     <t>Gachiakuta</t>
   </si>
   <si>
@@ -269,9 +248,6 @@
     <t>Kyoutarou Azuma</t>
   </si>
   <si>
-    <t>Versus - 1</t>
-  </si>
-  <si>
     <t>Solo Leveling</t>
   </si>
   <si>
@@ -305,9 +281,6 @@
     <t>Haruko Ichikawa</t>
   </si>
   <si>
-    <t>Houseki no Kuni - 3 al 5</t>
-  </si>
-  <si>
     <t>Planeta Cómic</t>
   </si>
   <si>
@@ -521,9 +494,6 @@
     <t>Paulina Palacios</t>
   </si>
   <si>
-    <t>Mientras Yubooh Duerme - 1 al 3</t>
-  </si>
-  <si>
     <t>Merci</t>
   </si>
   <si>
@@ -914,7 +884,61 @@
     <t>Tomos sin leer</t>
   </si>
   <si>
-    <t>Dead Dead Demon´s Dededede Destruction</t>
+    <t>Blue Period  - 6 al 15</t>
+  </si>
+  <si>
+    <t>Re:Zero - 13 al 16</t>
+  </si>
+  <si>
+    <t>Shangri-la Frontier - 10 al 12</t>
+  </si>
+  <si>
+    <t>Dead Dead Demon's Dededede Destruction - 3 al 7</t>
+  </si>
+  <si>
+    <t>Un Extraño en Primavera - 1 al 3</t>
+  </si>
+  <si>
+    <t>Sakamoto Days - 3 al 11</t>
+  </si>
+  <si>
+    <t>Aku no Hana - 2 al 10</t>
+  </si>
+  <si>
+    <t>Dandadan - 8 al 11</t>
+  </si>
+  <si>
+    <t>Versus - 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Houseki no Kuni - 3 al 6</t>
+  </si>
+  <si>
+    <t>Mientras Yubooh Duerme - 1 al 4</t>
+  </si>
+  <si>
+    <t>Yoru Sumino</t>
+  </si>
+  <si>
+    <t>Izumi Kirihara</t>
+  </si>
+  <si>
+    <t>Quiero Comerme tu Páncreas</t>
+  </si>
+  <si>
+    <t>Sumiko Arai</t>
+  </si>
+  <si>
+    <t>The Guy she was Interested in Wasn't a Guy at all</t>
+  </si>
+  <si>
+    <t>Me Acuesto con mi Amiga Casada</t>
+  </si>
+  <si>
+    <t>Akiba Maou</t>
+  </si>
+  <si>
+    <t>The Guy she was Interested in Wasn't a Guy at all - 1</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1661,9 +1685,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1796,7 +1817,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2058,23 +2119,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="31.5703125" customWidth="1"/>
-    <col min="11" max="11" width="49" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2133,7 +2194,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G109" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G113" si="0">D2*E2</f>
         <v>120000</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -2160,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7">
         <v>6000</v>
@@ -2170,7 +2231,7 @@
       </c>
       <c r="G3" s="7">
         <f t="shared" si="0"/>
-        <v>84000</v>
+        <v>90000</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>15</v>
@@ -2182,7 +2243,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>20</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2193,10 +2254,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7">
         <v>6000</v>
@@ -2206,19 +2267,19 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>96000</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="11" t="s">
-        <v>24</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2229,10 +2290,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7">
         <v>6000</v>
@@ -2242,19 +2303,19 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>72000</v>
+        <v>78000</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2265,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6">
         <v>8</v>
@@ -2281,16 +2342,16 @@
         <v>48000</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -2298,7 +2359,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -2317,16 +2378,16 @@
         <v>15</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2395,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -2346,781 +2407,781 @@
         <v>14</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G8" si="1">D8*E8</f>
         <v>18000</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>39</v>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="12">
-        <v>13</v>
+        <v>298</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
+        <v>9000</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>89700</v>
+        <v>9000</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>41400</v>
+        <v>102700</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11" s="6">
+        <v>41</v>
+      </c>
+      <c r="D11" s="12">
         <v>6</v>
       </c>
       <c r="E11" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>41400</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>47</v>
+        <v>47400</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19">
-        <v>6900</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="B12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7900</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="19">
-        <f t="shared" si="0"/>
-        <v>6900</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="7">
+        <f>D12*E12</f>
+        <v>55300</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="6">
-        <v>12</v>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
       </c>
       <c r="E13" s="7">
-        <v>5900</v>
+        <v>7900</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>70800</v>
-      </c>
-      <c r="H13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" si="0"/>
+        <v>23700</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="12">
-        <v>21</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="6">
+        <v>12</v>
       </c>
       <c r="E14" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>123900</v>
+        <v>82800</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="D15" s="12">
+        <v>21</v>
       </c>
       <c r="E15" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>94400</v>
+        <v>144900</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>59000</v>
+        <v>110400</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>53100</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>30</v>
+        <v>75900</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="12">
+        <v>61</v>
+      </c>
+      <c r="D18" s="6">
         <v>10</v>
       </c>
       <c r="E18" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>59000</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>15</v>
+        <v>69000</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D19" s="12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E19" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>35400</v>
+        <v>75900</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="12">
+        <v>6</v>
       </c>
       <c r="E20" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>5900</v>
+        <v>41400</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D21" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7">
-        <v>21500</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>80</v>
+        <v>6900</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>107500</v>
+        <v>13800</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E22" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>85</v>
+        <v>22500</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>88000</v>
+        <v>112500</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>87</v>
+      <c r="B23" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D23" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E23" s="7">
         <v>9000</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
+      <c r="F23" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>45000</v>
+        <v>99000</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>91</v>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D24" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" s="7">
-        <v>9800</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>85</v>
+        <v>9000</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>19600</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>93</v>
+        <v>54000</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7">
-        <v>12000</v>
+        <v>9800</v>
       </c>
       <c r="F25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>19600</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="7">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="J25" s="10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>100</v>
+      <c r="B26" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
       </c>
       <c r="E26" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
         <v>18000</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F27" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="6">
-        <v>28</v>
-      </c>
-      <c r="E27" s="7">
-        <v>6000</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="0"/>
-        <v>168000</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>106</v>
-      </c>
       <c r="I27" s="10" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="31">
-        <v>2</v>
-      </c>
-      <c r="E28" s="32">
+      <c r="C28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="6">
+        <v>28</v>
+      </c>
+      <c r="E28" s="7">
         <v>6000</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="32">
-        <f t="shared" si="0"/>
-        <v>12000</v>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>168000</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="12">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="C29" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="31">
+        <v>2</v>
+      </c>
+      <c r="E29" s="32">
         <v>6000</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="7">
-        <f t="shared" si="0"/>
-        <v>54000</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="32">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D30" s="12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7">
         <v>6000</v>
@@ -3130,33 +3191,33 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>93</v>
+        <v>54000</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D31" s="12">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7">
         <v>6000</v>
@@ -3166,654 +3227,654 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="12">
+        <v>22</v>
+      </c>
+      <c r="E32" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H32" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="6">
+        <v>23</v>
+      </c>
+      <c r="E33" s="7">
+        <v>6900</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>158700</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="6">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7">
+        <v>6900</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>82800</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="J34" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="6">
-        <v>23</v>
-      </c>
-      <c r="E32" s="7">
-        <v>5900</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="0"/>
-        <v>135700</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="6">
-        <v>12</v>
-      </c>
-      <c r="E33" s="7">
-        <v>5900</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="0"/>
-        <v>70800</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>8</v>
-      </c>
-      <c r="E34" s="7">
-        <v>5900</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="0"/>
-        <v>47200</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2</v>
       </c>
       <c r="E35" s="7">
         <v>6900</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>55200</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D36" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>15800</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D37" s="6">
         <v>3</v>
       </c>
       <c r="E37" s="7">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D38" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E38" s="7">
-        <v>6900</v>
+        <v>8500</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
-        <v>89700</v>
+        <v>25500</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D39" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
-        <v>55200</v>
+        <v>102700</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D40" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E40" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
-        <v>27600</v>
+        <v>63200</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D41" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>31600</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
       </c>
       <c r="E42" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>23700</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
       </c>
       <c r="E43" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>23700</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D44" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>23700</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D45" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" s="7">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
+        <v>15800</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4</v>
+      </c>
+      <c r="E46" s="7">
+        <v>7800</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
         <v>31200</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="6">
-        <v>3</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="H46" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7">
         <v>8500</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G46" s="7">
-        <f t="shared" si="0"/>
-        <v>25500</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="F47" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="6">
         <v>2</v>
-      </c>
-      <c r="E47" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="6">
-        <v>3</v>
       </c>
       <c r="E48" s="7">
         <v>8000</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7">
+        <v>8000</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="H49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="6">
         <v>5</v>
-      </c>
-      <c r="E49" s="7">
-        <v>7900</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="7">
-        <f t="shared" si="0"/>
-        <v>39500</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="6">
-        <v>3</v>
       </c>
       <c r="E50" s="7">
         <v>7900</v>
@@ -3823,63 +3884,66 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>39500</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="40" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>161</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D51" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E51" s="7">
-        <v>5900</v>
+        <v>7900</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
-        <v>11800</v>
+        <v>23700</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
@@ -3888,70 +3952,70 @@
         <v>5900</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
         <v>11800</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>12</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
       </c>
       <c r="E53" s="7">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>15</v>
+        <v>11800</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7">
         <v>6000</v>
@@ -3961,30 +4025,30 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>6000</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>112</v>
+        <v>12000</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D55" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="7">
         <v>6000</v>
@@ -3994,1323 +4058,1320 @@
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="H56" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="6">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7">
+        <v>6900</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="0"/>
+        <v>82800</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="6">
-        <v>12</v>
-      </c>
-      <c r="E56" s="7">
-        <v>5900</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="7">
-        <f t="shared" si="0"/>
-        <v>70800</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <v>1</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>17700</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="7">
+      <c r="F58" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="7">
         <f t="shared" si="0"/>
         <v>17700</v>
       </c>
-      <c r="H57" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="6">
+      <c r="H58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="6">
         <v>6</v>
       </c>
-      <c r="E58" s="7">
-        <v>5900</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="7">
-        <f t="shared" si="0"/>
-        <v>35400</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="6">
-        <v>4</v>
-      </c>
       <c r="E59" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>23600</v>
+        <v>41400</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D60" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>29500</v>
+        <v>27600</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D61" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E61" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>5900</v>
+        <v>34500</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
       </c>
       <c r="E62" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D63" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" s="7">
         <v>6900</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>34500</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>143</v>
+        <v>6900</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D64" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
-      </c>
-      <c r="H64" s="13" t="s">
+        <v>39500</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7">
+        <v>7900</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+      <c r="H65" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="18">
+      <c r="I65" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="18">
         <v>1</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>18000</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F66" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I65" s="22" t="s">
+      <c r="H66" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="22" t="s">
+      <c r="J66" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K65" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D67" s="6">
         <v>1</v>
       </c>
       <c r="E67" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
       </c>
       <c r="E68" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
       </c>
       <c r="E70" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
       </c>
       <c r="E71" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
       </c>
       <c r="E72" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
       <c r="E73" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H73" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="I73" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="J73" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
       </c>
       <c r="E74" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
       </c>
       <c r="E76" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
       </c>
       <c r="E77" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="D78" s="46">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="6">
         <v>1</v>
       </c>
       <c r="E78" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="47">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+      <c r="G78" s="7">
+        <f t="shared" si="0"/>
+        <v>7900</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="B79" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="31">
+        <v>225</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="46">
         <v>1</v>
       </c>
       <c r="E79" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F79" s="33" t="s">
+        <v>7900</v>
+      </c>
+      <c r="F79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="32">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+      <c r="G79" s="47">
+        <f t="shared" si="0"/>
+        <v>7900</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="31">
         <v>1</v>
       </c>
       <c r="E80" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F80" s="8" t="s">
+        <v>7900</v>
+      </c>
+      <c r="F80" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+      <c r="G80" s="32">
+        <f t="shared" si="0"/>
+        <v>7900</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
       </c>
       <c r="E81" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
       </c>
       <c r="E82" s="7">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
       </c>
       <c r="E83" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F83" s="50" t="s">
-        <v>244</v>
+        <v>7900</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>7900</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
       </c>
       <c r="E84" s="7">
-        <v>11500</v>
+        <v>16900</v>
       </c>
       <c r="F84" s="50" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>16900</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
       </c>
       <c r="E85" s="7">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="F85" s="50" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
       </c>
       <c r="E86" s="7">
-        <v>5900</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>54</v>
+        <v>12500</v>
+      </c>
+      <c r="F86" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="G86" s="7">
         <f t="shared" si="0"/>
-        <v>5900</v>
+        <v>12500</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
       </c>
       <c r="E87" s="7">
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="0"/>
-        <v>5900</v>
+        <v>6900</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D88" s="18">
+        <v>203</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D88" s="6">
         <v>1</v>
       </c>
-      <c r="E88" s="19">
-        <v>5900</v>
-      </c>
-      <c r="F88" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="G88" s="19">
-        <f t="shared" si="0"/>
-        <v>5900</v>
-      </c>
-      <c r="H88" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="I88" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J88" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="7">
+        <v>6900</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D89" s="6">
+        <v>203</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="18">
         <v>1</v>
       </c>
       <c r="E89" s="7">
-        <v>8000</v>
+        <v>6900</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G89" s="7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="K89" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G89" s="19">
+        <f t="shared" si="0"/>
+        <v>6900</v>
+      </c>
+      <c r="H89" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>253</v>
+        <v>36</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
       </c>
       <c r="E90" s="7">
-        <v>5900</v>
+        <v>8000</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G90" s="32">
-        <f t="shared" si="0"/>
-        <v>5900</v>
+        <v>50</v>
+      </c>
+      <c r="G90" s="7">
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I90" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="J90" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D91" s="31">
+        <v>36</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="D91" s="6">
         <v>1</v>
       </c>
       <c r="E91" s="7">
-        <v>5900</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>54</v>
+        <v>6900</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G91" s="32">
         <f t="shared" si="0"/>
-        <v>5900</v>
-      </c>
-      <c r="H91" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6900</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J91" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D92" s="6">
+        <v>246</v>
+      </c>
+      <c r="D92" s="31">
         <v>1</v>
       </c>
       <c r="E92" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F92" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="G92" s="7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>216</v>
+        <v>7900</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G92" s="32">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+      <c r="H92" s="35" t="s">
+        <v>206</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="7">
-        <v>11500</v>
-      </c>
-      <c r="F93" s="54" t="s">
-        <v>260</v>
+        <v>8000</v>
+      </c>
+      <c r="F93" s="52" t="s">
+        <v>50</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K93" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
@@ -5318,71 +5379,71 @@
       <c r="E94" s="7">
         <v>11500</v>
       </c>
-      <c r="F94" s="54" t="s">
-        <v>260</v>
+      <c r="F94" s="53" t="s">
+        <v>250</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" s="18">
+        <v>203</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" s="6">
         <v>1</v>
       </c>
-      <c r="E95" s="19">
-        <v>16000</v>
-      </c>
-      <c r="F95" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="G95" s="19">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="H95" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="I95" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J95" s="22" t="s">
-        <v>48</v>
+      <c r="E95" s="7">
+        <v>11500</v>
+      </c>
+      <c r="F95" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D96" s="18">
         <v>1</v>
@@ -5390,104 +5451,107 @@
       <c r="E96" s="19">
         <v>16000</v>
       </c>
-      <c r="F96" s="55" t="s">
-        <v>85</v>
+      <c r="F96" s="54" t="s">
+        <v>77</v>
       </c>
       <c r="G96" s="19">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="H96" s="52" t="s">
-        <v>216</v>
+      <c r="H96" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D97" s="18">
         <v>1</v>
       </c>
       <c r="E97" s="19">
+        <v>16000</v>
+      </c>
+      <c r="F97" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G97" s="19">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H97" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I97" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="18">
+        <v>1</v>
+      </c>
+      <c r="E98" s="19">
         <v>12500</v>
       </c>
-      <c r="F97" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="G97" s="19">
+      <c r="F98" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" s="19">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="H97" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="I97" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J97" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1</v>
-      </c>
-      <c r="E98" s="7">
-        <v>12500</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G98" s="7">
-        <f t="shared" si="0"/>
-        <v>12500</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H98" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J98" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
@@ -5495,281 +5559,278 @@
       <c r="E99" s="7">
         <v>12500</v>
       </c>
-      <c r="F99" s="24" t="s">
-        <v>80</v>
+      <c r="F99" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B100" s="56" t="s">
-        <v>268</v>
+        <v>203</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
       </c>
       <c r="E100" s="7">
+        <v>12500</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" si="0"/>
+        <v>12500</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7">
         <v>11450</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F101" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G101" s="7">
         <f t="shared" si="0"/>
         <v>11450</v>
       </c>
-      <c r="H100" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I100" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C101" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="D101" s="59">
+      <c r="H101" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" s="58">
         <v>1</v>
       </c>
-      <c r="E101" s="60">
+      <c r="E102" s="59">
         <v>6900</v>
       </c>
-      <c r="F101" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G101" s="60">
+      <c r="F102" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G102" s="59">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H101" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="I101" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="K101" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="B102" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="D102" s="59">
+      <c r="H102" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D103" s="58">
         <v>1</v>
       </c>
-      <c r="E102" s="60">
+      <c r="E103" s="59">
         <v>10000</v>
       </c>
-      <c r="F102" s="64" t="s">
+      <c r="F103" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="60">
+      <c r="G103" s="59">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H102" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K102" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B103" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D103" s="18">
+      <c r="H103" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="18">
         <v>1</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E104" s="19">
         <v>9000</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F104" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="19">
+      <c r="G104" s="19">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="H103" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="I103" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="J103" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="K103" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C104" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="D104" s="59">
+      <c r="H104" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I104" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="J104" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="K104" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D105" s="58">
         <v>1</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E105" s="7">
         <v>10500</v>
       </c>
-      <c r="F104" s="64" t="s">
+      <c r="F105" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G104" s="60">
-        <f t="shared" si="0"/>
+      <c r="G105" s="59">
+        <f t="shared" ref="G105" si="2">D105*E105</f>
         <v>10500</v>
       </c>
-      <c r="H104" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="I104" s="10" t="s">
+      <c r="H105" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I105" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="J105" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K104" s="11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D105" s="6">
+      <c r="K105" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="D106" s="58">
         <v>1</v>
       </c>
-      <c r="E105" s="7">
-        <v>7000</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="7">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K105" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D106" s="6">
-        <v>1</v>
-      </c>
       <c r="E106" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H106" s="14" t="s">
-        <v>216</v>
+        <v>15000</v>
+      </c>
+      <c r="F106" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="G106" s="59">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H106" s="61" t="s">
+        <v>206</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D107" s="6">
         <v>1</v>
@@ -5785,284 +5846,424 @@
         <v>7000</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="42" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
       </c>
       <c r="E108" s="7">
-        <v>9500</v>
-      </c>
-      <c r="F108" s="50" t="s">
-        <v>244</v>
+        <v>8000</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G108" s="7">
         <f t="shared" si="0"/>
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B109" s="66" t="s">
-        <v>286</v>
+        <v>203</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>157</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D109" s="6">
         <v>1</v>
       </c>
       <c r="E109" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="6">
+        <v>1</v>
+      </c>
+      <c r="E110" s="7">
+        <v>9500</v>
+      </c>
+      <c r="F110" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" ref="G110" si="3">D110*E110</f>
+        <v>9500</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1</v>
+      </c>
+      <c r="E111" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F111" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="K111" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="7">
         <v>12000</v>
       </c>
-      <c r="F109" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G109" s="7">
-        <f t="shared" si="0"/>
+      <c r="F112" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" ref="G112" si="4">D112*E112</f>
         <v>12000</v>
       </c>
-      <c r="H109" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="J109" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="63" t="s">
+      <c r="H112" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+      <c r="E113" s="7">
+        <v>8000</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="7">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="63" t="s">
+      <c r="B114" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F110" s="63" t="s">
+      <c r="E114" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F114" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I110" s="63" t="s">
-        <v>291</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="67" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A26)</f>
-        <v>En curso = 25</v>
-      </c>
-      <c r="B111" s="68" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B9:B22,B32:B44,B56:B99)</f>
+      <c r="H114" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I114" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="66" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A27)</f>
+        <v>En curso = 26</v>
+      </c>
+      <c r="B115" s="67" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B10:B23,B33:B45,B57:B100)</f>
         <v>Ivrea = 71</v>
       </c>
-      <c r="C111" s="69" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C109)</f>
-        <v>Series en total = 108</v>
-      </c>
-      <c r="D111" s="70">
-        <f t="shared" ref="D111:E111" si="1">SUM(D2:D109)</f>
-        <v>473</v>
-      </c>
-      <c r="E111" s="71">
-        <f t="shared" si="1"/>
-        <v>862750</v>
-      </c>
-      <c r="F111" s="72" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F12,F23,F27:F31,F35:F45,F49:F51,F53:F55,F63:F82,F100,F102:F107)</f>
-        <v>B6 = 61</v>
-      </c>
-      <c r="G111" s="71">
-        <f>SUM(G2:G109)</f>
-        <v>3223150</v>
-      </c>
-      <c r="H111" s="73" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H6,H11,H17,H24:H25,H27:H52,H54:H57,H63,H65:H109)</f>
-        <v>Finalizados = 81</v>
-      </c>
-      <c r="I111" s="72" t="str">
-        <f>"B6 = " &amp; SUM(D2:D12,D23,D27:D31,D35:D45,D49:D51,D53:D55,D63:D82,D100,D102:D107)</f>
-        <v>B6 = 265</v>
-      </c>
-      <c r="J111" s="74" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K5,K7:K14,K16:K21,K23:K27,K30:K31,K34:K37,K45:K50,K52,K65,K74:K77,K79:K83,K85,K89,K91,K93:K97,K101:K106,K108:K109)</f>
-        <v>Series = 62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="75" t="str">
-        <f>"Completado = " &amp; COUNTA(A27:A52)</f>
+      <c r="C115" s="68" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C113)</f>
+        <v>Series en total = 112</v>
+      </c>
+      <c r="D115" s="69">
+        <f>SUM(D2:D113)</f>
+        <v>489</v>
+      </c>
+      <c r="E115" s="70">
+        <f>SUM(E2:E113)</f>
+        <v>961750</v>
+      </c>
+      <c r="F115" s="71" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F8,F10:F13,F24,F28:F32,F36:F46,F50:F52,F54:F56,F64:F83,F101,F103:F105,F107:F109,F113)</f>
+        <v>B6 = 62</v>
+      </c>
+      <c r="G115" s="70">
+        <f>SUM(G2:G113)</f>
+        <v>3623150</v>
+      </c>
+      <c r="H115" s="72" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H6,H12,H18,H25:H26,H28:H53,H55:H58,H64,H66:H113)</f>
+        <v>Finalizados = 84</v>
+      </c>
+      <c r="I115" s="71" t="str">
+        <f>"B6 = " &amp; SUM(D2:D8,D10:D13,D24,D28:D32,D36:D46,D50:D52,D54:D56,D64:D83,D101,D103:D105,D107:D109,D113)</f>
+        <v>B6 = 273</v>
+      </c>
+      <c r="J115" s="73" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K5,K7:K15,K17:K22,K24:K28,K30:K32,K35:K38,K46:K51,K53,K66,K75:K78,K80:K85,K90,K92,K94:K98,K102:K108,K110:K113)</f>
+        <v>Series = 67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="74" t="str">
+        <f>"Completado = " &amp; COUNTA(A28:A53)</f>
         <v>Completado = 26</v>
       </c>
-      <c r="B112" s="76" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B8,B27:B31,B53:B55)</f>
-        <v>Panini = 15</v>
-      </c>
-      <c r="F112" s="77" t="str">
-        <f>"C6 = " &amp; COUNTA(F13:F20,F32:F34,F52,F56:F62,F86:F92)</f>
+      <c r="B116" s="75" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B9,B28:B32,B54:B56,B113)</f>
+        <v>Panini = 17</v>
+      </c>
+      <c r="F116" s="76" t="str">
+        <f>"C6 = " &amp; COUNTA(F14:F21,F33:F35,F53,F57:F63,F87:F93)</f>
         <v>C6 = 26</v>
       </c>
-      <c r="H112" s="78" t="str">
-        <f>"En publicacion = " &amp; COUNTA(H2:H5,H7:H10,H12:H16,H18:H23,H26,H53,H58:H62,H64)</f>
-        <v>En publicacion = 27</v>
-      </c>
-      <c r="I112" s="77" t="str">
-        <f>"C6 = " &amp; SUM(D13:D20,D32:D34,D52,D56:D62,D86:D92)</f>
-        <v>C6 = 167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="79" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A53:A64)</f>
+      <c r="H116" s="77" t="str">
+        <f>"En publicacion = " &amp; COUNTA(H2:H5,H7:H11,H13:H17,H19:H24,H27,H54,H59:H63,H65)</f>
+        <v>En publicacion = 28</v>
+      </c>
+      <c r="I116" s="76" t="str">
+        <f>"C6 = " &amp; SUM(D14:D21,D33:D35,D53,D57:D63,D87:D93)</f>
+        <v>C6 = 171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="78" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A54:A65)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B113" s="80" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B48,B105:B108)</f>
-        <v>Kemuri = 5</v>
-      </c>
-      <c r="F113" s="81" t="str">
-        <f>"A5 = " &amp; COUNTA(F22,F24:F25,F46:F48,F95:F98,F101)</f>
-        <v>A5 = 11</v>
-      </c>
-      <c r="I113" s="81" t="str">
-        <f>"A5 = " &amp; SUM(D22,D24:D25,D46:D48,D95:D98,D101)</f>
-        <v>A5 = 27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="82" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A65:A109)</f>
-        <v>Tomo único = 45</v>
-      </c>
-      <c r="B114" s="83" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B49:B50,B101)</f>
+      <c r="B117" s="79" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B49,B107:B111)</f>
+        <v>Kemuri = 6</v>
+      </c>
+      <c r="F117" s="80" t="str">
+        <f>"A5 = " &amp; COUNTA(F9,F23,F25:F26,F47:F49,F96:F99,F102,F111)</f>
+        <v>A5 = 13</v>
+      </c>
+      <c r="I117" s="80" t="str">
+        <f>"A5 = " &amp; SUM(D9,D23,D25:D26,D47:D49,D96:D99,D102)</f>
+        <v>A5 = 29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="81" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A66:A113)</f>
+        <v>Tomo único = 48</v>
+      </c>
+      <c r="B118" s="82" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B50:B51,B102)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F114" s="84" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F83:F85,F108:F109)</f>
-        <v>B6x2 = 5</v>
-      </c>
-      <c r="I114" s="84" t="str">
-        <f>"B6x2 = " &amp; SUM(D83:D85,D108:D109)</f>
-        <v>B6x2 = 5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="85" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B23,B102:B104)</f>
-        <v>Ovni Press = 4</v>
-      </c>
-      <c r="F115" s="86" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F93:F94)</f>
+      <c r="F118" s="83" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F84:F86,F106,F110,F112)</f>
+        <v>B6x2 = 6</v>
+      </c>
+      <c r="I118" s="83" t="str">
+        <f>"B6x2 = " &amp; SUM(D84:D86,D106,D110,D112)</f>
+        <v>B6x2 = 6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="84" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B24,B103:B106)</f>
+        <v>Ovni Press = 5</v>
+      </c>
+      <c r="F119" s="85" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F94:F95)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I115" s="86" t="str">
-        <f>"C6x2 = " &amp; SUM(D93:D94)</f>
+      <c r="I119" s="85" t="str">
+        <f>"C6x2 = " &amp; SUM(D94:D95)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="87" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B24:B25,B45:B46)</f>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="86" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B25:B26,B46:B47)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F116" s="88" t="str">
-        <f>"A5 color = " &amp; COUNTA(F21,F26,F99)</f>
+      <c r="F120" s="87" t="str">
+        <f>"A5 color = " &amp; COUNTA(F22,F27,F100)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I116" s="88" t="str">
-        <f>"A5 color = " &amp; SUM(D99,D21,D26)</f>
+      <c r="I120" s="87" t="str">
+        <f>"A5 color = " &amp; SUM(D100,D22,D27)</f>
         <v>A5 color = 7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="89" t="str">
-        <f>"Utopia = " &amp; COUNTA(B51:B52)</f>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="88" t="str">
+        <f>"Utopia = " &amp; COUNTA(B52:B53)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="90" t="str">
-        <f>"Merci = " &amp; COUNTA(B47)</f>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="89" t="str">
+        <f>"Merci = " &amp; COUNTA(B48)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="91" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B100)</f>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="90" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B101)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="92" t="str">
-        <f>"Moztros = " &amp; COUNTA(B109)</f>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="91" t="str">
+        <f>"Moztros = " &amp; COUNTA(B113)</f>
         <v>Moztros = 1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="93" t="str">
-        <f>"Random Comics = " &amp; COUNTA(B26)</f>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="92" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B27)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6945,30 +7146,51 @@
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F2:F110">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F114">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F29 F32:F110">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="F7:F30 F33:F114">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H27 H29:H110">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="H3:H28 H30:H114">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(K78))))</formula>
+  <conditionalFormatting sqref="K79">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(K79))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F13">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB8724F-D02A-403A-BC4E-04E9FB2D5609}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64264E85-5ED2-4F59-8B81-47EA1EE3F704}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>B6</t>
   </si>
   <si>
-    <t>En publicacion</t>
-  </si>
-  <si>
     <t>Aidairo</t>
   </si>
   <si>
@@ -924,6 +921,9 @@
   </si>
   <si>
     <t>Estado de Serie</t>
+  </si>
+  <si>
+    <t>En publicación</t>
   </si>
 </sst>
 </file>
@@ -933,7 +933,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,8 +1012,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,12 +1084,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF33CC"/>
         <bgColor rgb="FFFF33CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1322,40 +1322,40 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,19 +1367,16 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,25 +1388,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,7 +1415,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,6 +1522,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1724,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1749,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1766,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1801,17 +1805,17 @@
         <f t="shared" ref="G2:G117" si="0">D2*E2</f>
         <v>200000</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="45" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1822,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11">
         <v>15</v>
@@ -1837,17 +1841,17 @@
         <f t="shared" si="0"/>
         <v>135000</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>14</v>
+      <c r="H3" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="45" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1858,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11">
         <v>17</v>
@@ -1873,17 +1877,17 @@
         <f t="shared" si="0"/>
         <v>153000</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>14</v>
+      <c r="H4" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>285</v>
+      <c r="K4" s="45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1894,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="11">
         <v>14</v>
@@ -1909,17 +1913,17 @@
         <f t="shared" si="0"/>
         <v>119000</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>14</v>
+      <c r="H5" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>284</v>
+      <c r="K5" s="45" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1930,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6">
         <v>8</v>
@@ -1946,13 +1950,13 @@
         <v>64000</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1963,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -1978,17 +1982,17 @@
         <f t="shared" si="0"/>
         <v>28500</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>14</v>
+      <c r="H7" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="45" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
@@ -2014,17 +2018,17 @@
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>14</v>
+      <c r="H8" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>294</v>
+        <v>32</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2035,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -2044,23 +2048,23 @@
         <v>9000</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>36</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2068,10 +2072,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="11">
         <v>14</v>
@@ -2086,17 +2090,17 @@
         <f t="shared" si="0"/>
         <v>110600</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>14</v>
+      <c r="H10" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="46" t="s">
-        <v>282</v>
+      <c r="K10" s="45" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2104,10 +2108,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11">
         <v>6</v>
@@ -2122,17 +2126,17 @@
         <f t="shared" si="0"/>
         <v>47400</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>14</v>
+      <c r="H11" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="45" t="s">
         <v>43</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2140,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6">
         <v>8</v>
@@ -2159,16 +2163,16 @@
         <v>63200</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>281</v>
+        <v>45</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2176,10 +2180,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -2194,17 +2198,17 @@
         <f t="shared" si="0"/>
         <v>23700</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="45" t="s">
         <v>48</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2212,10 +2216,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
@@ -2224,23 +2228,23 @@
         <v>6900</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>89700</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>89700</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="J14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>283</v>
+        <v>51</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2248,10 +2252,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="11">
         <v>22</v>
@@ -2260,23 +2264,23 @@
         <v>6900</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" ref="G15" si="1">D15*E15</f>
         <v>151800</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>14</v>
+      <c r="H15" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>280</v>
+      <c r="K15" s="45" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2284,10 +2288,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D16" s="11">
         <v>2</v>
@@ -2296,23 +2300,23 @@
         <v>6900</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>13800</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>14</v>
+      <c r="H16" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>279</v>
+      <c r="K16" s="45" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2320,10 +2324,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="6">
         <v>17</v>
@@ -2332,20 +2336,20 @@
         <v>6900</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>117300</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>14</v>
+      <c r="H17" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2353,10 +2357,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6">
         <v>11</v>
@@ -2365,23 +2369,23 @@
         <v>6900</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>75900</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>14</v>
+      <c r="H18" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="45" t="s">
         <v>59</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2389,10 +2393,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6">
         <v>10</v>
@@ -2401,23 +2405,23 @@
         <v>6900</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>69000</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="46" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2425,10 +2429,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="11">
         <v>12</v>
@@ -2437,23 +2441,23 @@
         <v>6900</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>82800</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>14</v>
+      <c r="H20" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="45" t="s">
         <v>65</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="46" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,10 +2465,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="11">
         <v>6</v>
@@ -2473,23 +2477,23 @@
         <v>6900</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>41400</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>14</v>
+      <c r="H21" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="45" t="s">
         <v>68</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,10 +2501,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
@@ -2509,23 +2513,23 @@
         <v>6900</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>13800</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>14</v>
+      <c r="H22" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="45" t="s">
         <v>72</v>
-      </c>
-      <c r="K22" s="46" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,10 +2537,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="6">
         <v>6</v>
@@ -2544,24 +2548,24 @@
       <c r="E23" s="7">
         <v>22500</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>135000</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="46" t="s">
-        <v>288</v>
+      <c r="K23" s="45" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2569,10 +2573,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="6">
         <v>11</v>
@@ -2581,20 +2585,20 @@
         <v>9000</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>99000</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>14</v>
+      <c r="H24" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2602,10 +2606,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="6">
         <v>6</v>
@@ -2620,28 +2624,28 @@
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>14</v>
+      <c r="H25" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="45" t="s">
         <v>82</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="46" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
@@ -2650,34 +2654,34 @@
         <v>9800</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
         <v>19600</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="45" t="s">
         <v>86</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>84</v>
+      <c r="B27" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -2686,34 +2690,34 @@
         <v>12000</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="K27" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="K27" s="46" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -2721,35 +2725,35 @@
       <c r="E28" s="7">
         <v>18000</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>75</v>
+      <c r="F28" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>14</v>
+      <c r="H28" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K28" s="46" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -2765,27 +2769,27 @@
         <v>238000</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" s="47" t="s">
-        <v>98</v>
+        <v>39</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>96</v>
+      <c r="A30" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -2801,24 +2805,24 @@
         <v>16000</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>96</v>
+      <c r="A31" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="11">
         <v>9</v>
@@ -2834,27 +2838,27 @@
         <v>81000</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K31" s="46" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>96</v>
+      <c r="A32" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="11">
         <v>4</v>
@@ -2870,27 +2874,27 @@
         <v>32000</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I32" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>286</v>
+      <c r="K32" s="45" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>96</v>
+      <c r="A33" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="11">
         <v>22</v>
@@ -2906,27 +2910,27 @@
         <v>198000</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="K33" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="46" t="s">
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D34" s="6">
         <v>23</v>
@@ -2935,31 +2939,31 @@
         <v>6900</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
         <v>158700</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J34" s="10" t="s">
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D35" s="6">
         <v>12</v>
@@ -2968,31 +2972,31 @@
         <v>6900</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>82800</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D36" s="6">
         <v>8</v>
@@ -3001,34 +3005,34 @@
         <v>6900</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
         <v>55200</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
@@ -3044,27 +3048,27 @@
         <v>15800</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I37" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K37" s="46" t="s">
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
@@ -3080,27 +3084,27 @@
         <v>23700</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K38" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38" s="46" t="s">
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
@@ -3116,27 +3120,27 @@
         <v>25500</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K39" s="46" t="s">
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D40" s="6">
         <v>13</v>
@@ -3152,24 +3156,24 @@
         <v>102700</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>96</v>
+      <c r="A41" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="6">
         <v>8</v>
@@ -3185,24 +3189,24 @@
         <v>63200</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D42" s="6">
         <v>4</v>
@@ -3218,24 +3222,24 @@
         <v>31600</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="10" t="s">
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
@@ -3251,24 +3255,24 @@
         <v>23700</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J43" s="10" t="s">
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -3284,24 +3288,24 @@
         <v>23700</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I44" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>96</v>
+      <c r="A45" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
@@ -3317,24 +3321,24 @@
         <v>23700</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>96</v>
+      <c r="A46" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
@@ -3350,24 +3354,24 @@
         <v>15800</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J46" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D47" s="6">
         <v>4</v>
@@ -3383,27 +3387,27 @@
         <v>31200</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I47" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K47" s="46" t="s">
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D48" s="6">
         <v>4</v>
@@ -3412,34 +3416,34 @@
         <v>8500</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K48" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K48" s="46" t="s">
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="22" t="s">
+      <c r="C49" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D49" s="6">
         <v>2</v>
@@ -3448,34 +3452,34 @@
         <v>8000</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I49" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K49" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" s="46" t="s">
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="23" t="s">
+      <c r="C50" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D50" s="6">
         <v>3</v>
@@ -3484,34 +3488,34 @@
         <v>9000</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K50" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K50" s="46" t="s">
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="24" t="s">
+      <c r="C51" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D51" s="6">
         <v>5</v>
@@ -3527,27 +3531,27 @@
         <v>44500</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="K51" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="K51" s="46" t="s">
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D52" s="6">
         <v>3</v>
@@ -3563,27 +3567,27 @@
         <v>26700</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I52" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K52" s="46" t="s">
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="25" t="s">
+      <c r="C53" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -3599,24 +3603,24 @@
         <v>11800</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
@@ -3625,34 +3629,34 @@
         <v>5900</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
         <v>11800</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K54" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K54" s="46" t="s">
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
@@ -3667,25 +3671,25 @@
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>14</v>
+      <c r="H55" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>168</v>
+      <c r="A56" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="6">
         <v>1</v>
@@ -3701,24 +3705,24 @@
         <v>8000</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>168</v>
+      <c r="A57" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="6">
         <v>3</v>
@@ -3734,24 +3738,24 @@
         <v>27000</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I57" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D58" s="6">
         <v>12</v>
@@ -3760,31 +3764,31 @@
         <v>6900</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
         <v>82800</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I58" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
@@ -3793,31 +3797,31 @@
         <v>17700</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
         <v>17700</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I59" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D60" s="6">
         <v>6</v>
@@ -3826,31 +3830,31 @@
         <v>6900</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
         <v>41400</v>
       </c>
-      <c r="H60" s="12" t="s">
-        <v>14</v>
+      <c r="H60" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I60" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D61" s="6">
         <v>4</v>
@@ -3859,31 +3863,31 @@
         <v>6900</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
         <v>27600</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>14</v>
+      <c r="H61" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I61" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D62" s="6">
         <v>5</v>
@@ -3892,31 +3896,31 @@
         <v>6900</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
-      <c r="H62" s="12" t="s">
-        <v>14</v>
+      <c r="H62" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I62" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D63" s="6">
         <v>1</v>
@@ -3925,31 +3929,31 @@
         <v>6900</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H63" s="12" t="s">
-        <v>14</v>
+      <c r="H63" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I63" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D64" s="6">
         <v>1</v>
@@ -3958,31 +3962,31 @@
         <v>6900</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H64" s="12" t="s">
-        <v>14</v>
+      <c r="H64" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I64" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D65" s="6">
         <v>5</v>
@@ -3998,24 +4002,24 @@
         <v>39500</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I65" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -4030,25 +4034,25 @@
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
-      <c r="H66" s="12" t="s">
-        <v>14</v>
+      <c r="H66" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="I66" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="J66" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="B67" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="C67" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -4056,7 +4060,7 @@
       <c r="E67" s="7">
         <v>18000</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="7">
@@ -4064,27 +4068,27 @@
         <v>18000</v>
       </c>
       <c r="H67" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
@@ -4100,24 +4104,24 @@
         <v>7900</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
-        <v>193</v>
+      <c r="A69" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
@@ -4133,24 +4137,24 @@
         <v>7900</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I69" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -4166,24 +4170,24 @@
         <v>7900</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>193</v>
+      <c r="A71" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4199,24 +4203,24 @@
         <v>7900</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>193</v>
+      <c r="A72" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -4232,24 +4236,24 @@
         <v>7900</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I72" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4265,24 +4269,24 @@
         <v>7900</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>193</v>
+      <c r="A74" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
@@ -4298,24 +4302,24 @@
         <v>7900</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I74" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4331,24 +4335,24 @@
         <v>7900</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
-        <v>193</v>
+      <c r="A76" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4364,27 +4368,27 @@
         <v>7900</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I76" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="K76" s="45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="K76" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4400,27 +4404,27 @@
         <v>7900</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I77" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K77" s="46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -4436,27 +4440,27 @@
         <v>7900</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I78" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K78" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="J78" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K78" s="46" t="s">
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4472,27 +4476,27 @@
         <v>7900</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I79" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J79" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="K79" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="K79" s="46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4508,24 +4512,24 @@
         <v>7900</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27" t="s">
-        <v>193</v>
+      <c r="A81" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4541,27 +4545,27 @@
         <v>7900</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" s="46" t="s">
-        <v>217</v>
+        <v>45</v>
+      </c>
+      <c r="K81" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
-        <v>193</v>
+      <c r="A82" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4577,27 +4581,27 @@
         <v>7900</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K82" s="46" t="s">
-        <v>222</v>
+        <v>70</v>
+      </c>
+      <c r="K82" s="45" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>193</v>
+      <c r="A83" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4613,27 +4617,27 @@
         <v>7900</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I83" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K83" s="46" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4649,27 +4653,27 @@
         <v>7900</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I84" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K84" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="J84" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K84" s="46" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
-        <v>193</v>
+      <c r="A85" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -4677,35 +4681,35 @@
       <c r="E85" s="7">
         <v>14900</v>
       </c>
-      <c r="F85" s="29" t="s">
-        <v>224</v>
+      <c r="F85" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="G85" s="7">
         <f>D85*E85</f>
         <v>14900</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="K85" s="46" t="s">
         <v>289</v>
       </c>
+      <c r="K85" s="45" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
-        <v>193</v>
+      <c r="A86" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4713,35 +4717,35 @@
       <c r="E86" s="7">
         <v>16900</v>
       </c>
-      <c r="F86" s="29" t="s">
+      <c r="F86" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G86" s="7">
+        <f t="shared" si="0"/>
+        <v>16900</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I86" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G86" s="7">
-        <f t="shared" si="0"/>
-        <v>16900</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I86" s="10" t="s">
+      <c r="J86" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K86" s="45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K86" s="46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4749,35 +4753,35 @@
       <c r="E87" s="7">
         <v>11500</v>
       </c>
-      <c r="F87" s="29" t="s">
-        <v>224</v>
+      <c r="F87" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="G87" s="7">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K87" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -4785,32 +4789,32 @@
       <c r="E88" s="7">
         <v>12500</v>
       </c>
-      <c r="F88" s="29" t="s">
-        <v>224</v>
+      <c r="F88" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="G88" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
-        <v>193</v>
+      <c r="A89" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -4819,31 +4823,31 @@
         <v>6900</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
-        <v>193</v>
+      <c r="A90" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -4852,31 +4856,31 @@
         <v>6900</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G90" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
-        <v>193</v>
+      <c r="A91" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D91" s="11">
         <v>1</v>
@@ -4885,31 +4889,31 @@
         <v>6900</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I91" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J91" s="17" t="s">
-        <v>57</v>
+        <v>195</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="27" t="s">
-        <v>193</v>
+      <c r="A92" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -4918,34 +4922,34 @@
         <v>9000</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" ref="G92" si="3">D92*E92</f>
         <v>9000</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K92" s="46" t="s">
-        <v>287</v>
+        <v>51</v>
+      </c>
+      <c r="K92" s="45" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27" t="s">
-        <v>193</v>
+      <c r="A93" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
@@ -4954,34 +4958,34 @@
         <v>8000</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J93" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K93" s="45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="K93" s="46" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
@@ -4990,31 +4994,31 @@
         <v>6900</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G94" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I94" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="J94" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="J94" s="10" t="s">
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -5023,34 +5027,34 @@
         <v>7900</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I95" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K95" s="45" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="K95" s="46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -5058,32 +5062,32 @@
       <c r="E96" s="7">
         <v>8000</v>
       </c>
-      <c r="F96" s="30" t="s">
-        <v>51</v>
+      <c r="F96" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I96" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J96" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J96" s="10" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
-        <v>193</v>
+      <c r="A97" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D97" s="6">
         <v>1</v>
@@ -5091,35 +5095,35 @@
       <c r="E97" s="7">
         <v>11500</v>
       </c>
-      <c r="F97" s="31" t="s">
+      <c r="F97" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K97" s="45" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="G97" s="7">
-        <f t="shared" si="0"/>
-        <v>11500</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K97" s="46" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -5127,35 +5131,35 @@
       <c r="E98" s="7">
         <v>11500</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F98" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" si="0"/>
+        <v>11500</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K98" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="G98" s="7">
-        <f t="shared" si="0"/>
-        <v>11500</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I98" s="10" t="s">
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="K98" s="46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D99" s="11">
         <v>1</v>
@@ -5163,35 +5167,35 @@
       <c r="E99" s="7">
         <v>16000</v>
       </c>
-      <c r="F99" s="32" t="s">
-        <v>35</v>
+      <c r="F99" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I99" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J99" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K99" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K99" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D100" s="11">
         <v>1</v>
@@ -5199,35 +5203,35 @@
       <c r="E100" s="7">
         <v>16000</v>
       </c>
-      <c r="F100" s="32" t="s">
-        <v>35</v>
+      <c r="F100" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I100" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J100" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K100" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K100" s="45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D101" s="11">
         <v>1</v>
@@ -5235,35 +5239,35 @@
       <c r="E101" s="7">
         <v>12500</v>
       </c>
-      <c r="F101" s="32" t="s">
-        <v>35</v>
+      <c r="F101" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="G101" s="7">
         <f>D101*E101</f>
         <v>12500</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I101" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K101" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K101" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
@@ -5272,31 +5276,31 @@
         <v>12500</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
-        <v>193</v>
+      <c r="A103" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
@@ -5304,32 +5308,32 @@
       <c r="E103" s="7">
         <v>12500</v>
       </c>
-      <c r="F103" s="18" t="s">
-        <v>75</v>
+      <c r="F103" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B104" s="33" t="s">
+      <c r="A104" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
@@ -5345,24 +5349,24 @@
         <v>11450</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>154</v>
+      <c r="A105" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
@@ -5371,34 +5375,34 @@
         <v>14900</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I105" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J105" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J105" s="10" t="s">
+      <c r="K105" s="45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="K105" s="46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
@@ -5414,27 +5418,27 @@
         <v>12000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I106" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K106" s="45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="J106" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="K106" s="46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D107" s="11">
         <v>1</v>
@@ -5442,7 +5446,7 @@
       <c r="E107" s="7">
         <v>11000</v>
       </c>
-      <c r="F107" s="28" t="s">
+      <c r="F107" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="7">
@@ -5450,27 +5454,27 @@
         <v>11000</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="I107" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K107" s="45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="J107" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="K107" s="46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -5486,27 +5490,27 @@
         <v>12000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K108" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D109" s="6">
         <v>1</v>
@@ -5514,35 +5518,35 @@
       <c r="E109" s="7">
         <v>15000</v>
       </c>
-      <c r="F109" s="29" t="s">
-        <v>224</v>
+      <c r="F109" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="G109" s="7">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I109" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J109" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="K109" s="45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="K109" s="46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D110" s="6">
         <v>1</v>
@@ -5558,27 +5562,27 @@
         <v>8000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I110" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="K110" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="J110" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K110" s="46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D111" s="6">
         <v>1</v>
@@ -5594,27 +5598,27 @@
         <v>8000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I111" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K111" s="45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="J111" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K111" s="46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
@@ -5630,24 +5634,24 @@
         <v>7000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I112" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="J112" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
@@ -5655,35 +5659,35 @@
       <c r="E113" s="7">
         <v>14000</v>
       </c>
-      <c r="F113" s="29" t="s">
-        <v>224</v>
+      <c r="F113" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I113" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K113" s="45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="J113" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K113" s="46" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -5692,34 +5696,34 @@
         <v>7000</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114" s="7">
         <f t="shared" ref="G114" si="4">D114*E114</f>
         <v>7000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="K114" s="46" t="s">
         <v>269</v>
       </c>
+      <c r="K114" s="45" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B115" s="48" t="s">
+      <c r="A115" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
@@ -5728,34 +5732,34 @@
         <v>16000</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" s="7">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K115" s="46" t="s">
         <v>292</v>
       </c>
+      <c r="K115" s="45" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B116" s="35" t="s">
+      <c r="A116" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -5763,35 +5767,35 @@
       <c r="E116" s="7">
         <v>17000</v>
       </c>
-      <c r="F116" s="29" t="s">
-        <v>224</v>
+      <c r="F116" s="28" t="s">
+        <v>223</v>
       </c>
       <c r="G116" s="7">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K116" s="46" t="s">
         <v>272</v>
       </c>
+      <c r="K116" s="45" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="27" t="s">
-        <v>193</v>
+      <c r="A117" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -5807,23 +5811,23 @@
         <v>10000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117" s="46" t="s">
-        <v>195</v>
+        <v>14</v>
+      </c>
+      <c r="K117" s="45" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="38" t="s">
+      <c r="A118" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="38" t="s">
+      <c r="B118" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C118" s="3" t="s">
@@ -5833,7 +5837,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>5</v>
@@ -5842,13 +5846,13 @@
         <v>6</v>
       </c>
       <c r="H118" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="J118" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5860,7 +5864,7 @@
         <f>"Ivrea = " &amp; COUNTA(B10:B24,B34:B46,B58:B103)</f>
         <v>Ivrea = 74</v>
       </c>
-      <c r="C119" s="37" t="str">
+      <c r="C119" s="36" t="str">
         <f>"Series en total = " &amp; COUNTA(C2:C117)</f>
         <v>Series en total = 116</v>
       </c>
@@ -5872,7 +5876,7 @@
         <f>SUM(E2:E117)</f>
         <v>1076050</v>
       </c>
-      <c r="F119" s="39" t="str">
+      <c r="F119" s="38" t="str">
         <f>"B6 = " &amp; COUNTA(F2:F8,F10:F13,F25,F29:F33,F37:F47,F51:F53,F55:F57,F65:F84,F104,F106:F108,F110:F112,F117)</f>
         <v>B6 = 62</v>
       </c>
@@ -5880,21 +5884,21 @@
         <f>SUM(G2:G117)</f>
         <v>4236250</v>
       </c>
-      <c r="H119" s="40" t="str">
-        <f>"Finalizado = " &amp; COUNTA(H6,H12,H19,H26:H27,H29:H54,H56:H59,H65,H67:H117)</f>
-        <v>Finalizado = 87</v>
-      </c>
-      <c r="I119" s="39" t="str">
+      <c r="H119" s="39" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H6,H12,H19,H26:H27,H29:H54,H56:H59,H65,H67:H117)</f>
+        <v>Finalizados = 87</v>
+      </c>
+      <c r="I119" s="38" t="str">
         <f>"B6 = " &amp; SUM(D2:D8,D10:D13,D25,D29:D33,D37:D47,D51:D53,D55:D57,D65:D85,D104,D106:D108,D110:D112,D117)</f>
         <v>B6 = 280</v>
       </c>
-      <c r="J119" s="36" t="str">
+      <c r="J119" s="35" t="str">
         <f>"Series = " &amp; COUNTA(K2:K5,K7:K16,K18:K23,K25:K29,K31:K33,K36:K39,K47:K52,K54,K67,K76:K79,K81:K87,K92:K93,K95,K97:K101,K105:K111,K113:K117)</f>
         <v>Series = 71</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21" t="str">
+      <c r="A120" s="20" t="str">
         <f>"Completado = " &amp; COUNTA(A29:A54)</f>
         <v>Completado = 26</v>
       </c>
@@ -5902,51 +5906,51 @@
         <f>"Panini = " &amp; COUNTA(B2:B9,B29:B33,B55:B57,B117)</f>
         <v>Panini = 17</v>
       </c>
-      <c r="F120" s="44" t="str">
+      <c r="F120" s="43" t="str">
         <f>"C6 = " &amp; COUNTA(F14:F22,F34:F36,F54,F58:F64,F89:F96)</f>
         <v>C6 = 28</v>
       </c>
       <c r="H120" s="9" t="str">
-        <f>"En publicacion = " &amp; COUNTA(H2:H5,H7:H11,H13:H18,H20:H25,H28,H55,H60:H64,H66)</f>
-        <v>En publicacion = 29</v>
-      </c>
-      <c r="I120" s="44" t="str">
+        <f>"Finalizados+H120 = " &amp; COUNTA(H6,H12,H19,H26:H27,H29:H54,H56:H59,H65,H67:H117)</f>
+        <v>Finalizados+H120 = 87</v>
+      </c>
+      <c r="I120" s="43" t="str">
         <f>"C6 = " &amp; SUM(D14:D22,D34:D36,D54,D58:D64,D89:D96)</f>
         <v>C6 = 178</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26" t="str">
+      <c r="A121" s="25" t="str">
         <f>"Droppeado = " &amp; COUNTA(A55:A66)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B121" s="23" t="str">
+      <c r="B121" s="22" t="str">
         <f>"Kemuri = " &amp; COUNTA(B50,B110:B115)</f>
         <v>Kemuri = 7</v>
       </c>
-      <c r="F121" s="45" t="str">
+      <c r="F121" s="44" t="str">
         <f>"A5 = " &amp; COUNTA(F9,F24,F26:F27,F48:F50,F99:F102,F105,F114:F115)</f>
         <v>A5 = 14</v>
       </c>
-      <c r="I121" s="45" t="str">
+      <c r="I121" s="44" t="str">
         <f>"A5 = " &amp; SUM(D9,D24,D26:D27,D48:D50,D99:D102,D105,D114:D115)</f>
         <v>A5 = 31</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="27" t="str">
+      <c r="A122" s="26" t="str">
         <f>"Tomo único = " &amp; COUNTA(A67:A117)</f>
         <v>Tomo único = 51</v>
       </c>
-      <c r="B122" s="24" t="str">
+      <c r="B122" s="23" t="str">
         <f>"Distrito Manga = " &amp; COUNTA(B51:B52,B105)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F122" s="29" t="str">
+      <c r="F122" s="28" t="str">
         <f>"B6x2 = " &amp; COUNTA(F85:F88,F109,F113,F116)</f>
         <v>B6x2 = 7</v>
       </c>
-      <c r="I122" s="29" t="str">
+      <c r="I122" s="28" t="str">
         <f>"B6x2 = " &amp; SUM(D85:D88,D109,D113,D116)</f>
         <v>B6x2 = 7</v>
       </c>
@@ -5956,61 +5960,61 @@
         <f>"Ovni Press = " &amp; COUNTA(B25,B106:B109)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F123" s="31" t="str">
+      <c r="F123" s="30" t="str">
         <f>"C6x2 = " &amp; COUNTA(F97:F98)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I123" s="31" t="str">
+      <c r="I123" s="30" t="str">
         <f>"C6x2 = " &amp; SUM(D97:D98)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="41" t="str">
+      <c r="B124" s="40" t="str">
         <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B47:B48)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F124" s="18" t="str">
+      <c r="F124" s="17" t="str">
         <f>"A5 color = " &amp; COUNTA(F23,F28,F103)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I124" s="18" t="str">
+      <c r="I124" s="17" t="str">
         <f>"A5 color = " &amp; SUM(D103,D23,D28)</f>
         <v>A5 color = 8</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="25" t="str">
+      <c r="B125" s="24" t="str">
         <f>"Utopia = " &amp; COUNTA(B53:B54)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="22" t="str">
+      <c r="B126" s="21" t="str">
         <f>"Merci = " &amp; COUNTA(B49)</f>
         <v>Merci = 1</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="33" t="str">
+      <c r="B127" s="32" t="str">
         <f>"Milky Way = " &amp; COUNTA(B104)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="42" t="str">
+      <c r="B128" s="41" t="str">
         <f>"Moztros = " &amp; COUNTA(B117)</f>
         <v>Moztros = 1</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="43" t="str">
+      <c r="B129" s="42" t="str">
         <f>"Random Comics = " &amp; COUNTA(B28)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="48" t="str">
+      <c r="B130" s="47" t="str">
         <f>"Hotel de las Ideas = " &amp; COUNTA(B115)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
@@ -6916,7 +6920,7 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H118">
+  <conditionalFormatting sqref="H3:H6 H12 H19 H26:H27 H29:H54 H56:H59 H65 H67:H118">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H3))))</formula>
     </cfRule>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64264E85-5ED2-4F59-8B81-47EA1EE3F704}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997AB341-FE1B-4DF8-9F22-2B2CADD088A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5911,8 +5911,8 @@
         <v>C6 = 28</v>
       </c>
       <c r="H120" s="9" t="str">
-        <f>"Finalizados+H120 = " &amp; COUNTA(H6,H12,H19,H26:H27,H29:H54,H56:H59,H65,H67:H117)</f>
-        <v>Finalizados+H120 = 87</v>
+        <f>"En publicación = " &amp; COUNTA(H2:H5,H7:H11,H13:H18,H20:H25,H28,H55,H60:H64,H66)</f>
+        <v>En publicación = 29</v>
       </c>
       <c r="I120" s="43" t="str">
         <f>"C6 = " &amp; SUM(D14:D22,D34:D36,D54,D58:D64,D89:D96)</f>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997AB341-FE1B-4DF8-9F22-2B2CADD088A2}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE79C754-5F4E-468A-8A00-CBA6925B5C1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="300">
   <si>
     <t>Estado</t>
   </si>
@@ -80,9 +78,6 @@
     <t>Aidairo</t>
   </si>
   <si>
-    <t>Hanako-Kun - 4 al 20</t>
-  </si>
-  <si>
     <t>Blue Period</t>
   </si>
   <si>
@@ -179,9 +174,6 @@
     <t>Kanna Kii</t>
   </si>
   <si>
-    <t>Un Extraño en Primavera - 1 al 3</t>
-  </si>
-  <si>
     <t>Spy x Family</t>
   </si>
   <si>
@@ -212,18 +204,12 @@
     <t>Yuuto Suzuki</t>
   </si>
   <si>
-    <t>Sakamoto Days - 3 al 11</t>
-  </si>
-  <si>
     <t>Aku no Hana</t>
   </si>
   <si>
     <t>Shūzō Oshimi</t>
   </si>
   <si>
-    <t>Aku no Hana - 2 al 10</t>
-  </si>
-  <si>
     <t>Dandadan</t>
   </si>
   <si>
@@ -305,9 +291,6 @@
     <t>Miriam Bonastre Tur</t>
   </si>
   <si>
-    <t>Hooky - 2</t>
-  </si>
-  <si>
     <t>Random Comics</t>
   </si>
   <si>
@@ -317,9 +300,6 @@
     <t>Refrainbow</t>
   </si>
   <si>
-    <t>Boyfriends - 1</t>
-  </si>
-  <si>
     <t>Completado</t>
   </si>
   <si>
@@ -869,12 +849,6 @@
     <t>Blue Lock: Episode Nagi</t>
   </si>
   <si>
-    <t>Blue Lock : Episode Nagi - 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Blue Lock - 13 al 22</t>
-  </si>
-  <si>
     <t>Dead Dead Demon's Dededede Destruction - 3 al 8</t>
   </si>
   <si>
@@ -887,18 +861,12 @@
     <t>Shangri-la Frontier - 10 al 13</t>
   </si>
   <si>
-    <t>Re:Zero - 13 al 17</t>
-  </si>
-  <si>
     <t>Elden Ring - 1 al 4</t>
   </si>
   <si>
     <t>Spy x Family: Family Portrait</t>
   </si>
   <si>
-    <t>Solo Leveling - 4 al 6</t>
-  </si>
-  <si>
     <t>5 Centímetros por Segundo</t>
   </si>
   <si>
@@ -924,6 +892,45 @@
   </si>
   <si>
     <t>En publicación</t>
+  </si>
+  <si>
+    <t>Solo Leveling - 4 al 7</t>
+  </si>
+  <si>
+    <t>Re:Zero - 13 al 18</t>
+  </si>
+  <si>
+    <t>Un Extraño en Primavera - 1 al 4</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 23</t>
+  </si>
+  <si>
+    <t>Blue Lock : Episode Nagi - 1 al 3</t>
+  </si>
+  <si>
+    <t>Aku no Hana - 2 al 11</t>
+  </si>
+  <si>
+    <t>Sakamoto Days - 3 al 12</t>
+  </si>
+  <si>
+    <t>Madoka Magica: Wraith Arc</t>
+  </si>
+  <si>
+    <t>Spy's Wife</t>
+  </si>
+  <si>
+    <t>Masasumi Kakizaki</t>
+  </si>
+  <si>
+    <t>Boyfriends - 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Hooky - 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Hanako-Kun - 4 al 22</t>
   </si>
 </sst>
 </file>
@@ -1425,12 +1432,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1728,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1770,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1793,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7">
         <v>10000</v>
@@ -1802,11 +1881,11 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G117" si="0">D2*E2</f>
-        <v>200000</v>
+        <f t="shared" ref="G2:G119" si="0">D2*E2</f>
+        <v>220000</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1815,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1826,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="11">
         <v>15</v>
@@ -1842,16 +1921,16 @@
         <v>135000</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="45" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1862,10 +1941,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="7">
         <v>9000</v>
@@ -1875,19 +1954,19 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>153000</v>
+        <v>162000</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="45" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1898,7 +1977,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="11">
         <v>14</v>
@@ -1914,16 +1993,16 @@
         <v>119000</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="K5" s="45" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1934,10 +2013,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7">
         <v>8000</v>
@@ -1947,16 +2026,16 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>64000</v>
+        <v>80000</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1967,7 +2046,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -1983,16 +2062,16 @@
         <v>28500</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="45" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" s="45" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2003,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6">
         <v>4</v>
@@ -2019,16 +2098,16 @@
         <v>34000</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2039,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -2048,23 +2127,23 @@
         <v>9000</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>35</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2072,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="11">
         <v>14</v>
@@ -2091,16 +2170,16 @@
         <v>110600</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" s="45" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2108,10 +2187,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="11">
         <v>6</v>
@@ -2127,16 +2206,16 @@
         <v>47400</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="45" t="s">
         <v>42</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="45" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2144,10 +2223,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6">
         <v>8</v>
@@ -2163,16 +2242,16 @@
         <v>63200</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2180,13 +2259,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="7">
         <v>7900</v>
@@ -2196,19 +2275,19 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>31600</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2216,10 +2295,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
@@ -2228,23 +2307,23 @@
         <v>6900</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>89700</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2252,35 +2331,35 @@
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="7">
         <v>6900</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" ref="G15" si="1">D15*E15</f>
-        <v>151800</v>
+        <v>158700</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2288,35 +2367,35 @@
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D16" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="7">
         <v>6900</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>20700</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2324,10 +2403,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="6">
         <v>17</v>
@@ -2336,20 +2415,20 @@
         <v>6900</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>117300</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2357,35 +2436,35 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7">
         <v>6900</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>75900</v>
+        <v>82800</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2393,35 +2472,35 @@
         <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="D19" s="11">
+        <v>13</v>
       </c>
       <c r="E19" s="7">
         <v>6900</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>69000</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>195</v>
+        <v>89700</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="45" t="s">
         <v>61</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2429,35 +2508,35 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E20" s="7">
         <v>6900</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>82800</v>
+        <v>41400</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="45" t="s">
         <v>64</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2465,29 +2544,29 @@
         <v>10</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="11">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
       </c>
       <c r="E21" s="7">
         <v>6900</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>41400</v>
+        <v>13800</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>67</v>
@@ -2501,35 +2580,35 @@
         <v>10</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E22" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>50</v>
+        <v>22500</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>157500</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K22" s="45" t="s">
-        <v>72</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2537,67 +2616,67 @@
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E23" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F23" s="17" t="s">
+        <v>9000</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>108000</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>135000</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="J23" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>287</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>37</v>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E24" s="7">
         <v>9000</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>34</v>
+      <c r="F24" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>99000</v>
+        <v>54000</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="45" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2605,27 +2684,27 @@
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>13</v>
+        <v>9800</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>54000</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>296</v>
+        <v>19600</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>81</v>
@@ -2642,397 +2721,397 @@
         <v>10</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="E26" s="7">
-        <v>9800</v>
+        <v>33900</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>19600</v>
+        <v>67800</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>83</v>
+      <c r="B27" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>34</v>
+        <v>27100</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>195</v>
+        <v>54200</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>88</v>
       </c>
       <c r="J27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="D28" s="6">
+        <v>28</v>
+      </c>
+      <c r="E28" s="7">
+        <v>8500</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>238000</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="45" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E29" s="7">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>238000</v>
+        <v>16000</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="D30" s="11">
+        <v>9</v>
       </c>
       <c r="E30" s="7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>81000</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" s="11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E31" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
-        <v>81000</v>
+        <v>32000</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D32" s="11">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E32" s="7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>32000</v>
+        <v>198000</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>285</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>11</v>
+        <v>89</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="6">
+        <v>23</v>
+      </c>
+      <c r="E33" s="7">
+        <v>6900</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>158700</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="D33" s="11">
-        <v>22</v>
-      </c>
-      <c r="E33" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="0"/>
-        <v>198000</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" s="45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="6">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E34" s="7">
         <v>6900</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
-        <v>158700</v>
+        <v>82800</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D35" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E35" s="7">
         <v>6900</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>82800</v>
+        <v>55200</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>114</v>
+        <v>54</v>
+      </c>
+      <c r="K35" s="45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="D36" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E36" s="7">
         <v>6900</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="0"/>
-        <v>55200</v>
+        <f>D36*E36</f>
+        <v>75900</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
@@ -3048,27 +3127,27 @@
         <v>15800</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
@@ -3084,27 +3163,27 @@
         <v>23700</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
@@ -3120,27 +3199,27 @@
         <v>25500</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D40" s="6">
         <v>13</v>
@@ -3156,24 +3235,24 @@
         <v>102700</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D41" s="6">
         <v>8</v>
@@ -3189,24 +3268,24 @@
         <v>63200</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D42" s="6">
         <v>4</v>
@@ -3222,24 +3301,24 @@
         <v>31600</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
@@ -3255,24 +3334,24 @@
         <v>23700</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -3288,24 +3367,24 @@
         <v>23700</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
@@ -3321,24 +3400,24 @@
         <v>23700</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D46" s="6">
         <v>2</v>
@@ -3350,211 +3429,208 @@
         <v>13</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G46" si="2">D46*E46</f>
         <v>15800</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="D47" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="7">
-        <v>7800</v>
+        <v>6633</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="0"/>
-        <v>31200</v>
+        <f>D47*E47</f>
+        <v>19899</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K47" s="45" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D48" s="6">
         <v>4</v>
       </c>
       <c r="E48" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>34</v>
+        <v>7800</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>31200</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K48" s="45" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>145</v>
+        <v>89</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D49" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" s="7">
-        <v>8000</v>
+        <v>12300</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>49200</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K49" s="45" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>149</v>
+        <v>89</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D50" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K50" s="45" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>153</v>
+        <v>89</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D51" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>13</v>
+        <v>12500</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>37500</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K51" s="45" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D52" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="7">
         <v>8900</v>
@@ -3564,396 +3640,399 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>44500</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K52" s="45" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>161</v>
+        <v>89</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D53" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="7">
-        <v>5900</v>
+        <v>8900</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>11800</v>
+        <v>26700</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="K53" s="45" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
       </c>
       <c r="E54" s="7">
-        <v>5900</v>
+        <v>9000</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>11800</v>
+        <v>18000</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="K54" s="45" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>11</v>
+      <c r="A55" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
       </c>
       <c r="E55" s="7">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>296</v>
+        <v>18000</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="K55" s="45" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="7">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>195</v>
+        <v>17000</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D57" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="6">
+        <v>3</v>
+      </c>
+      <c r="E58" s="7">
+        <v>9000</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D58" s="6">
-        <v>12</v>
-      </c>
-      <c r="E58" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="7">
-        <f t="shared" si="0"/>
-        <v>82800</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="J58" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D59" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E59" s="7">
-        <v>17700</v>
+        <v>6900</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>17700</v>
+        <v>82800</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D60" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E60" s="7">
-        <v>6900</v>
+        <v>17700</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>41400</v>
-      </c>
-      <c r="H60" s="48" t="s">
-        <v>296</v>
+        <v>17700</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D61" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E61" s="7">
         <v>6900</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>27600</v>
+        <v>41400</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D62" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="7">
         <v>6900</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>34500</v>
+        <v>27600</v>
       </c>
       <c r="H62" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D63" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E63" s="7">
         <v>6900</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>34500</v>
       </c>
       <c r="H63" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D64" s="6">
         <v>1</v>
@@ -3962,67 +4041,67 @@
         <v>6900</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H64" s="48" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D65" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65" s="7">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
-        <v>39500</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>195</v>
+        <v>6900</v>
+      </c>
+      <c r="H65" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D66" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="7">
         <v>7900</v>
@@ -4032,96 +4111,96 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
+        <v>39500</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7">
         <v>7900</v>
       </c>
-      <c r="H66" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="11">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="45" t="s">
-        <v>194</v>
+        <v>7900</v>
+      </c>
+      <c r="H67" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="6">
+        <v>188</v>
+      </c>
+      <c r="D68" s="11">
         <v>1</v>
       </c>
       <c r="E68" s="7">
-        <v>7900</v>
-      </c>
-      <c r="F68" s="8" t="s">
+        <v>18000</v>
+      </c>
+      <c r="F68" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>18000</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>40</v>
+        <v>189</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="45" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
@@ -4137,24 +4216,24 @@
         <v>7900</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>198</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -4170,24 +4249,24 @@
         <v>7900</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4203,24 +4282,24 @@
         <v>7900</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -4236,24 +4315,24 @@
         <v>7900</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4269,24 +4348,24 @@
         <v>7900</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
@@ -4302,24 +4381,24 @@
         <v>7900</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4335,24 +4414,24 @@
         <v>7900</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4368,27 +4447,24 @@
         <v>7900</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K76" s="45" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4404,27 +4480,27 @@
         <v>7900</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="K77" s="45" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -4440,27 +4516,27 @@
         <v>7900</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K78" s="45" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4476,27 +4552,27 @@
         <v>7900</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K79" s="45" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4512,24 +4588,27 @@
         <v>7900</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>56</v>
+        <v>208</v>
+      </c>
+      <c r="K80" s="45" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4541,31 +4620,31 @@
         <v>13</v>
       </c>
       <c r="G81" s="7">
-        <f t="shared" si="0"/>
+        <f>D81*E81</f>
         <v>7900</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81" s="45" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4581,27 +4660,27 @@
         <v>7900</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K82" s="45" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4617,27 +4696,27 @@
         <v>7900</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K83" s="45" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4649,31 +4728,31 @@
         <v>13</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" ref="G84" si="2">D84*E84</f>
+        <f t="shared" ref="G84" si="3">D84*E84</f>
         <v>7900</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K84" s="45" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -4682,34 +4761,34 @@
         <v>14900</v>
       </c>
       <c r="F85" s="28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G85" s="7">
         <f>D85*E85</f>
         <v>14900</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K85" s="45" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4718,136 +4797,139 @@
         <v>16900</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G86" s="7">
-        <f t="shared" si="0"/>
+        <f>D86*E86</f>
         <v>16900</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K86" s="45" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
       </c>
       <c r="E87" s="7">
-        <v>11500</v>
+        <v>12900</v>
       </c>
       <c r="F87" s="28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="0"/>
-        <v>11500</v>
+        <f>D87*E87</f>
+        <v>12900</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87" s="45" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
       </c>
       <c r="E88" s="7">
-        <v>12500</v>
+        <v>13900</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="0"/>
-        <v>12500</v>
+        <f t="shared" ref="G88" si="4">D88*E88</f>
+        <v>13900</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
       </c>
       <c r="E89" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>50</v>
+        <v>12900</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+        <f>D89*E89</f>
+        <v>12900</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>56</v>
+        <v>296</v>
+      </c>
+      <c r="K89" s="45" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -4856,625 +4938,619 @@
         <v>6900</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="0"/>
+        <f>D90*E90</f>
         <v>6900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D91" s="11">
+        <v>221</v>
+      </c>
+      <c r="D91" s="6">
         <v>1</v>
       </c>
       <c r="E91" s="7">
         <v>6900</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G91" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>56</v>
+        <v>189</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
       </c>
       <c r="E92" s="7">
-        <v>9000</v>
+        <v>6900</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" ref="G92" si="3">D92*E92</f>
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>6900</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K92" s="45" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D93" s="6">
+        <v>223</v>
+      </c>
+      <c r="D93" s="11">
         <v>1</v>
       </c>
       <c r="E93" s="7">
-        <v>8000</v>
+        <v>6900</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>6900</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="K93" s="45" t="s">
-        <v>230</v>
+        <v>189</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
       </c>
       <c r="E94" s="7">
-        <v>6900</v>
+        <v>9000</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+        <f t="shared" ref="G94" si="5">D94*E94</f>
+        <v>9000</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>234</v>
+        <v>49</v>
+      </c>
+      <c r="K94" s="45" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
       </c>
       <c r="E95" s="7">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="K95" s="45" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
       </c>
       <c r="E96" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>50</v>
+        <v>6900</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="G96" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>6900</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D97" s="6">
         <v>1</v>
       </c>
       <c r="E97" s="7">
-        <v>11500</v>
-      </c>
-      <c r="F97" s="30" t="s">
-        <v>239</v>
+        <v>8000</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="K97" s="45" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
       </c>
       <c r="E98" s="7">
-        <v>11500</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>239</v>
+        <v>9000</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>48</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="0"/>
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="K98" s="45" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D99" s="11">
+        <v>232</v>
+      </c>
+      <c r="D99" s="6">
         <v>1</v>
       </c>
       <c r="E99" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F99" s="31" t="s">
-        <v>34</v>
+        <v>12900</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>12900</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>45</v>
+        <v>189</v>
+      </c>
+      <c r="I99" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J99" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="K99" s="45" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D100" s="11">
+        <v>234</v>
+      </c>
+      <c r="D100" s="6">
         <v>1</v>
       </c>
       <c r="E100" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F100" s="31" t="s">
-        <v>34</v>
+        <v>12900</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>233</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>12900</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I100" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>45</v>
+        <v>189</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="K100" s="45" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D101" s="11">
         <v>1</v>
       </c>
       <c r="E101" s="7">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" s="7">
         <f>D101*E101</f>
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101" s="45" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D102" s="6">
+        <v>237</v>
+      </c>
+      <c r="D102" s="11">
         <v>1</v>
       </c>
       <c r="E102" s="7">
-        <v>12500</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>34</v>
+        <v>18000</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>45</v>
+        <v>189</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102" s="45" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="6">
+        <v>238</v>
+      </c>
+      <c r="D103" s="11">
         <v>1</v>
       </c>
       <c r="E103" s="7">
-        <v>12500</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>74</v>
+        <v>14500</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="0"/>
-        <v>12500</v>
+        <f>D103*E103</f>
+        <v>14500</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>45</v>
+        <v>189</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103" s="45" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>247</v>
+        <v>186</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
       </c>
       <c r="E104" s="7">
-        <v>11450</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>13</v>
+        <v>13000</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="0"/>
-        <v>11450</v>
+        <v>13000</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
       </c>
       <c r="E105" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>34</v>
+        <v>14500</v>
+      </c>
+      <c r="F105" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="0"/>
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K105" s="45" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>79</v>
+        <v>186</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
       </c>
       <c r="E106" s="7">
-        <v>12000</v>
+        <v>11450</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>11450</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K106" s="45" t="s">
-        <v>252</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>79</v>
+        <v>186</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D107" s="11">
+        <v>243</v>
+      </c>
+      <c r="D107" s="6">
         <v>1</v>
       </c>
       <c r="E107" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>13</v>
+        <v>14900</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G107" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>14900</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I107" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>255</v>
+        <v>189</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="K107" s="45" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -5490,204 +5566,207 @@
         <v>12000</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>17</v>
+        <v>247</v>
       </c>
       <c r="K108" s="45" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>79</v>
+        <v>186</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D109" s="6">
+        <v>248</v>
+      </c>
+      <c r="D109" s="11">
         <v>1</v>
       </c>
       <c r="E109" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F109" s="28" t="s">
-        <v>223</v>
+        <v>11000</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="G109" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="J109" s="10" t="s">
-        <v>259</v>
+        <v>189</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="K109" s="45" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>149</v>
+        <v>186</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D110" s="6">
         <v>1</v>
       </c>
       <c r="E110" s="7">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G110" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="K110" s="45" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>149</v>
+        <v>186</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D111" s="6">
         <v>1</v>
       </c>
       <c r="E111" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>13</v>
+        <v>15000</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="G111" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="K111" s="45" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
       </c>
       <c r="E112" s="7">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G112" s="7">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
+      </c>
+      <c r="K112" s="45" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
       </c>
       <c r="E113" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F113" s="28" t="s">
-        <v>223</v>
+        <v>8000</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="K113" s="45" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -5695,332 +5774,399 @@
       <c r="E114" s="7">
         <v>7000</v>
       </c>
-      <c r="F114" s="12" t="s">
-        <v>34</v>
+      <c r="F114" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" ref="G114" si="4">D114*E114</f>
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="K114" s="45" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B115" s="47" t="s">
-        <v>290</v>
+        <v>186</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
       </c>
       <c r="E115" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>34</v>
+        <v>14000</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="G115" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="K115" s="45" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>270</v>
+        <v>186</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
       </c>
       <c r="E116" s="7">
-        <v>17000</v>
-      </c>
-      <c r="F116" s="28" t="s">
-        <v>223</v>
+        <v>7000</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" si="0"/>
-        <v>17000</v>
+        <f t="shared" ref="G116" si="6">D116*E116</f>
+        <v>7000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K116" s="45" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>11</v>
+        <v>186</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>280</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
       </c>
       <c r="E117" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="K117" s="45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
+      </c>
+      <c r="E118" s="7">
+        <v>17000</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G118" s="7">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K118" s="45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119" s="7">
         <v>10000</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F119" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G119" s="7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="H117" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I117" s="10" t="s">
+      <c r="H119" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I119" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J117" s="10" t="s">
+      <c r="J119" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K117" s="45" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="37" t="s">
+      <c r="K119" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="37" t="s">
+      <c r="B120" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F118" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A28)</f>
-        <v>En curso = 27</v>
-      </c>
-      <c r="B119" s="14" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B10:B24,B34:B46,B58:B103)</f>
-        <v>Ivrea = 74</v>
-      </c>
-      <c r="C119" s="36" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C117)</f>
-        <v>Series en total = 116</v>
-      </c>
-      <c r="D119" s="6">
-        <f>SUM(D2:D117)</f>
-        <v>505</v>
-      </c>
-      <c r="E119" s="7">
-        <f>SUM(E2:E117)</f>
-        <v>1076050</v>
-      </c>
-      <c r="F119" s="38" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F8,F10:F13,F25,F29:F33,F37:F47,F51:F53,F55:F57,F65:F84,F104,F106:F108,F110:F112,F117)</f>
+      <c r="H120" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A27)</f>
+        <v>En curso = 26</v>
+      </c>
+      <c r="B121" s="14" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B10:B23,B33:B47,B59:B105)</f>
+        <v>Ivrea = 76</v>
+      </c>
+      <c r="C121" s="36" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C119)</f>
+        <v>Series en total = 118</v>
+      </c>
+      <c r="D121" s="6">
+        <f>SUM(D2:D119)</f>
+        <v>524</v>
+      </c>
+      <c r="E121" s="7">
+        <f>SUM(E2:E119)</f>
+        <v>1154283</v>
+      </c>
+      <c r="F121" s="38" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F8,F10:F13,F24,F28:F32,F37:F48,F52:F54,F56:F58,F66:F84,F106,F108:F110,F112:F114,F119)</f>
         <v>B6 = 62</v>
       </c>
-      <c r="G119" s="7">
-        <f>SUM(G2:G117)</f>
-        <v>4236250</v>
-      </c>
-      <c r="H119" s="39" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H6,H12,H19,H26:H27,H29:H54,H56:H59,H65,H67:H117)</f>
-        <v>Finalizados = 87</v>
-      </c>
-      <c r="I119" s="38" t="str">
-        <f>"B6 = " &amp; SUM(D2:D8,D10:D13,D25,D29:D33,D37:D47,D51:D53,D55:D57,D65:D85,D104,D106:D108,D110:D112,D117)</f>
-        <v>B6 = 280</v>
-      </c>
-      <c r="J119" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K5,K7:K16,K18:K23,K25:K29,K31:K33,K36:K39,K47:K52,K54,K67,K76:K79,K81:K87,K92:K93,K95,K97:K101,K105:K111,K113:K117)</f>
-        <v>Series = 71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="str">
-        <f>"Completado = " &amp; COUNTA(A29:A54)</f>
-        <v>Completado = 26</v>
-      </c>
-      <c r="B120" s="5" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B9,B29:B33,B55:B57,B117)</f>
+      <c r="G121" s="7">
+        <f>SUM(G2:G119)</f>
+        <v>4532249</v>
+      </c>
+      <c r="H121" s="39" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H6,H12,H25:H26,H28:H55,H57:H60,H66,H68:H119)</f>
+        <v>Finalizados = 89</v>
+      </c>
+      <c r="I121" s="38" t="str">
+        <f>"B6 = " &amp; SUM(D2:D8,D10:D13,D24,D28:D32,D37:D48,D52:D54,D56:D58,D66:D84,D106,D108:D110,D112:D114,D119)</f>
+        <v>B6 = 287</v>
+      </c>
+      <c r="J121" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K5,K7:K16,K18:K22,K24:K28,K30:K32,K35:K39,K48:K53,K55,K68,K77:K87,K89,K94:K95,K97,K99:K103,K107:K113,K115:K119)</f>
+        <v>Series = 72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="str">
+        <f>"Completado = " &amp; COUNTA(A28:A55)</f>
+        <v>Completado = 28</v>
+      </c>
+      <c r="B122" s="5" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B9,B28:B32,B56:B58,B119)</f>
         <v>Panini = 17</v>
       </c>
-      <c r="F120" s="43" t="str">
-        <f>"C6 = " &amp; COUNTA(F14:F22,F34:F36,F54,F58:F64,F89:F96)</f>
-        <v>C6 = 28</v>
-      </c>
-      <c r="H120" s="9" t="str">
-        <f>"En publicación = " &amp; COUNTA(H2:H5,H7:H11,H13:H18,H20:H25,H28,H55,H60:H64,H66)</f>
+      <c r="F122" s="43" t="str">
+        <f>"C6 = " &amp; COUNTA(F14:F21,F33:F36,F55,F59:F65,F90:F98)</f>
+        <v>C6 = 29</v>
+      </c>
+      <c r="H122" s="9" t="str">
+        <f>"En publicación = " &amp; COUNTA(H2:H5,H7:H11,H13:H24,H27,H56,H61:H65,H67)</f>
         <v>En publicación = 29</v>
       </c>
-      <c r="I120" s="43" t="str">
-        <f>"C6 = " &amp; SUM(D14:D22,D34:D36,D54,D58:D64,D89:D96)</f>
-        <v>C6 = 178</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A55:A66)</f>
+      <c r="I122" s="43" t="str">
+        <f>"C6 = " &amp; SUM(D14:D21,D33:D36,D55,D59:D65,D90:D98)</f>
+        <v>C6 = 184</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="25" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A56:A67)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B121" s="22" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B50,B110:B115)</f>
+      <c r="B123" s="22" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B51,B112:B117)</f>
         <v>Kemuri = 7</v>
       </c>
-      <c r="F121" s="44" t="str">
-        <f>"A5 = " &amp; COUNTA(F9,F24,F26:F27,F48:F50,F99:F102,F105,F114:F115)</f>
+      <c r="F123" s="44" t="str">
+        <f>"A5 = " &amp; COUNTA(F9,F23,F25:F26,F49:F51,F101:F104,F107,F116:F117)</f>
         <v>A5 = 14</v>
       </c>
-      <c r="I121" s="44" t="str">
-        <f>"A5 = " &amp; SUM(D9,D24,D26:D27,D48:D50,D99:D102,D105,D114:D115)</f>
-        <v>A5 = 31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A67:A117)</f>
-        <v>Tomo único = 51</v>
-      </c>
-      <c r="B122" s="23" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B51:B52,B105)</f>
+      <c r="I123" s="44" t="str">
+        <f>"A5 = " &amp; SUM(D9,D23,D25:D26,D49:D51,D101:D104,D107,D116:D117)</f>
+        <v>A5 = 33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A68:A119)</f>
+        <v>Tomo único = 52</v>
+      </c>
+      <c r="B124" s="23" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B52:B53,B107)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F122" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F85:F88,F109,F113,F116)</f>
-        <v>B6x2 = 7</v>
-      </c>
-      <c r="I122" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D85:D88,D109,D113,D116)</f>
-        <v>B6x2 = 7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B25,B106:B109)</f>
+      <c r="F124" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F85:F89,F111,F115,F118)</f>
+        <v>B6x2 = 8</v>
+      </c>
+      <c r="I124" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D85:D89,D111,D115,D118)</f>
+        <v>B6x2 = 8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B24,B108:B111)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F123" s="30" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F97:F98)</f>
+      <c r="F125" s="30" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F99:F100)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I123" s="30" t="str">
-        <f>"C6x2 = " &amp; SUM(D97:D98)</f>
+      <c r="I125" s="30" t="str">
+        <f>"C6x2 = " &amp; SUM(D99:D100)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="40" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B47:B48)</f>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="40" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B25:B26,B48:B49)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F124" s="17" t="str">
-        <f>"A5 color = " &amp; COUNTA(F23,F28,F103)</f>
+      <c r="F126" s="17" t="str">
+        <f>"A5 color = " &amp; COUNTA(F22,F27,F105)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I124" s="17" t="str">
-        <f>"A5 color = " &amp; SUM(D103,D23,D28)</f>
-        <v>A5 color = 8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="24" t="str">
-        <f>"Utopia = " &amp; COUNTA(B53:B54)</f>
+      <c r="I126" s="17" t="str">
+        <f>"A5 color = " &amp; SUM(D105,D22,D27)</f>
+        <v>A5 color = 10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="24" t="str">
+        <f>"Utopia = " &amp; COUNTA(B54:B55)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="21" t="str">
-        <f>"Merci = " &amp; COUNTA(B49)</f>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="21" t="str">
+        <f>"Merci = " &amp; COUNTA(B50)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="32" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B104)</f>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="32" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B106)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="41" t="str">
-        <f>"Moztros = " &amp; COUNTA(B117)</f>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="41" t="str">
+        <f>"Moztros = " &amp; COUNTA(B119)</f>
         <v>Moztros = 1</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="42" t="str">
-        <f>"Random Comics = " &amp; COUNTA(B28)</f>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="42" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B27)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="47" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B115)</f>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="47" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B117)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6890,51 +7036,84 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F2:F118">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F45 F47:F87 F89:F120">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F31 F34:F118">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="F7:F30 F33:F45 F47:F87 F89:F120">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6 H12 H19 H26:H27 H29:H54 H56:H59 H65 H67:H118">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="H3:H6 H12 H25:H26 H57:H60 H66 H28:H45 H47:H55 H68:H87 H89:H120">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(K80))))</formula>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H46))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H88))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="I123" formulaRange="1"/>
-    <ignoredError sqref="F119" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE79C754-5F4E-468A-8A00-CBA6925B5C1C}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECA96A9-EC35-46E4-8764-6CE5AF96BC25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="302">
   <si>
     <t>Estado</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Shū Sakuratani</t>
   </si>
   <si>
-    <t>Rooster Fighter - 5 &amp; 6</t>
-  </si>
-  <si>
     <t>Dead Dead Demon's Dededede Destruction</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>Kei Urana</t>
   </si>
   <si>
-    <t>Gachiakuta - 2 al 6</t>
-  </si>
-  <si>
     <t>Versus</t>
   </si>
   <si>
@@ -852,9 +846,6 @@
     <t>Dead Dead Demon's Dededede Destruction - 3 al 8</t>
   </si>
   <si>
-    <t>Oshi no Ko - 12 al 14</t>
-  </si>
-  <si>
     <t>Spy x Family - 11 al 13</t>
   </si>
   <si>
@@ -900,21 +891,12 @@
     <t>Re:Zero - 13 al 18</t>
   </si>
   <si>
-    <t>Un Extraño en Primavera - 1 al 4</t>
-  </si>
-  <si>
-    <t>Blue Lock - 13 al 23</t>
-  </si>
-  <si>
     <t>Blue Lock : Episode Nagi - 1 al 3</t>
   </si>
   <si>
     <t>Aku no Hana - 2 al 11</t>
   </si>
   <si>
-    <t>Sakamoto Days - 3 al 12</t>
-  </si>
-  <si>
     <t>Madoka Magica: Wraith Arc</t>
   </si>
   <si>
@@ -931,6 +913,30 @@
   </si>
   <si>
     <t>Hanako-Kun - 4 al 22</t>
+  </si>
+  <si>
+    <t>Rooster Fighter - 5 al 7</t>
+  </si>
+  <si>
+    <t>Un Extraño en Primavera - 1 al 5</t>
+  </si>
+  <si>
+    <t>Oshi no Ko - 12 al 15</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 25</t>
+  </si>
+  <si>
+    <t>Sakamoto Days - 3 al 13</t>
+  </si>
+  <si>
+    <t>Gachiakuta - 2 al 7</t>
+  </si>
+  <si>
+    <t>Hanako-Kun: Despues de Clases - 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Spy x Family: Eyes Only</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1252,37 +1258,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1389,18 +1369,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,11 +1396,57 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1807,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1842,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1849,7 +1863,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1881,11 +1895,11 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G119" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G120" si="0">D2*E2</f>
         <v>220000</v>
       </c>
-      <c r="H2" s="48" t="s">
-        <v>286</v>
+      <c r="H2" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1893,8 +1907,8 @@
       <c r="J2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="45" t="s">
-        <v>299</v>
+      <c r="K2" s="41" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1905,32 +1919,32 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11">
-        <v>15</v>
+        <v>186</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="0"/>
-        <v>135000</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>286</v>
+        <f>D3*E3</f>
+        <v>20000</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1941,10 +1955,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7">
         <v>9000</v>
@@ -1954,19 +1968,19 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>162000</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>286</v>
+        <v>135000</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="45" t="s">
-        <v>288</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1977,32 +1991,32 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>119000</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>286</v>
+        <v>162000</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>275</v>
+        <v>20</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2013,29 +2027,32 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="11">
+        <v>14</v>
       </c>
       <c r="E6" s="7">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>80000</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>189</v>
+        <v>119000</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2046,32 +2063,29 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>28500</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>286</v>
+        <v>80000</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="45" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2082,32 +2096,32 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>34000</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>286</v>
+        <v>28500</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>283</v>
+        <v>28</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2118,68 +2132,68 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
+        <v>8500</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>286</v>
+        <v>34000</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>36</v>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>7900</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
+        <v>9000</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>110600</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>286</v>
+        <v>9000</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>273</v>
+        <v>34</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2190,10 +2204,10 @@
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7">
         <v>7900</v>
@@ -2203,19 +2217,19 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>47400</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>286</v>
+        <v>118500</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="45" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,10 +2240,10 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="11">
+        <v>7</v>
       </c>
       <c r="E12" s="7">
         <v>7900</v>
@@ -2239,33 +2253,33 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>63200</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>189</v>
+        <v>55300</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>272</v>
+        <v>41</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="11">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8</v>
       </c>
       <c r="E13" s="7">
         <v>7900</v>
@@ -2275,55 +2289,55 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>31600</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>289</v>
+        <v>63200</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>7900</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>89700</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>274</v>
+        <v>39500</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2334,32 +2348,32 @@
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="11">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13</v>
       </c>
       <c r="E15" s="7">
         <v>6900</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>89700</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="7">
-        <f t="shared" ref="G15" si="1">D15*E15</f>
-        <v>158700</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="J15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="45" t="s">
-        <v>290</v>
+        <v>48</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2370,32 +2384,32 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E16" s="7">
         <v>6900</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>286</v>
+        <f t="shared" ref="G16" si="1">D16*E16</f>
+        <v>172500</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="45" t="s">
-        <v>291</v>
+      <c r="K16" s="41" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2406,29 +2420,32 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="6">
-        <v>17</v>
+        <v>269</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
       </c>
       <c r="E17" s="7">
         <v>6900</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>117300</v>
-      </c>
-      <c r="H17" s="48" t="s">
+        <v>20700</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="41" t="s">
         <v>286</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2439,32 +2456,29 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E18" s="7">
         <v>6900</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>82800</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>286</v>
+        <v>124200</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>293</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2475,32 +2489,32 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="11">
+        <v>54</v>
+      </c>
+      <c r="D19" s="6">
         <v>13</v>
       </c>
       <c r="E19" s="7">
         <v>6900</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>89700</v>
       </c>
-      <c r="H19" s="48" t="s">
-        <v>286</v>
+      <c r="H19" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2511,32 +2525,32 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E20" s="7">
         <v>6900</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>41400</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>286</v>
+        <v>89700</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,32 +2561,32 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D21" s="11">
+        <v>7</v>
       </c>
       <c r="E21" s="7">
         <v>6900</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>13800</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>286</v>
+        <v>48300</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,32 +2597,32 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D22" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E22" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>70</v>
+        <v>6900</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>157500</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>286</v>
+        <v>13800</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>287</v>
+        <v>65</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2619,101 +2633,101 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E23" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>33</v>
+        <v>22500</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>108000</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>286</v>
+        <v>157500</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
+      <c r="B24" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D24" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E24" s="7">
         <v>9000</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>13</v>
+      <c r="F24" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>54000</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>286</v>
+        <v>108000</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>79</v>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D25" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" s="7">
-        <v>9800</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>33</v>
+        <v>9000</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>19600</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>189</v>
+        <v>54000</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,436 +2735,436 @@
         <v>10</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
       </c>
       <c r="E26" s="7">
-        <v>33900</v>
+        <v>9800</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>67800</v>
+        <v>19600</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K26" s="45" t="s">
-        <v>298</v>
+        <v>79</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>86</v>
+      <c r="B27" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
       </c>
       <c r="E27" s="7">
+        <v>33900</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>67800</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
         <v>27100</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>54200</v>
       </c>
-      <c r="H27" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="45" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="6">
-        <v>28</v>
-      </c>
-      <c r="E28" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="0"/>
-        <v>238000</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>189</v>
+      <c r="H28" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="46" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" s="6">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E29" s="7">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>238000</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>93</v>
+        <v>38</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="11">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
       </c>
       <c r="E30" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="0"/>
-        <v>81000</v>
+        <v>16000</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D31" s="11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E31" s="7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
-        <v>32000</v>
+        <v>81000</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" s="45" t="s">
-        <v>276</v>
+        <v>93</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D32" s="11">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E32" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>198000</v>
+        <v>32000</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="45" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>36</v>
+        <v>87</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="6">
-        <v>23</v>
+        <v>98</v>
+      </c>
+      <c r="D33" s="11">
+        <v>22</v>
       </c>
       <c r="E33" s="7">
-        <v>6900</v>
+        <v>9000</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
-        <v>158700</v>
+        <v>198000</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D34" s="6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E34" s="7">
         <v>6900</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
-        <v>82800</v>
+        <v>158700</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E35" s="7">
         <v>6900</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>55200</v>
+        <v>82800</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D36" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36" s="7">
         <v>6900</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="7">
-        <f>D36*E36</f>
-        <v>75900</v>
+        <f t="shared" si="0"/>
+        <v>55200</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K36" s="45" t="s">
-        <v>292</v>
+        <v>53</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D37" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E37" s="7">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="0"/>
-        <v>15800</v>
+        <f>D37*E37</f>
+        <v>75900</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K37" s="45" t="s">
-        <v>113</v>
+        <v>57</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D38" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="7">
         <v>7900</v>
@@ -3160,102 +3174,105 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>15800</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38" s="45" t="s">
-        <v>116</v>
+        <v>110</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
       </c>
       <c r="E39" s="7">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>23700</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K39" s="45" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D40" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E40" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
-        <v>102700</v>
+        <v>25500</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>44</v>
+        <v>116</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41" s="7">
         <v>7900</v>
@@ -3265,30 +3282,30 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>63200</v>
+        <v>102700</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D42" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E42" s="7">
         <v>7900</v>
@@ -3298,30 +3315,30 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
-        <v>31600</v>
+        <v>63200</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D43" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="7">
         <v>7900</v>
@@ -3331,27 +3348,27 @@
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>31600</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -3367,24 +3384,24 @@
         <v>23700</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
@@ -3400,27 +3417,27 @@
         <v>23700</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="7">
         <v>7900</v>
@@ -3429,244 +3446,241 @@
         <v>13</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" ref="G46" si="2">D46*E46</f>
-        <v>15800</v>
+        <f t="shared" si="0"/>
+        <v>23700</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="D47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="7">
-        <v>6633</v>
+        <v>7900</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="7">
-        <f>D47*E47</f>
-        <v>19899</v>
+        <f t="shared" ref="G47" si="2">D47*E47</f>
+        <v>15800</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="D48" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="7">
-        <v>7800</v>
+        <v>6633</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="0"/>
-        <v>31200</v>
+        <f>D48*E48</f>
+        <v>19899</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K48" s="45" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D49" s="6">
         <v>4</v>
       </c>
       <c r="E49" s="7">
-        <v>12300</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>33</v>
+        <v>7800</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
-        <v>49200</v>
+        <v>31200</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K49" s="45" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="K49" s="41" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>139</v>
+        <v>87</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D50" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" s="7">
-        <v>8000</v>
+        <v>12300</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>49200</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K50" s="45" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="K50" s="41" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>143</v>
+        <v>87</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D51" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" s="7">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>16000</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="K51" s="45" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>147</v>
+        <v>87</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D52" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>13</v>
+        <v>12500</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>37500</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K52" s="45" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D53" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="7">
         <v>8900</v>
@@ -3676,63 +3690,66 @@
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>44500</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K53" s="45" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="K53" s="41" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>155</v>
+        <v>87</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D54" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="7">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>26700</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="K54" s="41" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
@@ -3741,331 +3758,331 @@
         <v>9000</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K55" s="45" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>11</v>
+      <c r="A56" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
       </c>
       <c r="E56" s="7">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-      <c r="H56" s="48" t="s">
-        <v>286</v>
+        <v>18000</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="7">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>189</v>
+        <v>17000</v>
+      </c>
+      <c r="H57" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D58" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="7">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>36</v>
+        <v>159</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D59" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E59" s="7">
-        <v>6900</v>
+        <v>9000</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>82800</v>
+        <v>27000</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D60" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E60" s="7">
-        <v>17700</v>
+        <v>6900</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>17700</v>
+        <v>82800</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D61" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E61" s="7">
-        <v>6900</v>
+        <v>17700</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>41400</v>
-      </c>
-      <c r="H61" s="48" t="s">
-        <v>286</v>
+        <v>17700</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D62" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E62" s="7">
         <v>6900</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>27600</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>286</v>
+        <v>41400</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D63" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" s="7">
         <v>6900</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>34500</v>
-      </c>
-      <c r="H63" s="48" t="s">
-        <v>286</v>
+        <v>27600</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D64" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E64" s="7">
         <v>6900</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
-      </c>
-      <c r="H64" s="48" t="s">
-        <v>286</v>
+        <v>34500</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
@@ -4074,67 +4091,67 @@
         <v>6900</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H65" s="48" t="s">
-        <v>286</v>
+      <c r="H65" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D66" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E66" s="7">
-        <v>7900</v>
+        <v>6900</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
-        <v>39500</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>189</v>
+        <v>6900</v>
+      </c>
+      <c r="H66" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D67" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" s="7">
         <v>7900</v>
@@ -4144,96 +4161,96 @@
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
+        <v>39500</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7">
         <v>7900</v>
       </c>
-      <c r="H67" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="11">
-        <v>1</v>
-      </c>
-      <c r="E68" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="45" t="s">
-        <v>188</v>
+        <v>7900</v>
+      </c>
+      <c r="H68" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="6">
+      <c r="D69" s="11">
         <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>7900</v>
-      </c>
-      <c r="F69" s="8" t="s">
+        <v>18000</v>
+      </c>
+      <c r="F69" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>18000</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="41" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -4249,24 +4266,24 @@
         <v>7900</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4282,24 +4299,24 @@
         <v>7900</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -4315,24 +4332,24 @@
         <v>7900</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4348,24 +4365,24 @@
         <v>7900</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
@@ -4381,24 +4398,24 @@
         <v>7900</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4414,24 +4431,24 @@
         <v>7900</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4447,24 +4464,24 @@
         <v>7900</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4480,27 +4497,24 @@
         <v>7900</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="K77" s="45" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -4516,27 +4530,27 @@
         <v>7900</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K78" s="45" t="s">
-        <v>203</v>
+        <v>200</v>
+      </c>
+      <c r="K78" s="41" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4552,27 +4566,27 @@
         <v>7900</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="K79" s="45" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="K79" s="41" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4588,27 +4602,27 @@
         <v>7900</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K80" s="45" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="K80" s="41" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4620,31 +4634,31 @@
         <v>13</v>
       </c>
       <c r="G81" s="7">
-        <f>D81*E81</f>
+        <f t="shared" si="0"/>
         <v>7900</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K81" s="45" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="K81" s="41" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4660,27 +4674,27 @@
         <v>7900</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K82" s="45" t="s">
-        <v>215</v>
+        <v>43</v>
+      </c>
+      <c r="K82" s="41" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4696,27 +4710,27 @@
         <v>7900</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>212</v>
+        <v>64</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="45" t="s">
-        <v>211</v>
+        <v>64</v>
+      </c>
+      <c r="K83" s="41" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4728,241 +4742,244 @@
         <v>13</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" ref="G84" si="3">D84*E84</f>
+        <f>D84*E84</f>
         <v>7900</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K84" s="45" t="s">
-        <v>213</v>
+        <v>16</v>
+      </c>
+      <c r="K84" s="41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
       </c>
       <c r="E85" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>217</v>
+        <v>7900</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G85" s="7">
-        <f>D85*E85</f>
-        <v>14900</v>
+        <f t="shared" ref="G85" si="3">D85*E85</f>
+        <v>7900</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I85" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J85" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J85" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K85" s="45" t="s">
-        <v>278</v>
+      <c r="K85" s="41" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
       </c>
       <c r="E86" s="7">
-        <v>16900</v>
+        <v>14900</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G86" s="7">
         <f>D86*E86</f>
-        <v>16900</v>
+        <v>14900</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="K86" s="45" t="s">
-        <v>216</v>
+        <v>276</v>
+      </c>
+      <c r="K86" s="41" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
       </c>
       <c r="E87" s="7">
-        <v>12900</v>
+        <v>16900</v>
       </c>
       <c r="F87" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G87" s="7">
         <f>D87*E87</f>
-        <v>12900</v>
+        <v>16900</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K87" s="45" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="K87" s="41" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
       </c>
       <c r="E88" s="7">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="F88" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G88" s="7">
+        <f>D88*E88</f>
+        <v>12900</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K88" s="41" t="s">
         <v>217</v>
-      </c>
-      <c r="G88" s="7">
-        <f t="shared" ref="G88" si="4">D88*E88</f>
-        <v>13900</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>295</v>
+        <v>218</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
       </c>
       <c r="E89" s="7">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G89" s="7">
-        <f>D89*E89</f>
-        <v>12900</v>
+        <f t="shared" ref="G89" si="4">D89*E89</f>
+        <v>13900</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>296</v>
+        <v>43</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="K89" s="45" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
       </c>
       <c r="E90" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>48</v>
+        <v>12900</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="G90" s="7">
         <f>D90*E90</f>
-        <v>6900</v>
+        <v>12900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>54</v>
+        <v>290</v>
+      </c>
+      <c r="K90" s="41" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
@@ -4971,31 +4988,31 @@
         <v>6900</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="0"/>
+        <f>D91*E91</f>
         <v>6900</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -5004,169 +5021,169 @@
         <v>6900</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G92" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D93" s="11">
+        <v>220</v>
+      </c>
+      <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="7">
         <v>6900</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G93" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I93" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="J93" s="16" t="s">
-        <v>54</v>
+        <v>187</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D94" s="6">
+        <v>221</v>
+      </c>
+      <c r="D94" s="11">
         <v>1</v>
       </c>
       <c r="E94" s="7">
-        <v>9000</v>
+        <v>6900</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" ref="G94" si="5">D94*E94</f>
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>6900</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I94" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K94" s="45" t="s">
-        <v>277</v>
+        <v>187</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
       </c>
       <c r="E95" s="7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F95" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G95" s="7">
+        <f>D95*E95</f>
+        <v>9000</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I95" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G95" s="7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="J95" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K95" s="45" t="s">
-        <v>224</v>
+        <v>48</v>
+      </c>
+      <c r="K95" s="41" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
       </c>
       <c r="E96" s="7">
-        <v>6900</v>
+        <v>9900</v>
       </c>
       <c r="F96" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="7">
+        <f>D96*E96</f>
+        <v>9900</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I96" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G96" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I96" s="10" t="s">
-        <v>227</v>
-      </c>
       <c r="J96" s="10" t="s">
-        <v>228</v>
+        <v>48</v>
+      </c>
+      <c r="K96" s="41" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D97" s="6">
         <v>1</v>
@@ -5175,454 +5192,451 @@
         <v>8000</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K97" s="45" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+      <c r="K97" s="41" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
       </c>
       <c r="E98" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>48</v>
+        <v>6900</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>6900</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
       </c>
       <c r="E99" s="7">
-        <v>12900</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>233</v>
+        <v>8000</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="0"/>
-        <v>12900</v>
+        <v>8000</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K99" s="45" t="s">
-        <v>232</v>
+        <v>228</v>
+      </c>
+      <c r="K99" s="41" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
       </c>
       <c r="E100" s="7">
-        <v>12900</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>233</v>
+        <v>9000</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="0"/>
-        <v>12900</v>
+        <v>9000</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="K100" s="45" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B101" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D101" s="11">
+        <v>230</v>
+      </c>
+      <c r="D101" s="6">
         <v>1</v>
       </c>
       <c r="E101" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F101" s="31" t="s">
-        <v>33</v>
+        <v>12900</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="G101" s="7">
-        <f>D101*E101</f>
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>12900</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I101" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J101" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K101" s="45" t="s">
-        <v>236</v>
+        <v>187</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K101" s="41" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B102" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D102" s="11">
+        <v>232</v>
+      </c>
+      <c r="D102" s="6">
         <v>1</v>
       </c>
       <c r="E102" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F102" s="31" t="s">
-        <v>33</v>
+        <v>12900</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>12900</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I102" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J102" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K102" s="45" t="s">
-        <v>237</v>
+        <v>187</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K102" s="41" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D103" s="11">
         <v>1</v>
       </c>
       <c r="E103" s="7">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="F103" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G103" s="7">
         <f>D103*E103</f>
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K103" s="45" t="s">
-        <v>238</v>
+        <v>43</v>
+      </c>
+      <c r="K103" s="41" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B104" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" s="6">
+        <v>235</v>
+      </c>
+      <c r="D104" s="11">
         <v>1</v>
       </c>
       <c r="E104" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F104" s="12" t="s">
+        <v>18000</v>
+      </c>
+      <c r="F104" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J104" s="10" t="s">
-        <v>44</v>
+        <v>187</v>
+      </c>
+      <c r="I104" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" s="41" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B105" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D105" s="6">
+        <v>236</v>
+      </c>
+      <c r="D105" s="11">
         <v>1</v>
       </c>
       <c r="E105" s="7">
         <v>14500</v>
       </c>
-      <c r="F105" s="17" t="s">
-        <v>70</v>
+      <c r="F105" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="0"/>
+        <f>D105*E105</f>
         <v>14500</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J105" s="10" t="s">
-        <v>44</v>
+        <v>187</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" s="41" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B106" s="32" t="s">
-        <v>241</v>
+        <v>184</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
       </c>
       <c r="E106" s="7">
-        <v>11450</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>13</v>
+        <v>13000</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="0"/>
-        <v>11450</v>
+        <v>13000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>147</v>
+        <v>184</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D107" s="6">
         <v>1</v>
       </c>
       <c r="E107" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>33</v>
+        <v>14500</v>
+      </c>
+      <c r="F107" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="G107" s="7">
         <f t="shared" si="0"/>
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>244</v>
+        <v>43</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="K107" s="45" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
       </c>
       <c r="E108" s="7">
-        <v>12000</v>
+        <v>11450</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>11450</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="K108" s="45" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>75</v>
+        <v>184</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D109" s="11">
+        <v>241</v>
+      </c>
+      <c r="D109" s="6">
         <v>1</v>
       </c>
       <c r="E109" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>13</v>
+        <v>14900</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G109" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>14900</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I109" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J109" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="K109" s="45" t="s">
-        <v>248</v>
+        <v>187</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K109" s="41" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D110" s="6">
         <v>1</v>
@@ -5638,204 +5652,207 @@
         <v>12000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K110" s="45" t="s">
-        <v>250</v>
+        <v>245</v>
+      </c>
+      <c r="K110" s="41" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>75</v>
+        <v>184</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D111" s="6">
+        <v>246</v>
+      </c>
+      <c r="D111" s="11">
         <v>1</v>
       </c>
       <c r="E111" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F111" s="28" t="s">
-        <v>217</v>
+        <v>11000</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="G111" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I111" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="J111" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K111" s="45" t="s">
-        <v>251</v>
+        <v>187</v>
+      </c>
+      <c r="I111" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="K111" s="41" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>143</v>
+        <v>184</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
       </c>
       <c r="E112" s="7">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G112" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="K112" s="45" t="s">
-        <v>254</v>
+        <v>16</v>
+      </c>
+      <c r="K112" s="41" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>143</v>
+        <v>184</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
       </c>
       <c r="E113" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>13</v>
+        <v>15000</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K113" s="45" t="s">
-        <v>256</v>
+        <v>251</v>
+      </c>
+      <c r="K113" s="41" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
       <c r="E114" s="7">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G114" s="7">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
+      </c>
+      <c r="K114" s="41" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
       </c>
       <c r="E115" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F115" s="28" t="s">
-        <v>217</v>
+        <v>8000</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G115" s="7">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="K115" s="45" t="s">
-        <v>260</v>
+        <v>255</v>
+      </c>
+      <c r="K115" s="41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -5843,331 +5860,363 @@
       <c r="E116" s="7">
         <v>7000</v>
       </c>
-      <c r="F116" s="12" t="s">
-        <v>33</v>
+      <c r="F116" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G116" s="7">
-        <f t="shared" ref="G116" si="6">D116*E116</f>
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="K116" s="45" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B117" s="47" t="s">
-        <v>280</v>
+        <v>184</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
       </c>
       <c r="E117" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>33</v>
+        <v>14000</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="G117" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="K117" s="45" t="s">
-        <v>281</v>
+        <v>259</v>
+      </c>
+      <c r="K117" s="41" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>264</v>
+        <v>184</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
       </c>
       <c r="E118" s="7">
-        <v>17000</v>
-      </c>
-      <c r="F118" s="28" t="s">
-        <v>217</v>
+        <v>7000</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" si="0"/>
-        <v>17000</v>
+        <f t="shared" ref="G118" si="5">D118*E118</f>
+        <v>7000</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="K118" s="45" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="K118" s="41" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>11</v>
+        <v>184</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>277</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
       </c>
       <c r="E119" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>13</v>
+        <v>16000</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G119" s="7">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>14</v>
+        <v>279</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K119" s="45" t="s">
-        <v>188</v>
+        <v>279</v>
+      </c>
+      <c r="K119" s="41" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+      <c r="E120" s="7">
+        <v>17000</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G120" s="7">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K120" s="41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B120" s="37" t="s">
+      <c r="B121" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E121" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I121" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H120" s="3" t="s">
+      <c r="J121" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I120" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A27)</f>
-        <v>En curso = 26</v>
-      </c>
-      <c r="B121" s="14" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B10:B23,B33:B47,B59:B105)</f>
-        <v>Ivrea = 76</v>
-      </c>
-      <c r="C121" s="36" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C119)</f>
-        <v>Series en total = 118</v>
-      </c>
-      <c r="D121" s="6">
-        <f>SUM(D2:D119)</f>
-        <v>524</v>
-      </c>
-      <c r="E121" s="7">
-        <f>SUM(E2:E119)</f>
-        <v>1154283</v>
-      </c>
-      <c r="F121" s="38" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F8,F10:F13,F24,F28:F32,F37:F48,F52:F54,F56:F58,F66:F84,F106,F108:F110,F112:F114,F119)</f>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A28)</f>
+        <v>En curso = 27</v>
+      </c>
+      <c r="B122" s="14" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B11:B24,B34:B48,B60:B107)</f>
+        <v>Ivrea = 77</v>
+      </c>
+      <c r="C122" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C120)</f>
+        <v>Series en total = 119</v>
+      </c>
+      <c r="D122" s="6">
+        <f>SUM(D2:D120)</f>
+        <v>534</v>
+      </c>
+      <c r="E122" s="7">
+        <f>SUM(E2:E120)</f>
+        <v>1164183</v>
+      </c>
+      <c r="F122" s="46" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F9,F11:F14,F25,F29:F33,F38:F49,F53:F55,F57:F59,F67:F85,F108,F110:F112,F114:F116)</f>
         <v>B6 = 62</v>
       </c>
-      <c r="G121" s="7">
-        <f>SUM(G2:G119)</f>
-        <v>4532249</v>
-      </c>
-      <c r="H121" s="39" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H6,H12,H25:H26,H28:H55,H57:H60,H66,H68:H119)</f>
+      <c r="G122" s="7">
+        <f>SUM(G2:G120)</f>
+        <v>4610349</v>
+      </c>
+      <c r="H122" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H120)</f>
         <v>Finalizados = 89</v>
       </c>
-      <c r="I121" s="38" t="str">
-        <f>"B6 = " &amp; SUM(D2:D8,D10:D13,D24,D28:D32,D37:D48,D52:D54,D56:D58,D66:D84,D106,D108:D110,D112:D114,D119)</f>
-        <v>B6 = 287</v>
-      </c>
-      <c r="J121" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K5,K7:K16,K18:K22,K24:K28,K30:K32,K35:K39,K48:K53,K55,K68,K77:K87,K89,K94:K95,K97,K99:K103,K107:K113,K115:K119)</f>
+      <c r="I122" s="46" t="str">
+        <f>"B6 = " &amp; SUM(D2:D9,D11:D14,D25,D29:D33,D38:D49,D53:D55,D57:D59,D67:D85,D108,D110:D112,D114:D116)</f>
+        <v>B6 = 291</v>
+      </c>
+      <c r="J122" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K115,K117:K120)</f>
         <v>Series = 72</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="str">
-        <f>"Completado = " &amp; COUNTA(A28:A55)</f>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="str">
+        <f>"Completado = " &amp; COUNTA(A29:A56)</f>
         <v>Completado = 28</v>
       </c>
-      <c r="B122" s="5" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B9,B28:B32,B56:B58,B119)</f>
+      <c r="B123" s="5" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B10,B29:B33,B57:B59)</f>
         <v>Panini = 17</v>
       </c>
-      <c r="F122" s="43" t="str">
-        <f>"C6 = " &amp; COUNTA(F14:F21,F33:F36,F55,F59:F65,F90:F98)</f>
-        <v>C6 = 29</v>
-      </c>
-      <c r="H122" s="9" t="str">
-        <f>"En publicación = " &amp; COUNTA(H2:H5,H7:H11,H13:H24,H27,H56,H61:H65,H67)</f>
-        <v>En publicación = 29</v>
-      </c>
-      <c r="I122" s="43" t="str">
-        <f>"C6 = " &amp; SUM(D14:D21,D33:D36,D55,D59:D65,D90:D98)</f>
-        <v>C6 = 184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="25" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A56:A67)</f>
+      <c r="F123" s="39" t="str">
+        <f>"C6 = " &amp; COUNTA(F15:F22,F34:F37,F56,F60:F66,F91:F100)</f>
+        <v>C6 = 30</v>
+      </c>
+      <c r="H123" s="9" t="str">
+        <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H12,H14:H25,H28,H57,H62:H66,H68)</f>
+        <v>En publicación = 30</v>
+      </c>
+      <c r="I123" s="39" t="str">
+        <f>"C6 = " &amp; SUM(D15:D22,D34:D37,D56,D60:D66,D91:D100)</f>
+        <v>C6 = 190</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="25" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A57:A68)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B123" s="22" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B51,B112:B117)</f>
-        <v>Kemuri = 7</v>
-      </c>
-      <c r="F123" s="44" t="str">
-        <f>"A5 = " &amp; COUNTA(F9,F23,F25:F26,F49:F51,F101:F104,F107,F116:F117)</f>
+      <c r="B124" s="22" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B52,B114:B118)</f>
+        <v>Kemuri = 6</v>
+      </c>
+      <c r="F124" s="40" t="str">
+        <f>"A5 = " &amp; COUNTA(F10,F24,F26:F27,F50:F52,F103:F106,F109,F118:F119)</f>
         <v>A5 = 14</v>
       </c>
-      <c r="I123" s="44" t="str">
-        <f>"A5 = " &amp; SUM(D9,D23,D25:D26,D49:D51,D101:D104,D107,D116:D117)</f>
+      <c r="I124" s="40" t="str">
+        <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D118:D119)</f>
         <v>A5 = 33</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A68:A119)</f>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A69:A120)</f>
         <v>Tomo único = 52</v>
       </c>
-      <c r="B124" s="23" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B52:B53,B107)</f>
+      <c r="B125" s="23" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B53:B54,B109)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F124" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F85:F89,F111,F115,F118)</f>
+      <c r="F125" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F117,F120)</f>
         <v>B6x2 = 8</v>
       </c>
-      <c r="I124" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D85:D89,D111,D115,D118)</f>
+      <c r="I125" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D117,D120)</f>
         <v>B6x2 = 8</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B24,B108:B111)</f>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B25,B110:B113)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F125" s="30" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F99:F100)</f>
+      <c r="F126" s="30" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F101:F102)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I125" s="30" t="str">
-        <f>"C6x2 = " &amp; SUM(D99:D100)</f>
+      <c r="I126" s="30" t="str">
+        <f>"C6x2 = " &amp; SUM(D101:D102)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="40" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B25:B26,B48:B49)</f>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="36" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B49:B50)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F126" s="17" t="str">
-        <f>"A5 color = " &amp; COUNTA(F22,F27,F105)</f>
+      <c r="F127" s="17" t="str">
+        <f>"A5 color = " &amp; COUNTA(F23,F28,F107)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I126" s="17" t="str">
-        <f>"A5 color = " &amp; SUM(D105,D22,D27)</f>
+      <c r="I127" s="17" t="str">
+        <f>"A5 color = " &amp; SUM(D107,D23,D28)</f>
         <v>A5 color = 10</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="24" t="str">
-        <f>"Utopia = " &amp; COUNTA(B54:B55)</f>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="24" t="str">
+        <f>"Utopia = " &amp; COUNTA(B55:B56)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="21" t="str">
-        <f>"Merci = " &amp; COUNTA(B50)</f>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="21" t="str">
+        <f>"Merci = " &amp; COUNTA(B51)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="32" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B106)</f>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="32" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B108)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="41" t="str">
-        <f>"Moztros = " &amp; COUNTA(B119)</f>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B120)</f>
         <v>Moztros = 1</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="42" t="str">
-        <f>"Random Comics = " &amp; COUNTA(B27)</f>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="38" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B28)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="47" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B117)</f>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="43" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B119)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7036,42 +7085,63 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F2:F45 F47:F87 F89:F120">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+  <conditionalFormatting sqref="F48:F88 F2:F46 F90:F94 F96:F121">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F30 F33:F45 F47:F87 F89:F120">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+  <conditionalFormatting sqref="F8:F31 F34:F46 F48:F88 F3 F90:F94 F96:F121">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+  <conditionalFormatting sqref="F13:F14">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6 H12 H25:H26 H57:H60 H66 H28:H45 H47:H55 H68:H87 H89:H120">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H3))))</formula>
+  <conditionalFormatting sqref="H13 H26:H27 H58:H61 H67 H29:H46 H48:H56 H69:H88 H4:H7 H90:H94 H96:H121">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7079,7 +7149,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
@@ -7087,12 +7157,12 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H89">
     <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H46))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H89))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7100,7 +7170,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
@@ -7108,9 +7178,9 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H95">
     <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H88))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0ECA96A9-EC35-46E4-8764-6CE5AF96BC25}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16D9913-AB42-4A13-965D-3BD6A91D5A11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="304">
   <si>
     <t>Estado</t>
   </si>
@@ -937,6 +937,12 @@
   </si>
   <si>
     <t>Spy x Family: Eyes Only</t>
+  </si>
+  <si>
+    <t>No me Calientes Asi</t>
+  </si>
+  <si>
+    <t>No me Calientes asi</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1412,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1821,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1941,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G120" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G121" si="0">D2*E2</f>
         <v>220000</v>
       </c>
       <c r="H2" s="44" t="s">
@@ -5828,7 +5874,7 @@
         <v>13</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G115" si="5">D115*E115</f>
         <v>8000</v>
       </c>
       <c r="H115" s="13" t="s">
@@ -5852,29 +5898,32 @@
         <v>141</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
       </c>
       <c r="E116" s="7">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="7">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>187</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="K116" s="41" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5885,32 +5934,29 @@
         <v>141</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
       </c>
       <c r="E117" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F117" s="28" t="s">
-        <v>215</v>
+        <v>7000</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G117" s="7">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>187</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K117" s="41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5921,303 +5967,338 @@
         <v>141</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
       </c>
       <c r="E118" s="7">
-        <v>7000</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>33</v>
+        <v>14000</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>215</v>
       </c>
       <c r="G118" s="7">
-        <f t="shared" ref="G118" si="5">D118*E118</f>
-        <v>7000</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>187</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B119" s="43" t="s">
-        <v>277</v>
+      <c r="B119" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
       </c>
       <c r="E119" s="7">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="F119" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <f t="shared" ref="G119" si="6">D119*E119</f>
+        <v>7000</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>187</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="K119" s="41" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B120" s="34" t="s">
-        <v>262</v>
+      <c r="B120" s="43" t="s">
+        <v>277</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
       </c>
       <c r="E120" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" s="7">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K120" s="41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="7">
         <v>17000</v>
       </c>
-      <c r="F120" s="28" t="s">
+      <c r="F121" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="G120" s="7">
+      <c r="G121" s="7">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="H120" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I120" s="10" t="s">
+      <c r="H121" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I121" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J120" s="10" t="s">
+      <c r="J121" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="K120" s="41" t="s">
+      <c r="K121" s="41" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F122" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J122" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="str">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="str">
         <f>"En curso = " &amp; COUNTA(A2:A28)</f>
         <v>En curso = 27</v>
       </c>
-      <c r="B122" s="14" t="str">
+      <c r="B123" s="14" t="str">
         <f>"Ivrea = " &amp; COUNTA(B11:B24,B34:B48,B60:B107)</f>
         <v>Ivrea = 77</v>
       </c>
-      <c r="C122" s="45" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C120)</f>
-        <v>Series en total = 119</v>
-      </c>
-      <c r="D122" s="6">
-        <f>SUM(D2:D120)</f>
-        <v>534</v>
-      </c>
-      <c r="E122" s="7">
-        <f>SUM(E2:E120)</f>
-        <v>1164183</v>
-      </c>
-      <c r="F122" s="46" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F9,F11:F14,F25,F29:F33,F38:F49,F53:F55,F57:F59,F67:F85,F108,F110:F112,F114:F116)</f>
-        <v>B6 = 62</v>
-      </c>
-      <c r="G122" s="7">
-        <f>SUM(G2:G120)</f>
-        <v>4610349</v>
-      </c>
-      <c r="H122" s="13" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H120)</f>
-        <v>Finalizados = 89</v>
-      </c>
-      <c r="I122" s="46" t="str">
-        <f>"B6 = " &amp; SUM(D2:D9,D11:D14,D25,D29:D33,D38:D49,D53:D55,D57:D59,D67:D85,D108,D110:D112,D114:D116)</f>
-        <v>B6 = 291</v>
-      </c>
-      <c r="J122" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K115,K117:K120)</f>
-        <v>Series = 72</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="str">
+      <c r="C123" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C121)</f>
+        <v>Series en total = 120</v>
+      </c>
+      <c r="D123" s="6">
+        <f>SUM(D2:D121)</f>
+        <v>535</v>
+      </c>
+      <c r="E123" s="7">
+        <f>SUM(E2:E121)</f>
+        <v>1172683</v>
+      </c>
+      <c r="F123" s="46" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F9,F11:F14,F25,F29:F33,F38:F49,F53:F55,F57:F59,F67:F85,F108,F110:F112,F114:F117)</f>
+        <v>B6 = 63</v>
+      </c>
+      <c r="G123" s="7">
+        <f>SUM(G2:G121)</f>
+        <v>4618849</v>
+      </c>
+      <c r="H123" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H121)</f>
+        <v>Finalizados = 90</v>
+      </c>
+      <c r="I123" s="46" t="str">
+        <f>"B6 = " &amp; SUM(D2:D9,D11:D14,D25,D29:D33,D38:D49,D53:D55,D57:D59,D67:D85,D108,D110:D112,D114:D117)</f>
+        <v>B6 = 292</v>
+      </c>
+      <c r="J123" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K116,K118:K121)</f>
+        <v>Series = 73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="str">
         <f>"Completado = " &amp; COUNTA(A29:A56)</f>
         <v>Completado = 28</v>
       </c>
-      <c r="B123" s="5" t="str">
+      <c r="B124" s="5" t="str">
         <f>"Panini = " &amp; COUNTA(B2:B10,B29:B33,B57:B59)</f>
         <v>Panini = 17</v>
       </c>
-      <c r="F123" s="39" t="str">
+      <c r="F124" s="39" t="str">
         <f>"C6 = " &amp; COUNTA(F15:F22,F34:F37,F56,F60:F66,F91:F100)</f>
         <v>C6 = 30</v>
       </c>
-      <c r="H123" s="9" t="str">
+      <c r="H124" s="9" t="str">
         <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H12,H14:H25,H28,H57,H62:H66,H68)</f>
         <v>En publicación = 30</v>
       </c>
-      <c r="I123" s="39" t="str">
+      <c r="I124" s="39" t="str">
         <f>"C6 = " &amp; SUM(D15:D22,D34:D37,D56,D60:D66,D91:D100)</f>
         <v>C6 = 190</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="str">
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="25" t="str">
         <f>"Droppeado = " &amp; COUNTA(A57:A68)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B124" s="22" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B52,B114:B118)</f>
-        <v>Kemuri = 6</v>
-      </c>
-      <c r="F124" s="40" t="str">
-        <f>"A5 = " &amp; COUNTA(F10,F24,F26:F27,F50:F52,F103:F106,F109,F118:F119)</f>
+      <c r="B125" s="22" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B52,B114:B119)</f>
+        <v>Kemuri = 7</v>
+      </c>
+      <c r="F125" s="40" t="str">
+        <f>"A5 = " &amp; COUNTA(F10,F24,F26:F27,F50:F52,F103:F106,F109,F119:F120)</f>
         <v>A5 = 14</v>
       </c>
-      <c r="I124" s="40" t="str">
-        <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D118:D119)</f>
+      <c r="I125" s="40" t="str">
+        <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D119:D120)</f>
         <v>A5 = 33</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A69:A120)</f>
-        <v>Tomo único = 52</v>
-      </c>
-      <c r="B125" s="23" t="str">
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A69:A121)</f>
+        <v>Tomo único = 53</v>
+      </c>
+      <c r="B126" s="23" t="str">
         <f>"Distrito Manga = " &amp; COUNTA(B53:B54,B109)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F125" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F117,F120)</f>
+      <c r="F126" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F118,F121)</f>
         <v>B6x2 = 8</v>
       </c>
-      <c r="I125" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D117,D120)</f>
+      <c r="I126" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D118,D121)</f>
         <v>B6x2 = 8</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="str">
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="str">
         <f>"Ovni Press = " &amp; COUNTA(B25,B110:B113)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F126" s="30" t="str">
+      <c r="F127" s="30" t="str">
         <f>"C6x2 = " &amp; COUNTA(F101:F102)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I126" s="30" t="str">
+      <c r="I127" s="30" t="str">
         <f>"C6x2 = " &amp; SUM(D101:D102)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="36" t="str">
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="36" t="str">
         <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B49:B50)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F127" s="17" t="str">
+      <c r="F128" s="17" t="str">
         <f>"A5 color = " &amp; COUNTA(F23,F28,F107)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I127" s="17" t="str">
+      <c r="I128" s="17" t="str">
         <f>"A5 color = " &amp; SUM(D107,D23,D28)</f>
         <v>A5 color = 10</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="24" t="str">
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="24" t="str">
         <f>"Utopia = " &amp; COUNTA(B55:B56)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="21" t="str">
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="21" t="str">
         <f>"Merci = " &amp; COUNTA(B51)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="32" t="str">
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="32" t="str">
         <f>"Milky Way = " &amp; COUNTA(B108)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="37" t="str">
-        <f>"Moztros = " &amp; COUNTA(B120)</f>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B121)</f>
         <v>Moztros = 1</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="38" t="str">
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="38" t="str">
         <f>"Random Comics = " &amp; COUNTA(B28)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="43" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B119)</f>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="43" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B120)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7085,42 +7166,63 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F48:F88 F2:F46 F90:F94 F96:F121">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+  <conditionalFormatting sqref="F48:F88 F2:F46 F90:F94 F96:F114 F116:F122">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F31 F34:F46 F48:F88 F3 F90:F94 F96:F121">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+  <conditionalFormatting sqref="F8:F31 F34:F46 F48:F88 F3 F90:F94 F96:F114 F116:F122">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 H26:H27 H58:H61 H67 H29:H46 H48:H56 H69:H88 H4:H7 H90:H94 H96:H121">
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="H13 H26:H27 H58:H61 H67 H29:H46 H48:H56 H69:H88 H4:H7 H90:H94 H96:H114 H116:H122">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H47))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7128,7 +7230,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
@@ -7136,12 +7238,12 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
+  <conditionalFormatting sqref="H89">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H47))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H89))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7149,7 +7251,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
@@ -7157,12 +7259,12 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
+  <conditionalFormatting sqref="H95">
     <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H95))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F115">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7170,7 +7272,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F115">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
@@ -7178,9 +7280,9 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
+  <conditionalFormatting sqref="H115">
     <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H95))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H115))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16D9913-AB42-4A13-965D-3BD6A91D5A11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86C40B-1C60-4CBF-9097-01474C07B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -846,15 +835,6 @@
     <t>Dead Dead Demon's Dededede Destruction - 3 al 8</t>
   </si>
   <si>
-    <t>Spy x Family - 11 al 13</t>
-  </si>
-  <si>
-    <t>Shangri-la Frontier - 10 al 13</t>
-  </si>
-  <si>
-    <t>Elden Ring - 1 al 4</t>
-  </si>
-  <si>
     <t>Spy x Family: Family Portrait</t>
   </si>
   <si>
@@ -924,15 +904,9 @@
     <t>Oshi no Ko - 12 al 15</t>
   </si>
   <si>
-    <t>Blue Lock - 13 al 25</t>
-  </si>
-  <si>
     <t>Sakamoto Days - 3 al 13</t>
   </si>
   <si>
-    <t>Gachiakuta - 2 al 7</t>
-  </si>
-  <si>
     <t>Hanako-Kun: Despues de Clases - 1 &amp; 2</t>
   </si>
   <si>
@@ -943,6 +917,21 @@
   </si>
   <si>
     <t>No me Calientes asi</t>
+  </si>
+  <si>
+    <t>Elden Ring - 1 al 5</t>
+  </si>
+  <si>
+    <t>Shangri-la Frontier - 10 al 15</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 26</t>
+  </si>
+  <si>
+    <t>Spy x Family - 11 al 14</t>
+  </si>
+  <si>
+    <t>Gachiakuta - 2 al 8</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1401,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1424,32 +1413,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1474,110 +1439,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE598"/>
           <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1867,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1888,7 +1749,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1909,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1945,7 +1806,7 @@
         <v>220000</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1954,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1981,7 +1842,7 @@
         <v>20000</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
@@ -1990,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2017,7 +1878,7 @@
         <v>135000</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -2053,7 +1914,7 @@
         <v>162000</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>19</v>
@@ -2062,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2076,7 +1937,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7">
         <v>8500</v>
@@ -2086,10 +1947,10 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>119000</v>
+        <v>127500</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>22</v>
@@ -2098,7 +1959,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2158,7 +2019,7 @@
         <v>28500</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>27</v>
@@ -2194,7 +2055,7 @@
         <v>34000</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>31</v>
@@ -2203,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2230,7 +2091,7 @@
         <v>9000</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>34</v>
@@ -2266,7 +2127,7 @@
         <v>118500</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>38</v>
@@ -2275,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2302,7 +2163,7 @@
         <v>55300</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>41</v>
@@ -2311,7 +2172,7 @@
         <v>41</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2325,7 +2186,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="7">
         <v>7900</v>
@@ -2335,7 +2196,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>63200</v>
+        <v>71100</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>187</v>
@@ -2374,7 +2235,7 @@
         <v>39500</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>45</v>
@@ -2383,7 +2244,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,7 +2258,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="7">
         <v>6900</v>
@@ -2407,10 +2268,10 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>89700</v>
+        <v>96600</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>48</v>
@@ -2419,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,7 +2294,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="7">
         <v>6900</v>
@@ -2443,10 +2304,10 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" ref="G16" si="1">D16*E16</f>
-        <v>172500</v>
+        <v>179400</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>50</v>
@@ -2455,7 +2316,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2482,7 +2343,7 @@
         <v>20700</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>50</v>
@@ -2491,7 +2352,7 @@
         <v>51</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2518,7 +2379,7 @@
         <v>124200</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>53</v>
@@ -2551,7 +2412,7 @@
         <v>89700</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>55</v>
@@ -2560,7 +2421,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2587,7 +2448,7 @@
         <v>89700</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>59</v>
@@ -2610,7 +2471,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7">
         <v>6900</v>
@@ -2620,10 +2481,10 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>48300</v>
+        <v>55200</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>62</v>
@@ -2632,7 +2493,7 @@
         <v>62</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2507,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <v>6900</v>
@@ -2656,10 +2517,10 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>20700</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>64</v>
@@ -2695,7 +2556,7 @@
         <v>157500</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>69</v>
@@ -2704,7 +2565,7 @@
         <v>70</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,7 +2579,7 @@
         <v>71</v>
       </c>
       <c r="D24" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7">
         <v>9000</v>
@@ -2728,10 +2589,10 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>117000</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>72</v>
@@ -2764,7 +2625,7 @@
         <v>54000</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>75</v>
@@ -2845,7 +2706,7 @@
         <v>83</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2872,7 +2733,7 @@
         <v>54200</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>86</v>
@@ -2881,7 +2742,7 @@
         <v>86</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,7 +2861,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="7">
         <v>8000</v>
@@ -3010,7 +2871,7 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>187</v>
@@ -3022,7 +2883,7 @@
         <v>97</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3196,7 +3057,7 @@
         <v>57</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3546,7 +3407,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3618,7 +3479,7 @@
         <v>134</v>
       </c>
       <c r="D50" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" s="7">
         <v>12300</v>
@@ -3628,7 +3489,7 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
-        <v>49200</v>
+        <v>61500</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>187</v>
@@ -3880,7 +3741,7 @@
         <v>17000</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>161</v>
@@ -4045,7 +3906,7 @@
         <v>41400</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>171</v>
@@ -4078,7 +3939,7 @@
         <v>27600</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>173</v>
@@ -4111,7 +3972,7 @@
         <v>34500</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>175</v>
@@ -4144,7 +4005,7 @@
         <v>6900</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>177</v>
@@ -4177,7 +4038,7 @@
         <v>6900</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>179</v>
@@ -4243,7 +4104,7 @@
         <v>7900</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>183</v>
@@ -4848,7 +4709,7 @@
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4870,10 +4731,10 @@
         <v>210</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4989,7 +4850,7 @@
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -5008,13 +4869,13 @@
         <v>187</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,7 +5018,7 @@
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -5182,7 +5043,7 @@
         <v>48</v>
       </c>
       <c r="K95" s="41" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5193,7 +5054,7 @@
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -5218,7 +5079,7 @@
         <v>48</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5898,7 +5759,7 @@
         <v>141</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -5923,7 +5784,7 @@
         <v>255</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6036,10 +5897,10 @@
         <v>184</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -6058,13 +5919,13 @@
         <v>187</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6150,7 +6011,7 @@
       </c>
       <c r="D123" s="6">
         <f>SUM(D2:D121)</f>
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E123" s="7">
         <f>SUM(E2:E121)</f>
@@ -6162,7 +6023,7 @@
       </c>
       <c r="G123" s="7">
         <f>SUM(G2:G121)</f>
-        <v>4618849</v>
+        <v>4692149</v>
       </c>
       <c r="H123" s="13" t="str">
         <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H121)</f>
@@ -6170,7 +6031,7 @@
       </c>
       <c r="I123" s="46" t="str">
         <f>"B6 = " &amp; SUM(D2:D9,D11:D14,D25,D29:D33,D38:D49,D53:D55,D57:D59,D67:D85,D108,D110:D112,D114:D117)</f>
-        <v>B6 = 292</v>
+        <v>B6 = 295</v>
       </c>
       <c r="J123" s="35" t="str">
         <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K116,K118:K121)</f>
@@ -6196,7 +6057,7 @@
       </c>
       <c r="I124" s="39" t="str">
         <f>"C6 = " &amp; SUM(D15:D22,D34:D37,D56,D60:D66,D91:D100)</f>
-        <v>C6 = 190</v>
+        <v>C6 = 194</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6214,7 +6075,7 @@
       </c>
       <c r="I125" s="40" t="str">
         <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D119:D120)</f>
-        <v>A5 = 33</v>
+        <v>A5 = 35</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7166,123 +7027,57 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F48:F88 F2:F46 F90:F94 F96:F114 F116:F122">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+  <conditionalFormatting sqref="F2:F122">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F31 F34:F46 F48:F88 F3 F90:F94 F96:F114 F116:F122">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+  <conditionalFormatting sqref="F3 F8:F31">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 H26:H27 H58:H61 H67 H29:H46 H48:H56 H69:H88 H4:H7 H90:H94 H96:H114 H116:H122">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="F34:F122">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H7 H13 H26:H27 H58:H61 H67">
+    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="H29:H56">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H89))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H95))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
+  <conditionalFormatting sqref="H69:H122">
     <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H115))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H69))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44df28c8ac89212a/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="6_{EDABB7A8-8D17-44E7-9064-82807FFB5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16D9913-AB42-4A13-965D-3BD6A91D5A11}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC51006-1B71-458C-A951-A572341659A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="308">
   <si>
     <t>Estado</t>
   </si>
@@ -846,15 +846,6 @@
     <t>Dead Dead Demon's Dededede Destruction - 3 al 8</t>
   </si>
   <si>
-    <t>Spy x Family - 11 al 13</t>
-  </si>
-  <si>
-    <t>Shangri-la Frontier - 10 al 13</t>
-  </si>
-  <si>
-    <t>Elden Ring - 1 al 4</t>
-  </si>
-  <si>
     <t>Spy x Family: Family Portrait</t>
   </si>
   <si>
@@ -924,15 +915,9 @@
     <t>Oshi no Ko - 12 al 15</t>
   </si>
   <si>
-    <t>Blue Lock - 13 al 25</t>
-  </si>
-  <si>
     <t>Sakamoto Days - 3 al 13</t>
   </si>
   <si>
-    <t>Gachiakuta - 2 al 7</t>
-  </si>
-  <si>
     <t>Hanako-Kun: Despues de Clases - 1 &amp; 2</t>
   </si>
   <si>
@@ -943,6 +928,33 @@
   </si>
   <si>
     <t>No me Calientes asi</t>
+  </si>
+  <si>
+    <t>Elden Ring - 1 al 5</t>
+  </si>
+  <si>
+    <t>Shangri-la Frontier - 10 al 15</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 26</t>
+  </si>
+  <si>
+    <t>Spy x Family - 11 al 14</t>
+  </si>
+  <si>
+    <t>Gachiakuta - 2 al 8</t>
+  </si>
+  <si>
+    <t>Kibook Ediciones</t>
+  </si>
+  <si>
+    <t>Bibliomania Deluxe</t>
+  </si>
+  <si>
+    <t>Macchiro</t>
+  </si>
+  <si>
+    <t>Obaru</t>
   </si>
 </sst>
 </file>
@@ -952,7 +964,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,8 +1049,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,6 +1251,12 @@
         <bgColor rgb="FFFF9966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A59A"/>
+        <bgColor rgb="FFFF9966"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1268,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1408,11 +1434,23 @@
     <xf numFmtId="0" fontId="6" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1458,118 +1496,6 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1649,6 +1575,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00A59A"/>
       <color rgb="FFF9C8DE"/>
     </mruColors>
   </colors>
@@ -1867,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1888,7 +1815,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1909,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1941,11 +1868,11 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G121" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G122" si="0">D2*E2</f>
         <v>220000</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1954,7 +1881,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1981,7 +1908,7 @@
         <v>20000</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
@@ -1990,7 +1917,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2017,7 +1944,7 @@
         <v>135000</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -2053,7 +1980,7 @@
         <v>162000</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>19</v>
@@ -2062,7 +1989,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2076,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="7">
         <v>8500</v>
@@ -2086,10 +2013,10 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>119000</v>
+        <v>127500</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>22</v>
@@ -2098,7 +2025,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2158,7 +2085,7 @@
         <v>28500</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>27</v>
@@ -2194,7 +2121,7 @@
         <v>34000</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>31</v>
@@ -2203,7 +2130,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2230,7 +2157,7 @@
         <v>9000</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>34</v>
@@ -2266,7 +2193,7 @@
         <v>118500</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>38</v>
@@ -2275,7 +2202,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2302,7 +2229,7 @@
         <v>55300</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>41</v>
@@ -2311,7 +2238,7 @@
         <v>41</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2325,7 +2252,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7">
         <v>7900</v>
@@ -2335,7 +2262,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>63200</v>
+        <v>79000</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>187</v>
@@ -2374,7 +2301,7 @@
         <v>39500</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>45</v>
@@ -2383,7 +2310,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,7 +2324,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="7">
         <v>6900</v>
@@ -2407,10 +2334,10 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>89700</v>
+        <v>96600</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>48</v>
@@ -2419,7 +2346,7 @@
         <v>48</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="7">
         <v>6900</v>
@@ -2443,10 +2370,10 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" ref="G16" si="1">D16*E16</f>
-        <v>172500</v>
+        <v>186300</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>50</v>
@@ -2455,7 +2382,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,7 +2396,7 @@
         <v>269</v>
       </c>
       <c r="D17" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="7">
         <v>6900</v>
@@ -2479,10 +2406,10 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>27600</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>50</v>
@@ -2491,7 +2418,7 @@
         <v>51</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2518,7 +2445,7 @@
         <v>124200</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>53</v>
@@ -2551,7 +2478,7 @@
         <v>89700</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>55</v>
@@ -2560,7 +2487,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2587,7 +2514,7 @@
         <v>89700</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>59</v>
@@ -2610,7 +2537,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7">
         <v>6900</v>
@@ -2620,10 +2547,10 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>48300</v>
+        <v>55200</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>62</v>
@@ -2632,7 +2559,7 @@
         <v>62</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,7 +2573,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <v>6900</v>
@@ -2656,10 +2583,10 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>13800</v>
+        <v>20700</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>64</v>
@@ -2695,7 +2622,7 @@
         <v>157500</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>69</v>
@@ -2704,7 +2631,7 @@
         <v>70</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,7 +2645,7 @@
         <v>71</v>
       </c>
       <c r="D24" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7">
         <v>9000</v>
@@ -2728,10 +2655,10 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>117000</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>72</v>
@@ -2764,7 +2691,7 @@
         <v>54000</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>75</v>
@@ -2845,7 +2772,7 @@
         <v>83</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2872,7 +2799,7 @@
         <v>54200</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>86</v>
@@ -2881,7 +2808,7 @@
         <v>86</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,7 +2927,7 @@
         <v>95</v>
       </c>
       <c r="D32" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" s="7">
         <v>8000</v>
@@ -3010,7 +2937,7 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>187</v>
@@ -3022,7 +2949,7 @@
         <v>97</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3196,7 +3123,7 @@
         <v>57</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3546,7 +3473,7 @@
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3618,7 +3545,7 @@
         <v>134</v>
       </c>
       <c r="D50" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" s="7">
         <v>12300</v>
@@ -3628,7 +3555,7 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
-        <v>49200</v>
+        <v>61500</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>187</v>
@@ -3880,7 +3807,7 @@
         <v>17000</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>161</v>
@@ -4045,7 +3972,7 @@
         <v>41400</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>171</v>
@@ -4078,7 +4005,7 @@
         <v>27600</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>173</v>
@@ -4111,7 +4038,7 @@
         <v>34500</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>175</v>
@@ -4144,7 +4071,7 @@
         <v>6900</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>177</v>
@@ -4177,7 +4104,7 @@
         <v>6900</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>179</v>
@@ -4243,7 +4170,7 @@
         <v>7900</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>183</v>
@@ -4848,7 +4775,7 @@
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4870,10 +4797,10 @@
         <v>210</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4989,7 +4916,7 @@
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -5008,13 +4935,13 @@
         <v>187</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5157,7 +5084,7 @@
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -5182,7 +5109,7 @@
         <v>48</v>
       </c>
       <c r="K95" s="41" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5193,7 +5120,7 @@
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -5218,7 +5145,7 @@
         <v>48</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5898,7 +5825,7 @@
         <v>141</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -5923,7 +5850,7 @@
         <v>255</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,7 +5942,7 @@
         <v>33</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" ref="G119" si="6">D119*E119</f>
+        <f t="shared" ref="G119:G120" si="6">D119*E119</f>
         <v>7000</v>
       </c>
       <c r="H119" s="13" t="s">
@@ -6027,7 +5954,7 @@
       <c r="J119" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="K119" s="41" t="s">
+      <c r="K119" s="50" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6035,280 +5962,320 @@
       <c r="A120" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B120" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>278</v>
+      <c r="B120" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>305</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
       </c>
       <c r="E120" s="7">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="F120" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <f t="shared" si="6"/>
+        <v>52000</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I120" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="J120" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K120" s="41" t="s">
-        <v>278</v>
+      <c r="I120" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="J120" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="K120" s="50" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B121" s="34" t="s">
-        <v>262</v>
+      <c r="B121" s="43" t="s">
+        <v>274</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
       </c>
       <c r="E121" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" s="7">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="K121" s="41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+      <c r="E122" s="7">
         <v>17000</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F122" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="G121" s="7">
+      <c r="G122" s="7">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="H121" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I121" s="10" t="s">
+      <c r="H122" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I122" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J121" s="10" t="s">
+      <c r="J122" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="K121" s="41" t="s">
+      <c r="K122" s="41" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J123" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="str">
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="str">
         <f>"En curso = " &amp; COUNTA(A2:A28)</f>
         <v>En curso = 27</v>
       </c>
-      <c r="B123" s="14" t="str">
+      <c r="B124" s="14" t="str">
         <f>"Ivrea = " &amp; COUNTA(B11:B24,B34:B48,B60:B107)</f>
         <v>Ivrea = 77</v>
       </c>
-      <c r="C123" s="45" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C121)</f>
-        <v>Series en total = 120</v>
-      </c>
-      <c r="D123" s="6">
-        <f>SUM(D2:D121)</f>
-        <v>535</v>
-      </c>
-      <c r="E123" s="7">
-        <f>SUM(E2:E121)</f>
-        <v>1172683</v>
-      </c>
-      <c r="F123" s="46" t="str">
+      <c r="C124" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C122)</f>
+        <v>Series en total = 121</v>
+      </c>
+      <c r="D124" s="6">
+        <f>SUM(D2:D122)</f>
+        <v>548</v>
+      </c>
+      <c r="E124" s="7">
+        <f>SUM(E2:E122)</f>
+        <v>1224683</v>
+      </c>
+      <c r="F124" s="46" t="str">
         <f>"B6 = " &amp; COUNTA(F2:F9,F11:F14,F25,F29:F33,F38:F49,F53:F55,F57:F59,F67:F85,F108,F110:F112,F114:F117)</f>
         <v>B6 = 63</v>
       </c>
-      <c r="G123" s="7">
-        <f>SUM(G2:G121)</f>
-        <v>4618849</v>
-      </c>
-      <c r="H123" s="13" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H121)</f>
-        <v>Finalizados = 90</v>
-      </c>
-      <c r="I123" s="46" t="str">
+      <c r="G124" s="7">
+        <f>SUM(G2:G122)</f>
+        <v>4765849</v>
+      </c>
+      <c r="H124" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H122)</f>
+        <v>Finalizados = 91</v>
+      </c>
+      <c r="I124" s="46" t="str">
         <f>"B6 = " &amp; SUM(D2:D9,D11:D14,D25,D29:D33,D38:D49,D53:D55,D57:D59,D67:D85,D108,D110:D112,D114:D117)</f>
-        <v>B6 = 292</v>
-      </c>
-      <c r="J123" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K116,K118:K121)</f>
-        <v>Series = 73</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="str">
+        <v>B6 = 296</v>
+      </c>
+      <c r="J124" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K116,K118:K122)</f>
+        <v>Series = 74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="str">
         <f>"Completado = " &amp; COUNTA(A29:A56)</f>
         <v>Completado = 28</v>
       </c>
-      <c r="B124" s="5" t="str">
+      <c r="B125" s="5" t="str">
         <f>"Panini = " &amp; COUNTA(B2:B10,B29:B33,B57:B59)</f>
         <v>Panini = 17</v>
       </c>
-      <c r="F124" s="39" t="str">
+      <c r="F125" s="39" t="str">
         <f>"C6 = " &amp; COUNTA(F15:F22,F34:F37,F56,F60:F66,F91:F100)</f>
         <v>C6 = 30</v>
       </c>
-      <c r="H124" s="9" t="str">
+      <c r="H125" s="9" t="str">
         <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H12,H14:H25,H28,H57,H62:H66,H68)</f>
         <v>En publicación = 30</v>
       </c>
-      <c r="I124" s="39" t="str">
+      <c r="I125" s="39" t="str">
         <f>"C6 = " &amp; SUM(D15:D22,D34:D37,D56,D60:D66,D91:D100)</f>
-        <v>C6 = 190</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="25" t="str">
+        <v>C6 = 196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="25" t="str">
         <f>"Droppeado = " &amp; COUNTA(A57:A68)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B125" s="22" t="str">
+      <c r="B126" s="22" t="str">
         <f>"Kemuri = " &amp; COUNTA(B52,B114:B119)</f>
         <v>Kemuri = 7</v>
       </c>
-      <c r="F125" s="40" t="str">
-        <f>"A5 = " &amp; COUNTA(F10,F24,F26:F27,F50:F52,F103:F106,F109,F119:F120)</f>
-        <v>A5 = 14</v>
-      </c>
-      <c r="I125" s="40" t="str">
-        <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D119:D120)</f>
-        <v>A5 = 33</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A69:A121)</f>
-        <v>Tomo único = 53</v>
-      </c>
-      <c r="B126" s="23" t="str">
+      <c r="F126" s="40" t="str">
+        <f>"A5 = " &amp; COUNTA(F10,F24,F26:F27,F50:F52,F103:F106,F109,F119:F121)</f>
+        <v>A5 = 15</v>
+      </c>
+      <c r="I126" s="40" t="str">
+        <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D119:D121)</f>
+        <v>A5 = 36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A69:A122)</f>
+        <v>Tomo único = 54</v>
+      </c>
+      <c r="B127" s="23" t="str">
         <f>"Distrito Manga = " &amp; COUNTA(B53:B54,B109)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F126" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F118,F121)</f>
+      <c r="F127" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F118,F122)</f>
         <v>B6x2 = 8</v>
       </c>
-      <c r="I126" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D118,D121)</f>
+      <c r="I127" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D118,D122)</f>
         <v>B6x2 = 8</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="str">
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="str">
         <f>"Ovni Press = " &amp; COUNTA(B25,B110:B113)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F127" s="30" t="str">
+      <c r="F128" s="30" t="str">
         <f>"C6x2 = " &amp; COUNTA(F101:F102)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I127" s="30" t="str">
+      <c r="I128" s="30" t="str">
         <f>"C6x2 = " &amp; SUM(D101:D102)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="36" t="str">
+    <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="36" t="str">
         <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B49:B50)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F128" s="17" t="str">
+      <c r="F129" s="17" t="str">
         <f>"A5 color = " &amp; COUNTA(F23,F28,F107)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I128" s="17" t="str">
+      <c r="I129" s="17" t="str">
         <f>"A5 color = " &amp; SUM(D107,D23,D28)</f>
         <v>A5 color = 10</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="24" t="str">
+    <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="24" t="str">
         <f>"Utopia = " &amp; COUNTA(B55:B56)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="21" t="str">
+    <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="21" t="str">
         <f>"Merci = " &amp; COUNTA(B51)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="32" t="str">
+    <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="32" t="str">
         <f>"Milky Way = " &amp; COUNTA(B108)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="37" t="str">
-        <f>"Moztros = " &amp; COUNTA(B121)</f>
+    <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B122)</f>
         <v>Moztros = 1</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="38" t="str">
+    <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="38" t="str">
         <f>"Random Comics = " &amp; COUNTA(B28)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="43" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B120)</f>
+    <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="43" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B121)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="47" t="str">
+        <f>"Kibook Ediciones = " &amp; COUNTA(B120)</f>
+        <v>Kibook Ediciones = 1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7166,105 +7133,47 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F48:F88 F2:F46 F90:F94 F96:F114 F116:F122">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+  <conditionalFormatting sqref="F2:F119 F121:F123">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F31 F34:F46 F48:F88 F3 F90:F94 F96:F114 F116:F122">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+  <conditionalFormatting sqref="F3 F8:F31 F34:F119 F121:F123">
+    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="34" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 H26:H27 H58:H61 H67 H29:H46 H48:H56 H69:H88 H4:H7 H90:H94 H96:H114 H116:H122">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="H4:H7 H13 H26:H27 H58:H61 H67 H69:H119 H121:H123">
+    <cfRule type="containsText" dxfId="6" priority="30" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="H29:H56">
+    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H47))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H89))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H95))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
+  <conditionalFormatting sqref="F120">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7272,7 +7181,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F115">
+  <conditionalFormatting sqref="F120">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
@@ -7280,9 +7189,9 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H115">
+  <conditionalFormatting sqref="H120">
     <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H115))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H120))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC51006-1B71-458C-A951-A572341659A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B1AC4-94AE-4C32-B839-9A6B38EB4B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="309">
   <si>
     <t>Estado</t>
   </si>
@@ -213,9 +202,6 @@
     <t>Yukinobu Tatsu</t>
   </si>
   <si>
-    <t>Dandadan - 8 al 11</t>
-  </si>
-  <si>
     <t>Gachiakuta</t>
   </si>
   <si>
@@ -261,9 +247,6 @@
     <t>Haruko Ichikawa</t>
   </si>
   <si>
-    <t>Houseki no Kuni - 3 al 6</t>
-  </si>
-  <si>
     <t>Planeta Cómic</t>
   </si>
   <si>
@@ -843,9 +826,6 @@
     <t>Blue Lock: Episode Nagi</t>
   </si>
   <si>
-    <t>Dead Dead Demon's Dededede Destruction - 3 al 8</t>
-  </si>
-  <si>
     <t>Spy x Family: Family Portrait</t>
   </si>
   <si>
@@ -936,9 +916,6 @@
     <t>Shangri-la Frontier - 10 al 15</t>
   </si>
   <si>
-    <t>Blue Lock - 13 al 26</t>
-  </si>
-  <si>
     <t>Spy x Family - 11 al 14</t>
   </si>
   <si>
@@ -955,6 +932,21 @@
   </si>
   <si>
     <t>Obaru</t>
+  </si>
+  <si>
+    <t>Houseki no Kuni - 3 al 7</t>
+  </si>
+  <si>
+    <t>Dead Dead Demon's Dededede Destruction - 3 al 11</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 29</t>
+  </si>
+  <si>
+    <t>Dandadan - 8 al 14</t>
+  </si>
+  <si>
+    <t>Sweet Paprika + Hot Paprika 01</t>
   </si>
 </sst>
 </file>
@@ -1450,47 +1442,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1794,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1836,7 +1788,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1868,11 +1820,11 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G122" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G123" si="0">D2*E2</f>
         <v>220000</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1881,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1892,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -1908,7 +1860,7 @@
         <v>20000</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
@@ -1917,7 +1869,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1944,7 +1896,7 @@
         <v>135000</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -1980,7 +1932,7 @@
         <v>162000</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>19</v>
@@ -1989,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2016,7 +1968,7 @@
         <v>127500</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>22</v>
@@ -2025,7 +1977,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2052,7 +2004,7 @@
         <v>80000</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>25</v>
@@ -2085,7 +2037,7 @@
         <v>28500</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>27</v>
@@ -2121,7 +2073,7 @@
         <v>34000</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>31</v>
@@ -2130,7 +2082,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2157,7 +2109,7 @@
         <v>9000</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>34</v>
@@ -2193,7 +2145,7 @@
         <v>118500</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>38</v>
@@ -2202,7 +2154,7 @@
         <v>39</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2229,7 +2181,7 @@
         <v>55300</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>41</v>
@@ -2238,7 +2190,7 @@
         <v>41</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2252,7 +2204,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7">
         <v>7900</v>
@@ -2262,10 +2214,10 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>79000</v>
+        <v>86900</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>43</v>
@@ -2274,7 +2226,7 @@
         <v>43</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2301,7 +2253,7 @@
         <v>39500</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>45</v>
@@ -2310,7 +2262,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2337,7 +2289,7 @@
         <v>96600</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>48</v>
@@ -2346,7 +2298,7 @@
         <v>48</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2360,7 +2312,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="11">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="7">
         <v>6900</v>
@@ -2370,10 +2322,10 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" ref="G16" si="1">D16*E16</f>
-        <v>186300</v>
+        <v>200100</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>50</v>
@@ -2382,7 +2334,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2393,7 +2345,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="11">
         <v>4</v>
@@ -2409,7 +2361,7 @@
         <v>27600</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>50</v>
@@ -2418,7 +2370,7 @@
         <v>51</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2445,7 +2397,7 @@
         <v>124200</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>53</v>
@@ -2478,7 +2430,7 @@
         <v>89700</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>55</v>
@@ -2487,7 +2439,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,7 +2453,7 @@
         <v>58</v>
       </c>
       <c r="D20" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="7">
         <v>6900</v>
@@ -2511,10 +2463,10 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>89700</v>
+        <v>96600</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>59</v>
@@ -2523,7 +2475,7 @@
         <v>59</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>60</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,7 +2486,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="11">
         <v>8</v>
@@ -2550,16 +2502,16 @@
         <v>55200</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2522,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
@@ -2586,16 +2538,16 @@
         <v>20700</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="41" t="s">
         <v>65</v>
-      </c>
-      <c r="K22" s="41" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2606,7 +2558,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="6">
         <v>7</v>
@@ -2615,23 +2567,23 @@
         <v>22500</v>
       </c>
       <c r="F23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>157500</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>157500</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="K23" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2594,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6">
         <v>13</v>
@@ -2658,13 +2610,13 @@
         <v>117000</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,13 +2624,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D25" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" s="7">
         <v>9000</v>
@@ -2688,19 +2640,19 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>54000</v>
+        <v>63000</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2708,10 +2660,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
@@ -2727,16 +2679,16 @@
         <v>19600</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2744,10 +2696,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -2763,16 +2715,16 @@
         <v>67800</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,10 +2732,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -2792,34 +2744,34 @@
         <v>27100</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
         <v>54200</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -2835,7 +2787,7 @@
         <v>238000</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>38</v>
@@ -2844,18 +2796,18 @@
         <v>38</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -2871,24 +2823,24 @@
         <v>16000</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="11">
         <v>9</v>
@@ -2904,27 +2856,27 @@
         <v>81000</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -2940,27 +2892,27 @@
         <v>40000</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="11">
         <v>22</v>
@@ -2976,27 +2928,27 @@
         <v>198000</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="41" t="s">
         <v>99</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="6">
         <v>23</v>
@@ -3012,24 +2964,24 @@
         <v>158700</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="6">
         <v>12</v>
@@ -3045,24 +2997,24 @@
         <v>82800</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="6">
         <v>8</v>
@@ -3078,7 +3030,7 @@
         <v>55200</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>53</v>
@@ -3087,12 +3039,12 @@
         <v>53</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>36</v>
@@ -3114,7 +3066,7 @@
         <v>75900</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>57</v>
@@ -3123,18 +3075,18 @@
         <v>57</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="6">
         <v>2</v>
@@ -3150,27 +3102,27 @@
         <v>15800</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
@@ -3186,27 +3138,27 @@
         <v>23700</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
@@ -3222,27 +3174,27 @@
         <v>25500</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="6">
         <v>13</v>
@@ -3258,7 +3210,7 @@
         <v>102700</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>43</v>
@@ -3269,13 +3221,13 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="6">
         <v>8</v>
@@ -3291,24 +3243,24 @@
         <v>63200</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" s="6">
         <v>4</v>
@@ -3324,24 +3276,24 @@
         <v>31600</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -3357,24 +3309,24 @@
         <v>23700</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
@@ -3390,24 +3342,24 @@
         <v>23700</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
@@ -3423,24 +3375,24 @@
         <v>23700</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D47" s="6">
         <v>2</v>
@@ -3456,24 +3408,24 @@
         <v>15800</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3489,24 +3441,24 @@
         <v>19899</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49" s="6">
         <v>4</v>
@@ -3522,27 +3474,27 @@
         <v>31200</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K49" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" s="6">
         <v>5</v>
@@ -3558,27 +3510,27 @@
         <v>61500</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K50" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
@@ -3594,27 +3546,27 @@
         <v>16000</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K51" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D52" s="6">
         <v>3</v>
@@ -3630,27 +3582,27 @@
         <v>37500</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K52" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D53" s="6">
         <v>5</v>
@@ -3666,27 +3618,27 @@
         <v>44500</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I53" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K53" s="41" t="s">
         <v>147</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K53" s="41" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D54" s="6">
         <v>3</v>
@@ -3702,27 +3654,27 @@
         <v>26700</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K54" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
@@ -3738,24 +3690,24 @@
         <v>18000</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
@@ -3771,27 +3723,27 @@
         <v>18000</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K56" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
@@ -3807,24 +3759,24 @@
         <v>17000</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -3840,24 +3792,24 @@
         <v>8000</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -3873,24 +3825,24 @@
         <v>27000</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D60" s="6">
         <v>12</v>
@@ -3906,24 +3858,24 @@
         <v>82800</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
@@ -3939,24 +3891,24 @@
         <v>17700</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D62" s="6">
         <v>6</v>
@@ -3972,24 +3924,24 @@
         <v>41400</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D63" s="6">
         <v>4</v>
@@ -4005,24 +3957,24 @@
         <v>27600</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D64" s="6">
         <v>5</v>
@@ -4038,24 +3990,24 @@
         <v>34500</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
@@ -4071,24 +4023,24 @@
         <v>6900</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -4104,24 +4056,24 @@
         <v>6900</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D67" s="6">
         <v>5</v>
@@ -4137,24 +4089,24 @@
         <v>39500</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
@@ -4170,24 +4122,24 @@
         <v>7900</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D69" s="11">
         <v>1</v>
@@ -4203,7 +4155,7 @@
         <v>18000</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>14</v>
@@ -4212,18 +4164,18 @@
         <v>14</v>
       </c>
       <c r="K69" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -4239,7 +4191,7 @@
         <v>7900</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>39</v>
@@ -4250,13 +4202,13 @@
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4272,24 +4224,24 @@
         <v>7900</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -4305,7 +4257,7 @@
         <v>7900</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>43</v>
@@ -4316,13 +4268,13 @@
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4338,7 +4290,7 @@
         <v>7900</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>45</v>
@@ -4349,13 +4301,13 @@
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
@@ -4371,24 +4323,24 @@
         <v>7900</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4404,24 +4356,24 @@
         <v>7900</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4437,24 +4389,24 @@
         <v>7900</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4470,24 +4422,24 @@
         <v>7900</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -4503,27 +4455,27 @@
         <v>7900</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K78" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4539,27 +4491,27 @@
         <v>7900</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K79" s="41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4575,27 +4527,27 @@
         <v>7900</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K80" s="41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4611,27 +4563,27 @@
         <v>7900</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K81" s="41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4647,7 +4599,7 @@
         <v>7900</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>43</v>
@@ -4656,18 +4608,18 @@
         <v>43</v>
       </c>
       <c r="K82" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4683,27 +4635,27 @@
         <v>7900</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K83" s="41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4719,27 +4671,27 @@
         <v>7900</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -4755,27 +4707,27 @@
         <v>7900</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I85" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J85" s="10" t="s">
-        <v>212</v>
-      </c>
       <c r="K85" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4784,34 +4736,34 @@
         <v>14900</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G86" s="7">
         <f>D86*E86</f>
         <v>14900</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4820,34 +4772,34 @@
         <v>16900</v>
       </c>
       <c r="F87" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G87" s="7">
         <f>D87*E87</f>
         <v>16900</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K87" s="41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -4856,14 +4808,14 @@
         <v>12900</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G88" s="7">
         <f>D88*E88</f>
         <v>12900</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>43</v>
@@ -4872,18 +4824,18 @@
         <v>43</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -4892,14 +4844,14 @@
         <v>13900</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G89" s="7">
         <f t="shared" ref="G89" si="4">D89*E89</f>
         <v>13900</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>43</v>
@@ -4910,13 +4862,13 @@
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -4925,34 +4877,34 @@
         <v>12900</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G90" s="7">
         <f>D90*E90</f>
         <v>12900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
@@ -4968,7 +4920,7 @@
         <v>6900</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>53</v>
@@ -4979,13 +4931,13 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -5001,7 +4953,7 @@
         <v>6900</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>53</v>
@@ -5012,13 +4964,13 @@
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
@@ -5034,7 +4986,7 @@
         <v>6900</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>53</v>
@@ -5045,13 +4997,13 @@
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D94" s="11">
         <v>1</v>
@@ -5067,7 +5019,7 @@
         <v>6900</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I94" s="16" t="s">
         <v>53</v>
@@ -5078,13 +5030,13 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -5100,7 +5052,7 @@
         <v>9000</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>48</v>
@@ -5109,18 +5061,18 @@
         <v>48</v>
       </c>
       <c r="K95" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -5136,7 +5088,7 @@
         <v>9900</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>48</v>
@@ -5145,18 +5097,18 @@
         <v>48</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D97" s="6">
         <v>1</v>
@@ -5172,27 +5124,27 @@
         <v>8000</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>53</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K97" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -5208,24 +5160,24 @@
         <v>6900</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
@@ -5241,27 +5193,27 @@
         <v>8000</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K99" s="41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
@@ -5277,24 +5229,24 @@
         <v>9000</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
@@ -5303,34 +5255,34 @@
         <v>12900</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="0"/>
         <v>12900</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
@@ -5339,34 +5291,34 @@
         <v>12900</v>
       </c>
       <c r="F102" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="0"/>
+        <v>12900</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I102" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G102" s="7">
-        <f t="shared" si="0"/>
-        <v>12900</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>233</v>
-      </c>
       <c r="J102" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D103" s="11">
         <v>1</v>
@@ -5382,7 +5334,7 @@
         <v>18000</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>43</v>
@@ -5391,18 +5343,18 @@
         <v>43</v>
       </c>
       <c r="K103" s="41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D104" s="11">
         <v>1</v>
@@ -5418,7 +5370,7 @@
         <v>18000</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I104" s="16" t="s">
         <v>43</v>
@@ -5427,18 +5379,18 @@
         <v>43</v>
       </c>
       <c r="K104" s="41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D105" s="11">
         <v>1</v>
@@ -5454,7 +5406,7 @@
         <v>14500</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I105" s="16" t="s">
         <v>43</v>
@@ -5463,18 +5415,18 @@
         <v>43</v>
       </c>
       <c r="K105" s="41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
@@ -5490,7 +5442,7 @@
         <v>13000</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>43</v>
@@ -5501,13 +5453,13 @@
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D107" s="6">
         <v>1</v>
@@ -5516,14 +5468,14 @@
         <v>14500</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G107" s="7">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>43</v>
@@ -5534,13 +5486,13 @@
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -5556,7 +5508,7 @@
         <v>11450</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>57</v>
@@ -5567,13 +5519,13 @@
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D109" s="6">
         <v>1</v>
@@ -5589,27 +5541,27 @@
         <v>14900</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K109" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D110" s="6">
         <v>1</v>
@@ -5625,27 +5577,27 @@
         <v>12000</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K110" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D111" s="11">
         <v>1</v>
@@ -5661,27 +5613,27 @@
         <v>11000</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K111" s="41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
@@ -5697,7 +5649,7 @@
         <v>12000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>16</v>
@@ -5706,18 +5658,18 @@
         <v>16</v>
       </c>
       <c r="K112" s="41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
@@ -5726,34 +5678,34 @@
         <v>15000</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K113" s="41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -5769,27 +5721,27 @@
         <v>8000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
@@ -5805,27 +5757,27 @@
         <v>8000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K115" s="41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -5841,27 +5793,27 @@
         <v>8500</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B117" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -5877,24 +5829,24 @@
         <v>7000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -5903,34 +5855,34 @@
         <v>14000</v>
       </c>
       <c r="F118" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G118" s="7">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -5946,27 +5898,27 @@
         <v>7000</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K119" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -5982,27 +5934,27 @@
         <v>52000</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I120" s="49" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J120" s="49" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K120" s="50" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -6018,27 +5970,27 @@
         <v>16000</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D122" s="6">
         <v>1</v>
@@ -6047,228 +5999,263 @@
         <v>17000</v>
       </c>
       <c r="F122" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G122" si="7">D122*E122</f>
         <v>17000</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I122" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K122" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D123" s="6">
+        <v>1</v>
+      </c>
+      <c r="E123" s="7">
+        <v>18900</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G123" s="7">
+        <f t="shared" si="0"/>
+        <v>18900</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="K123" s="41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J122" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K122" s="41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="3" t="s">
+      <c r="I124" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="3" t="s">
+      <c r="J124" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I123" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="str">
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="str">
         <f>"En curso = " &amp; COUNTA(A2:A28)</f>
         <v>En curso = 27</v>
       </c>
-      <c r="B124" s="14" t="str">
+      <c r="B125" s="14" t="str">
         <f>"Ivrea = " &amp; COUNTA(B11:B24,B34:B48,B60:B107)</f>
         <v>Ivrea = 77</v>
       </c>
-      <c r="C124" s="45" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C122)</f>
-        <v>Series en total = 121</v>
-      </c>
-      <c r="D124" s="6">
-        <f>SUM(D2:D122)</f>
-        <v>548</v>
-      </c>
-      <c r="E124" s="7">
-        <f>SUM(E2:E122)</f>
-        <v>1224683</v>
-      </c>
-      <c r="F124" s="46" t="str">
+      <c r="C125" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C123)</f>
+        <v>Series en total = 122</v>
+      </c>
+      <c r="D125" s="6">
+        <f>SUM(D2:D123)</f>
+        <v>554</v>
+      </c>
+      <c r="E125" s="7">
+        <f>SUM(E2:E123)</f>
+        <v>1243583</v>
+      </c>
+      <c r="F125" s="46" t="str">
         <f>"B6 = " &amp; COUNTA(F2:F9,F11:F14,F25,F29:F33,F38:F49,F53:F55,F57:F59,F67:F85,F108,F110:F112,F114:F117)</f>
         <v>B6 = 63</v>
       </c>
-      <c r="G124" s="7">
-        <f>SUM(G2:G122)</f>
-        <v>4765849</v>
-      </c>
-      <c r="H124" s="13" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H122)</f>
-        <v>Finalizados = 91</v>
-      </c>
-      <c r="I124" s="46" t="str">
+      <c r="G125" s="7">
+        <f>SUM(G2:G123)</f>
+        <v>4822349</v>
+      </c>
+      <c r="H125" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H123)</f>
+        <v>Finalizados = 92</v>
+      </c>
+      <c r="I125" s="46" t="str">
         <f>"B6 = " &amp; SUM(D2:D9,D11:D14,D25,D29:D33,D38:D49,D53:D55,D57:D59,D67:D85,D108,D110:D112,D114:D117)</f>
-        <v>B6 = 296</v>
-      </c>
-      <c r="J124" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K116,K118:K122)</f>
-        <v>Series = 74</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="str">
+        <v>B6 = 298</v>
+      </c>
+      <c r="J125" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K116,K118:K123)</f>
+        <v>Series = 75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="str">
         <f>"Completado = " &amp; COUNTA(A29:A56)</f>
         <v>Completado = 28</v>
       </c>
-      <c r="B125" s="5" t="str">
+      <c r="B126" s="5" t="str">
         <f>"Panini = " &amp; COUNTA(B2:B10,B29:B33,B57:B59)</f>
         <v>Panini = 17</v>
       </c>
-      <c r="F125" s="39" t="str">
+      <c r="F126" s="39" t="str">
         <f>"C6 = " &amp; COUNTA(F15:F22,F34:F37,F56,F60:F66,F91:F100)</f>
         <v>C6 = 30</v>
       </c>
-      <c r="H125" s="9" t="str">
+      <c r="H126" s="9" t="str">
         <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H12,H14:H25,H28,H57,H62:H66,H68)</f>
         <v>En publicación = 30</v>
       </c>
-      <c r="I125" s="39" t="str">
+      <c r="I126" s="39" t="str">
         <f>"C6 = " &amp; SUM(D15:D22,D34:D37,D56,D60:D66,D91:D100)</f>
-        <v>C6 = 196</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="str">
+        <v>C6 = 199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="str">
         <f>"Droppeado = " &amp; COUNTA(A57:A68)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B126" s="22" t="str">
+      <c r="B127" s="22" t="str">
         <f>"Kemuri = " &amp; COUNTA(B52,B114:B119)</f>
         <v>Kemuri = 7</v>
       </c>
-      <c r="F126" s="40" t="str">
+      <c r="F127" s="40" t="str">
         <f>"A5 = " &amp; COUNTA(F10,F24,F26:F27,F50:F52,F103:F106,F109,F119:F121)</f>
         <v>A5 = 15</v>
       </c>
-      <c r="I126" s="40" t="str">
+      <c r="I127" s="40" t="str">
         <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D119:D121)</f>
         <v>A5 = 36</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A69:A122)</f>
-        <v>Tomo único = 54</v>
-      </c>
-      <c r="B127" s="23" t="str">
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A69:A123)</f>
+        <v>Tomo único = 55</v>
+      </c>
+      <c r="B128" s="23" t="str">
         <f>"Distrito Manga = " &amp; COUNTA(B53:B54,B109)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F127" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F118,F122)</f>
-        <v>B6x2 = 8</v>
-      </c>
-      <c r="I127" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D118,D122)</f>
-        <v>B6x2 = 8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="str">
+      <c r="F128" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F118,F122:F123)</f>
+        <v>B6x2 = 9</v>
+      </c>
+      <c r="I128" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D118,D122:D123)</f>
+        <v>B6x2 = 9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="str">
         <f>"Ovni Press = " &amp; COUNTA(B25,B110:B113)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F128" s="30" t="str">
+      <c r="F129" s="30" t="str">
         <f>"C6x2 = " &amp; COUNTA(F101:F102)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I128" s="30" t="str">
+      <c r="I129" s="30" t="str">
         <f>"C6x2 = " &amp; SUM(D101:D102)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="36" t="str">
+    <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="36" t="str">
         <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B49:B50)</f>
         <v>Planeta Cómic = 4</v>
       </c>
-      <c r="F129" s="17" t="str">
+      <c r="F130" s="17" t="str">
         <f>"A5 color = " &amp; COUNTA(F23,F28,F107)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I129" s="17" t="str">
+      <c r="I130" s="17" t="str">
         <f>"A5 color = " &amp; SUM(D107,D23,D28)</f>
         <v>A5 color = 10</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="24" t="str">
+    <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="24" t="str">
         <f>"Utopia = " &amp; COUNTA(B55:B56)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="21" t="str">
+    <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="21" t="str">
         <f>"Merci = " &amp; COUNTA(B51)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="32" t="str">
+    <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="32" t="str">
         <f>"Milky Way = " &amp; COUNTA(B108)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="37" t="str">
-        <f>"Moztros = " &amp; COUNTA(B122)</f>
-        <v>Moztros = 1</v>
-      </c>
-    </row>
     <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="38" t="str">
+      <c r="B134" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B122:B123)</f>
+        <v>Moztros = 2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="38" t="str">
         <f>"Random Comics = " &amp; COUNTA(B28)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="43" t="str">
+    <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="43" t="str">
         <f>"Hotel de las Ideas = " &amp; COUNTA(B121)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="47" t="str">
+    <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="47" t="str">
         <f>"Kibook Ediciones = " &amp; COUNTA(B120)</f>
         <v>Kibook Ediciones = 1</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="138" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="140" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7133,65 +7120,44 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F2:F119 F121:F123">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+  <conditionalFormatting sqref="F2:F124">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F8:F31 F34:F119 F121:F123">
-    <cfRule type="cellIs" dxfId="12" priority="28" operator="equal">
+  <conditionalFormatting sqref="F3 F8:F31 F34:F124">
+    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F14">
-    <cfRule type="cellIs" dxfId="10" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="33" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H7 H13 H26:H27 H58:H61 H67 H69:H119 H121:H123">
-    <cfRule type="containsText" dxfId="6" priority="30" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="H4:H7 H13 H26:H27 H58:H61 H67 H69:H124">
+    <cfRule type="containsText" dxfId="1" priority="30" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H56">
-    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="En publicacion">
+    <cfRule type="containsText" dxfId="0" priority="25" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F120">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H120))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B1AC4-94AE-4C32-B839-9A6B38EB4B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F74FD9-D07F-4FD0-B3A3-9A110EC4856C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="315">
   <si>
     <t>Estado</t>
   </si>
@@ -844,9 +844,6 @@
     <t>Sara Soler</t>
   </si>
   <si>
-    <t>Hikaru Ga Shinda Natsu - 2 al 4</t>
-  </si>
-  <si>
     <t>Estado de Colección</t>
   </si>
   <si>
@@ -856,15 +853,9 @@
     <t>En publicación</t>
   </si>
   <si>
-    <t>Solo Leveling - 4 al 7</t>
-  </si>
-  <si>
     <t>Re:Zero - 13 al 18</t>
   </si>
   <si>
-    <t>Blue Lock : Episode Nagi - 1 al 3</t>
-  </si>
-  <si>
     <t>Aku no Hana - 2 al 11</t>
   </si>
   <si>
@@ -947,6 +938,33 @@
   </si>
   <si>
     <t>Sweet Paprika + Hot Paprika 01</t>
+  </si>
+  <si>
+    <t>Hikaru Ga Shinda Natsu - 2 al 5</t>
+  </si>
+  <si>
+    <t>Solo Leveling - 4 al 9</t>
+  </si>
+  <si>
+    <t>Los Pecados de la Familia Ichinose</t>
+  </si>
+  <si>
+    <t>Los Pecados de la Familia Ichinose - 1</t>
+  </si>
+  <si>
+    <t>The Blue Summer and You #2</t>
+  </si>
+  <si>
+    <t>Blue Lock : Episode Nagi - 1 al 5</t>
+  </si>
+  <si>
+    <t>Historias de Sexo de Chicas JK</t>
+  </si>
+  <si>
+    <t>El Color que Cayó del Cielo</t>
+  </si>
+  <si>
+    <t>Sweet Paprika + Hot Paprika - 1 &amp; 2</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1765,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1785,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1788,7 +1806,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1814,17 +1832,17 @@
         <v>22</v>
       </c>
       <c r="E2" s="7">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G123" si="0">D2*E2</f>
-        <v>220000</v>
+        <f t="shared" ref="G2:G126" si="0">D2*E2</f>
+        <v>242000</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1833,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1850,17 +1868,17 @@
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7">
         <f>D3*E3</f>
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
@@ -1869,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1886,17 +1904,17 @@
         <v>15</v>
       </c>
       <c r="E4" s="7">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -1932,7 +1950,7 @@
         <v>162000</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>19</v>
@@ -1941,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1958,17 +1976,17 @@
         <v>15</v>
       </c>
       <c r="E6" s="7">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>127500</v>
+        <v>180000</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>22</v>
@@ -1977,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1994,14 +2012,14 @@
         <v>10</v>
       </c>
       <c r="E7" s="7">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>185</v>
@@ -2027,17 +2045,17 @@
         <v>3</v>
       </c>
       <c r="E8" s="7">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>28500</v>
+        <v>31500</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>27</v>
@@ -2060,20 +2078,20 @@
         <v>30</v>
       </c>
       <c r="D9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>62500</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>31</v>
@@ -2082,7 +2100,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,68 +2111,68 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>33</v>
+        <v>11000</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <f>D10*E10</f>
+        <v>55000</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>36</v>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>7900</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>13000</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>118500</v>
+        <v>13000</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2165,32 +2183,32 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>55300</v>
+        <v>127500</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2201,104 +2219,104 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="D13" s="11">
+        <v>7</v>
       </c>
       <c r="E13" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>86900</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>185</v>
+        <v>59500</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="11">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="6">
+        <v>11</v>
       </c>
       <c r="E14" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>39500</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>45</v>
+        <v>93500</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5</v>
       </c>
       <c r="E15" s="7">
-        <v>6900</v>
+        <v>8500</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>96600</v>
+        <v>42500</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>48</v>
+        <v>276</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2309,32 +2327,32 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="11">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="6">
+        <v>14</v>
       </c>
       <c r="E16" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ref="G16" si="1">D16*E16</f>
-        <v>200100</v>
+        <f t="shared" si="0"/>
+        <v>105000</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2345,23 +2363,23 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>267</v>
+        <v>49</v>
       </c>
       <c r="D17" s="11">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E17" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>27600</v>
+        <f t="shared" ref="G17" si="1">D17*E17</f>
+        <v>217500</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>50</v>
@@ -2370,7 +2388,7 @@
         <v>51</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2381,29 +2399,32 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="6">
-        <v>18</v>
+        <v>267</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5</v>
       </c>
       <c r="E18" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>124200</v>
+        <v>37500</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2414,32 +2435,29 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E19" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>89700</v>
+        <v>135000</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>291</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2450,32 +2468,32 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="11">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="D20" s="6">
+        <v>13</v>
       </c>
       <c r="E20" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>96600</v>
+        <v>97500</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,32 +2504,32 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>55200</v>
+        <v>105000</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,32 +2540,32 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="D22" s="11">
+        <v>8</v>
       </c>
       <c r="E22" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>60000</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2558,32 +2576,32 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7">
+        <v>7500</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" ref="G23" si="2">D23*E23</f>
         <v>22500</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>157500</v>
-      </c>
       <c r="H23" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2594,278 +2612,281 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>308</v>
       </c>
       <c r="D24" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>33</v>
+        <v>7500</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>117000</v>
+        <v>22500</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
+      <c r="B25" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>13</v>
+        <v>22500</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>63000</v>
+        <v>202500</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>75</v>
+      <c r="B26" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E26" s="7">
-        <v>9800</v>
+        <v>9000</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>19600</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>185</v>
+        <v>117000</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="41" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>75</v>
+      <c r="B27" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" s="7">
-        <v>33900</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>33</v>
+        <v>11000</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>67800</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>185</v>
+        <v>77000</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>82</v>
+      <c r="B28" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
       </c>
       <c r="E28" s="7">
-        <v>27100</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>67</v>
+        <v>15400</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>54200</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>277</v>
+        <v>30800</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>11</v>
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D29" s="6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E29" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>13</v>
+        <v>37000</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>238000</v>
+        <v>74000</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>11</v>
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>13</v>
+        <v>18900</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <f>D30*E30</f>
+        <v>37800</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>89</v>
+        <v>262</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>11</v>
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="11">
-        <v>9</v>
+        <v>83</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2</v>
       </c>
       <c r="E31" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>13</v>
+        <v>32000</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
-        <v>81000</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>185</v>
+        <v>64000</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,32 +2897,32 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="11">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="D32" s="6">
+        <v>28</v>
       </c>
       <c r="E32" s="7">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>350000</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" s="41" t="s">
-        <v>296</v>
+        <v>38</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2912,98 +2933,101 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="11">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
       </c>
       <c r="E33" s="7">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
-        <v>198000</v>
+        <v>21000</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>36</v>
+      <c r="B34" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="6">
-        <v>23</v>
+        <v>90</v>
+      </c>
+      <c r="D34" s="11">
+        <v>9</v>
       </c>
       <c r="E34" s="7">
-        <v>6900</v>
+        <v>12500</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
-        <v>158700</v>
+        <v>112500</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>102</v>
+        <v>91</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>36</v>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="6">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="D35" s="11">
+        <v>22</v>
       </c>
       <c r="E35" s="7">
-        <v>6900</v>
+        <v>12500</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>82800</v>
+        <v>275000</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,32 +3038,29 @@
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D36" s="6">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E36" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
-        <v>55200</v>
+        <v>172500</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3050,32 +3071,29 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D37" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="7">
-        <f>D37*E37</f>
-        <v>75900</v>
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,32 +3104,32 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E38" s="7">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
-        <v>15800</v>
+        <v>60000</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,32 +3140,32 @@
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="D39" s="6">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E39" s="7">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="0"/>
-        <v>23700</v>
+        <f>D39*E39</f>
+        <v>82500</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,10 +3176,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D40" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="7">
         <v>8500</v>
@@ -3171,19 +3189,19 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,29 +3212,32 @@
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D41" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E41" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>102700</v>
+        <v>25500</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>43</v>
+        <v>111</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3227,29 +3248,32 @@
         <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D42" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E42" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
-        <v>63200</v>
+        <v>25500</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3260,29 +3284,29 @@
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E43" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>31600</v>
+        <v>110500</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3293,29 +3317,29 @@
         <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D44" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E44" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>68000</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,29 +3350,29 @@
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D45" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>34000</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3359,20 +3383,20 @@
         <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
       </c>
       <c r="E46" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>25500</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>185</v>
@@ -3392,20 +3416,20 @@
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D47" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" ref="G47" si="2">D47*E47</f>
-        <v>15800</v>
+        <f t="shared" si="0"/>
+        <v>25500</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>185</v>
@@ -3414,7 +3438,7 @@
         <v>123</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3425,20 +3449,20 @@
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
       </c>
       <c r="E48" s="7">
-        <v>6633</v>
+        <v>8500</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="7">
-        <f>D48*E48</f>
-        <v>19899</v>
+        <f t="shared" si="0"/>
+        <v>25500</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>185</v>
@@ -3454,351 +3478,351 @@
       <c r="A49" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>75</v>
+      <c r="B49" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D49" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" s="7">
-        <v>7800</v>
+        <v>8500</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="0"/>
-        <v>31200</v>
+        <f t="shared" ref="G49" si="3">D49*E49</f>
+        <v>17000</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K49" s="41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>75</v>
+      <c r="B50" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="D50" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="7">
-        <v>12300</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>33</v>
+        <v>7166</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="0"/>
-        <v>61500</v>
+        <f>D50*E50</f>
+        <v>21498</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K50" s="41" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>135</v>
+      <c r="B51" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D51" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>33</v>
+        <v>12300</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>49200</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K51" s="41" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="22" t="s">
-        <v>139</v>
+      <c r="B52" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D52" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="7">
-        <v>12500</v>
+        <v>13300</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>66500</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K52" s="41" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>143</v>
+      <c r="B53" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D53" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E53" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>13</v>
+        <v>12000</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>24000</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K53" s="41" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="23" t="s">
-        <v>143</v>
+      <c r="B54" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D54" s="6">
         <v>3</v>
       </c>
       <c r="E54" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>13</v>
+        <v>12500</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>37500</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K54" s="41" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>151</v>
+      <c r="B55" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D55" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E55" s="7">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>44500</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7">
+        <v>8900</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="0"/>
+        <v>26700</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K56" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="6">
-        <v>2</v>
-      </c>
-      <c r="E56" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G56" s="7">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K56" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" s="7">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>277</v>
+        <v>18000</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
+      <c r="A58" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="K58" s="41" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3809,95 +3833,95 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D59" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="7">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>185</v>
+        <v>24000</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>36</v>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D60" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E60" s="7">
-        <v>6900</v>
+        <v>11000</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>82800</v>
+        <v>11000</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>36</v>
+      <c r="B61" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D61" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="7">
-        <v>17700</v>
+        <v>12500</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>17700</v>
+        <v>37500</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3908,29 +3932,29 @@
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D62" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E62" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>41400</v>
-      </c>
-      <c r="H62" s="44" t="s">
-        <v>277</v>
+        <v>90000</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3941,29 +3965,29 @@
         <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D63" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E63" s="7">
-        <v>6900</v>
+        <v>17700</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>27600</v>
-      </c>
-      <c r="H63" s="44" t="s">
-        <v>277</v>
+        <v>17700</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3974,29 +3998,29 @@
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D64" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E64" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>34500</v>
+        <v>45000</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4007,29 +4031,29 @@
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D65" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>30000</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,29 +4064,29 @@
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D66" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
-        <v>6900</v>
+        <v>37500</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,29 +4097,29 @@
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D67" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" s="7">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
-        <v>39500</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>185</v>
+        <v>7500</v>
+      </c>
+      <c r="H67" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,131 +4130,131 @@
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
       </c>
       <c r="E68" s="7">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="F68" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="H68" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="6">
+        <v>5</v>
+      </c>
+      <c r="E69" s="7">
+        <v>8500</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="7">
-        <f t="shared" si="0"/>
-        <v>7900</v>
-      </c>
-      <c r="H68" s="44" t="s">
-        <v>277</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="11">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>13</v>
-      </c>
       <c r="G69" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>42500</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I69" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" s="41" t="s">
-        <v>184</v>
+      <c r="I69" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>182</v>
+      <c r="A70" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
       </c>
       <c r="E70" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>185</v>
+        <v>8500</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>36</v>
+      <c r="B71" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" s="6">
+        <v>184</v>
+      </c>
+      <c r="D71" s="11">
         <v>1</v>
       </c>
       <c r="E71" s="7">
-        <v>7900</v>
-      </c>
-      <c r="F71" s="8" t="s">
+        <v>18000</v>
+      </c>
+      <c r="F71" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>18000</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I71" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>188</v>
+      <c r="I71" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="41" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,29 +4265,29 @@
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
       </c>
       <c r="E72" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4274,29 +4298,29 @@
         <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
       <c r="E73" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4307,29 +4331,29 @@
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
       </c>
       <c r="E74" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4340,29 +4364,29 @@
         <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,29 +4397,29 @@
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
       </c>
       <c r="E76" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4406,29 +4430,29 @@
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
       </c>
       <c r="E77" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" si="0"/>
-        <v>7900</v>
+        <f t="shared" ref="G77" si="4">D77*E77</f>
+        <v>8500</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4439,32 +4463,29 @@
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
       <c r="E78" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K78" s="41" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,32 +4496,29 @@
         <v>36</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
       </c>
       <c r="E79" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K79" s="41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4511,32 +4529,29 @@
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
       </c>
       <c r="E80" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="K80" s="41" t="s">
-        <v>201</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4547,32 +4562,32 @@
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
       </c>
       <c r="E81" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K81" s="41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4583,32 +4598,32 @@
         <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
       </c>
       <c r="E82" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="7">
-        <f>D82*E82</f>
-        <v>7900</v>
+        <f t="shared" si="0"/>
+        <v>8500</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="K82" s="41" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4619,32 +4634,32 @@
         <v>36</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
       </c>
       <c r="E83" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="7">
-        <f>D83*E83</f>
-        <v>7900</v>
+        <f t="shared" si="0"/>
+        <v>8500</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="K83" s="41" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4655,32 +4670,32 @@
         <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
       </c>
       <c r="E84" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="7">
-        <f>D84*E84</f>
-        <v>7900</v>
+        <f t="shared" si="0"/>
+        <v>8500</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4691,32 +4706,32 @@
         <v>36</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
       </c>
       <c r="E85" s="7">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" ref="G85" si="3">D85*E85</f>
-        <v>7900</v>
+        <f>D85*E85</f>
+        <v>8500</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="K85" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4727,32 +4742,32 @@
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
       </c>
       <c r="E86" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>213</v>
+        <v>8500</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G86" s="7">
         <f>D86*E86</f>
-        <v>14900</v>
+        <v>8500</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>270</v>
+        <v>63</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4763,32 +4778,32 @@
         <v>36</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
       </c>
       <c r="E87" s="7">
-        <v>16900</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>213</v>
+        <v>8500</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G87" s="7">
         <f>D87*E87</f>
-        <v>16900</v>
+        <v>8500</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="K87" s="41" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4799,32 +4814,32 @@
         <v>36</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
       </c>
       <c r="E88" s="7">
-        <v>12900</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>213</v>
+        <v>8500</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G88" s="7">
-        <f>D88*E88</f>
-        <v>12900</v>
+        <f t="shared" ref="G88" si="5">D88*E88</f>
+        <v>8500</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,29 +4850,32 @@
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
       </c>
       <c r="E89" s="7">
-        <v>13900</v>
+        <v>14900</v>
       </c>
       <c r="F89" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" ref="G89" si="4">D89*E89</f>
-        <v>13900</v>
+        <f>D89*E89</f>
+        <v>14900</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>43</v>
+        <v>270</v>
+      </c>
+      <c r="K89" s="41" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4868,32 +4886,32 @@
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
       </c>
       <c r="E90" s="7">
-        <v>12900</v>
+        <v>18500</v>
       </c>
       <c r="F90" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G90" s="7">
         <f>D90*E90</f>
-        <v>12900</v>
+        <v>18500</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4904,29 +4922,32 @@
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
       </c>
       <c r="E91" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>47</v>
+        <v>13900</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="G91" s="7">
         <f>D91*E91</f>
-        <v>6900</v>
+        <v>13900</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="K91" s="41" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,29 +4958,29 @@
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
       </c>
       <c r="E92" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>47</v>
+        <v>14900</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+        <f t="shared" ref="G92" si="6">D92*E92</f>
+        <v>14900</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4970,61 +4991,64 @@
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="7">
-        <v>6900</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>47</v>
+        <v>13900</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+        <f>D93*E93</f>
+        <v>13900</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>53</v>
+        <v>281</v>
+      </c>
+      <c r="K93" s="41" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D94" s="11">
+        <v>205</v>
+      </c>
+      <c r="D94" s="6">
         <v>1</v>
       </c>
       <c r="E94" s="7">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+        <f>D94*E94</f>
+        <v>7500</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I94" s="16" t="s">
+      <c r="I94" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J94" s="16" t="s">
+      <c r="J94" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5036,32 +5060,29 @@
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
       </c>
       <c r="E95" s="7">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G95" s="7">
-        <f>D95*E95</f>
-        <v>9000</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K95" s="41" t="s">
-        <v>268</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5072,68 +5093,62 @@
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
       </c>
       <c r="E96" s="7">
-        <v>9900</v>
+        <v>7500</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G96" s="7">
-        <f>D96*E96</f>
-        <v>9900</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K96" s="41" t="s">
-        <v>293</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D97" s="6">
+        <v>219</v>
+      </c>
+      <c r="D97" s="11">
         <v>1</v>
       </c>
       <c r="E97" s="7">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J97" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K97" s="41" t="s">
-        <v>220</v>
+      <c r="J97" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5144,29 +5159,32 @@
         <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
       </c>
       <c r="E98" s="7">
-        <v>6900</v>
+        <v>9900</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="0"/>
-        <v>6900</v>
+        <f>D98*E98</f>
+        <v>9900</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>224</v>
+        <v>48</v>
+      </c>
+      <c r="K98" s="41" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5177,32 +5195,32 @@
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
       </c>
       <c r="E99" s="7">
-        <v>8000</v>
+        <v>9900</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <f>D99*E99</f>
+        <v>9900</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="K99" s="41" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,29 +5231,32 @@
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
       </c>
       <c r="E100" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F100" s="29" t="s">
+        <v>9900</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>9900</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>102</v>
+        <v>221</v>
+      </c>
+      <c r="K100" s="41" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5246,32 +5267,29 @@
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
       </c>
       <c r="E101" s="7">
-        <v>12900</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>229</v>
+        <v>7500</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="0"/>
-        <v>12900</v>
+        <v>7500</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K101" s="41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5282,560 +5300,560 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
       </c>
       <c r="E102" s="7">
-        <v>12900</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>229</v>
+        <v>8900</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="0"/>
-        <v>12900</v>
+        <v>8900</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D103" s="11">
+        <v>227</v>
+      </c>
+      <c r="D103" s="6">
         <v>1</v>
       </c>
       <c r="E103" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F103" s="31" t="s">
-        <v>33</v>
+        <v>9900</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="G103" s="7">
-        <f>D103*E103</f>
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>9900</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I103" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103" s="41" t="s">
-        <v>232</v>
+      <c r="I103" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D104" s="11">
+        <v>228</v>
+      </c>
+      <c r="D104" s="6">
         <v>1</v>
       </c>
       <c r="E104" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F104" s="31" t="s">
-        <v>33</v>
+        <v>13900</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>13900</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I104" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>43</v>
+      <c r="I104" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="K104" s="41" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" s="11">
+        <v>230</v>
+      </c>
+      <c r="D105" s="6">
         <v>1</v>
       </c>
       <c r="E105" s="7">
-        <v>14500</v>
-      </c>
-      <c r="F105" s="31" t="s">
-        <v>33</v>
+        <v>13900</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="G105" s="7">
-        <f>D105*E105</f>
-        <v>14500</v>
+        <f t="shared" si="0"/>
+        <v>13900</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I105" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>43</v>
+      <c r="I105" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J105" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="K105" s="41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D106" s="6">
+        <v>232</v>
+      </c>
+      <c r="D106" s="11">
         <v>1</v>
       </c>
       <c r="E106" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F106" s="12" t="s">
+        <v>19900</v>
+      </c>
+      <c r="F106" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="0"/>
-        <v>13000</v>
+        <f>D106*E106</f>
+        <v>19900</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J106" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="K106" s="41" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D107" s="6">
+        <v>233</v>
+      </c>
+      <c r="D107" s="11">
         <v>1</v>
       </c>
       <c r="E107" s="7">
-        <v>14500</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>67</v>
+        <v>19900</v>
+      </c>
+      <c r="F107" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="G107" s="7">
         <f t="shared" si="0"/>
-        <v>14500</v>
+        <v>19900</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I107" s="10" t="s">
+      <c r="I107" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J107" s="10" t="s">
+      <c r="J107" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="K107" s="41" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B108" s="32" t="s">
-        <v>237</v>
+      <c r="B108" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" s="6">
+        <v>234</v>
+      </c>
+      <c r="D108" s="11">
         <v>1</v>
       </c>
       <c r="E108" s="7">
-        <v>11450</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>13</v>
+        <v>15500</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="0"/>
-        <v>11450</v>
+        <f>D108*E108</f>
+        <v>15500</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I108" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J108" s="10" t="s">
-        <v>57</v>
+      <c r="I108" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" s="41" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B109" s="23" t="s">
-        <v>143</v>
+      <c r="B109" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D109" s="6">
         <v>1</v>
       </c>
       <c r="E109" s="7">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="F109" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G109" s="7">
         <f t="shared" si="0"/>
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="K109" s="41" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>72</v>
+      <c r="B110" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D110" s="6">
         <v>1</v>
       </c>
       <c r="E110" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>13</v>
+        <v>15500</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="G110" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="K110" s="41" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B111" s="33" t="s">
-        <v>72</v>
+      <c r="B111" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D111" s="11">
+        <v>238</v>
+      </c>
+      <c r="D111" s="6">
         <v>1</v>
       </c>
       <c r="E111" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F111" s="27" t="s">
+        <v>27000</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G111" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>27000</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I111" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="J111" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="K111" s="41" t="s">
-        <v>244</v>
+      <c r="I111" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J111" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>72</v>
+      <c r="B112" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
       </c>
       <c r="E112" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>13</v>
+        <v>14900</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" si="0"/>
-        <v>12000</v>
+        <f t="shared" ref="G112" si="7">D112*E112</f>
+        <v>14900</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="K112" s="41" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>72</v>
+      <c r="B113" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
       </c>
       <c r="E113" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F113" s="28" t="s">
-        <v>213</v>
+        <v>17900</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>17900</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="K113" s="41" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B114" s="22" t="s">
-        <v>139</v>
+      <c r="B114" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
       <c r="E114" s="7">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G114" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B115" s="22" t="s">
-        <v>139</v>
+      <c r="B115" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" s="6">
+        <v>244</v>
+      </c>
+      <c r="D115" s="11">
         <v>1</v>
       </c>
       <c r="E115" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F115" s="8" t="s">
+        <v>11000</v>
+      </c>
+      <c r="F115" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" ref="G115" si="5">D115*E115</f>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>11000</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I115" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>253</v>
+      <c r="I115" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="J115" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="K115" s="41" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B116" s="22" t="s">
-        <v>139</v>
+      <c r="B116" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
       </c>
       <c r="E116" s="7">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B117" s="22" t="s">
-        <v>139</v>
+      <c r="B117" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
       </c>
       <c r="E117" s="7">
-        <v>7000</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>13</v>
+        <v>15000</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>213</v>
       </c>
       <c r="G117" s="7">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
+      </c>
+      <c r="K117" s="41" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5846,32 +5864,32 @@
         <v>139</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
       </c>
       <c r="E118" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F118" s="28" t="s">
-        <v>213</v>
+        <v>8000</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G118" s="7">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5882,387 +5900,524 @@
         <v>139</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
       </c>
       <c r="E119" s="7">
-        <v>7000</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>33</v>
+        <v>8000</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" ref="G119:G120" si="6">D119*E119</f>
-        <v>7000</v>
+        <f t="shared" ref="G119" si="8">D119*E119</f>
+        <v>8000</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K119" s="50" t="s">
-        <v>258</v>
+        <v>253</v>
+      </c>
+      <c r="K119" s="41" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B120" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="C120" s="48" t="s">
-        <v>301</v>
+      <c r="B120" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
       </c>
       <c r="E120" s="7">
-        <v>52000</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>33</v>
+        <v>8500</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="6"/>
-        <v>52000</v>
+        <f t="shared" si="0"/>
+        <v>8500</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I120" s="49" t="s">
-        <v>302</v>
-      </c>
-      <c r="J120" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="K120" s="50" t="s">
-        <v>301</v>
+      <c r="I120" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K120" s="41" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="43" t="s">
-        <v>271</v>
+      <c r="B121" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
       </c>
       <c r="E121" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>33</v>
+        <v>7000</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G121" s="7">
         <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="H121" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K121" s="41" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B122" s="34" t="s">
-        <v>260</v>
+      <c r="B122" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D122" s="6">
         <v>1</v>
       </c>
       <c r="E122" s="7">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="F122" s="28" t="s">
         <v>213</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" ref="G122" si="7">D122*E122</f>
-        <v>17000</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
       <c r="H122" s="13" t="s">
         <v>185</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K122" s="41" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B123" s="34" t="s">
-        <v>260</v>
+      <c r="B123" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
       </c>
       <c r="E123" s="7">
-        <v>18900</v>
-      </c>
-      <c r="F123" s="28" t="s">
+        <v>7000</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" s="7">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I123" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K123" s="50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1</v>
+      </c>
+      <c r="E124" s="7">
+        <v>9900</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G124" s="7">
+        <f t="shared" ref="G124:G125" si="9">D124*E124</f>
+        <v>9900</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K124" s="50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C125" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+      <c r="E125" s="7">
+        <v>52000</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" s="7">
+        <f t="shared" si="9"/>
+        <v>52000</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I125" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="J125" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="K125" s="50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" s="7">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K126" s="41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="7">
+        <v>17000</v>
+      </c>
+      <c r="F127" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="G123" s="7">
-        <f t="shared" si="0"/>
-        <v>18900</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I123" s="10" t="s">
+      <c r="G127" s="7">
+        <f t="shared" ref="G127" si="10">D127*E127</f>
+        <v>17000</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I127" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="J123" s="10" t="s">
+      <c r="J127" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="K123" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="K127" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A28)</f>
-        <v>En curso = 27</v>
-      </c>
-      <c r="B125" s="14" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B11:B24,B34:B48,B60:B107)</f>
-        <v>Ivrea = 77</v>
-      </c>
-      <c r="C125" s="45" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C123)</f>
-        <v>Series en total = 122</v>
-      </c>
-      <c r="D125" s="6">
-        <f>SUM(D2:D123)</f>
-        <v>554</v>
-      </c>
-      <c r="E125" s="7">
-        <f>SUM(E2:E123)</f>
-        <v>1243583</v>
-      </c>
-      <c r="F125" s="46" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F9,F11:F14,F25,F29:F33,F38:F49,F53:F55,F57:F59,F67:F85,F108,F110:F112,F114:F117)</f>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A31)</f>
+        <v>En curso = 30</v>
+      </c>
+      <c r="B129" s="14" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B12:B26,B36:B50,B62:B110)</f>
+        <v>Ivrea = 79</v>
+      </c>
+      <c r="C129" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C127)</f>
+        <v>Series en total = 126</v>
+      </c>
+      <c r="D129" s="6">
+        <f>SUM(D2:D127)</f>
+        <v>565</v>
+      </c>
+      <c r="E129" s="7">
+        <f>SUM(E2:E127)</f>
+        <v>1427466</v>
+      </c>
+      <c r="F129" s="46" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F9,F12:F15,F27,F32:F35,F40:F51,F55:F57,F59:F61,F69:F88,F111,F114:F116,F118:F121)</f>
         <v>B6 = 63</v>
       </c>
-      <c r="G125" s="7">
-        <f>SUM(G2:G123)</f>
-        <v>4822349</v>
-      </c>
-      <c r="H125" s="13" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H7,H13,H26:H27,H29:H56,H58:H61,H67,H69:H123)</f>
-        <v>Finalizados = 92</v>
-      </c>
-      <c r="I125" s="46" t="str">
-        <f>"B6 = " &amp; SUM(D2:D9,D11:D14,D25,D29:D33,D38:D49,D53:D55,D57:D59,D67:D85,D108,D110:D112,D114:D117)</f>
-        <v>B6 = 298</v>
-      </c>
-      <c r="J125" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K23,K25:K29,K31:K33,K36:K40,K49:K54,K56,K69,K78:K88,K90,K96:K97,K99,K101:K105,K109:K116,K118:K123)</f>
-        <v>Series = 75</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="str">
-        <f>"Completado = " &amp; COUNTA(A29:A56)</f>
-        <v>Completado = 28</v>
-      </c>
-      <c r="B126" s="5" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B10,B29:B33,B57:B59)</f>
+      <c r="G129" s="7">
+        <f>SUM(G2:G127)</f>
+        <v>5684598</v>
+      </c>
+      <c r="H129" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H7,H14,H28:H29,H32:H58,H60:H63,H69,H71:H127)</f>
+        <v>Finalizados = 93</v>
+      </c>
+      <c r="I129" s="46" t="str">
+        <f>"B6 = " &amp; SUM(D2:D10,D12:D15,D27,D32:D35,D40:D51,D55:D57,D59:D61,D69:D88,D111,D114:D116,D118:D121)</f>
+        <v>B6 = 300</v>
+      </c>
+      <c r="J129" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K8:K18,K20:K25,K27:K32,K34:K35,K38:K42,K51:K56,K58,K71,K81:K91,K93,K99:K100,K102,K104:K108,K113:K120,K122:K127)</f>
+        <v>Series = 77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="str">
+        <f>"Completado = " &amp; COUNTA(A32:A58)</f>
+        <v>Completado = 27</v>
+      </c>
+      <c r="B130" s="5" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B11,B32:B35,B59:B61)</f>
         <v>Panini = 17</v>
       </c>
-      <c r="F126" s="39" t="str">
-        <f>"C6 = " &amp; COUNTA(F15:F22,F34:F37,F56,F60:F66,F91:F100)</f>
-        <v>C6 = 30</v>
-      </c>
-      <c r="H126" s="9" t="str">
-        <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H12,H14:H25,H28,H57,H62:H66,H68)</f>
-        <v>En publicación = 30</v>
-      </c>
-      <c r="I126" s="39" t="str">
-        <f>"C6 = " &amp; SUM(D15:D22,D34:D37,D56,D60:D66,D91:D100)</f>
-        <v>C6 = 199</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A57:A68)</f>
+      <c r="F130" s="39" t="str">
+        <f>"C6 = " &amp; COUNTA(F16:F24,F36:F39,F58,F62:F68,F94:F103)</f>
+        <v>C6 = 31</v>
+      </c>
+      <c r="H130" s="9" t="str">
+        <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H13,H15:H27,H31,H59,H64:H68,H70)</f>
+        <v>En publicación = 32</v>
+      </c>
+      <c r="I130" s="39" t="str">
+        <f>"C6 = " &amp; SUM(D16:D24,D36:D39,D58,D62:D68,D94:D103)</f>
+        <v>C6 = 203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="25" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A59:A70)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B127" s="22" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B52,B114:B119)</f>
-        <v>Kemuri = 7</v>
-      </c>
-      <c r="F127" s="40" t="str">
-        <f>"A5 = " &amp; COUNTA(F10,F24,F26:F27,F50:F52,F103:F106,F109,F119:F121)</f>
-        <v>A5 = 15</v>
-      </c>
-      <c r="I127" s="40" t="str">
-        <f>"A5 = " &amp; SUM(D10,D24,D26:D27,D50:D52,D103:D106,D109,D119:D121)</f>
-        <v>A5 = 36</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A69:A123)</f>
-        <v>Tomo único = 55</v>
-      </c>
-      <c r="B128" s="23" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B53:B54,B109)</f>
+      <c r="B131" s="22" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B54,B118:B124)</f>
+        <v>Kemuri = 8</v>
+      </c>
+      <c r="F131" s="40" t="str">
+        <f>"A5 = " &amp; COUNTA(F11,F26,F28:F30,F52:F54,F106:F109,F112:F113,F123:F126)</f>
+        <v>A5 = 18</v>
+      </c>
+      <c r="I131" s="40" t="str">
+        <f>"A5 = " &amp; SUM(D11,D26,D28:D30,D52:D54,D106:D109,D112:D113,D123:D126)</f>
+        <v>A5 = 40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A71:A127)</f>
+        <v>Tomo único = 57</v>
+      </c>
+      <c r="B132" s="23" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B55:B56,B113)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F128" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F86:F90,F113,F118,F122:F123)</f>
-        <v>B6x2 = 9</v>
-      </c>
-      <c r="I128" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D86:D90,D113,D118,D122:D123)</f>
-        <v>B6x2 = 9</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B25,B110:B113)</f>
+      <c r="F132" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F89:F93,F117,F122,F127:F127)</f>
+        <v>B6x2 = 8</v>
+      </c>
+      <c r="I132" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D89:D93,D117,D122,D127:D127)</f>
+        <v>B6x2 = 8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B27,B114:B117)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F129" s="30" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F101:F102)</f>
+      <c r="F133" s="30" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F104:F105)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I129" s="30" t="str">
-        <f>"C6x2 = " &amp; SUM(D101:D102)</f>
+      <c r="I133" s="30" t="str">
+        <f>"C6x2 = " &amp; SUM(D104:D105)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="36" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B26:B27,B49:B50)</f>
-        <v>Planeta Cómic = 4</v>
-      </c>
-      <c r="F130" s="17" t="str">
-        <f>"A5 color = " &amp; COUNTA(F23,F28,F107)</f>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="36" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B28:B29,B51:B52,B113)</f>
+        <v>Planeta Cómic = 5</v>
+      </c>
+      <c r="F134" s="17" t="str">
+        <f>"A5 color = " &amp; COUNTA(F25,F31,F110)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I130" s="17" t="str">
-        <f>"A5 color = " &amp; SUM(D107,D23,D28)</f>
-        <v>A5 color = 10</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="24" t="str">
-        <f>"Utopia = " &amp; COUNTA(B55:B56)</f>
+      <c r="I134" s="17" t="str">
+        <f>"A5 color = " &amp; SUM(D110,D25,D31)</f>
+        <v>A5 color = 12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="24" t="str">
+        <f>"Utopia = " &amp; COUNTA(B57:B58)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="21" t="str">
-        <f>"Merci = " &amp; COUNTA(B51)</f>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="21" t="str">
+        <f>"Merci = " &amp; COUNTA(B53)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="32" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B108)</f>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="32" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B111)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="37" t="str">
-        <f>"Moztros = " &amp; COUNTA(B122:B123)</f>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B30,B127)</f>
         <v>Moztros = 2</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="38" t="str">
-        <f>"Random Comics = " &amp; COUNTA(B28)</f>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="38" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B31)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="43" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B121)</f>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="43" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B126)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="137" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="47" t="str">
-        <f>"Kibook Ediciones = " &amp; COUNTA(B120)</f>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="47" t="str">
+        <f>"Kibook Ediciones = " &amp; COUNTA(B125)</f>
         <v>Kibook Ediciones = 1</v>
       </c>
     </row>
-    <row r="138" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7120,7 +7275,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F2:F124">
+  <conditionalFormatting sqref="F2:F128">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7128,7 +7283,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F8:F31 F34:F124">
+  <conditionalFormatting sqref="F3 F36:F128 F8:F34">
     <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
@@ -7136,7 +7291,7 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7150,14 +7305,14 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H7 H13 H26:H27 H58:H61 H67 H69:H124">
+  <conditionalFormatting sqref="H4:H7 H14 H60:H63 H69 H71:H128 H28:H30">
     <cfRule type="containsText" dxfId="1" priority="30" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H56">
+  <conditionalFormatting sqref="H32:H58">
     <cfRule type="containsText" dxfId="0" priority="25" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H29))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\proyectos\Mangas\mangas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F74FD9-D07F-4FD0-B3A3-9A110EC4856C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4F7207-7112-46D0-8551-8C5379E6C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="320">
   <si>
     <t>Estado</t>
   </si>
@@ -217,9 +228,6 @@
     <t>Kyoutarou Azuma</t>
   </si>
   <si>
-    <t>Versus - 1 &amp; 2</t>
-  </si>
-  <si>
     <t>Solo Leveling</t>
   </si>
   <si>
@@ -256,9 +264,6 @@
     <t>Gou Tanabe</t>
   </si>
   <si>
-    <t>Las Montañas de la Locura - 1</t>
-  </si>
-  <si>
     <t>Hooky</t>
   </si>
   <si>
@@ -874,21 +879,12 @@
     <t>Hooky - 2 &amp; 3</t>
   </si>
   <si>
-    <t>Hanako-Kun - 4 al 22</t>
-  </si>
-  <si>
     <t>Rooster Fighter - 5 al 7</t>
   </si>
   <si>
     <t>Un Extraño en Primavera - 1 al 5</t>
   </si>
   <si>
-    <t>Oshi no Ko - 12 al 15</t>
-  </si>
-  <si>
-    <t>Sakamoto Days - 3 al 13</t>
-  </si>
-  <si>
     <t>Hanako-Kun: Despues de Clases - 1 &amp; 2</t>
   </si>
   <si>
@@ -925,21 +921,9 @@
     <t>Obaru</t>
   </si>
   <si>
-    <t>Houseki no Kuni - 3 al 7</t>
-  </si>
-  <si>
-    <t>Dead Dead Demon's Dededede Destruction - 3 al 11</t>
-  </si>
-  <si>
     <t>Blue Lock - 13 al 29</t>
   </si>
   <si>
-    <t>Dandadan - 8 al 14</t>
-  </si>
-  <si>
-    <t>Sweet Paprika + Hot Paprika 01</t>
-  </si>
-  <si>
     <t>Hikaru Ga Shinda Natsu - 2 al 5</t>
   </si>
   <si>
@@ -964,7 +948,49 @@
     <t>El Color que Cayó del Cielo</t>
   </si>
   <si>
-    <t>Sweet Paprika + Hot Paprika - 1 &amp; 2</t>
+    <t>Hanako-Kun - 4 al 23</t>
+  </si>
+  <si>
+    <t>Sakamoto Days - 3 al 15</t>
+  </si>
+  <si>
+    <t>Dandadan - 8 al 15</t>
+  </si>
+  <si>
+    <t>Houseki no Kuni - 3 al 8</t>
+  </si>
+  <si>
+    <t>Sweet Paprika + Hot Paprika</t>
+  </si>
+  <si>
+    <t>Sweet Paprika + Hot Paprika - 1 - 3</t>
+  </si>
+  <si>
+    <t>Versus - 1 - 3</t>
+  </si>
+  <si>
+    <t>Las Montañas de la Locura - 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Oshi no Ko - 12 al 16</t>
+  </si>
+  <si>
+    <t>Dead Dead Demon's Dededede Destruction - 3 al 12</t>
+  </si>
+  <si>
+    <t>Hinata Nakamura</t>
+  </si>
+  <si>
+    <t>Heart Program</t>
+  </si>
+  <si>
+    <t>Heart Program - 1</t>
+  </si>
+  <si>
+    <t>Abrazando tu Noche</t>
+  </si>
+  <si>
+    <t>Moyori Mori</t>
   </si>
 </sst>
 </file>
@@ -1460,12 +1486,76 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1764,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1875,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1806,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1829,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7">
         <v>11000</v>
@@ -1838,11 +1928,11 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G126" si="0">D2*E2</f>
-        <v>242000</v>
+        <f t="shared" ref="G2:G128" si="0">D2*E2</f>
+        <v>253000</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1851,7 +1941,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1862,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -1878,7 +1968,7 @@
         <v>22000</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
@@ -1887,7 +1977,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1914,7 +2004,7 @@
         <v>180000</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -1950,7 +2040,7 @@
         <v>162000</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>19</v>
@@ -1959,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1986,7 +2076,7 @@
         <v>180000</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>22</v>
@@ -1995,7 +2085,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,7 +2112,7 @@
         <v>110000</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>25</v>
@@ -2055,7 +2145,7 @@
         <v>31500</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>27</v>
@@ -2091,7 +2181,7 @@
         <v>62500</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>31</v>
@@ -2100,7 +2190,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2111,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11">
         <v>5</v>
@@ -2127,16 +2217,16 @@
         <v>55000</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,68 +2237,68 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6">
+        <v>316</v>
+      </c>
+      <c r="D11" s="11">
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
+        <v>11000</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>13000</v>
+        <f>D11*E11</f>
+        <v>11000</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>36</v>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>13</v>
+        <v>13000</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>127500</v>
+        <v>13000</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>287</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2235,7 +2325,7 @@
         <v>59500</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>41</v>
@@ -2244,21 +2334,21 @@
         <v>41</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5</v>
       </c>
       <c r="E14" s="7">
         <v>8500</v>
@@ -2268,55 +2358,55 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>93500</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>43</v>
+        <v>42500</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="11">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="6">
+        <v>14</v>
       </c>
       <c r="E15" s="7">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>42500</v>
+        <v>105000</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>45</v>
+        <v>274</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2327,10 +2417,10 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="6">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="11">
+        <v>29</v>
       </c>
       <c r="E16" s="7">
         <v>7500</v>
@@ -2339,20 +2429,20 @@
         <v>47</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>105000</v>
+        <f t="shared" ref="G16" si="1">D16*E16</f>
+        <v>217500</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2363,10 +2453,10 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="D17" s="11">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E17" s="7">
         <v>7500</v>
@@ -2375,11 +2465,11 @@
         <v>47</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ref="G17" si="1">D17*E17</f>
-        <v>217500</v>
+        <f t="shared" si="0"/>
+        <v>37500</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>50</v>
@@ -2388,7 +2478,7 @@
         <v>51</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2399,10 +2489,10 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="11">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="6">
+        <v>19</v>
       </c>
       <c r="E18" s="7">
         <v>7500</v>
@@ -2412,19 +2502,16 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>142500</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="41" t="s">
-        <v>311</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2435,10 +2522,10 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="6">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7">
         <v>7500</v>
@@ -2448,16 +2535,19 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>135000</v>
+        <v>112500</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2468,10 +2558,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="6">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="11">
+        <v>15</v>
       </c>
       <c r="E20" s="7">
         <v>7500</v>
@@ -2481,19 +2571,19 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>97500</v>
+        <v>112500</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,10 +2594,10 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7">
         <v>7500</v>
@@ -2517,19 +2607,19 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>105000</v>
+        <v>60000</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,10 +2630,10 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="11">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
       </c>
       <c r="E22" s="7">
         <v>7500</v>
@@ -2552,20 +2642,20 @@
         <v>47</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="0"/>
-        <v>60000</v>
+        <f t="shared" ref="G22" si="2">D22*E22</f>
+        <v>22500</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,7 +2666,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="D23" s="6">
         <v>3</v>
@@ -2588,20 +2678,20 @@
         <v>47</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23" si="2">D23*E23</f>
+        <f t="shared" si="0"/>
         <v>22500</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>65</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2612,32 +2702,32 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>308</v>
+        <v>65</v>
       </c>
       <c r="D24" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>47</v>
+        <v>22500</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>202500</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,101 +2738,101 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D25" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25" s="7">
-        <v>22500</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>67</v>
+        <v>9000</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>202500</v>
+        <v>117000</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>36</v>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="6">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7">
+        <v>11000</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="7">
-        <v>9000</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>117000</v>
+        <v>88000</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>72</v>
+      <c r="B27" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>13</v>
+        <v>15400</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>77000</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>276</v>
+        <v>30800</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2750,148 +2840,148 @@
         <v>10</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
       </c>
       <c r="E28" s="7">
-        <v>15400</v>
+        <v>37000</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>30800</v>
+        <v>74000</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>75</v>
+      <c r="B29" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="D29" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="7">
-        <v>37000</v>
+        <v>18900</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="0"/>
-        <v>74000</v>
+        <f>D29*E29</f>
+        <v>56700</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>260</v>
+      <c r="B30" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
       </c>
       <c r="E30" s="7">
-        <v>18900</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>33</v>
+        <v>32000</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G30" s="7">
-        <f>D30*E30</f>
-        <v>37800</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="H30" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>262</v>
+        <v>82</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>82</v>
+      <c r="A31" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="6">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7">
-        <v>32000</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>67</v>
+        <v>12500</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
-        <v>64000</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>276</v>
+        <v>350000</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>282</v>
+        <v>38</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
@@ -2900,34 +2990,31 @@
         <v>86</v>
       </c>
       <c r="D32" s="6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E32" s="7">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>350000</v>
+        <v>21000</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="42" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>11</v>
@@ -2935,21 +3022,21 @@
       <c r="C33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="6">
-        <v>2</v>
+      <c r="D33" s="11">
+        <v>9</v>
       </c>
       <c r="E33" s="7">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
-        <v>21000</v>
+        <v>112500</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>89</v>
@@ -2957,19 +3044,22 @@
       <c r="J33" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="K33" s="41" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D34" s="11">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E34" s="7">
         <v>12500</v>
@@ -2979,69 +3069,66 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
-        <v>112500</v>
+        <v>275000</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="11">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="D35" s="6">
+        <v>23</v>
       </c>
       <c r="E35" s="7">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>275000</v>
+        <v>172500</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K35" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" s="6">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E36" s="7">
         <v>7500</v>
@@ -3051,13 +3138,13 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
-        <v>172500</v>
+        <v>90000</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>102</v>
@@ -3065,7 +3152,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>36</v>
@@ -3074,7 +3161,7 @@
         <v>103</v>
       </c>
       <c r="D37" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E37" s="7">
         <v>7500</v>
@@ -3084,30 +3171,33 @@
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>60000</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="J37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D38" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E38" s="7">
         <v>7500</v>
@@ -3116,70 +3206,70 @@
         <v>47</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="0"/>
-        <v>60000</v>
+        <f>D38*E38</f>
+        <v>82500</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D39" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7">
         <f>D39*E39</f>
-        <v>82500</v>
+        <v>102000</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="D40" s="11">
+        <v>16</v>
       </c>
       <c r="E40" s="7">
         <v>8500</v>
@@ -3188,34 +3278,34 @@
         <v>13</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="0"/>
-        <v>17000</v>
+        <f>D40*E40</f>
+        <v>136000</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D41" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="7">
         <v>8500</v>
@@ -3225,30 +3315,30 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>17000</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K41" s="41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -3264,30 +3354,30 @@
         <v>25500</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K42" s="41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D43" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E43" s="7">
         <v>8500</v>
@@ -3297,30 +3387,33 @@
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>110500</v>
+        <v>25500</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>43</v>
+        <v>112</v>
+      </c>
+      <c r="K43" s="41" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D44" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E44" s="7">
         <v>8500</v>
@@ -3330,30 +3423,30 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>110500</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>118</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D45" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E45" s="7">
         <v>8500</v>
@@ -3363,30 +3456,30 @@
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>68000</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D46" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="7">
         <v>8500</v>
@@ -3396,27 +3489,27 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>34000</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -3432,24 +3525,24 @@
         <v>25500</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3465,27 +3558,27 @@
         <v>25500</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="7">
         <v>8500</v>
@@ -3494,244 +3587,241 @@
         <v>13</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" ref="G49" si="3">D49*E49</f>
-        <v>17000</v>
+        <f t="shared" si="0"/>
+        <v>25500</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D50" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" s="7">
-        <v>7166</v>
+        <v>8500</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="7">
-        <f>D50*E50</f>
-        <v>21498</v>
+        <f t="shared" ref="G50" si="3">D50*E50</f>
+        <v>17000</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="D51" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="7">
-        <v>12300</v>
+        <v>7166</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="0"/>
-        <v>49200</v>
+        <f>D51*E51</f>
+        <v>21498</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="41" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D52" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" s="7">
-        <v>13300</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>33</v>
+        <v>12300</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
-        <v>66500</v>
+        <v>49200</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K52" s="41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>135</v>
+        <v>83</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D53" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E53" s="7">
-        <v>12000</v>
+        <v>13300</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>66500</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K53" s="41" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>139</v>
+        <v>83</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D54" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>24000</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K54" s="41" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>143</v>
+        <v>83</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D55" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>13</v>
+        <v>12500</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>37500</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K55" s="41" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D56" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56" s="7">
         <v>8900</v>
@@ -3741,63 +3831,66 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>44500</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K56" s="41" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>151</v>
+        <v>83</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D57" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="7">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>26700</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="K57" s="41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D58" s="6">
         <v>2</v>
@@ -3806,235 +3899,235 @@
         <v>9000</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K58" s="41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>11</v>
+      <c r="A59" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
       <c r="E59" s="7">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="H59" s="44" t="s">
-        <v>276</v>
+        <v>18000</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
+      </c>
+      <c r="K59" s="41" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="7">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>185</v>
+        <v>24000</v>
+      </c>
+      <c r="H60" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D61" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="7">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>11000</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>36</v>
+        <v>155</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D62" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E62" s="7">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>37500</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D63" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E63" s="7">
-        <v>17700</v>
+        <v>7500</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>17700</v>
+        <v>90000</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D64" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E64" s="7">
-        <v>7500</v>
+        <v>17700</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>276</v>
+        <v>17700</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D65" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E65" s="7">
         <v>7500</v>
@@ -4044,30 +4137,30 @@
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="H65" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D66" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="7">
         <v>7500</v>
@@ -4077,30 +4170,30 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="H66" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D67" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67" s="7">
         <v>7500</v>
@@ -4110,27 +4203,27 @@
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>37500</v>
       </c>
       <c r="H67" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
@@ -4146,60 +4239,60 @@
         <v>7500</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D69" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="0"/>
-        <v>42500</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>185</v>
+        <v>7500</v>
+      </c>
+      <c r="H69" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D70" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E70" s="7">
         <v>8500</v>
@@ -4209,96 +4302,96 @@
       </c>
       <c r="G70" s="7">
         <f t="shared" si="0"/>
+        <v>42500</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7">
         <v>8500</v>
       </c>
-      <c r="H70" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="11">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" s="41" t="s">
-        <v>184</v>
+        <v>8500</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D72" s="6">
+      <c r="D72" s="11">
         <v>1</v>
       </c>
       <c r="E72" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F72" s="8" t="s">
+        <v>18000</v>
+      </c>
+      <c r="F72" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>39</v>
+        <v>183</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4314,24 +4407,24 @@
         <v>8500</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
@@ -4347,24 +4440,24 @@
         <v>8500</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4380,24 +4473,24 @@
         <v>8500</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4413,24 +4506,24 @@
         <v>8500</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4442,28 +4535,28 @@
         <v>13</v>
       </c>
       <c r="G77" s="7">
-        <f t="shared" ref="G77" si="4">D77*E77</f>
+        <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -4475,28 +4568,28 @@
         <v>13</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G78" si="4">D78*E78</f>
         <v>8500</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4512,24 +4605,24 @@
         <v>8500</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4545,24 +4638,24 @@
         <v>8500</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4578,27 +4671,24 @@
         <v>8500</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K81" s="41" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4614,27 +4704,27 @@
         <v>8500</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K82" s="41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4650,27 +4740,27 @@
         <v>8500</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K83" s="41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4686,27 +4776,27 @@
         <v>8500</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -4718,31 +4808,31 @@
         <v>13</v>
       </c>
       <c r="G85" s="7">
-        <f>D85*E85</f>
+        <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="K85" s="41" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4758,27 +4848,27 @@
         <v>8500</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4794,27 +4884,27 @@
         <v>8500</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K87" s="41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -4826,155 +4916,155 @@
         <v>13</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" ref="G88" si="5">D88*E88</f>
+        <f>D88*E88</f>
         <v>8500</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
       </c>
       <c r="E89" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>213</v>
+        <v>8500</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G89" s="7">
-        <f>D89*E89</f>
-        <v>14900</v>
+        <f t="shared" ref="G89" si="5">D89*E89</f>
+        <v>8500</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I89" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J89" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J89" s="10" t="s">
-        <v>270</v>
-      </c>
       <c r="K89" s="41" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
       </c>
       <c r="E90" s="7">
-        <v>18500</v>
+        <v>14900</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G90" s="7">
         <f>D90*E90</f>
-        <v>18500</v>
+        <v>14900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
       </c>
       <c r="E91" s="7">
-        <v>13900</v>
+        <v>18500</v>
       </c>
       <c r="F91" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G91" s="7">
         <f>D91*E91</f>
-        <v>13900</v>
+        <v>18500</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
       </c>
       <c r="E92" s="7">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" ref="G92" si="6">D92*E92</f>
-        <v>14900</v>
+        <f>D92*E92</f>
+        <v>13900</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>43</v>
@@ -4982,85 +5072,88 @@
       <c r="J92" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="K92" s="41" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="7">
-        <v>13900</v>
+        <v>14900</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G93" s="7">
-        <f>D93*E93</f>
-        <v>13900</v>
+        <f t="shared" ref="G93" si="6">D93*E93</f>
+        <v>14900</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K93" s="41" t="s">
-        <v>280</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
       </c>
       <c r="E94" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>47</v>
+        <v>13900</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G94" s="7">
         <f>D94*E94</f>
-        <v>7500</v>
+        <v>13900</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>53</v>
+        <v>279</v>
+      </c>
+      <c r="K94" s="41" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -5072,11 +5165,11 @@
         <v>47</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="0"/>
+        <f>D95*E95</f>
         <v>7500</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>53</v>
@@ -5087,13 +5180,13 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -5109,7 +5202,7 @@
         <v>7500</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>53</v>
@@ -5120,15 +5213,15 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B97" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" s="11">
+        <v>216</v>
+      </c>
+      <c r="D97" s="6">
         <v>1</v>
       </c>
       <c r="E97" s="7">
@@ -5142,60 +5235,57 @@
         <v>7500</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I97" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I97" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B98" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D98" s="6">
+        <v>217</v>
+      </c>
+      <c r="D98" s="11">
         <v>1</v>
       </c>
       <c r="E98" s="7">
-        <v>9900</v>
+        <v>7500</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G98" s="7">
-        <f>D98*E98</f>
-        <v>9900</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K98" s="41" t="s">
-        <v>268</v>
+        <v>183</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
@@ -5211,7 +5301,7 @@
         <v>9900</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>48</v>
@@ -5220,18 +5310,18 @@
         <v>48</v>
       </c>
       <c r="K99" s="41" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
@@ -5243,169 +5333,169 @@
         <v>47</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="0"/>
+        <f>D100*E100</f>
         <v>9900</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
       </c>
       <c r="E101" s="7">
-        <v>7500</v>
+        <v>9900</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G101" s="7">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>9900</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="K101" s="41" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
       </c>
       <c r="E102" s="7">
-        <v>8900</v>
+        <v>7500</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>7500</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="K102" s="41" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
       </c>
       <c r="E103" s="7">
-        <v>9900</v>
-      </c>
-      <c r="F103" s="29" t="s">
+        <v>8900</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>102</v>
+        <v>224</v>
+      </c>
+      <c r="K103" s="41" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
       </c>
       <c r="E104" s="7">
-        <v>13900</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>229</v>
+        <v>9900</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="0"/>
-        <v>13900</v>
+        <v>9900</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K104" s="41" t="s">
-        <v>228</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
@@ -5414,70 +5504,70 @@
         <v>13900</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="0"/>
         <v>13900</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="K105" s="41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B106" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D106" s="11">
+        <v>228</v>
+      </c>
+      <c r="D106" s="6">
         <v>1</v>
       </c>
       <c r="E106" s="7">
-        <v>19900</v>
-      </c>
-      <c r="F106" s="31" t="s">
-        <v>33</v>
+        <v>13900</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="G106" s="7">
-        <f>D106*E106</f>
-        <v>19900</v>
+        <f t="shared" si="0"/>
+        <v>13900</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I106" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J106" s="16" t="s">
-        <v>43</v>
+        <v>183</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="K106" s="41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D107" s="11">
         <v>1</v>
@@ -5489,11 +5579,11 @@
         <v>33</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="0"/>
+        <f>D107*E107</f>
         <v>19900</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>43</v>
@@ -5502,34 +5592,34 @@
         <v>43</v>
       </c>
       <c r="K107" s="41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D108" s="11">
         <v>1</v>
       </c>
       <c r="E108" s="7">
-        <v>15500</v>
+        <v>19900</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G108" s="7">
-        <f>D108*E108</f>
-        <v>15500</v>
+        <f t="shared" si="0"/>
+        <v>19900</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I108" s="16" t="s">
         <v>43</v>
@@ -5538,51 +5628,54 @@
         <v>43</v>
       </c>
       <c r="K108" s="41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" s="6">
+        <v>232</v>
+      </c>
+      <c r="D109" s="11">
         <v>1</v>
       </c>
       <c r="E109" s="7">
         <v>15500</v>
       </c>
-      <c r="F109" s="12" t="s">
+      <c r="F109" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="0"/>
+        <f>D109*E109</f>
         <v>15500</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I109" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I109" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J109" s="10" t="s">
+      <c r="J109" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="K109" s="41" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D110" s="6">
         <v>1</v>
@@ -5590,15 +5683,15 @@
       <c r="E110" s="7">
         <v>15500</v>
       </c>
-      <c r="F110" s="17" t="s">
-        <v>67</v>
+      <c r="F110" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G110" s="7">
         <f t="shared" si="0"/>
         <v>15500</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>43</v>
@@ -5609,298 +5702,295 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>237</v>
+        <v>180</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D111" s="6">
         <v>1</v>
       </c>
       <c r="E111" s="7">
-        <v>27000</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>13</v>
+        <v>15500</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G111" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>143</v>
+        <v>180</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
       </c>
       <c r="E112" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>33</v>
+        <v>27000</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G112" s="7">
-        <f t="shared" ref="G112" si="7">D112*E112</f>
-        <v>14900</v>
+        <f t="shared" si="0"/>
+        <v>27000</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="K112" s="41" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>75</v>
+        <v>180</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
       </c>
       <c r="E113" s="7">
-        <v>17900</v>
+        <v>14900</v>
       </c>
       <c r="F113" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" si="0"/>
-        <v>17900</v>
+        <f t="shared" ref="G113" si="7">D113*E113</f>
+        <v>14900</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="K113" s="41" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>72</v>
+        <v>180</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
       <c r="E114" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>13</v>
+        <v>17900</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G114" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>17900</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>72</v>
+        <v>180</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="11">
+        <v>240</v>
+      </c>
+      <c r="D115" s="6">
         <v>1</v>
       </c>
       <c r="E115" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F115" s="27" t="s">
+        <v>12000</v>
+      </c>
+      <c r="F115" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I115" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="J115" s="16" t="s">
-        <v>245</v>
+        <v>183</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="K115" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>72</v>
+        <v>180</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D116" s="6">
+        <v>242</v>
+      </c>
+      <c r="D116" s="11">
         <v>1</v>
       </c>
       <c r="E116" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F116" s="8" t="s">
+        <v>11000</v>
+      </c>
+      <c r="F116" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>16</v>
+        <v>183</v>
+      </c>
+      <c r="I116" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="J116" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
       </c>
       <c r="E117" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F117" s="28" t="s">
-        <v>213</v>
+        <v>12000</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G117" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="K117" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B118" s="22" t="s">
-        <v>139</v>
+        <v>180</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
       </c>
       <c r="E118" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>13</v>
+        <v>15000</v>
+      </c>
+      <c r="F118" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G118" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B119" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -5912,136 +6002,139 @@
         <v>13</v>
       </c>
       <c r="G119" s="7">
-        <f t="shared" ref="G119" si="8">D119*E119</f>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K119" s="41" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B120" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
       </c>
       <c r="E120" s="7">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" si="0"/>
-        <v>8500</v>
+        <f t="shared" ref="G120" si="8">D120*E120</f>
+        <v>8000</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B121" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
       </c>
       <c r="E121" s="7">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="0"/>
-        <v>7000</v>
+        <f>D121*E121</f>
+        <v>8500</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="K121" s="41" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="D122" s="6">
         <v>1</v>
       </c>
       <c r="E122" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F122" s="28" t="s">
-        <v>213</v>
+        <v>9000</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="0"/>
-        <v>14000</v>
+        <f>D122*E122</f>
+        <v>9000</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="K122" s="41" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
@@ -6049,375 +6142,442 @@
       <c r="E123" s="7">
         <v>7000</v>
       </c>
-      <c r="F123" s="12" t="s">
-        <v>33</v>
+      <c r="F123" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G123" s="7">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K123" s="50" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="D124" s="6">
         <v>1</v>
       </c>
       <c r="E124" s="7">
-        <v>9900</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>33</v>
+        <v>14000</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" ref="G124:G125" si="9">D124*E124</f>
-        <v>9900</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="K124" s="50" t="s">
-        <v>312</v>
+        <v>255</v>
+      </c>
+      <c r="K124" s="41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B125" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="C125" s="48" t="s">
-        <v>298</v>
+        <v>180</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
       </c>
       <c r="E125" s="7">
-        <v>52000</v>
+        <v>7000</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G125" s="7">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I125" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J125" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K125" s="50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+      <c r="E126" s="7">
+        <v>9900</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" s="7">
+        <f t="shared" ref="G126:G127" si="9">D126*E126</f>
+        <v>9900</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="K126" s="50" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="7">
+        <v>52000</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G127" s="7">
         <f t="shared" si="9"/>
         <v>52000</v>
       </c>
-      <c r="H125" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I125" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="J125" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="K125" s="50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B126" s="43" t="s">
+      <c r="H127" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I127" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="J127" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="K127" s="50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+      <c r="E128" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G128" s="7">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I128" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" s="6">
+      <c r="J128" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K128" s="41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D129" s="6">
         <v>1</v>
       </c>
-      <c r="E126" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I126" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="J126" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="K126" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B127" s="34" t="s">
+      <c r="E129" s="7">
+        <v>17000</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" ref="G129" si="10">D129*E129</f>
+        <v>17000</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I129" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="J129" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="K129" s="41" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D127" s="6">
-        <v>1</v>
-      </c>
-      <c r="E127" s="7">
-        <v>17000</v>
-      </c>
-      <c r="F127" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="G127" s="7">
-        <f t="shared" ref="G127" si="10">D127*E127</f>
-        <v>17000</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="I127" s="10" t="s">
+      <c r="F130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J127" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K127" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H128" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I128" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A31)</f>
-        <v>En curso = 30</v>
-      </c>
-      <c r="B129" s="14" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B12:B26,B36:B50,B62:B110)</f>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A30)</f>
+        <v>En curso = 29</v>
+      </c>
+      <c r="B131" s="14" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B13:B25,B35:B51,B63:B111)</f>
         <v>Ivrea = 79</v>
       </c>
-      <c r="C129" s="45" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C127)</f>
-        <v>Series en total = 126</v>
-      </c>
-      <c r="D129" s="6">
-        <f>SUM(D2:D127)</f>
-        <v>565</v>
-      </c>
-      <c r="E129" s="7">
-        <f>SUM(E2:E127)</f>
-        <v>1427466</v>
-      </c>
-      <c r="F129" s="46" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F9,F12:F15,F27,F32:F35,F40:F51,F55:F57,F59:F61,F69:F88,F111,F114:F116,F118:F121)</f>
-        <v>B6 = 63</v>
-      </c>
-      <c r="G129" s="7">
-        <f>SUM(G2:G127)</f>
-        <v>5684598</v>
-      </c>
-      <c r="H129" s="13" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H7,H14,H28:H29,H32:H58,H60:H63,H69,H71:H127)</f>
-        <v>Finalizados = 93</v>
-      </c>
-      <c r="I129" s="46" t="str">
-        <f>"B6 = " &amp; SUM(D2:D10,D12:D15,D27,D32:D35,D40:D51,D55:D57,D59:D61,D69:D88,D111,D114:D116,D118:D121)</f>
-        <v>B6 = 300</v>
-      </c>
-      <c r="J129" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K8:K18,K20:K25,K27:K32,K34:K35,K38:K42,K51:K56,K58,K71,K81:K91,K93,K99:K100,K102,K104:K108,K113:K120,K122:K127)</f>
-        <v>Series = 77</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="str">
-        <f>"Completado = " &amp; COUNTA(A32:A58)</f>
-        <v>Completado = 27</v>
-      </c>
-      <c r="B130" s="5" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B11,B32:B35,B59:B61)</f>
-        <v>Panini = 17</v>
-      </c>
-      <c r="F130" s="39" t="str">
-        <f>"C6 = " &amp; COUNTA(F16:F24,F36:F39,F58,F62:F68,F94:F103)</f>
+      <c r="C131" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C129)</f>
+        <v>Series en total = 128</v>
+      </c>
+      <c r="D131" s="6">
+        <f>SUM(D2:D129)</f>
+        <v>576</v>
+      </c>
+      <c r="E131" s="7">
+        <f>SUM(E2:E129)</f>
+        <v>1447466</v>
+      </c>
+      <c r="F131" s="46" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F11,F13:F14,F26,F31:F34,F39:F52,F56:F58,F60:F62,F70:F89,F112,F115:F117,F119:F123)</f>
+        <v>B6 = 66</v>
+      </c>
+      <c r="G131" s="7">
+        <f>SUM(G2:G129)</f>
+        <v>5792498</v>
+      </c>
+      <c r="H131" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H7,H27:H29,H31:H59,H61:H64,H70,H72:H129)</f>
+        <v>Finalizados = 96</v>
+      </c>
+      <c r="I131" s="46" t="str">
+        <f>"B6 = " &amp; SUM(D2:D11,D13:D14,D26,D31:D34,D39:D52,D56:D58,D60:D62,D70:D89,D112,D115:D117,D119:D123)</f>
+        <v>B6 = 306</v>
+      </c>
+      <c r="J131" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K24,K26:K31,K33:K34,K37:K43,K52:K57,K59,K72,K82:K92,K94,K100:K101,K103,K105:K109,K113:K122,K124:K129)</f>
+        <v>Series = 80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="20" t="str">
+        <f>"Completado = " &amp; COUNTA(A31:A59)</f>
+        <v>Completado = 29</v>
+      </c>
+      <c r="B132" s="5" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B12,B31:B34,B60:B62)</f>
+        <v>Panini = 18</v>
+      </c>
+      <c r="F132" s="39" t="str">
+        <f>"C6 = " &amp; COUNTA(F15:F23,F35:F38,F59,F63:F69,F95:F104)</f>
         <v>C6 = 31</v>
       </c>
-      <c r="H130" s="9" t="str">
-        <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H13,H15:H27,H31,H59,H64:H68,H70)</f>
+      <c r="H132" s="9" t="str">
+        <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H26,H30,H60,H65:H69,H71)</f>
         <v>En publicación = 32</v>
       </c>
-      <c r="I130" s="39" t="str">
-        <f>"C6 = " &amp; SUM(D16:D24,D36:D39,D58,D62:D68,D94:D103)</f>
-        <v>C6 = 203</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A59:A70)</f>
+      <c r="I132" s="39" t="str">
+        <f>"C6 = " &amp; SUM(D15:D23,D35:D38,D59,D63:D69,D95:D104)</f>
+        <v>C6 = 207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="25" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A60:A71)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B131" s="22" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B54,B118:B124)</f>
-        <v>Kemuri = 8</v>
-      </c>
-      <c r="F131" s="40" t="str">
-        <f>"A5 = " &amp; COUNTA(F11,F26,F28:F30,F52:F54,F106:F109,F112:F113,F123:F126)</f>
+      <c r="B133" s="22" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B55,B119:B126)</f>
+        <v>Kemuri = 9</v>
+      </c>
+      <c r="F133" s="40" t="str">
+        <f>"A5 = " &amp; COUNTA(F12,F25,F27:F29,F53:F55,F107:F110,F113:F114,F125:F128)</f>
         <v>A5 = 18</v>
       </c>
-      <c r="I131" s="40" t="str">
-        <f>"A5 = " &amp; SUM(D11,D26,D28:D30,D52:D54,D106:D109,D112:D113,D123:D126)</f>
-        <v>A5 = 40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A71:A127)</f>
-        <v>Tomo único = 57</v>
-      </c>
-      <c r="B132" s="23" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B55:B56,B113)</f>
+      <c r="I133" s="40" t="str">
+        <f>"A5 = " &amp; SUM(D12,D25,D27:D29,D53:D55,D107:D110,D113:D114,D125:D128)</f>
+        <v>A5 = 41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A72:A129)</f>
+        <v>Tomo único = 58</v>
+      </c>
+      <c r="B134" s="23" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B56:B57,B114)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F132" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F89:F93,F117,F122,F127:F127)</f>
+      <c r="F134" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F90:F94,F118,F124,F129:F129)</f>
         <v>B6x2 = 8</v>
       </c>
-      <c r="I132" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D89:D93,D117,D122,D127:D127)</f>
+      <c r="I134" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D90:D94,D118,D124,D129:D129)</f>
         <v>B6x2 = 8</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="3" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B27,B114:B117)</f>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B26,B115:B118)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F133" s="30" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F104:F105)</f>
+      <c r="F135" s="30" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F105:F106)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I133" s="30" t="str">
-        <f>"C6x2 = " &amp; SUM(D104:D105)</f>
+      <c r="I135" s="30" t="str">
+        <f>"C6x2 = " &amp; SUM(D105:D106)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="36" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B28:B29,B51:B52,B113)</f>
+    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="36" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B27:B28,B52:B53,B114)</f>
         <v>Planeta Cómic = 5</v>
       </c>
-      <c r="F134" s="17" t="str">
-        <f>"A5 color = " &amp; COUNTA(F25,F31,F110)</f>
+      <c r="F136" s="17" t="str">
+        <f>"A5 color = " &amp; COUNTA(F24,F30,F111)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I134" s="17" t="str">
-        <f>"A5 color = " &amp; SUM(D110,D25,D31)</f>
+      <c r="I136" s="17" t="str">
+        <f>"A5 color = " &amp; SUM(D111,D24,D30)</f>
         <v>A5 color = 12</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="24" t="str">
-        <f>"Utopia = " &amp; COUNTA(B57:B58)</f>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="24" t="str">
+        <f>"Utopia = " &amp; COUNTA(B58:B59)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="21" t="str">
-        <f>"Merci = " &amp; COUNTA(B53)</f>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="21" t="str">
+        <f>"Merci = " &amp; COUNTA(B54)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="32" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B111)</f>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="32" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B112)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="37" t="str">
-        <f>"Moztros = " &amp; COUNTA(B30,B127)</f>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B29,B129)</f>
         <v>Moztros = 2</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="38" t="str">
-        <f>"Random Comics = " &amp; COUNTA(B31)</f>
+    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="38" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B30)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="43" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B126)</f>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="43" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B128)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="47" t="str">
-        <f>"Kibook Ediciones = " &amp; COUNTA(B125)</f>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="47" t="str">
+        <f>"Kibook Ediciones = " &amp; COUNTA(B127)</f>
         <v>Kibook Ediciones = 1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7275,44 +7435,76 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F2:F128">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F9 F11:F120 F122:F130">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F36:F128 F8:F34">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
+  <conditionalFormatting sqref="F3 F8:F9 F11:F33 F35:F120 F122:F130">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
+  <conditionalFormatting sqref="F14 F39">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="42" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="44" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H7 H14 H60:H63 H69 H71:H128 H28:H30">
-    <cfRule type="containsText" dxfId="1" priority="30" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="H4:H7 H61:H64 H70 H27:H29 H31:H59 H72:H120 H122:H130">
+    <cfRule type="containsText" dxfId="9" priority="39" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H58">
-    <cfRule type="containsText" dxfId="0" priority="25" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H32))))</formula>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F121">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F121">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H121">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H121))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\proyectos\Mangas\mangas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4F7207-7112-46D0-8551-8C5379E6C3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E7404-B93C-4EEF-A3F5-A8567004071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="324">
   <si>
     <t>Estado</t>
   </si>
@@ -906,9 +906,6 @@
     <t>Spy x Family - 11 al 14</t>
   </si>
   <si>
-    <t>Gachiakuta - 2 al 8</t>
-  </si>
-  <si>
     <t>Kibook Ediciones</t>
   </si>
   <si>
@@ -921,9 +918,6 @@
     <t>Obaru</t>
   </si>
   <si>
-    <t>Blue Lock - 13 al 29</t>
-  </si>
-  <si>
     <t>Hikaru Ga Shinda Natsu - 2 al 5</t>
   </si>
   <si>
@@ -939,9 +933,6 @@
     <t>The Blue Summer and You #2</t>
   </si>
   <si>
-    <t>Blue Lock : Episode Nagi - 1 al 5</t>
-  </si>
-  <si>
     <t>Historias de Sexo de Chicas JK</t>
   </si>
   <si>
@@ -954,9 +945,6 @@
     <t>Sakamoto Days - 3 al 15</t>
   </si>
   <si>
-    <t>Dandadan - 8 al 15</t>
-  </si>
-  <si>
     <t>Houseki no Kuni - 3 al 8</t>
   </si>
   <si>
@@ -991,6 +979,30 @@
   </si>
   <si>
     <t>Moyori Mori</t>
+  </si>
+  <si>
+    <t>Dandadan - 8 al 16</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 30</t>
+  </si>
+  <si>
+    <t>Blue Lock : Episode Nagi - 1 al 6</t>
+  </si>
+  <si>
+    <t>Gachiakuta - 2 al 9</t>
+  </si>
+  <si>
+    <t>Adaban</t>
+  </si>
+  <si>
+    <t>Dai Tezuka</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>Adaban - 1</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1498,71 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0066"/>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3333CC"/>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0EAE02"/>
+          <bgColor rgb="FF0EAE02"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1855,7 +1931,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C129"/>
+      <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1928,7 +2004,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G128" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G129" si="0">D2*E2</f>
         <v>253000</v>
       </c>
       <c r="H2" s="44" t="s">
@@ -1941,7 +2017,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2030,14 +2106,14 @@
         <v>18</v>
       </c>
       <c r="E5" s="7">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>162000</v>
+        <v>198000</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>274</v>
@@ -2096,29 +2172,32 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>110000</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>183</v>
+        <v>31500</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2129,32 +2208,32 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>31500</v>
+        <v>62500</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2165,32 +2244,32 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6">
+        <v>91</v>
+      </c>
+      <c r="D9" s="11">
         <v>5</v>
       </c>
       <c r="E9" s="7">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>62500</v>
+        <f>D9*E9</f>
+        <v>55000</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2201,32 +2280,32 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="D10" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="7">
         <f>D10*E10</f>
-        <v>55000</v>
+        <v>24000</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2237,104 +2316,104 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="11">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
+        <v>13000</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="7">
-        <f>D11*E11</f>
-        <v>11000</v>
+        <f t="shared" si="0"/>
+        <v>13000</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>317</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
+      <c r="B12" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="11">
+        <v>7</v>
       </c>
       <c r="E12" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>33</v>
+        <v>8900</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>62300</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>59500</v>
+        <f t="shared" ref="G13" si="1">D13*E13</f>
+        <v>44500</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>41</v>
+      <c r="I13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2345,32 +2424,32 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="D14" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>42500</v>
+        <v>8900</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2387,14 +2466,14 @@
         <v>14</v>
       </c>
       <c r="E15" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>105000</v>
+        <v>119000</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>274</v>
@@ -2420,17 +2499,17 @@
         <v>49</v>
       </c>
       <c r="D16" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ref="G16" si="1">D16*E16</f>
-        <v>217500</v>
+        <f t="shared" ref="G16" si="2">D16*E16</f>
+        <v>255000</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>274</v>
@@ -2442,7 +2521,7 @@
         <v>51</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2456,17 +2535,17 @@
         <v>265</v>
       </c>
       <c r="D17" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>51000</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>274</v>
@@ -2478,7 +2557,7 @@
         <v>51</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,14 +2607,14 @@
         <v>15</v>
       </c>
       <c r="E19" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>112500</v>
+        <v>127500</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>274</v>
@@ -2547,7 +2626,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2561,17 +2640,17 @@
         <v>58</v>
       </c>
       <c r="D20" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>112500</v>
+        <v>136000</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>274</v>
@@ -2583,7 +2662,7 @@
         <v>59</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,17 +2676,17 @@
         <v>60</v>
       </c>
       <c r="D21" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>76500</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>274</v>
@@ -2619,7 +2698,7 @@
         <v>61</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,14 +2715,14 @@
         <v>3</v>
       </c>
       <c r="E22" s="7">
-        <v>7500</v>
+        <v>8900</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22" si="2">D22*E22</f>
-        <v>22500</v>
+        <f t="shared" ref="G22" si="3">D22*E22</f>
+        <v>26700</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>274</v>
@@ -2655,7 +2734,7 @@
         <v>64</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,20 +2745,20 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D23" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>274</v>
@@ -2691,7 +2770,7 @@
         <v>106</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,17 +2784,17 @@
         <v>65</v>
       </c>
       <c r="D24" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7">
-        <v>22500</v>
+        <v>23900</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>202500</v>
+        <v>239000</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>274</v>
@@ -2727,7 +2806,7 @@
         <v>68</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2744,14 +2823,14 @@
         <v>13</v>
       </c>
       <c r="E25" s="7">
-        <v>9000</v>
+        <v>10900</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>117000</v>
+        <v>141700</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>274</v>
@@ -2777,14 +2856,14 @@
         <v>8</v>
       </c>
       <c r="E26" s="7">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>88000</v>
+        <v>96000</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>274</v>
@@ -2796,7 +2875,7 @@
         <v>73</v>
       </c>
       <c r="K26" s="41" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2813,14 +2892,14 @@
         <v>2</v>
       </c>
       <c r="E27" s="7">
-        <v>15400</v>
+        <v>16600</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>30800</v>
+        <v>33200</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>183</v>
@@ -2832,7 +2911,7 @@
         <v>76</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2875,72 +2954,72 @@
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>258</v>
+      <c r="B29" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="D29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="7">
-        <v>18900</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>33</v>
+        <v>32000</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G29" s="7">
-        <f>D29*E29</f>
-        <v>56700</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>183</v>
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>80</v>
+      <c r="A30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" s="6">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E30" s="7">
-        <v>32000</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>66</v>
+        <v>12500</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="0"/>
-        <v>64000</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>274</v>
+        <v>350000</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>280</v>
+        <v>38</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2951,32 +3030,29 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D31" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E31" s="7">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="0"/>
-        <v>350000</v>
+        <f>D31*E31</f>
+        <v>143000</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,14 +3174,14 @@
         <v>23</v>
       </c>
       <c r="E35" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>172500</v>
+        <v>195500</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>183</v>
@@ -3131,14 +3207,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>102000</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>183</v>
@@ -3164,14 +3240,14 @@
         <v>8</v>
       </c>
       <c r="E37" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>183</v>
@@ -3200,14 +3276,14 @@
         <v>11</v>
       </c>
       <c r="E38" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="7">
         <f>D38*E38</f>
-        <v>82500</v>
+        <v>93500</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>183</v>
@@ -3236,14 +3312,14 @@
         <v>12</v>
       </c>
       <c r="E39" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="7">
         <f>D39*E39</f>
-        <v>102000</v>
+        <v>106800</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>183</v>
@@ -3255,7 +3331,7 @@
         <v>43</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,14 +3348,14 @@
         <v>16</v>
       </c>
       <c r="E40" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="7">
         <f>D40*E40</f>
-        <v>136000</v>
+        <v>142400</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>183</v>
@@ -3291,7 +3367,7 @@
         <v>39</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3308,14 +3384,14 @@
         <v>2</v>
       </c>
       <c r="E41" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>183</v>
@@ -3344,14 +3420,14 @@
         <v>3</v>
       </c>
       <c r="E42" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>183</v>
@@ -3380,14 +3456,14 @@
         <v>3</v>
       </c>
       <c r="E43" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>183</v>
@@ -3416,14 +3492,14 @@
         <v>13</v>
       </c>
       <c r="E44" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
-        <v>110500</v>
+        <v>115700</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>183</v>
@@ -3449,14 +3525,14 @@
         <v>8</v>
       </c>
       <c r="E45" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>71200</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>183</v>
@@ -3482,14 +3558,14 @@
         <v>4</v>
       </c>
       <c r="E46" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="7">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>35600</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>183</v>
@@ -3515,14 +3591,14 @@
         <v>3</v>
       </c>
       <c r="E47" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>183</v>
@@ -3548,14 +3624,14 @@
         <v>3</v>
       </c>
       <c r="E48" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>183</v>
@@ -3581,14 +3657,14 @@
         <v>3</v>
       </c>
       <c r="E49" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
-        <v>25500</v>
+        <v>26700</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>183</v>
@@ -3614,14 +3690,14 @@
         <v>2</v>
       </c>
       <c r="E50" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" ref="G50" si="3">D50*E50</f>
-        <v>17000</v>
+        <f t="shared" ref="G50" si="4">D50*E50</f>
+        <v>17800</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>183</v>
@@ -3647,14 +3723,14 @@
         <v>3</v>
       </c>
       <c r="E51" s="7">
-        <v>7166</v>
+        <v>7500</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="7">
         <f>D51*E51</f>
-        <v>21498</v>
+        <v>22500</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>183</v>
@@ -3680,14 +3756,14 @@
         <v>4</v>
       </c>
       <c r="E52" s="7">
-        <v>12300</v>
+        <v>14900</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
-        <v>49200</v>
+        <v>59600</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>183</v>
@@ -3716,14 +3792,14 @@
         <v>5</v>
       </c>
       <c r="E53" s="7">
-        <v>13300</v>
+        <v>14100</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>66500</v>
+        <v>70500</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>183</v>
@@ -3778,72 +3854,72 @@
       <c r="A55" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>137</v>
+      <c r="B55" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="D55" s="6">
         <v>3</v>
       </c>
       <c r="E55" s="7">
-        <v>12500</v>
+        <v>18900</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="0"/>
-        <v>37500</v>
+        <f>D55*E55</f>
+        <v>56700</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="K55" s="41" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="23" t="s">
-        <v>141</v>
+      <c r="B56" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D56" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>13</v>
+        <v>13500</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
-        <v>44500</v>
+        <v>40500</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K56" s="41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3854,65 +3930,68 @@
         <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D57" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="7">
-        <v>8900</v>
+        <v>11900</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>59500</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K57" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>149</v>
+      <c r="B58" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D58" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="7">
-        <v>9000</v>
+        <v>11900</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>35700</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="K58" s="41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,7 +4002,7 @@
         <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
@@ -3932,7 +4011,7 @@
         <v>9000</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
@@ -3942,46 +4021,46 @@
         <v>183</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K59" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>11</v>
+      <c r="A60" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D60" s="6">
         <v>2</v>
       </c>
       <c r="E60" s="7">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="H60" s="44" t="s">
-        <v>274</v>
+        <v>18000</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="K60" s="41" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3992,29 +4071,29 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="7">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>183</v>
+        <v>24000</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4025,62 +4104,62 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="7">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>11000</v>
       </c>
       <c r="H62" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>36</v>
+      <c r="B63" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E63" s="7">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>37500</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4091,29 +4170,29 @@
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D64" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E64" s="7">
-        <v>17700</v>
+        <v>7500</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>17700</v>
+        <v>90000</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,29 +4203,29 @@
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D65" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E65" s="7">
-        <v>7500</v>
+        <v>17700</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
-        <v>45000</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>274</v>
+        <v>17700</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,29 +4236,29 @@
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D66" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E66" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>51000</v>
       </c>
       <c r="H66" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,29 +4269,29 @@
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D67" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>34000</v>
       </c>
       <c r="H67" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4223,29 +4302,29 @@
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D68" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E68" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>42500</v>
       </c>
       <c r="H68" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,29 +4335,29 @@
         <v>36</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
       </c>
       <c r="E69" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="H69" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4289,29 +4368,29 @@
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D70" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" s="7">
         <v>8500</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="0"/>
-        <v>42500</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>183</v>
+        <v>8500</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,98 +4401,98 @@
         <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D71" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
-      </c>
-      <c r="H71" s="44" t="s">
+        <v>44500</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7">
+        <v>8900</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H72" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I71" s="10" t="s">
+      <c r="I72" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J72" s="10" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D72" s="11">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="7">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" s="41" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>36</v>
+      <c r="B73" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="6">
+        <v>182</v>
+      </c>
+      <c r="D73" s="11">
         <v>1</v>
       </c>
       <c r="E73" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F73" s="8" t="s">
+        <v>18000</v>
+      </c>
+      <c r="F73" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I73" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>39</v>
+      <c r="I73" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,29 +4503,29 @@
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
       </c>
       <c r="E74" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,29 +4536,29 @@
         <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
       </c>
       <c r="E75" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4490,29 +4569,29 @@
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
       </c>
       <c r="E76" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4523,29 +4602,29 @@
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
       </c>
       <c r="E77" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,20 +4635,20 @@
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
       </c>
       <c r="E78" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" ref="G78" si="4">D78*E78</f>
-        <v>8500</v>
+        <f t="shared" si="0"/>
+        <v>8900</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>183</v>
@@ -4589,20 +4668,20 @@
         <v>36</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
       </c>
       <c r="E79" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" si="0"/>
-        <v>8500</v>
+        <f t="shared" ref="G79" si="5">D79*E79</f>
+        <v>8900</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>183</v>
@@ -4622,29 +4701,29 @@
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
       </c>
       <c r="E80" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H80" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4655,29 +4734,29 @@
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
       </c>
       <c r="E81" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H81" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4688,32 +4767,29 @@
         <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
       </c>
       <c r="E82" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H82" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="K82" s="41" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4724,32 +4800,32 @@
         <v>36</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
       </c>
       <c r="E83" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K83" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4760,20 +4836,20 @@
         <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
       </c>
       <c r="E84" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>183</v>
@@ -4785,7 +4861,7 @@
         <v>198</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4796,32 +4872,32 @@
         <v>36</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
       </c>
       <c r="E85" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K85" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4832,32 +4908,32 @@
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
       </c>
       <c r="E86" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="7">
-        <f>D86*E86</f>
-        <v>8500</v>
+        <f t="shared" si="0"/>
+        <v>8900</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4868,32 +4944,32 @@
         <v>36</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
       </c>
       <c r="E87" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="7">
         <f>D87*E87</f>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K87" s="41" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4904,32 +4980,32 @@
         <v>36</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
       </c>
       <c r="E88" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="7">
         <f>D88*E88</f>
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="H88" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4940,20 +5016,20 @@
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
       </c>
       <c r="E89" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F89" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" ref="G89" si="5">D89*E89</f>
-        <v>8500</v>
+        <f>D89*E89</f>
+        <v>8900</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>183</v>
@@ -4962,10 +5038,10 @@
         <v>206</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="K89" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4976,20 +5052,20 @@
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
       </c>
       <c r="E90" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>211</v>
+        <v>8900</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G90" s="7">
-        <f>D90*E90</f>
-        <v>14900</v>
+        <f t="shared" ref="G90" si="6">D90*E90</f>
+        <v>8900</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>183</v>
@@ -4998,10 +5074,10 @@
         <v>206</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5012,32 +5088,32 @@
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
       </c>
       <c r="E91" s="7">
-        <v>18500</v>
+        <v>16900</v>
       </c>
       <c r="F91" s="28" t="s">
         <v>211</v>
       </c>
       <c r="G91" s="7">
         <f>D91*E91</f>
-        <v>18500</v>
+        <v>16900</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,32 +5124,32 @@
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
       </c>
       <c r="E92" s="7">
-        <v>13900</v>
+        <v>19900</v>
       </c>
       <c r="F92" s="28" t="s">
         <v>211</v>
       </c>
       <c r="G92" s="7">
         <f>D92*E92</f>
-        <v>13900</v>
+        <v>19900</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="K92" s="41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5084,7 +5160,7 @@
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
@@ -5096,7 +5172,7 @@
         <v>211</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" ref="G93" si="6">D93*E93</f>
+        <f>D93*E93</f>
         <v>14900</v>
       </c>
       <c r="H93" s="13" t="s">
@@ -5107,6 +5183,9 @@
       </c>
       <c r="J93" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="K93" s="41" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5117,32 +5196,29 @@
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
       </c>
       <c r="E94" s="7">
-        <v>13900</v>
+        <v>15900</v>
       </c>
       <c r="F94" s="28" t="s">
         <v>211</v>
       </c>
       <c r="G94" s="7">
-        <f>D94*E94</f>
-        <v>13900</v>
+        <f t="shared" ref="G94" si="7">D94*E94</f>
+        <v>15900</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K94" s="41" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5153,29 +5229,32 @@
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
       </c>
       <c r="E95" s="7">
-        <v>7500</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>47</v>
+        <v>14900</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G95" s="7">
         <f>D95*E95</f>
-        <v>7500</v>
+        <v>14900</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>53</v>
+        <v>279</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>53</v>
+        <v>279</v>
+      </c>
+      <c r="K95" s="41" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5186,20 +5265,20 @@
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
       </c>
       <c r="E96" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="0"/>
-        <v>7500</v>
+        <f>D96*E96</f>
+        <v>8500</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>183</v>
@@ -5219,20 +5298,20 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D97" s="6">
         <v>1</v>
       </c>
       <c r="E97" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G97" s="7">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>183</v>
@@ -5248,32 +5327,32 @@
       <c r="A98" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D98" s="11">
+        <v>216</v>
+      </c>
+      <c r="D98" s="6">
         <v>1</v>
       </c>
       <c r="E98" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="H98" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I98" s="16" t="s">
+      <c r="I98" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J98" s="16" t="s">
+      <c r="J98" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5281,36 +5360,33 @@
       <c r="A99" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D99" s="6">
+        <v>217</v>
+      </c>
+      <c r="D99" s="11">
         <v>1</v>
       </c>
       <c r="E99" s="7">
-        <v>9900</v>
+        <v>8500</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G99" s="7">
-        <f>D99*E99</f>
-        <v>9900</v>
+        <f t="shared" si="0"/>
+        <v>8500</v>
       </c>
       <c r="H99" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I99" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J99" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K99" s="41" t="s">
-        <v>266</v>
+      <c r="I99" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,20 +5397,20 @@
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D100" s="6">
         <v>1</v>
       </c>
       <c r="E100" s="7">
-        <v>9900</v>
+        <v>10900</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G100" s="7">
         <f>D100*E100</f>
-        <v>9900</v>
+        <v>10900</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>183</v>
@@ -5346,7 +5422,7 @@
         <v>48</v>
       </c>
       <c r="K100" s="41" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,32 +5433,32 @@
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
       </c>
       <c r="E101" s="7">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <f>D101*E101</f>
+        <v>11900</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>218</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5393,29 +5469,32 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
       </c>
       <c r="E102" s="7">
-        <v>7500</v>
+        <v>10900</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G102" s="7">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>10900</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="K102" s="41" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5426,32 +5505,29 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
       </c>
       <c r="E103" s="7">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K103" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5462,29 +5538,32 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
       </c>
       <c r="E104" s="7">
-        <v>9900</v>
-      </c>
-      <c r="F104" s="29" t="s">
+        <v>9500</v>
+      </c>
+      <c r="F104" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>100</v>
+        <v>224</v>
+      </c>
+      <c r="K104" s="41" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5495,32 +5574,29 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
       </c>
       <c r="E105" s="7">
-        <v>13900</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>227</v>
+        <v>10900</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="0"/>
-        <v>13900</v>
+        <v>10900</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K105" s="41" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,68 +5607,68 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
       </c>
       <c r="E106" s="7">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="F106" s="30" t="s">
         <v>227</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="0"/>
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="K106" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D107" s="11">
+        <v>228</v>
+      </c>
+      <c r="D107" s="6">
         <v>1</v>
       </c>
       <c r="E107" s="7">
-        <v>19900</v>
-      </c>
-      <c r="F107" s="31" t="s">
-        <v>33</v>
+        <v>13500</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="G107" s="7">
-        <f>D107*E107</f>
-        <v>19900</v>
+        <f t="shared" si="0"/>
+        <v>13500</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I107" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>43</v>
+      <c r="I107" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J107" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="K107" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,20 +5679,20 @@
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D108" s="11">
         <v>1</v>
       </c>
       <c r="E108" s="7">
-        <v>19900</v>
+        <v>21500</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="0"/>
-        <v>19900</v>
+        <f>D108*E108</f>
+        <v>21500</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>183</v>
@@ -5628,7 +5704,7 @@
         <v>43</v>
       </c>
       <c r="K108" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5639,20 +5715,20 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D109" s="11">
         <v>1</v>
       </c>
       <c r="E109" s="7">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="F109" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G109" s="7">
-        <f>D109*E109</f>
-        <v>15500</v>
+        <f t="shared" si="0"/>
+        <v>21500</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>183</v>
@@ -5664,40 +5740,43 @@
         <v>43</v>
       </c>
       <c r="K109" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D110" s="6">
+        <v>232</v>
+      </c>
+      <c r="D110" s="11">
         <v>1</v>
       </c>
       <c r="E110" s="7">
-        <v>15500</v>
-      </c>
-      <c r="F110" s="12" t="s">
+        <v>16900</v>
+      </c>
+      <c r="F110" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G110" s="7">
-        <f t="shared" si="0"/>
-        <v>15500</v>
+        <f>D110*E110</f>
+        <v>16900</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I110" s="10" t="s">
+      <c r="I110" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J110" s="10" t="s">
+      <c r="J110" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="K110" s="41" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5708,20 +5787,20 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D111" s="6">
         <v>1</v>
       </c>
       <c r="E111" s="7">
-        <v>15500</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>66</v>
+        <v>16900</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G111" s="7">
         <f t="shared" si="0"/>
-        <v>15500</v>
+        <v>16900</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>183</v>
@@ -5737,196 +5816,193 @@
       <c r="A112" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B112" s="32" t="s">
-        <v>235</v>
+      <c r="B112" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
       </c>
       <c r="E112" s="7">
-        <v>27000</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>13</v>
+        <v>16900</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G112" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>16900</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B113" s="23" t="s">
-        <v>141</v>
+      <c r="B113" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
       </c>
       <c r="E113" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>33</v>
+        <v>27000</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G113" s="7">
-        <f t="shared" ref="G113" si="7">D113*E113</f>
-        <v>14900</v>
+        <f t="shared" si="0"/>
+        <v>27000</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="K113" s="41" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>74</v>
+      <c r="B114" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
       <c r="E114" s="7">
-        <v>17900</v>
+        <v>11900</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" si="0"/>
-        <v>17900</v>
+        <f t="shared" ref="G114" si="8">D114*E114</f>
+        <v>11900</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="K114" s="41" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>71</v>
+      <c r="B115" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
       </c>
       <c r="E115" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>13</v>
+        <v>17900</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G115" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>17900</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="K115" s="41" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="11">
+        <v>240</v>
+      </c>
+      <c r="D116" s="6">
         <v>1</v>
       </c>
       <c r="E116" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F116" s="27" t="s">
+        <v>13000</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G116" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I116" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="J116" s="16" t="s">
-        <v>243</v>
+      <c r="I116" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117" s="6">
+        <v>242</v>
+      </c>
+      <c r="D117" s="11">
         <v>1</v>
       </c>
       <c r="E117" s="7">
         <v>12000</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G117" s="7">
@@ -5936,14 +6012,14 @@
       <c r="H117" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I117" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>16</v>
+      <c r="I117" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="J117" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="K117" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5954,68 +6030,68 @@
         <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
       </c>
       <c r="E118" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F118" s="28" t="s">
-        <v>211</v>
+        <v>12000</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G118" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="22" t="s">
-        <v>137</v>
+      <c r="B119" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
       </c>
       <c r="E119" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>13</v>
+        <v>15000</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G119" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K119" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6026,32 +6102,32 @@
         <v>137</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
       </c>
       <c r="E120" s="7">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G120" s="7">
-        <f t="shared" ref="G120" si="8">D120*E120</f>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6062,20 +6138,20 @@
         <v>137</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
       </c>
       <c r="E121" s="7">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="F121" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G121" s="7">
-        <f>D121*E121</f>
-        <v>8500</v>
+        <f t="shared" ref="G121" si="9">D121*E121</f>
+        <v>10000</v>
       </c>
       <c r="H121" s="13" t="s">
         <v>183</v>
@@ -6087,7 +6163,7 @@
         <v>251</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6098,32 +6174,32 @@
         <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D122" s="6">
         <v>1</v>
       </c>
       <c r="E122" s="7">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G122" s="7">
         <f>D122*E122</f>
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="H122" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="K122" s="41" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6134,29 +6210,32 @@
         <v>137</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
       </c>
       <c r="E123" s="7">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="F123" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="0"/>
-        <v>7000</v>
+        <f>D123*E123</f>
+        <v>10000</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>253</v>
+        <v>315</v>
+      </c>
+      <c r="K123" s="41" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6167,32 +6246,29 @@
         <v>137</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D124" s="6">
         <v>1</v>
       </c>
       <c r="E124" s="7">
-        <v>14000</v>
-      </c>
-      <c r="F124" s="28" t="s">
-        <v>211</v>
+        <v>12000</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G124" s="7">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="H124" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="K124" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6203,32 +6279,32 @@
         <v>137</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
       </c>
       <c r="E125" s="7">
-        <v>7000</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>33</v>
+        <v>16000</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G125" s="7">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="H125" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K125" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="K125" s="41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6239,20 +6315,20 @@
         <v>137</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="D126" s="6">
         <v>1</v>
       </c>
       <c r="E126" s="7">
-        <v>9900</v>
+        <v>8000</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" ref="G126:G127" si="9">D126*E126</f>
-        <v>9900</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="H126" s="13" t="s">
         <v>183</v>
@@ -6264,320 +6340,355 @@
         <v>257</v>
       </c>
       <c r="K126" s="50" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B127" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="C127" s="48" t="s">
-        <v>293</v>
+      <c r="B127" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="D127" s="6">
         <v>1</v>
       </c>
       <c r="E127" s="7">
-        <v>52000</v>
+        <v>11000</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" si="9"/>
-        <v>52000</v>
+        <f t="shared" ref="G127:G128" si="10">D127*E127</f>
+        <v>11000</v>
       </c>
       <c r="H127" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I127" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="J127" s="49" t="s">
-        <v>295</v>
+      <c r="I127" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="K127" s="50" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>270</v>
+      <c r="B128" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="D128" s="6">
         <v>1</v>
       </c>
       <c r="E128" s="7">
-        <v>16000</v>
+        <v>52000</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <f t="shared" si="10"/>
+        <v>52000</v>
       </c>
       <c r="H128" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I128" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="J128" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="K128" s="41" t="s">
-        <v>270</v>
+      <c r="I128" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="J128" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="K128" s="50" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B129" s="34" t="s">
-        <v>258</v>
+      <c r="B129" s="43" t="s">
+        <v>269</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D129" s="6">
         <v>1</v>
       </c>
       <c r="E129" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I129" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J129" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K129" s="41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1</v>
+      </c>
+      <c r="E130" s="7">
         <v>17000</v>
       </c>
-      <c r="F129" s="28" t="s">
+      <c r="F130" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="G129" s="7">
-        <f t="shared" ref="G129" si="10">D129*E129</f>
+      <c r="G130" s="7">
+        <f t="shared" ref="G130" si="11">D130*E130</f>
         <v>17000</v>
       </c>
-      <c r="H129" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I129" s="10" t="s">
+      <c r="H130" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I130" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J129" s="10" t="s">
+      <c r="J130" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K129" s="41" t="s">
+      <c r="K130" s="41" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E131" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="I131" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J131" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="str">
-        <f>"En curso = " &amp; COUNTA(A2:A30)</f>
-        <v>En curso = 29</v>
-      </c>
-      <c r="B131" s="14" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B13:B25,B35:B51,B63:B111)</f>
-        <v>Ivrea = 79</v>
-      </c>
-      <c r="C131" s="45" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C129)</f>
-        <v>Series en total = 128</v>
-      </c>
-      <c r="D131" s="6">
-        <f>SUM(D2:D129)</f>
-        <v>576</v>
-      </c>
-      <c r="E131" s="7">
-        <f>SUM(E2:E129)</f>
-        <v>1447466</v>
-      </c>
-      <c r="F131" s="46" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F11,F13:F14,F26,F31:F34,F39:F52,F56:F58,F60:F62,F70:F89,F112,F115:F117,F119:F123)</f>
-        <v>B6 = 66</v>
-      </c>
-      <c r="G131" s="7">
-        <f>SUM(G2:G129)</f>
-        <v>5792498</v>
-      </c>
-      <c r="H131" s="13" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H7,H27:H29,H31:H59,H61:H64,H70,H72:H129)</f>
+    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="str">
+        <f>"En curso = " &amp; COUNTA(A2:A29)</f>
+        <v>En curso = 28</v>
+      </c>
+      <c r="B132" s="14" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B12:B25,B35:B51,B64:B112)</f>
+        <v>Ivrea = 80</v>
+      </c>
+      <c r="C132" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C130)</f>
+        <v>Series en total = 129</v>
+      </c>
+      <c r="D132" s="6">
+        <f>SUM(D2:D130)</f>
+        <v>585</v>
+      </c>
+      <c r="E132" s="7">
+        <f>SUM(E2:E130)</f>
+        <v>1542900</v>
+      </c>
+      <c r="F132" s="46" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F10,F12:F14,F26,F30:F34,F39:F52,F57:F59,F61:F63,F71:F90,F113,F116:F118,F120:F124)</f>
+        <v>B6 = 67</v>
+      </c>
+      <c r="G132" s="7">
+        <f>SUM(G2:G130)</f>
+        <v>6266600</v>
+      </c>
+      <c r="H132" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H27:H28,H30:H60,H62:H65,H71,H73:H130)</f>
         <v>Finalizados = 96</v>
       </c>
-      <c r="I131" s="46" t="str">
-        <f>"B6 = " &amp; SUM(D2:D11,D13:D14,D26,D31:D34,D39:D52,D56:D58,D60:D62,D70:D89,D112,D115:D117,D119:D123)</f>
-        <v>B6 = 306</v>
-      </c>
-      <c r="J131" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K8:K17,K19:K24,K26:K31,K33:K34,K37:K43,K52:K57,K59,K72,K82:K92,K94,K100:K101,K103,K105:K109,K113:K122,K124:K129)</f>
-        <v>Series = 80</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20" t="str">
-        <f>"Completado = " &amp; COUNTA(A31:A59)</f>
-        <v>Completado = 29</v>
-      </c>
-      <c r="B132" s="5" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B12,B31:B34,B60:B62)</f>
+      <c r="I132" s="46" t="str">
+        <f>"B6 = " &amp; SUM(D2:D10,D12:D14,D26,D30:D34,D39:D52,D57:D59,D61:D63,D71:D90,D113,D116:D118,D120:D124)</f>
+        <v>B6 = 311</v>
+      </c>
+      <c r="J132" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K6,K7:K17,K19:K24,K26:K30,K33:K34,K37:K43,K52:K58,K60,K73,K83:K93,K95,K101:K102,K104,K106:K110,K114:K123,K125:K130)</f>
+        <v>Series = 81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="str">
+        <f>"Completado = " &amp; COUNTA(A30:A60)</f>
+        <v>Completado = 31</v>
+      </c>
+      <c r="B133" s="5" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B11,B30:B34,B61:B63)</f>
         <v>Panini = 18</v>
       </c>
-      <c r="F132" s="39" t="str">
-        <f>"C6 = " &amp; COUNTA(F15:F23,F35:F38,F59,F63:F69,F95:F104)</f>
+      <c r="F133" s="39" t="str">
+        <f>"C6 = " &amp; COUNTA(F15:F23,F35:F38,F60,F64:F70,F96:F105)</f>
         <v>C6 = 31</v>
       </c>
-      <c r="H132" s="9" t="str">
-        <f>"En publicación = " &amp; COUNTA(H2:H6,H8:H26,H30,H60,H65:H69,H71)</f>
-        <v>En publicación = 32</v>
-      </c>
-      <c r="I132" s="39" t="str">
-        <f>"C6 = " &amp; SUM(D15:D23,D35:D38,D59,D63:D69,D95:D104)</f>
-        <v>C6 = 207</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="25" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A60:A71)</f>
+      <c r="H133" s="9" t="str">
+        <f>"En publicación = " &amp; COUNTA(H2:H26,H29,H61,H66:H70,H72)</f>
+        <v>En publicación = 33</v>
+      </c>
+      <c r="I133" s="39" t="str">
+        <f>"C6 = " &amp; SUM(D15:D23,D35:D38,D60,D64:D70,D96:D105)</f>
+        <v>C6 = 210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="25" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A61:A72)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B133" s="22" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B55,B119:B126)</f>
+      <c r="B134" s="22" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B56,B120:B127)</f>
         <v>Kemuri = 9</v>
       </c>
-      <c r="F133" s="40" t="str">
-        <f>"A5 = " &amp; COUNTA(F12,F25,F27:F29,F53:F55,F107:F110,F113:F114,F125:F128)</f>
-        <v>A5 = 18</v>
-      </c>
-      <c r="I133" s="40" t="str">
-        <f>"A5 = " &amp; SUM(D12,D25,D27:D29,D53:D55,D107:D110,D113:D114,D125:D128)</f>
-        <v>A5 = 41</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A72:A129)</f>
+      <c r="F134" s="40" t="str">
+        <f>"A5 = " &amp; COUNTA(F11,F25,F27:F55,F53:F56,F108:F111,F114:F115,F126:F129)</f>
+        <v>A5 = 45</v>
+      </c>
+      <c r="I134" s="40" t="str">
+        <f>"A5 = " &amp; SUM(D11,D25,D27:D55,D53:D56,D108:D111,D114:D115,D126:D129)</f>
+        <v>A5 = 260</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A73:A130)</f>
         <v>Tomo único = 58</v>
       </c>
-      <c r="B134" s="23" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B56:B57,B114)</f>
+      <c r="B135" s="23" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B57:B58,B115)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F134" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F90:F94,F118,F124,F129:F129)</f>
+      <c r="F135" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F91:F95,F119,F125,F130:F130)</f>
         <v>B6x2 = 8</v>
       </c>
-      <c r="I134" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D90:D94,D118,D124,D129:D129)</f>
+      <c r="I135" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D91:D95,D119,D125,D130:D130)</f>
         <v>B6x2 = 8</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="3" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B26,B115:B118)</f>
+    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B26,B116:B119)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F135" s="30" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F105:F106)</f>
+      <c r="F136" s="30" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F106:F107)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I135" s="30" t="str">
-        <f>"C6x2 = " &amp; SUM(D105:D106)</f>
+      <c r="I136" s="30" t="str">
+        <f>"C6x2 = " &amp; SUM(D106:D107)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="36" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B27:B28,B52:B53,B114)</f>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="36" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B27:B28,B52:B53,B115)</f>
         <v>Planeta Cómic = 5</v>
       </c>
-      <c r="F136" s="17" t="str">
-        <f>"A5 color = " &amp; COUNTA(F24,F30,F111)</f>
+      <c r="F137" s="17" t="str">
+        <f>"A5 color = " &amp; COUNTA(F24,F29,F112)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I136" s="17" t="str">
-        <f>"A5 color = " &amp; SUM(D111,D24,D30)</f>
-        <v>A5 color = 12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="24" t="str">
-        <f>"Utopia = " &amp; COUNTA(B58:B59)</f>
+      <c r="I137" s="17" t="str">
+        <f>"A5 color = " &amp; SUM(D112,D24,D29)</f>
+        <v>A5 color = 13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="24" t="str">
+        <f>"Utopia = " &amp; COUNTA(B59:B60)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="21" t="str">
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="21" t="str">
         <f>"Merci = " &amp; COUNTA(B54)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="32" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B112)</f>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="32" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B113)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="37" t="str">
-        <f>"Moztros = " &amp; COUNTA(B29,B129)</f>
+    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B55,B130)</f>
         <v>Moztros = 2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="38" t="str">
-        <f>"Random Comics = " &amp; COUNTA(B30)</f>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="38" t="str">
+        <f>"Random Comics = " &amp; COUNTA(B29)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="43" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B128)</f>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="43" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B129)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="47" t="str">
-        <f>"Kibook Ediciones = " &amp; COUNTA(B127)</f>
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="47" t="str">
+        <f>"Kibook Ediciones = " &amp; COUNTA(B128)</f>
         <v>Kibook Ediciones = 1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7435,79 +7546,109 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F2:F9 F11:F120 F122:F130">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+  <conditionalFormatting sqref="F123:F131 F10:F12 F2:F8 F14:F121">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F8:F9 F11:F33 F35:F120 F122:F130">
-    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
+  <conditionalFormatting sqref="F3 F7:F8 F123:F131 F10:F12 F14:F33 F35:F121">
+    <cfRule type="cellIs" dxfId="23" priority="45" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 F39">
-    <cfRule type="cellIs" dxfId="13" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="49" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="52" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H7 H61:H64 H70 H27:H29 H31:H59 H72:H120 H122:H130">
-    <cfRule type="containsText" dxfId="9" priority="39" operator="containsText" text="En publicacion">
+  <conditionalFormatting sqref="H62:H65 H71 H73:H121 H123:H131 H4:H6 H27:H28 H30:H60">
+    <cfRule type="containsText" dxfId="17" priority="47" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F121">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="F122">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F121">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="F122">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H121))))</formula>
+  <conditionalFormatting sqref="H122">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H122))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\proyectos\Mangas\mangas\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Desktop\proyectos\mangas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08E7404-B93C-4EEF-A3F5-A8567004071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D492CBF-DF68-421C-A51E-2BDA449146F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="328">
   <si>
     <t>Estado</t>
   </si>
@@ -858,9 +858,6 @@
     <t>En publicación</t>
   </si>
   <si>
-    <t>Re:Zero - 13 al 18</t>
-  </si>
-  <si>
     <t>Aku no Hana - 2 al 11</t>
   </si>
   <si>
@@ -897,15 +894,9 @@
     <t>No me Calientes asi</t>
   </si>
   <si>
-    <t>Elden Ring - 1 al 5</t>
-  </si>
-  <si>
     <t>Shangri-la Frontier - 10 al 15</t>
   </si>
   <si>
-    <t>Spy x Family - 11 al 14</t>
-  </si>
-  <si>
     <t>Kibook Ediciones</t>
   </si>
   <si>
@@ -942,9 +933,6 @@
     <t>Hanako-Kun - 4 al 23</t>
   </si>
   <si>
-    <t>Sakamoto Days - 3 al 15</t>
-  </si>
-  <si>
     <t>Houseki no Kuni - 3 al 8</t>
   </si>
   <si>
@@ -981,28 +969,52 @@
     <t>Moyori Mori</t>
   </si>
   <si>
-    <t>Dandadan - 8 al 16</t>
-  </si>
-  <si>
-    <t>Blue Lock - 13 al 30</t>
-  </si>
-  <si>
     <t>Blue Lock : Episode Nagi - 1 al 6</t>
   </si>
   <si>
-    <t>Gachiakuta - 2 al 9</t>
-  </si>
-  <si>
-    <t>Adaban</t>
-  </si>
-  <si>
     <t>Dai Tezuka</t>
   </si>
   <si>
     <t>NON</t>
   </si>
   <si>
-    <t>Adaban - 1</t>
+    <t>Adabana</t>
+  </si>
+  <si>
+    <t>Adabana - 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Re:Zero - 13 al 20</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 32</t>
+  </si>
+  <si>
+    <t>Spy x Family - 11 al 15</t>
+  </si>
+  <si>
+    <t>Gachiakuta - 2 al 10</t>
+  </si>
+  <si>
+    <t>Dandadan - 8 al 17</t>
+  </si>
+  <si>
+    <t>Elden Ring - 1 al 6</t>
+  </si>
+  <si>
+    <t>Sakamoto Days - 3 al 16</t>
+  </si>
+  <si>
+    <t>El Morador de las Tinieblas</t>
+  </si>
+  <si>
+    <t>Girls´ Last Tour - 1</t>
+  </si>
+  <si>
+    <t>Tsukumizu</t>
+  </si>
+  <si>
+    <t>Girls Last Tour</t>
   </si>
 </sst>
 </file>
@@ -1498,71 +1510,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1600,46 +1548,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF0EAE02"/>
           <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0066"/>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3333CC"/>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0EAE02"/>
-          <bgColor rgb="FF0EAE02"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1724,10 +1632,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I133" sqref="I133"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2004,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G129" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G131" si="0">D2*E2</f>
         <v>253000</v>
       </c>
       <c r="H2" s="44" t="s">
@@ -2017,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2053,7 +1957,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2103,7 +2007,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7">
         <v>11000</v>
@@ -2113,7 +2017,7 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>198000</v>
+        <v>220000</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>274</v>
@@ -2125,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2161,7 +2065,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,7 +2137,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2247,7 +2151,7 @@
         <v>91</v>
       </c>
       <c r="D9" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="7">
         <v>11000</v>
@@ -2257,7 +2161,7 @@
       </c>
       <c r="G9" s="7">
         <f>D9*E9</f>
-        <v>55000</v>
+        <v>66000</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>274</v>
@@ -2269,7 +2173,7 @@
         <v>93</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2280,7 +2184,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -2299,13 +2203,13 @@
         <v>274</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2377,7 +2281,7 @@
         <v>41</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2413,7 +2317,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2424,10 +2328,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D14" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7">
         <v>8900</v>
@@ -2437,55 +2341,55 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>17800</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6">
-        <v>14</v>
+        <v>327</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>47</v>
+        <v>14900</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>119000</v>
+        <f t="shared" ref="G15" si="2">D15*E15</f>
+        <v>14900</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>48</v>
+      <c r="I15" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,10 +2400,10 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="11">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15</v>
       </c>
       <c r="E16" s="7">
         <v>8500</v>
@@ -2508,20 +2412,20 @@
         <v>47</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" ref="G16" si="2">D16*E16</f>
-        <v>255000</v>
+        <f t="shared" si="0"/>
+        <v>127500</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2532,10 +2436,10 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="D17" s="11">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E17" s="7">
         <v>8500</v>
@@ -2544,8 +2448,8 @@
         <v>47</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>51000</v>
+        <f t="shared" ref="G17" si="3">D17*E17</f>
+        <v>272000</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>274</v>
@@ -2568,29 +2472,32 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="6">
-        <v>19</v>
+        <v>265</v>
+      </c>
+      <c r="D18" s="11">
+        <v>6</v>
       </c>
       <c r="E18" s="7">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>142500</v>
+        <v>51000</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2601,32 +2508,29 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E19" s="7">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>127500</v>
+        <v>150000</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>303</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2637,9 +2541,9 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="11">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6">
         <v>16</v>
       </c>
       <c r="E20" s="7">
@@ -2656,13 +2560,13 @@
         <v>274</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2673,10 +2577,10 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E21" s="7">
         <v>8500</v>
@@ -2686,19 +2590,19 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>76500</v>
+        <v>144500</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,32 +2613,32 @@
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="D22" s="11">
+        <v>10</v>
       </c>
       <c r="E22" s="7">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22" si="3">D22*E22</f>
-        <v>26700</v>
+        <f t="shared" si="0"/>
+        <v>85000</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,32 +2649,32 @@
         <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="D23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>17000</v>
+        <f t="shared" ref="G23" si="4">D23*E23</f>
+        <v>26700</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2781,32 +2685,32 @@
         <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>294</v>
       </c>
       <c r="D24" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E24" s="7">
-        <v>23900</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>66</v>
+        <v>8500</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>239000</v>
+        <v>17000</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2817,101 +2721,101 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7">
-        <v>10900</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>33</v>
+        <v>23900</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>141700</v>
+        <v>239000</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>71</v>
+      <c r="B26" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D26" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E26" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>13</v>
+        <v>10900</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>96000</v>
+        <v>141700</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K26" s="41" t="s">
-        <v>304</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>74</v>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E27" s="7">
-        <v>16600</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>33</v>
+        <v>12000</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>33200</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>183</v>
+        <v>96000</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2947,7 +2851,7 @@
         <v>79</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2983,7 +2887,7 @@
         <v>82</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3295,7 +3199,7 @@
         <v>57</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3331,7 +3235,7 @@
         <v>43</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3271,7 @@
         <v>39</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" ref="G50" si="4">D50*E50</f>
+        <f t="shared" ref="G50" si="5">D50*E50</f>
         <v>17800</v>
       </c>
       <c r="H50" s="13" t="s">
@@ -3717,7 +3621,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D51" s="6">
         <v>3</v>
@@ -3786,176 +3690,176 @@
         <v>74</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D53" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E53" s="7">
-        <v>14100</v>
+        <v>16600</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="0"/>
-        <v>70500</v>
+        <f>D53*E53</f>
+        <v>33200</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="K53" s="41" t="s">
-        <v>132</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>133</v>
+      <c r="B54" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D54" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" s="7">
-        <v>12000</v>
+        <v>14100</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>70500</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K54" s="41" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>258</v>
+      <c r="B55" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="D55" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
-        <v>18900</v>
+        <v>12000</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="7">
-        <f>D55*E55</f>
-        <v>56700</v>
+        <f t="shared" si="0"/>
+        <v>24000</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="K55" s="41" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>137</v>
+      <c r="B56" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
       </c>
       <c r="E56" s="7">
-        <v>13500</v>
+        <v>18900</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="0"/>
-        <v>40500</v>
+        <f>D56*E56</f>
+        <v>56700</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="K56" s="41" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>141</v>
+      <c r="B57" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D57" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E57" s="7">
-        <v>11900</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>13</v>
+        <v>13500</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>59500</v>
+        <v>40500</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K57" s="41" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3966,10 +3870,10 @@
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D58" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="7">
         <v>11900</v>
@@ -3979,52 +3883,55 @@
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
-        <v>35700</v>
+        <v>59500</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K58" s="41" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>149</v>
+      <c r="B59" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D59" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="7">
-        <v>9000</v>
+        <v>11900</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>35700</v>
       </c>
       <c r="H59" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="K59" s="41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4035,7 +3942,7 @@
         <v>149</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D60" s="6">
         <v>2</v>
@@ -4044,7 +3951,7 @@
         <v>9000</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
@@ -4054,46 +3961,46 @@
         <v>183</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K60" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>11</v>
+      <c r="A61" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D61" s="6">
         <v>2</v>
       </c>
       <c r="E61" s="7">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="H61" s="44" t="s">
-        <v>274</v>
+        <v>18000</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,29 +4011,29 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="7">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>183</v>
+        <v>24000</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4137,62 +4044,62 @@
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" s="7">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>11000</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>36</v>
+      <c r="B64" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E64" s="7">
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>37500</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4203,29 +4110,29 @@
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D65" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E65" s="7">
-        <v>17700</v>
+        <v>7500</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
-        <v>17700</v>
+        <v>90000</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4236,29 +4143,29 @@
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E66" s="7">
-        <v>8500</v>
+        <v>17700</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
-        <v>51000</v>
-      </c>
-      <c r="H66" s="44" t="s">
-        <v>274</v>
+        <v>17700</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4269,10 +4176,10 @@
         <v>36</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D67" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67" s="7">
         <v>8500</v>
@@ -4282,16 +4189,16 @@
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>51000</v>
       </c>
       <c r="H67" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4302,10 +4209,10 @@
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D68" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" s="7">
         <v>8500</v>
@@ -4315,16 +4222,16 @@
       </c>
       <c r="G68" s="7">
         <f t="shared" si="0"/>
-        <v>42500</v>
+        <v>34000</v>
       </c>
       <c r="H68" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4335,10 +4242,10 @@
         <v>36</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D69" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69" s="7">
         <v>8500</v>
@@ -4348,16 +4255,16 @@
       </c>
       <c r="G69" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>42500</v>
       </c>
       <c r="H69" s="44" t="s">
         <v>274</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4275,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -4387,10 +4294,10 @@
         <v>274</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4401,29 +4308,29 @@
         <v>36</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E71" s="7">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="0"/>
-        <v>44500</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>183</v>
+        <v>8500</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4434,10 +4341,10 @@
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D72" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E72" s="7">
         <v>8900</v>
@@ -4447,85 +4354,85 @@
       </c>
       <c r="G72" s="7">
         <f t="shared" si="0"/>
+        <v>44500</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7">
         <v>8900</v>
       </c>
-      <c r="H72" s="44" t="s">
+      <c r="F73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H73" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="I72" s="10" t="s">
+      <c r="I73" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J72" s="10" t="s">
+      <c r="J73" s="10" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="11">
-        <v>1</v>
-      </c>
-      <c r="E73" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="7">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K73" s="41" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>36</v>
+      <c r="B74" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D74" s="6">
+        <v>182</v>
+      </c>
+      <c r="D74" s="11">
         <v>1</v>
       </c>
       <c r="E74" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F74" s="8" t="s">
+        <v>18000</v>
+      </c>
+      <c r="F74" s="27" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="7">
         <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>18000</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I74" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>39</v>
+      <c r="I74" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="41" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4536,7 +4443,7 @@
         <v>36</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4555,10 +4462,10 @@
         <v>183</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4569,7 +4476,7 @@
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4588,10 +4495,10 @@
         <v>183</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4602,7 +4509,7 @@
         <v>36</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4621,10 +4528,10 @@
         <v>183</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,7 +4542,7 @@
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -4654,10 +4561,10 @@
         <v>183</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4575,7 @@
         <v>36</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4680,7 +4587,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="7">
-        <f t="shared" ref="G79" si="5">D79*E79</f>
+        <f t="shared" si="0"/>
         <v>8900</v>
       </c>
       <c r="H79" s="13" t="s">
@@ -4701,7 +4608,7 @@
         <v>36</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4713,7 +4620,7 @@
         <v>13</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G80" si="6">D80*E80</f>
         <v>8900</v>
       </c>
       <c r="H80" s="13" t="s">
@@ -4734,7 +4641,7 @@
         <v>36</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4753,10 +4660,10 @@
         <v>183</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4767,7 +4674,7 @@
         <v>36</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4786,10 +4693,10 @@
         <v>183</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4800,7 +4707,7 @@
         <v>36</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4819,13 +4726,10 @@
         <v>183</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>196</v>
+        <v>109</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="K83" s="41" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4836,7 +4740,7 @@
         <v>36</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4855,13 +4759,13 @@
         <v>183</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,7 +4776,7 @@
         <v>36</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -4897,7 +4801,7 @@
         <v>198</v>
       </c>
       <c r="K85" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4908,7 +4812,7 @@
         <v>36</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4927,13 +4831,13 @@
         <v>183</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K86" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4944,7 +4848,7 @@
         <v>36</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4956,20 +4860,20 @@
         <v>13</v>
       </c>
       <c r="G87" s="7">
-        <f>D87*E87</f>
+        <f t="shared" si="0"/>
         <v>8900</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="K87" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,7 +4884,7 @@
         <v>36</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -4999,13 +4903,13 @@
         <v>183</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5016,7 +4920,7 @@
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -5035,13 +4939,13 @@
         <v>183</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="K89" s="41" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5052,7 +4956,7 @@
         <v>36</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -5064,7 +4968,7 @@
         <v>13</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" ref="G90" si="6">D90*E90</f>
+        <f>D90*E90</f>
         <v>8900</v>
       </c>
       <c r="H90" s="13" t="s">
@@ -5074,10 +4978,10 @@
         <v>206</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,20 +4992,20 @@
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
       </c>
       <c r="E91" s="7">
-        <v>16900</v>
-      </c>
-      <c r="F91" s="28" t="s">
-        <v>211</v>
+        <v>8900</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G91" s="7">
-        <f>D91*E91</f>
-        <v>16900</v>
+        <f t="shared" ref="G91" si="7">D91*E91</f>
+        <v>8900</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>183</v>
@@ -5110,10 +5014,10 @@
         <v>206</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="K91" s="41" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5124,32 +5028,32 @@
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
       </c>
       <c r="E92" s="7">
-        <v>19900</v>
+        <v>16900</v>
       </c>
       <c r="F92" s="28" t="s">
         <v>211</v>
       </c>
       <c r="G92" s="7">
         <f>D92*E92</f>
-        <v>19900</v>
+        <v>16900</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="K92" s="41" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,32 +5064,32 @@
         <v>36</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
       </c>
       <c r="E93" s="7">
-        <v>14900</v>
+        <v>19900</v>
       </c>
       <c r="F93" s="28" t="s">
         <v>211</v>
       </c>
       <c r="G93" s="7">
         <f>D93*E93</f>
-        <v>14900</v>
+        <v>19900</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="K93" s="41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5196,20 +5100,20 @@
         <v>36</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
       </c>
       <c r="E94" s="7">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="F94" s="28" t="s">
         <v>211</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" ref="G94" si="7">D94*E94</f>
-        <v>15900</v>
+        <f>D94*E94</f>
+        <v>14900</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>183</v>
@@ -5219,6 +5123,9 @@
       </c>
       <c r="J94" s="10" t="s">
         <v>43</v>
+      </c>
+      <c r="K94" s="41" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5229,32 +5136,29 @@
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
       </c>
       <c r="E95" s="7">
-        <v>14900</v>
+        <v>15900</v>
       </c>
       <c r="F95" s="28" t="s">
         <v>211</v>
       </c>
       <c r="G95" s="7">
-        <f>D95*E95</f>
-        <v>14900</v>
+        <f t="shared" ref="G95" si="8">D95*E95</f>
+        <v>15900</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K95" s="41" t="s">
-        <v>278</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5265,29 +5169,32 @@
         <v>36</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>203</v>
+        <v>277</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
       </c>
       <c r="E96" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>47</v>
+        <v>14900</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G96" s="7">
         <f>D96*E96</f>
-        <v>8500</v>
+        <v>14900</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>53</v>
+        <v>278</v>
+      </c>
+      <c r="K96" s="41" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5298,7 +5205,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D97" s="6">
         <v>1</v>
@@ -5310,7 +5217,7 @@
         <v>47</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="0"/>
+        <f>D97*E97</f>
         <v>8500</v>
       </c>
       <c r="H97" s="13" t="s">
@@ -5331,7 +5238,7 @@
         <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -5360,13 +5267,13 @@
       <c r="A99" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D99" s="11">
+        <v>216</v>
+      </c>
+      <c r="D99" s="6">
         <v>1</v>
       </c>
       <c r="E99" s="7">
@@ -5382,10 +5289,10 @@
       <c r="H99" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I99" s="16" t="s">
+      <c r="I99" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J99" s="16" t="s">
+      <c r="J99" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5393,36 +5300,33 @@
       <c r="A100" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100" s="6">
+        <v>217</v>
+      </c>
+      <c r="D100" s="11">
         <v>1</v>
       </c>
       <c r="E100" s="7">
-        <v>10900</v>
+        <v>8500</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G100" s="7">
-        <f>D100*E100</f>
-        <v>10900</v>
+        <f t="shared" si="0"/>
+        <v>8500</v>
       </c>
       <c r="H100" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I100" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J100" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K100" s="41" t="s">
-        <v>266</v>
+      <c r="I100" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,20 +5337,20 @@
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
       </c>
       <c r="E101" s="7">
-        <v>11900</v>
+        <v>10900</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G101" s="7">
         <f>D101*E101</f>
-        <v>11900</v>
+        <v>10900</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>183</v>
@@ -5458,7 +5362,7 @@
         <v>48</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5469,32 +5373,32 @@
         <v>36</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
       </c>
       <c r="E102" s="7">
-        <v>10900</v>
+        <v>11900</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="0"/>
-        <v>10900</v>
+        <f>D102*E102</f>
+        <v>11900</v>
       </c>
       <c r="H102" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5505,29 +5409,32 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
       </c>
       <c r="E103" s="7">
-        <v>8500</v>
+        <v>10900</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>10900</v>
       </c>
       <c r="H103" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>221</v>
+        <v>53</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="K103" s="41" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5538,32 +5445,29 @@
         <v>36</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
       </c>
       <c r="E104" s="7">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="0"/>
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="H104" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K104" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5574,29 +5478,32 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
       </c>
       <c r="E105" s="7">
-        <v>10900</v>
-      </c>
-      <c r="F105" s="29" t="s">
+        <v>9500</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="0"/>
-        <v>10900</v>
+        <v>9500</v>
       </c>
       <c r="H105" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>100</v>
+        <v>224</v>
+      </c>
+      <c r="K105" s="41" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5607,32 +5514,29 @@
         <v>36</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
       </c>
       <c r="E106" s="7">
-        <v>13500</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>227</v>
+        <v>10900</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>10900</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K106" s="41" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5643,7 +5547,7 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D107" s="6">
         <v>1</v>
@@ -5662,49 +5566,49 @@
         <v>183</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="K107" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D108" s="11">
+        <v>228</v>
+      </c>
+      <c r="D108" s="6">
         <v>1</v>
       </c>
       <c r="E108" s="7">
-        <v>21500</v>
-      </c>
-      <c r="F108" s="31" t="s">
-        <v>33</v>
+        <v>13500</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="G108" s="7">
-        <f>D108*E108</f>
-        <v>21500</v>
+        <f t="shared" si="0"/>
+        <v>13500</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I108" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J108" s="16" t="s">
-        <v>43</v>
+      <c r="I108" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="K108" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5715,7 +5619,7 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D109" s="11">
         <v>1</v>
@@ -5727,7 +5631,7 @@
         <v>33</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="0"/>
+        <f>D109*E109</f>
         <v>21500</v>
       </c>
       <c r="H109" s="13" t="s">
@@ -5740,7 +5644,7 @@
         <v>43</v>
       </c>
       <c r="K109" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5751,20 +5655,20 @@
         <v>36</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D110" s="11">
         <v>1</v>
       </c>
       <c r="E110" s="7">
-        <v>16900</v>
+        <v>21500</v>
       </c>
       <c r="F110" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G110" s="7">
-        <f>D110*E110</f>
-        <v>16900</v>
+        <f t="shared" si="0"/>
+        <v>21500</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>183</v>
@@ -5776,40 +5680,43 @@
         <v>43</v>
       </c>
       <c r="K110" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D111" s="6">
+        <v>232</v>
+      </c>
+      <c r="D111" s="11">
         <v>1</v>
       </c>
       <c r="E111" s="7">
         <v>16900</v>
       </c>
-      <c r="F111" s="12" t="s">
+      <c r="F111" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G111" s="7">
-        <f t="shared" si="0"/>
+        <f>D111*E111</f>
         <v>16900</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I111" s="10" t="s">
+      <c r="I111" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J111" s="10" t="s">
+      <c r="J111" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="K111" s="41" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,7 +5727,7 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
@@ -5828,8 +5735,8 @@
       <c r="E112" s="7">
         <v>16900</v>
       </c>
-      <c r="F112" s="17" t="s">
-        <v>66</v>
+      <c r="F112" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G112" s="7">
         <f t="shared" si="0"/>
@@ -5849,177 +5756,174 @@
       <c r="A113" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B113" s="32" t="s">
-        <v>235</v>
+      <c r="B113" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
       </c>
       <c r="E113" s="7">
-        <v>27000</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>13</v>
+        <v>16900</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>16900</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B114" s="23" t="s">
-        <v>141</v>
+      <c r="B114" s="32" t="s">
+        <v>235</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
       <c r="E114" s="7">
-        <v>11900</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>33</v>
+        <v>27000</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G114" s="7">
-        <f t="shared" ref="G114" si="8">D114*E114</f>
-        <v>11900</v>
+        <f t="shared" si="0"/>
+        <v>27000</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="K114" s="41" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B115" s="18" t="s">
-        <v>74</v>
+      <c r="B115" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
       </c>
       <c r="E115" s="7">
-        <v>17900</v>
+        <v>11900</v>
       </c>
       <c r="F115" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G115" s="7">
-        <f t="shared" si="0"/>
-        <v>17900</v>
+        <f t="shared" ref="G115" si="9">D115*E115</f>
+        <v>11900</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="K115" s="41" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>71</v>
+      <c r="B116" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
       </c>
       <c r="E116" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>13</v>
+        <v>17900</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G116" s="7">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>17900</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B117" s="33" t="s">
-        <v>71</v>
+      <c r="B117" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D117" s="11">
+        <v>324</v>
+      </c>
+      <c r="D117" s="6">
         <v>1</v>
       </c>
       <c r="E117" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>13</v>
+        <v>18900</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G117" s="7">
-        <f t="shared" si="0"/>
-        <v>12000</v>
+        <f t="shared" ref="G117" si="10">D117*E117</f>
+        <v>18900</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I117" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="J117" s="16" t="s">
-        <v>243</v>
+      <c r="I117" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="K117" s="41" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6030,140 +5934,140 @@
         <v>71</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
       </c>
       <c r="E118" s="7">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G118" s="7">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" s="6">
+        <v>242</v>
+      </c>
+      <c r="D119" s="11">
         <v>1</v>
       </c>
       <c r="E119" s="7">
-        <v>15000</v>
-      </c>
-      <c r="F119" s="28" t="s">
-        <v>211</v>
+        <v>12000</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="G119" s="7">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I119" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J119" s="10" t="s">
-        <v>247</v>
+      <c r="I119" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="J119" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="K119" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B120" s="22" t="s">
-        <v>137</v>
+      <c r="B120" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
       </c>
       <c r="E120" s="7">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G120" s="7">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B121" s="22" t="s">
-        <v>137</v>
+      <c r="B121" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
       </c>
       <c r="E121" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>13</v>
+        <v>15000</v>
+      </c>
+      <c r="F121" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" ref="G121" si="9">D121*E121</f>
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="H121" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K121" s="41" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6174,32 +6078,32 @@
         <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="D122" s="6">
         <v>1</v>
       </c>
       <c r="E122" s="7">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G122" s="7">
-        <f>D122*E122</f>
-        <v>8500</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="H122" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K122" s="41" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,7 +6114,7 @@
         <v>137</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
@@ -6222,20 +6126,20 @@
         <v>13</v>
       </c>
       <c r="G123" s="7">
-        <f>D123*E123</f>
+        <f t="shared" ref="G123" si="11">D123*E123</f>
         <v>10000</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="K123" s="41" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6246,29 +6150,32 @@
         <v>137</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="D124" s="6">
         <v>1</v>
       </c>
       <c r="E124" s="7">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="0"/>
-        <v>12000</v>
+        <f>D124*E124</f>
+        <v>8500</v>
       </c>
       <c r="H124" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="K124" s="41" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6279,32 +6186,32 @@
         <v>137</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
       </c>
       <c r="E125" s="7">
-        <v>16000</v>
-      </c>
-      <c r="F125" s="28" t="s">
-        <v>211</v>
+        <v>10000</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <f>D125*E125</f>
+        <v>10000</v>
       </c>
       <c r="H125" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="K125" s="41" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6315,32 +6222,29 @@
         <v>137</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D126" s="6">
         <v>1</v>
       </c>
       <c r="E126" s="7">
-        <v>8000</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>33</v>
+        <v>12000</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G126" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="H126" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K126" s="50" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6351,360 +6255,430 @@
         <v>137</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="D127" s="6">
         <v>1</v>
       </c>
       <c r="E127" s="7">
-        <v>11000</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>33</v>
+        <v>16000</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" ref="G127:G128" si="10">D127*E127</f>
-        <v>11000</v>
+        <f t="shared" si="0"/>
+        <v>16000</v>
       </c>
       <c r="H127" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="K127" s="50" t="s">
-        <v>300</v>
+        <v>255</v>
+      </c>
+      <c r="K127" s="41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="C128" s="48" t="s">
-        <v>292</v>
+      <c r="B128" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="D128" s="6">
         <v>1</v>
       </c>
       <c r="E128" s="7">
-        <v>52000</v>
+        <v>8000</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="10"/>
-        <v>52000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
       <c r="H128" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="I128" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="J128" s="49" t="s">
-        <v>294</v>
+      <c r="I128" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="J128" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="K128" s="50" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B129" s="43" t="s">
-        <v>269</v>
+      <c r="B129" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="D129" s="6">
         <v>1</v>
       </c>
       <c r="E129" s="7">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <f t="shared" ref="G129:G130" si="12">D129*E129</f>
+        <v>11000</v>
       </c>
       <c r="H129" s="13" t="s">
         <v>183</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="K129" s="41" t="s">
-        <v>270</v>
+        <v>257</v>
+      </c>
+      <c r="K129" s="50" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B130" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>259</v>
+      <c r="B130" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C130" s="48" t="s">
+        <v>289</v>
       </c>
       <c r="D130" s="6">
         <v>1</v>
       </c>
       <c r="E130" s="7">
+        <v>52000</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" s="7">
+        <f t="shared" si="12"/>
+        <v>52000</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I130" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="J130" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="K130" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1</v>
+      </c>
+      <c r="E131" s="7">
+        <v>16000</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G131" s="7">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I131" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K131" s="41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E132" s="7">
         <v>17000</v>
       </c>
-      <c r="F130" s="28" t="s">
+      <c r="F132" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="G130" s="7">
-        <f t="shared" ref="G130" si="11">D130*E130</f>
+      <c r="G132" s="7">
+        <f t="shared" ref="G132" si="13">D132*E132</f>
         <v>17000</v>
       </c>
-      <c r="H130" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I130" s="10" t="s">
+      <c r="H132" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I132" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J130" s="10" t="s">
+      <c r="J132" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K130" s="41" t="s">
+      <c r="K132" s="41" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
+    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="I133" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J133" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="str">
+    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="str">
         <f>"En curso = " &amp; COUNTA(A2:A29)</f>
         <v>En curso = 28</v>
       </c>
-      <c r="B132" s="14" t="str">
-        <f>"Ivrea = " &amp; COUNTA(B12:B25,B35:B51,B64:B112)</f>
-        <v>Ivrea = 80</v>
-      </c>
-      <c r="C132" s="45" t="str">
-        <f>"Series en total = " &amp; COUNTA(C2:C130)</f>
-        <v>Series en total = 129</v>
-      </c>
-      <c r="D132" s="6">
-        <f>SUM(D2:D130)</f>
-        <v>585</v>
-      </c>
-      <c r="E132" s="7">
-        <f>SUM(E2:E130)</f>
-        <v>1542900</v>
-      </c>
-      <c r="F132" s="46" t="str">
-        <f>"B6 = " &amp; COUNTA(F2:F10,F12:F14,F26,F30:F34,F39:F52,F57:F59,F61:F63,F71:F90,F113,F116:F118,F120:F124)</f>
+      <c r="B134" s="14" t="str">
+        <f>"Ivrea = " &amp; COUNTA(B12:B26,B35:B51,B65:B113)</f>
+        <v>Ivrea = 81</v>
+      </c>
+      <c r="C134" s="45" t="str">
+        <f>"Series en total = " &amp; COUNTA(C2:C132)</f>
+        <v>Series en total = 131</v>
+      </c>
+      <c r="D134" s="6">
+        <f>SUM(D2:D132)</f>
+        <v>598</v>
+      </c>
+      <c r="E134" s="7">
+        <f>SUM(E2:E132)</f>
+        <v>1576700</v>
+      </c>
+      <c r="F134" s="46" t="str">
+        <f>"B6 = " &amp; COUNTA(F2:F10,F12:F14,F27,F30:F34,F39:F52,F58:F60,F62:F64,F72:F91,F114,F118:F120,F122:F126)</f>
         <v>B6 = 67</v>
       </c>
-      <c r="G132" s="7">
-        <f>SUM(G2:G130)</f>
-        <v>6266600</v>
-      </c>
-      <c r="H132" s="13" t="str">
-        <f>"Finalizados = " &amp; COUNTA(H27:H28,H30:H60,H62:H65,H71,H73:H130)</f>
-        <v>Finalizados = 96</v>
-      </c>
-      <c r="I132" s="46" t="str">
-        <f>"B6 = " &amp; SUM(D2:D10,D12:D14,D26,D30:D34,D39:D52,D57:D59,D61:D63,D71:D90,D113,D116:D118,D120:D124)</f>
-        <v>B6 = 311</v>
-      </c>
-      <c r="J132" s="35" t="str">
-        <f>"Series = " &amp; COUNTA(K2:K6,K7:K17,K19:K24,K26:K30,K33:K34,K37:K43,K52:K58,K60,K73,K83:K93,K95,K101:K102,K104,K106:K110,K114:K123,K125:K130)</f>
-        <v>Series = 81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20" t="str">
-        <f>"Completado = " &amp; COUNTA(A30:A60)</f>
-        <v>Completado = 31</v>
-      </c>
-      <c r="B133" s="5" t="str">
-        <f>"Panini = " &amp; COUNTA(B2:B11,B30:B34,B61:B63)</f>
+      <c r="G134" s="7">
+        <f>SUM(G2:G132)</f>
+        <v>6400800</v>
+      </c>
+      <c r="H134" s="13" t="str">
+        <f>"Finalizados = " &amp; COUNTA(H28:H28,H30:H61,H63:H66,H72,H74:H132)</f>
+        <v>Finalizados = 97</v>
+      </c>
+      <c r="I134" s="46" t="str">
+        <f>"B6 = " &amp; SUM(D2:D10,D12:D14,D27,D30:D34,D39:D52,D58:D60,D62:D64,D72:D91,D114,D118:D120,D122:D126)</f>
+        <v>B6 = 315</v>
+      </c>
+      <c r="J134" s="35" t="str">
+        <f>"Series = " &amp; COUNTA(K2:K18,K20:K25,K27:K30,K33:K34,K37:K43,K52:K59,K61,K74,K84:K94,K96,K102:K103,K105,K107:K111,K115:K125,K127:K132)</f>
+        <v>Series = 83</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="str">
+        <f>"Completado = " &amp; COUNTA(A30:A61)</f>
+        <v>Completado = 32</v>
+      </c>
+      <c r="B135" s="5" t="str">
+        <f>"Panini = " &amp; COUNTA(B2:B11,B30:B34,B62:B64)</f>
         <v>Panini = 18</v>
       </c>
-      <c r="F133" s="39" t="str">
-        <f>"C6 = " &amp; COUNTA(F15:F23,F35:F38,F60,F64:F70,F96:F105)</f>
+      <c r="F135" s="39" t="str">
+        <f>"C6 = " &amp; COUNTA(F16:F24,F35:F38,F61,F65:F71,F97:F106)</f>
         <v>C6 = 31</v>
       </c>
-      <c r="H133" s="9" t="str">
-        <f>"En publicación = " &amp; COUNTA(H2:H26,H29,H61,H66:H70,H72)</f>
-        <v>En publicación = 33</v>
-      </c>
-      <c r="I133" s="39" t="str">
-        <f>"C6 = " &amp; SUM(D15:D23,D35:D38,D60,D64:D70,D96:D105)</f>
-        <v>C6 = 210</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="25" t="str">
-        <f>"Droppeado = " &amp; COUNTA(A61:A72)</f>
+      <c r="H135" s="9" t="str">
+        <f>"En publicación = " &amp; COUNTA(H2:H27,H29,H62,H67:H71,H73)</f>
+        <v>En publicación = 34</v>
+      </c>
+      <c r="I135" s="39" t="str">
+        <f>"C6 = " &amp; SUM(D16:D24,D35:D38,D61,D65:D71,D97:D106)</f>
+        <v>C6 = 217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="25" t="str">
+        <f>"Droppeado = " &amp; COUNTA(A62:A73)</f>
         <v>Droppeado = 12</v>
       </c>
-      <c r="B134" s="22" t="str">
-        <f>"Kemuri = " &amp; COUNTA(B56,B120:B127)</f>
+      <c r="B136" s="22" t="str">
+        <f>"Kemuri = " &amp; COUNTA(B57,B122:B129)</f>
         <v>Kemuri = 9</v>
       </c>
-      <c r="F134" s="40" t="str">
-        <f>"A5 = " &amp; COUNTA(F11,F25,F27:F55,F53:F56,F108:F111,F114:F115,F126:F129)</f>
-        <v>A5 = 45</v>
-      </c>
-      <c r="I134" s="40" t="str">
-        <f>"A5 = " &amp; SUM(D11,D25,D27:D55,D53:D56,D108:D111,D114:D115,D126:D129)</f>
+      <c r="F136" s="40" t="str">
+        <f>"A5 = H57" &amp; COUNTA(F11,F26,F28,F53:F57,F109:F112,F115:F116,F128:F131)</f>
+        <v>A5 = H5718</v>
+      </c>
+      <c r="I136" s="40" t="str">
+        <f>"A5 = " &amp; SUM(D11,D26,D28:D56,D54:D57,D109:D112,D115:D116,D128:D131)</f>
         <v>A5 = 260</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="26" t="str">
-        <f>"Tomo único = " &amp; COUNTA(A73:A130)</f>
-        <v>Tomo único = 58</v>
-      </c>
-      <c r="B135" s="23" t="str">
-        <f>"Distrito Manga = " &amp; COUNTA(B57:B58,B115)</f>
+    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="26" t="str">
+        <f>"Tomo único = " &amp; COUNTA(A74:A132)</f>
+        <v>Tomo único = 59</v>
+      </c>
+      <c r="B137" s="23" t="str">
+        <f>"Distrito Manga = " &amp; COUNTA(B58:B59,B116)</f>
         <v>Distrito Manga = 3</v>
       </c>
-      <c r="F135" s="28" t="str">
-        <f>"B6x2 = " &amp; COUNTA(F91:F95,F119,F125,F130:F130)</f>
+      <c r="F137" s="28" t="str">
+        <f>"B6x2 = " &amp; COUNTA(F15,F92:F96,F121,F127,F132:F132)</f>
+        <v>B6x2 = 9</v>
+      </c>
+      <c r="I137" s="28" t="str">
+        <f>"B6x2 = " &amp; SUM(D92:D96,D121,D127,D132:D132)</f>
         <v>B6x2 = 8</v>
       </c>
-      <c r="I135" s="28" t="str">
-        <f>"B6x2 = " &amp; SUM(D91:D95,D119,D125,D130:D130)</f>
-        <v>B6x2 = 8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="3" t="str">
-        <f>"Ovni Press = " &amp; COUNTA(B26,B116:B119)</f>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="str">
+        <f>"Ovni Press = " &amp; COUNTA(B27,B118:B121)</f>
         <v>Ovni Press = 5</v>
       </c>
-      <c r="F136" s="30" t="str">
-        <f>"C6x2 = " &amp; COUNTA(F106:F107)</f>
+      <c r="F138" s="30" t="str">
+        <f>"C6x2 = " &amp; COUNTA(F107:F108)</f>
         <v>C6x2 = 2</v>
       </c>
-      <c r="I136" s="30" t="str">
-        <f>"C6x2 = " &amp; SUM(D106:D107)</f>
+      <c r="I138" s="30" t="str">
+        <f>"C6x2 = " &amp; SUM(D107:D108)</f>
         <v>C6x2 = 2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="36" t="str">
-        <f>"Planeta Cómic = " &amp; COUNTA(B27:B28,B52:B53,B115)</f>
+    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="36" t="str">
+        <f>"Planeta Cómic = " &amp; COUNTA(B28:B28,B52:B54,B116)</f>
         <v>Planeta Cómic = 5</v>
       </c>
-      <c r="F137" s="17" t="str">
-        <f>"A5 color = " &amp; COUNTA(F24,F29,F112)</f>
+      <c r="F139" s="17" t="str">
+        <f>"A5 color = " &amp; COUNTA(F25,F29,F113)</f>
         <v>A5 color = 3</v>
       </c>
-      <c r="I137" s="17" t="str">
-        <f>"A5 color = " &amp; SUM(D112,D24,D29)</f>
+      <c r="I139" s="17" t="str">
+        <f>"A5 color = " &amp; SUM(D113,D25,D29)</f>
         <v>A5 color = 13</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="24" t="str">
-        <f>"Utopia = " &amp; COUNTA(B59:B60)</f>
+    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="24" t="str">
+        <f>"Utopia = " &amp; COUNTA(B60:B61)</f>
         <v>Utopia = 2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="21" t="str">
-        <f>"Merci = " &amp; COUNTA(B54)</f>
+    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="21" t="str">
+        <f>"Merci = " &amp; COUNTA(B55)</f>
         <v>Merci = 1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="32" t="str">
-        <f>"Milky Way = " &amp; COUNTA(B113)</f>
+    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="32" t="str">
+        <f>"Milky Way = " &amp; COUNTA(B114)</f>
         <v>Milky Way = 1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="37" t="str">
-        <f>"Moztros = " &amp; COUNTA(B55,B130)</f>
+    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="37" t="str">
+        <f>"Moztros = " &amp; COUNTA(B56,B132)</f>
         <v>Moztros = 2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="38" t="str">
+    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="38" t="str">
         <f>"Random Comics = " &amp; COUNTA(B29)</f>
         <v>Random Comics = 1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="43" t="str">
-        <f>"Hotel de las Ideas = " &amp; COUNTA(B129)</f>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="43" t="str">
+        <f>"Hotel de las Ideas = " &amp; COUNTA(B131)</f>
         <v>Hotel de las Ideas = 1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="47" t="str">
-        <f>"Kibook Ediciones = " &amp; COUNTA(B128)</f>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="47" t="str">
+        <f>"Kibook Ediciones = " &amp; COUNTA(B130)</f>
         <v>Kibook Ediciones = 1</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7546,106 +7520,53 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="F123:F131 F10:F12 F2:F8 F14:F121">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+  <conditionalFormatting sqref="F2:F133">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F7:F8 F123:F131 F10:F12 F14:F33 F35:F121">
-    <cfRule type="cellIs" dxfId="23" priority="45" operator="equal">
+  <conditionalFormatting sqref="F3 F7:F33 F35:F133">
+    <cfRule type="cellIs" dxfId="10" priority="45" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F39">
-    <cfRule type="cellIs" dxfId="21" priority="49" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="50" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="51" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="52" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H65 H71 H73:H121 H123:H131 H4:H6 H27:H28 H30:H60">
-    <cfRule type="containsText" dxfId="17" priority="47" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"A5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="En publicacion">
-      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H122))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"B6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"C6"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="46" operator="equal">
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"C6"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39 F14:F15">
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
+      <formula>"B6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="50" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="51" operator="equal">
+      <formula>"C6"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
+      <formula>"A5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H6 H63:H66 H72 H74:H133 H28 H30:H61">
+    <cfRule type="containsText" dxfId="0" priority="47" operator="containsText" text="En publicacion">
+      <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Desktop\proyectos\mangas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D492CBF-DF68-421C-A51E-2BDA449146F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB8524-FD43-4CCF-ACB4-1CF7A7DDA06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Sumiko Arai</t>
   </si>
   <si>
-    <t>The Guy she was Interested in Wasn't a Guy at all - 1</t>
-  </si>
-  <si>
     <t>Ivrea</t>
   </si>
   <si>
@@ -1015,6 +1012,9 @@
   </si>
   <si>
     <t>Girls Last Tour</t>
+  </si>
+  <si>
+    <t>The Guy she was Interested in Wasn't a Guy at all - 1 &amp; 2</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1850,12 +1850,12 @@
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="48.5703125" customWidth="1"/>
+    <col min="11" max="11" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>7</v>
@@ -1912,7 +1912,7 @@
         <v>253000</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
@@ -1921,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1932,7 +1932,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -1948,7 +1948,7 @@
         <v>22000</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
@@ -1957,7 +1957,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>180000</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -2020,7 +2020,7 @@
         <v>220000</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>19</v>
@@ -2029,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>180000</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>22</v>
@@ -2065,7 +2065,7 @@
         <v>23</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>31500</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>27</v>
@@ -2128,7 +2128,7 @@
         <v>62500</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>31</v>
@@ -2137,7 +2137,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -2164,16 +2164,16 @@
         <v>66000</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="K9" s="41" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -2200,16 +2200,16 @@
         <v>24000</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
         <v>13000</v>
@@ -2233,10 +2233,10 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>34</v>
@@ -2245,7 +2245,7 @@
         <v>34</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2253,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="11">
         <v>7</v>
@@ -2272,16 +2272,16 @@
         <v>62300</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2289,10 +2289,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11">
         <v>5</v>
@@ -2308,16 +2308,16 @@
         <v>44500</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2325,10 +2325,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D14" s="11">
         <v>2</v>
@@ -2344,16 +2344,16 @@
         <v>17800</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I14" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>314</v>
-      </c>
       <c r="K14" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2361,10 +2361,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
@@ -2373,23 +2373,23 @@
         <v>14900</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" ref="G15" si="2">D15*E15</f>
         <v>14900</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6">
         <v>15</v>
@@ -2409,23 +2409,23 @@
         <v>8500</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>127500</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>127500</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="J16" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2433,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="11">
         <v>32</v>
@@ -2445,23 +2445,23 @@
         <v>8500</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" ref="G17" si="3">D17*E17</f>
         <v>272000</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K17" s="41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,10 +2469,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="11">
         <v>6</v>
@@ -2481,23 +2481,23 @@
         <v>8500</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>51000</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="K18" s="41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2505,10 +2505,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6">
         <v>20</v>
@@ -2517,20 +2517,20 @@
         <v>7500</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2538,10 +2538,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="6">
         <v>16</v>
@@ -2550,23 +2550,23 @@
         <v>8500</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
         <v>136000</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,10 +2574,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="11">
         <v>17</v>
@@ -2586,23 +2586,23 @@
         <v>8500</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>144500</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,10 +2610,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="11">
         <v>10</v>
@@ -2622,23 +2622,23 @@
         <v>8500</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
         <v>85000</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2646,10 +2646,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6">
         <v>3</v>
@@ -2658,23 +2658,23 @@
         <v>8900</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" ref="G23" si="4">D23*E23</f>
         <v>26700</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="K23" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2682,10 +2682,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -2694,23 +2694,23 @@
         <v>8500</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="6">
         <v>10</v>
@@ -2730,23 +2730,23 @@
         <v>23900</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>239000</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="7">
-        <f t="shared" si="0"/>
-        <v>239000</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>274</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="J25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="K25" s="41" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2754,10 +2754,10 @@
         <v>10</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6">
         <v>13</v>
@@ -2773,13 +2773,13 @@
         <v>141700</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2787,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D27" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7">
         <v>12000</v>
@@ -2803,19 +2803,19 @@
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>96000</v>
+        <v>108000</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K27" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,10 +2823,10 @@
         <v>10</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -2842,16 +2842,16 @@
         <v>74000</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="K28" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,10 +2859,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
@@ -2871,34 +2871,34 @@
         <v>32000</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>64000</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="6">
         <v>28</v>
@@ -2914,21 +2914,21 @@
         <v>350000</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
@@ -2950,7 +2950,7 @@
         <v>143000</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>25</v>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="6">
         <v>2</v>
@@ -2983,24 +2983,24 @@
         <v>21000</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="11">
         <v>9</v>
@@ -3016,27 +3016,27 @@
         <v>112500</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="11">
         <v>22</v>
@@ -3052,27 +3052,27 @@
         <v>275000</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="41" t="s">
         <v>96</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="6">
         <v>23</v>
@@ -3081,31 +3081,31 @@
         <v>8500</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
         <v>195500</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="6">
         <v>12</v>
@@ -3114,31 +3114,31 @@
         <v>8500</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="6">
         <v>8</v>
@@ -3147,34 +3147,34 @@
         <v>8500</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
         <v>68000</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6">
         <v>11</v>
@@ -3183,34 +3183,34 @@
         <v>8500</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" s="7">
         <f>D38*E38</f>
         <v>93500</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="6">
         <v>12</v>
@@ -3226,27 +3226,27 @@
         <v>106800</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D40" s="11">
         <v>16</v>
@@ -3262,27 +3262,27 @@
         <v>142400</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="K40" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="6">
         <v>2</v>
@@ -3298,27 +3298,27 @@
         <v>17800</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="41" t="s">
         <v>106</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="41" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -3334,27 +3334,27 @@
         <v>26700</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" s="41" t="s">
         <v>109</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42" s="41" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
@@ -3370,27 +3370,27 @@
         <v>26700</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" s="41" t="s">
         <v>112</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" s="41" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="6">
         <v>13</v>
@@ -3406,24 +3406,24 @@
         <v>115700</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="6">
         <v>8</v>
@@ -3439,24 +3439,24 @@
         <v>71200</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="6">
         <v>4</v>
@@ -3472,24 +3472,24 @@
         <v>35600</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -3505,24 +3505,24 @@
         <v>26700</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J47" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3538,24 +3538,24 @@
         <v>26700</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="6">
         <v>3</v>
@@ -3571,24 +3571,24 @@
         <v>26700</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I49" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J49" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="6">
         <v>2</v>
@@ -3604,24 +3604,24 @@
         <v>17800</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D51" s="6">
         <v>3</v>
@@ -3637,24 +3637,24 @@
         <v>22500</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I51" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -3670,27 +3670,27 @@
         <v>59600</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I52" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" s="41" t="s">
         <v>128</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K52" s="41" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -3706,27 +3706,27 @@
         <v>33200</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K53" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54" s="6">
         <v>5</v>
@@ -3742,27 +3742,27 @@
         <v>70500</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="41" t="s">
         <v>131</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54" s="41" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
@@ -3778,27 +3778,27 @@
         <v>24000</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I55" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K55" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K55" s="41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -3814,27 +3814,27 @@
         <v>56700</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K56" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B57" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D57" s="6">
         <v>3</v>
@@ -3850,27 +3850,27 @@
         <v>40500</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I57" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K57" s="41" t="s">
         <v>139</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K57" s="41" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D58" s="6">
         <v>5</v>
@@ -3886,27 +3886,27 @@
         <v>59500</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I58" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="K58" s="41" t="s">
         <v>144</v>
-      </c>
-      <c r="K58" s="41" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
@@ -3922,27 +3922,27 @@
         <v>35700</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I59" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K59" s="41" t="s">
         <v>147</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K59" s="41" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D60" s="6">
         <v>2</v>
@@ -3958,24 +3958,24 @@
         <v>18000</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61" s="6">
         <v>2</v>
@@ -3984,34 +3984,34 @@
         <v>9000</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K61" s="41" t="s">
         <v>153</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K61" s="41" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D62" s="6">
         <v>2</v>
@@ -4027,24 +4027,24 @@
         <v>24000</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="6">
         <v>1</v>
@@ -4060,24 +4060,24 @@
         <v>11000</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" s="6">
         <v>3</v>
@@ -4093,24 +4093,24 @@
         <v>37500</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D65" s="6">
         <v>12</v>
@@ -4119,31 +4119,31 @@
         <v>7500</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -4152,31 +4152,31 @@
         <v>17700</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
         <v>17700</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D67" s="6">
         <v>6</v>
@@ -4185,31 +4185,31 @@
         <v>8500</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="0"/>
         <v>51000</v>
       </c>
       <c r="H67" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D68" s="6">
         <v>4</v>
@@ -4218,31 +4218,31 @@
         <v>8500</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="0"/>
         <v>34000</v>
       </c>
       <c r="H68" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D69" s="6">
         <v>5</v>
@@ -4251,31 +4251,31 @@
         <v>8500</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="0"/>
         <v>42500</v>
       </c>
       <c r="H69" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -4284,31 +4284,31 @@
         <v>8500</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4317,31 +4317,31 @@
         <v>8500</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71" s="7">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H71" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D72" s="6">
         <v>5</v>
@@ -4357,24 +4357,24 @@
         <v>44500</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -4390,24 +4390,24 @@
         <v>8900</v>
       </c>
       <c r="H73" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D74" s="11">
         <v>1</v>
@@ -4423,7 +4423,7 @@
         <v>18000</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>14</v>
@@ -4432,18 +4432,18 @@
         <v>14</v>
       </c>
       <c r="K74" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -4459,24 +4459,24 @@
         <v>8900</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -4492,24 +4492,24 @@
         <v>8900</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4525,24 +4525,24 @@
         <v>8900</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -4558,24 +4558,24 @@
         <v>8900</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4591,24 +4591,24 @@
         <v>8900</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4624,24 +4624,24 @@
         <v>8900</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4657,24 +4657,24 @@
         <v>8900</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4690,24 +4690,24 @@
         <v>8900</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4723,24 +4723,24 @@
         <v>8900</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4756,27 +4756,27 @@
         <v>8900</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K84" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -4792,27 +4792,27 @@
         <v>8900</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K85" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4828,27 +4828,27 @@
         <v>8900</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I86" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K86" s="41" t="s">
         <v>198</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K86" s="41" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4864,27 +4864,27 @@
         <v>8900</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I87" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J87" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J87" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="K87" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -4900,27 +4900,27 @@
         <v>8900</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -4936,27 +4936,27 @@
         <v>8900</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K89" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -4972,27 +4972,27 @@
         <v>8900</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>16</v>
       </c>
       <c r="K90" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
@@ -5008,27 +5008,27 @@
         <v>8900</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I91" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K91" s="41" t="s">
         <v>206</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K91" s="41" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
@@ -5037,34 +5037,34 @@
         <v>16900</v>
       </c>
       <c r="F92" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G92" s="7">
         <f>D92*E92</f>
         <v>16900</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K92" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D93" s="6">
         <v>1</v>
@@ -5073,34 +5073,34 @@
         <v>19900</v>
       </c>
       <c r="F93" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G93" s="7">
         <f>D93*E93</f>
         <v>19900</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K93" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D94" s="6">
         <v>1</v>
@@ -5109,34 +5109,34 @@
         <v>14900</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G94" s="7">
         <f>D94*E94</f>
         <v>14900</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K94" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D95" s="6">
         <v>1</v>
@@ -5145,31 +5145,31 @@
         <v>15900</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G95" s="7">
         <f t="shared" ref="G95" si="8">D95*E95</f>
         <v>15900</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="6">
         <v>1</v>
@@ -5178,34 +5178,34 @@
         <v>14900</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G96" s="7">
         <f>D96*E96</f>
         <v>14900</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K96" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D97" s="6">
         <v>1</v>
@@ -5214,31 +5214,31 @@
         <v>8500</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G97" s="7">
         <f>D97*E97</f>
         <v>8500</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D98" s="6">
         <v>1</v>
@@ -5247,31 +5247,31 @@
         <v>8500</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G98" s="7">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99" s="6">
         <v>1</v>
@@ -5280,31 +5280,31 @@
         <v>8500</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G99" s="7">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D100" s="11">
         <v>1</v>
@@ -5313,31 +5313,31 @@
         <v>8500</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G100" s="7">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D101" s="6">
         <v>1</v>
@@ -5346,34 +5346,34 @@
         <v>10900</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G101" s="7">
         <f>D101*E101</f>
         <v>10900</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K101" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="6">
         <v>1</v>
@@ -5382,34 +5382,34 @@
         <v>11900</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G102" s="7">
         <f>D102*E102</f>
         <v>11900</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D103" s="6">
         <v>1</v>
@@ -5418,34 +5418,34 @@
         <v>10900</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103" s="7">
         <f t="shared" si="0"/>
         <v>10900</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K103" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D104" s="6">
         <v>1</v>
@@ -5454,31 +5454,31 @@
         <v>8500</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G104" s="7">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I104" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="J104" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="J104" s="10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D105" s="6">
         <v>1</v>
@@ -5487,34 +5487,34 @@
         <v>9500</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G105" s="7">
         <f t="shared" si="0"/>
         <v>9500</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K105" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D106" s="6">
         <v>1</v>
@@ -5523,31 +5523,31 @@
         <v>10900</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G106" s="7">
         <f t="shared" si="0"/>
         <v>10900</v>
       </c>
       <c r="H106" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I106" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J106" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="J106" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D107" s="6">
         <v>1</v>
@@ -5556,34 +5556,34 @@
         <v>13500</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G107" s="7">
         <f t="shared" si="0"/>
         <v>13500</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K107" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D108" s="6">
         <v>1</v>
@@ -5592,34 +5592,34 @@
         <v>13500</v>
       </c>
       <c r="F108" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J108" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K108" s="41" t="s">
         <v>227</v>
-      </c>
-      <c r="G108" s="7">
-        <f t="shared" si="0"/>
-        <v>13500</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="J108" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K108" s="41" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="11">
         <v>1</v>
@@ -5635,27 +5635,27 @@
         <v>21500</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" s="11">
         <v>1</v>
@@ -5671,27 +5671,27 @@
         <v>21500</v>
       </c>
       <c r="H110" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="11">
         <v>1</v>
@@ -5707,27 +5707,27 @@
         <v>16900</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" s="6">
         <v>1</v>
@@ -5743,24 +5743,24 @@
         <v>16900</v>
       </c>
       <c r="H112" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
@@ -5769,31 +5769,31 @@
         <v>16900</v>
       </c>
       <c r="F113" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G113" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B114" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -5809,24 +5809,24 @@
         <v>27000</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
@@ -5842,27 +5842,27 @@
         <v>11900</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I115" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="J115" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="J115" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="K115" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D116" s="6">
         <v>1</v>
@@ -5878,27 +5878,27 @@
         <v>17900</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K116" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -5914,27 +5914,27 @@
         <v>18900</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K117" s="41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D118" s="6">
         <v>1</v>
@@ -5950,27 +5950,27 @@
         <v>13000</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K118" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D119" s="11">
         <v>1</v>
@@ -5986,27 +5986,27 @@
         <v>12000</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K119" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>12000</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>16</v>
@@ -6031,18 +6031,18 @@
         <v>16</v>
       </c>
       <c r="K120" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -6051,34 +6051,34 @@
         <v>15000</v>
       </c>
       <c r="F121" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G121" s="7">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="H121" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I121" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J121" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="J121" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="K121" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B122" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D122" s="6">
         <v>1</v>
@@ -6094,27 +6094,27 @@
         <v>10000</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K122" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
@@ -6130,27 +6130,27 @@
         <v>10000</v>
       </c>
       <c r="H123" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K123" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D124" s="6">
         <v>1</v>
@@ -6166,27 +6166,27 @@
         <v>8500</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K124" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
@@ -6202,27 +6202,27 @@
         <v>10000</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J125" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K125" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D126" s="6">
         <v>1</v>
@@ -6238,24 +6238,24 @@
         <v>12000</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B127" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D127" s="6">
         <v>1</v>
@@ -6264,34 +6264,34 @@
         <v>16000</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G127" s="7">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K127" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D128" s="6">
         <v>1</v>
@@ -6307,27 +6307,27 @@
         <v>8000</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K128" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B129" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D129" s="6">
         <v>1</v>
@@ -6343,27 +6343,27 @@
         <v>11000</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K129" s="50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B130" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="48" t="s">
         <v>288</v>
-      </c>
-      <c r="C130" s="48" t="s">
-        <v>289</v>
       </c>
       <c r="D130" s="6">
         <v>1</v>
@@ -6379,27 +6379,27 @@
         <v>52000</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I130" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="J130" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="J130" s="49" t="s">
-        <v>291</v>
-      </c>
       <c r="K130" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B131" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D131" s="6">
         <v>1</v>
@@ -6415,27 +6415,27 @@
         <v>16000</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K131" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B132" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D132" s="6">
         <v>1</v>
@@ -6444,23 +6444,23 @@
         <v>17000</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G132" s="7">
         <f t="shared" ref="G132" si="13">D132*E132</f>
         <v>17000</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K132" s="41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6477,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>5</v>
@@ -6486,13 +6486,13 @@
         <v>6</v>
       </c>
       <c r="H133" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I133" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="J133" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="D134" s="6">
         <f>SUM(D2:D132)</f>
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E134" s="7">
         <f>SUM(E2:E132)</f>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="G134" s="7">
         <f>SUM(G2:G132)</f>
-        <v>6400800</v>
+        <v>6425800</v>
       </c>
       <c r="H134" s="13" t="str">
         <f>"Finalizados = " &amp; COUNTA(H28:H28,H30:H61,H63:H66,H72,H74:H132)</f>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="I134" s="46" t="str">
         <f>"B6 = " &amp; SUM(D2:D10,D12:D14,D27,D30:D34,D39:D52,D58:D60,D62:D64,D72:D91,D114,D118:D120,D122:D126)</f>
-        <v>B6 = 315</v>
+        <v>B6 = 316</v>
       </c>
       <c r="J134" s="35" t="str">
         <f>"Series = " &amp; COUNTA(K2:K18,K20:K25,K27:K30,K33:K34,K37:K43,K52:K59,K61,K74,K84:K94,K96,K102:K103,K105,K107:K111,K115:K125,K127:K132)</f>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I136" s="40" t="str">
         <f>"A5 = " &amp; SUM(D11,D26,D28:D56,D54:D57,D109:D112,D115:D116,D128:D131)</f>
-        <v>A5 = 260</v>
+        <v>A5 = 261</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7550,7 +7550,7 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39 F14:F15">
+  <conditionalFormatting sqref="F14:F15 F39">
     <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
       <formula>"B6"</formula>
     </cfRule>
@@ -7564,7 +7564,7 @@
       <formula>"A5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H6 H63:H66 H72 H74:H133 H28 H30:H61">
+  <conditionalFormatting sqref="H4:H6 H28 H30:H61 H63:H66 H72 H74:H133">
     <cfRule type="containsText" dxfId="0" priority="47" operator="containsText" text="En publicacion">
       <formula>NOT(ISERROR(SEARCH(("En publicacion"),(H4))))</formula>
     </cfRule>

--- a/assets/Mangas.xlsx
+++ b/assets/Mangas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahue\Desktop\proyectos\mangas\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB8524-FD43-4CCF-ACB4-1CF7A7DDA06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B6F8B2-C30C-46AC-ADA9-E195FB8CC278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="334">
   <si>
     <t>Estado</t>
   </si>
@@ -909,9 +909,6 @@
     <t>Hikaru Ga Shinda Natsu - 2 al 5</t>
   </si>
   <si>
-    <t>Solo Leveling - 4 al 9</t>
-  </si>
-  <si>
     <t>Los Pecados de la Familia Ichinose</t>
   </si>
   <si>
@@ -930,9 +927,6 @@
     <t>Hanako-Kun - 4 al 23</t>
   </si>
   <si>
-    <t>Houseki no Kuni - 3 al 8</t>
-  </si>
-  <si>
     <t>Sweet Paprika + Hot Paprika</t>
   </si>
   <si>
@@ -966,9 +960,6 @@
     <t>Moyori Mori</t>
   </si>
   <si>
-    <t>Blue Lock : Episode Nagi - 1 al 6</t>
-  </si>
-  <si>
     <t>Dai Tezuka</t>
   </si>
   <si>
@@ -978,30 +969,15 @@
     <t>Adabana</t>
   </si>
   <si>
-    <t>Adabana - 1 &amp; 2</t>
-  </si>
-  <si>
-    <t>Re:Zero - 13 al 20</t>
-  </si>
-  <si>
-    <t>Blue Lock - 13 al 32</t>
-  </si>
-  <si>
     <t>Spy x Family - 11 al 15</t>
   </si>
   <si>
     <t>Gachiakuta - 2 al 10</t>
   </si>
   <si>
-    <t>Dandadan - 8 al 17</t>
-  </si>
-  <si>
     <t>Elden Ring - 1 al 6</t>
   </si>
   <si>
-    <t>Sakamoto Days - 3 al 16</t>
-  </si>
-  <si>
     <t>El Morador de las Tinieblas</t>
   </si>
   <si>
@@ -1015,6 +991,48 @@
   </si>
   <si>
     <t>The Guy she was Interested in Wasn't a Guy at all - 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Adabana - 1 al 3</t>
+  </si>
+  <si>
+    <t>Blue Lock - 13 al 33</t>
+  </si>
+  <si>
+    <t>Blue Lock : Episode Nagi - 1 al 7</t>
+  </si>
+  <si>
+    <t>Re:Zero - 13 al 21</t>
+  </si>
+  <si>
+    <t>Sakamoto Days - 3 al 17</t>
+  </si>
+  <si>
+    <t>Dandadan - 8 al 18</t>
+  </si>
+  <si>
+    <t>Solo Leveling - 4 al 11</t>
+  </si>
+  <si>
+    <t>La Tierra de las Gemas - 3 al 9</t>
+  </si>
+  <si>
+    <t>Ruri Dragon</t>
+  </si>
+  <si>
+    <t>Ruri Dragon - 1</t>
+  </si>
+  <si>
+    <t>Masaoki Shindo</t>
+  </si>
+  <si>
+    <t>Trabajo y Vida Privado On/Off</t>
+  </si>
+  <si>
+    <t>Trabajo y Vida Privado On/Off - 1</t>
+  </si>
+  <si>
+    <t>Shinnosuke Kanazawa</t>
   </si>
 </sst>
 </file>
@@ -1834,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1848,7 +1866,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="52" bestFit="1" customWidth="1"/>
   </cols>
@@ -1908,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="7">
-        <f t="shared" ref="G2:G131" si="0">D2*E2</f>
+        <f t="shared" ref="G2:G133" si="0">D2*E2</f>
         <v>253000</v>
       </c>
       <c r="H2" s="44" t="s">
@@ -1921,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2007,7 +2025,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7">
         <v>11000</v>
@@ -2017,7 +2035,7 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>220000</v>
+        <v>231000</v>
       </c>
       <c r="H5" s="44" t="s">
         <v>273</v>
@@ -2029,7 +2047,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2173,7 +2191,7 @@
         <v>92</v>
       </c>
       <c r="K9" s="41" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2184,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -2203,13 +2221,13 @@
         <v>273</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" s="41" t="s">
         <v>306</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2220,140 +2238,140 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
+        <v>328</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>13000</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>33</v>
+        <v>11000</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>26000</v>
+        <f>D11*E11</f>
+        <v>11000</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="K11" s="41" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>35</v>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="D12" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>8900</v>
+        <v>13000</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="0"/>
-        <v>62300</v>
+        <f>D12*E12</f>
+        <v>13000</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>35</v>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="11">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>8900</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>13</v>
+        <v>13000</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" ref="G13" si="1">D13*E13</f>
-        <v>44500</v>
+        <f t="shared" si="0"/>
+        <v>26000</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>44</v>
+      <c r="I13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>314</v>
+        <v>39</v>
       </c>
       <c r="D14" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E14" s="7">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>17800</v>
+        <v>69300</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>313</v>
+      <c r="I14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="K14" s="41" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2364,68 +2382,68 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>326</v>
+        <v>43</v>
       </c>
       <c r="D15" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="7">
-        <v>14900</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>210</v>
+        <v>9900</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ref="G15" si="2">D15*E15</f>
-        <v>14900</v>
+        <f t="shared" ref="G15" si="1">D15*E15</f>
+        <v>49500</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="K15" s="41" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6">
-        <v>15</v>
+        <v>318</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
       </c>
       <c r="E16" s="7">
-        <v>8500</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>46</v>
+        <v>16900</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="0"/>
-        <v>127500</v>
+        <f t="shared" ref="G16" si="2">D16*E16</f>
+        <v>16900</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>47</v>
+      <c r="I16" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2436,32 +2454,32 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="11">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="D17" s="6">
+        <v>15</v>
       </c>
       <c r="E17" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ref="G17" si="3">D17*E17</f>
-        <v>272000</v>
+        <f t="shared" si="0"/>
+        <v>133500</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2472,20 +2490,20 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="D18" s="11">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E18" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="0"/>
-        <v>51000</v>
+        <f t="shared" ref="G18" si="3">D18*E18</f>
+        <v>293700</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>273</v>
@@ -2497,7 +2515,7 @@
         <v>50</v>
       </c>
       <c r="K18" s="41" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2508,29 +2526,32 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="6">
-        <v>20</v>
+        <v>264</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7</v>
       </c>
       <c r="E19" s="7">
-        <v>7500</v>
+        <v>8900</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>62300</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2541,32 +2562,29 @@
         <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>136000</v>
+        <v>178000</v>
       </c>
       <c r="H20" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2577,32 +2595,32 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="11">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6">
         <v>17</v>
       </c>
       <c r="E21" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>144500</v>
+        <v>151300</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K21" s="41" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2613,32 +2631,32 @@
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>160200</v>
       </c>
       <c r="H22" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" s="41" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,10 +2667,10 @@
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="6">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="D23" s="11">
+        <v>10</v>
       </c>
       <c r="E23" s="7">
         <v>8900</v>
@@ -2661,20 +2679,20 @@
         <v>46</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" ref="G23" si="4">D23*E23</f>
-        <v>26700</v>
+        <f t="shared" si="0"/>
+        <v>89000</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K23" s="41" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2685,32 +2703,32 @@
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="D24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="0"/>
-        <v>17000</v>
+        <f t="shared" ref="G24" si="4">D24*E24</f>
+        <v>26700</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="K24" s="41" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,32 +2739,32 @@
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="D25" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E25" s="7">
-        <v>23900</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>65</v>
+        <v>8900</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>239000</v>
+        <v>17800</v>
       </c>
       <c r="H25" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K25" s="41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2757,173 +2775,173 @@
         <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D26" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="7">
-        <v>10900</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>33</v>
+        <v>25900</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>141700</v>
+        <v>284900</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>70</v>
+      <c r="B27" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7">
-        <v>12000</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>13</v>
+        <v>10900</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>108000</v>
+        <v>141700</v>
       </c>
       <c r="H27" s="44" t="s">
         <v>273</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="41" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>73</v>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D28" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7">
-        <v>37000</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>33</v>
+        <v>12000</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>74000</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>182</v>
+        <v>108000</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>273</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K28" s="41" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>79</v>
+      <c r="B29" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="E29" s="7">
+        <v>37000</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>74000</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
         <v>32000</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <f t="shared" si="0"/>
         <v>64000</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H30" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J30" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K30" s="41" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="6">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7">
-        <v>12500</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="0"/>
-        <v>350000</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2934,29 +2952,32 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D31" s="6">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="7">
-        <f>D31*E31</f>
-        <v>143000</v>
+        <f t="shared" si="0"/>
+        <v>350000</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2967,29 +2988,29 @@
         <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D32" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E32" s="7">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="0"/>
-        <v>21000</v>
+        <f>D32*E32</f>
+        <v>143000</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,32 +3021,29 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="11">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
       </c>
       <c r="E33" s="7">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
-        <v>112500</v>
+        <v>21000</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3036,10 +3054,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D34" s="11">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7">
         <v>12500</v>
@@ -3049,52 +3067,55 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
-        <v>275000</v>
+        <v>112500</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K34" s="41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>35</v>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="6">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="D35" s="11">
+        <v>22</v>
       </c>
       <c r="E35" s="7">
-        <v>8500</v>
+        <v>12500</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>195500</v>
+        <v>275000</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,29 +3126,29 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D36" s="6">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E36" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
-        <v>102000</v>
+        <v>204700</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3138,32 +3159,29 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D37" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E37" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
-        <v>68000</v>
+        <v>106800</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3174,32 +3192,32 @@
         <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D38" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38" s="7">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="7">
-        <f>D38*E38</f>
-        <v>93500</v>
+        <f t="shared" si="0"/>
+        <v>71200</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K38" s="41" t="s">
-        <v>274</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3210,32 +3228,32 @@
         <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D39" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="7">
         <v>8900</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7">
         <f>D39*E39</f>
-        <v>106800</v>
+        <v>97900</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3246,32 +3264,32 @@
         <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="11">
-        <v>16</v>
+        <v>41</v>
+      </c>
+      <c r="D40" s="6">
+        <v>12</v>
       </c>
       <c r="E40" s="7">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="7">
         <f>D40*E40</f>
-        <v>142400</v>
+        <v>118800</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3282,32 +3300,32 @@
         <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="D41" s="11">
+        <v>16</v>
       </c>
       <c r="E41" s="7">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="0"/>
-        <v>17800</v>
+        <f>D41*E41</f>
+        <v>158400</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K41" s="41" t="s">
-        <v>106</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3318,68 +3336,68 @@
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D42" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="7">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
-        <v>26700</v>
+        <v>19800</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K42" s="41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="6">
+        <v>311</v>
+      </c>
+      <c r="D43" s="11">
         <v>3</v>
       </c>
       <c r="E43" s="7">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="0"/>
-        <v>26700</v>
+        <f>D43*E43</f>
+        <v>29700</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>111</v>
+      <c r="I43" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="K43" s="41" t="s">
-        <v>112</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3390,29 +3408,32 @@
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D44" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E44" s="7">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
-        <v>115700</v>
+        <v>29700</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>182</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>42</v>
+        <v>108</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3423,29 +3444,32 @@
         <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D45" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E45" s="7">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
-        <v>71200</v>
+        <v>29700</v>
     